--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175"/>
   </bookViews>
@@ -5352,7 +5352,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5396,7 +5396,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5440,7 +5440,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5484,7 +5484,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5605,7 +5605,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5649,7 +5649,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5693,7 +5693,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5737,7 +5737,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5781,7 +5781,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5847,7 +5847,7 @@
         <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5900,7 +5900,7 @@
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5949,7 +5949,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94DFD9D5-12FD-4C55-A09D-F46A91E7A6EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DFD9D5-12FD-4C55-A09D-F46A91E7A6EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6083,7 +6083,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6171,7 +6171,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CEAA545-EBCB-450B-B3EF-7353573B2271}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEAA545-EBCB-450B-B3EF-7353573B2271}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6215,7 +6215,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22C6DAC7-2636-4F92-BB03-9147CA2B371A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C6DAC7-2636-4F92-BB03-9147CA2B371A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6259,7 +6259,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7FEB8CD-A9B3-4305-91B2-91CB9DC2786A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FEB8CD-A9B3-4305-91B2-91CB9DC2786A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6308,7 +6308,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6352,7 +6352,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6396,7 +6396,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6462,7 +6462,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6506,7 +6506,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6550,7 +6550,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6599,7 +6599,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6643,7 +6643,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6687,7 +6687,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6731,7 +6731,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6775,7 +6775,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6819,7 +6819,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6885,7 +6885,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6929,7 +6929,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6995,7 +6995,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7039,7 +7039,7 @@
         <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7083,7 +7083,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7127,7 +7127,7 @@
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7171,7 +7171,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7848,7 +7848,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7892,7 +7892,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7936,7 +7936,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8002,7 +8002,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8068,7 +8068,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8112,7 +8112,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8156,7 +8156,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8227,7 +8227,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8271,7 +8271,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8320,7 +8320,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8364,7 +8364,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8430,7 +8430,7 @@
         <xdr:cNvPr id="4" name="線吹き出し 1 (枠付き) 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8494,7 +8494,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8538,7 +8538,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8582,7 +8582,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8626,7 +8626,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8670,7 +8670,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8714,7 +8714,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8780,7 +8780,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8846,7 +8846,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8890,7 +8890,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8956,7 +8956,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9000,7 +9000,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9044,7 +9044,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9093,7 +9093,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9137,7 +9137,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9181,7 +9181,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9225,7 +9225,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="147">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1656,6 +1656,17 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL実践入門</t>
+    <rPh sb="3" eb="7">
+      <t>ジッセンニュウモン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1975,7 +1986,49 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2551,7 +2604,7 @@
       </c>
       <c r="C6" s="24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -2578,7 +2631,7 @@
       </c>
       <c r="C9" s="37">
         <f ca="1">SUM(C4:C8)</f>
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2590,13 +2643,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BJ50"/>
+  <dimension ref="B1:BJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3493,9 +3546,15 @@
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
+      <c r="AE17" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="17">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="17">
+        <v>2.5</v>
+      </c>
       <c r="AH17" s="17"/>
       <c r="AI17" s="17"/>
       <c r="AJ17" s="17"/>
@@ -3716,929 +3775,1842 @@
       </c>
     </row>
     <row r="21" spans="2:62">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="18"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="18"/>
-      <c r="AW21" s="18"/>
-      <c r="AX21" s="18"/>
-      <c r="AY21" s="18"/>
-      <c r="AZ21" s="18"/>
-      <c r="BA21" s="18"/>
-      <c r="BB21" s="18"/>
-      <c r="BC21" s="18"/>
-      <c r="BD21" s="18"/>
-      <c r="BE21" s="18"/>
-      <c r="BF21" s="18"/>
-      <c r="BG21" s="18"/>
-      <c r="BH21" s="18"/>
-      <c r="BI21" s="18"/>
+      <c r="B21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="17"/>
       <c r="BJ21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:62">
-      <c r="I22" s="20">
-        <f t="shared" ref="I22:AB22" si="2">SUM(I13:I21)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="20">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:62">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:62">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:62">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="17"/>
+      <c r="AX25" s="17"/>
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="17"/>
+      <c r="BD25" s="17"/>
+      <c r="BE25" s="17"/>
+      <c r="BF25" s="17"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="17"/>
+      <c r="BI25" s="17"/>
+      <c r="BJ25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:62">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="17"/>
+      <c r="BH26" s="17"/>
+      <c r="BI26" s="17"/>
+      <c r="BJ26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:62">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+      <c r="AQ27" s="17"/>
+      <c r="AR27" s="17"/>
+      <c r="AS27" s="17"/>
+      <c r="AT27" s="17"/>
+      <c r="AU27" s="17"/>
+      <c r="AV27" s="17"/>
+      <c r="AW27" s="17"/>
+      <c r="AX27" s="17"/>
+      <c r="AY27" s="17"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="17"/>
+      <c r="BB27" s="17"/>
+      <c r="BC27" s="17"/>
+      <c r="BD27" s="17"/>
+      <c r="BE27" s="17"/>
+      <c r="BF27" s="17"/>
+      <c r="BG27" s="17"/>
+      <c r="BH27" s="17"/>
+      <c r="BI27" s="17"/>
+      <c r="BJ27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:62">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="17"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="17"/>
+      <c r="AV28" s="17"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="17"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="17"/>
+      <c r="BF28" s="17"/>
+      <c r="BG28" s="17"/>
+      <c r="BH28" s="17"/>
+      <c r="BI28" s="17"/>
+      <c r="BJ28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:62">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="17"/>
+      <c r="AS29" s="17"/>
+      <c r="AT29" s="17"/>
+      <c r="AU29" s="17"/>
+      <c r="AV29" s="17"/>
+      <c r="AW29" s="17"/>
+      <c r="AX29" s="17"/>
+      <c r="AY29" s="17"/>
+      <c r="AZ29" s="17"/>
+      <c r="BA29" s="17"/>
+      <c r="BB29" s="17"/>
+      <c r="BC29" s="17"/>
+      <c r="BD29" s="17"/>
+      <c r="BE29" s="17"/>
+      <c r="BF29" s="17"/>
+      <c r="BG29" s="17"/>
+      <c r="BH29" s="17"/>
+      <c r="BI29" s="17"/>
+      <c r="BJ29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:62">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="17"/>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="17"/>
+      <c r="AT30" s="17"/>
+      <c r="AU30" s="17"/>
+      <c r="AV30" s="17"/>
+      <c r="AW30" s="17"/>
+      <c r="AX30" s="17"/>
+      <c r="AY30" s="17"/>
+      <c r="AZ30" s="17"/>
+      <c r="BA30" s="17"/>
+      <c r="BB30" s="17"/>
+      <c r="BC30" s="17"/>
+      <c r="BD30" s="17"/>
+      <c r="BE30" s="17"/>
+      <c r="BF30" s="17"/>
+      <c r="BG30" s="17"/>
+      <c r="BH30" s="17"/>
+      <c r="BI30" s="17"/>
+      <c r="BJ30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:62">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="17"/>
+      <c r="AQ31" s="17"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="17"/>
+      <c r="AT31" s="17"/>
+      <c r="AU31" s="17"/>
+      <c r="AV31" s="17"/>
+      <c r="AW31" s="17"/>
+      <c r="AX31" s="17"/>
+      <c r="AY31" s="17"/>
+      <c r="AZ31" s="17"/>
+      <c r="BA31" s="17"/>
+      <c r="BB31" s="17"/>
+      <c r="BC31" s="17"/>
+      <c r="BD31" s="17"/>
+      <c r="BE31" s="17"/>
+      <c r="BF31" s="17"/>
+      <c r="BG31" s="17"/>
+      <c r="BH31" s="17"/>
+      <c r="BI31" s="17"/>
+      <c r="BJ31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:62">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="17"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="17"/>
+      <c r="AT32" s="17"/>
+      <c r="AU32" s="17"/>
+      <c r="AV32" s="17"/>
+      <c r="AW32" s="17"/>
+      <c r="AX32" s="17"/>
+      <c r="AY32" s="17"/>
+      <c r="AZ32" s="17"/>
+      <c r="BA32" s="17"/>
+      <c r="BB32" s="17"/>
+      <c r="BC32" s="17"/>
+      <c r="BD32" s="17"/>
+      <c r="BE32" s="17"/>
+      <c r="BF32" s="17"/>
+      <c r="BG32" s="17"/>
+      <c r="BH32" s="17"/>
+      <c r="BI32" s="17"/>
+      <c r="BJ32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:62">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="17"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="17"/>
+      <c r="AW33" s="17"/>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="17"/>
+      <c r="AZ33" s="17"/>
+      <c r="BA33" s="17"/>
+      <c r="BB33" s="17"/>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="17"/>
+      <c r="BE33" s="17"/>
+      <c r="BF33" s="17"/>
+      <c r="BG33" s="17"/>
+      <c r="BH33" s="17"/>
+      <c r="BI33" s="17"/>
+      <c r="BJ33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:62">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
+      <c r="BB34" s="17"/>
+      <c r="BC34" s="17"/>
+      <c r="BD34" s="17"/>
+      <c r="BE34" s="17"/>
+      <c r="BF34" s="17"/>
+      <c r="BG34" s="17"/>
+      <c r="BH34" s="17"/>
+      <c r="BI34" s="17"/>
+      <c r="BJ34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:62">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="18"/>
+      <c r="AS35" s="18"/>
+      <c r="AT35" s="18"/>
+      <c r="AU35" s="18"/>
+      <c r="AV35" s="18"/>
+      <c r="AW35" s="18"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+      <c r="AZ35" s="18"/>
+      <c r="BA35" s="18"/>
+      <c r="BB35" s="18"/>
+      <c r="BC35" s="18"/>
+      <c r="BD35" s="18"/>
+      <c r="BE35" s="18"/>
+      <c r="BF35" s="18"/>
+      <c r="BG35" s="18"/>
+      <c r="BH35" s="18"/>
+      <c r="BI35" s="18"/>
+      <c r="BJ35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:62">
+      <c r="I36" s="20">
+        <f t="shared" ref="I36:AB36" si="2">SUM(I13:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="20">
+      <c r="P36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q36" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="20">
+      <c r="T36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V22" s="20">
+      <c r="V36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W22" s="20">
+      <c r="W36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X22" s="20">
+      <c r="X36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="20">
+      <c r="Y36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="20">
+      <c r="Z36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="20">
+      <c r="AA36" s="20">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="AB22" s="20">
+      <c r="AB36" s="20">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="AC22" s="20">
-        <f t="shared" ref="AC22:BI22" si="3">SUM(AC13:AC21)</f>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="20">
+      <c r="AC36" s="20">
+        <f t="shared" ref="AC36:BI36" si="3">SUM(AC13:AC35)</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="20">
+      <c r="AE36" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="20">
+        <v>5</v>
+      </c>
+      <c r="AG36" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="AH36" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="AI36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ22" s="20">
+      <c r="AJ36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="20">
+      <c r="AK36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="20">
+      <c r="AL36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AM22" s="20">
+      <c r="AM36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="20">
+      <c r="AN36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="20">
+      <c r="AO36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP22" s="20">
+      <c r="AP36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ22" s="20">
+      <c r="AQ36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AR22" s="20">
+      <c r="AR36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AS22" s="20">
+      <c r="AS36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT22" s="20">
+      <c r="AT36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU22" s="20">
+      <c r="AU36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV22" s="20">
+      <c r="AV36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AW22" s="20">
+      <c r="AW36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AX22" s="20">
+      <c r="AX36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AY22" s="20">
+      <c r="AY36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AZ22" s="20">
+      <c r="AZ36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BA22" s="20">
+      <c r="BA36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BB22" s="20">
+      <c r="BB36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BC22" s="20">
+      <c r="BC36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BD22" s="20">
+      <c r="BD36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BE22" s="20">
+      <c r="BE36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BF22" s="20">
+      <c r="BF36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG22" s="20">
+      <c r="BG36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BH22" s="20">
+      <c r="BH36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BI22" s="20">
+      <c r="BI36" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:62">
-      <c r="BJ23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:62">
-      <c r="B24" t="s">
+      <c r="BJ36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:62">
+      <c r="BJ37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:62">
+      <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="21">
-        <f>SUM(I22:AB22)</f>
+      <c r="C38" s="21">
+        <f>SUM(I36:AB36)</f>
         <v>4</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:62">
-      <c r="BJ25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="9:61">
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AF37"/>
-      <c r="AG37"/>
-      <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37"/>
-      <c r="AK37"/>
-      <c r="AL37"/>
-      <c r="AM37"/>
-      <c r="AN37"/>
-      <c r="AO37"/>
-      <c r="AP37"/>
-      <c r="AQ37"/>
-      <c r="AR37"/>
-      <c r="AS37"/>
-      <c r="AT37"/>
-      <c r="AU37"/>
-      <c r="AV37"/>
-      <c r="AW37"/>
-      <c r="AX37"/>
-      <c r="AY37"/>
-      <c r="AZ37"/>
-      <c r="BA37"/>
-      <c r="BB37"/>
-      <c r="BC37"/>
-      <c r="BD37"/>
-      <c r="BE37"/>
-      <c r="BF37"/>
-      <c r="BG37"/>
-      <c r="BH37"/>
-      <c r="BI37"/>
-    </row>
-    <row r="40" spans="9:61">
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AB40"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
-      <c r="AE40"/>
-      <c r="AF40"/>
-      <c r="AG40"/>
-      <c r="AH40"/>
-      <c r="AI40"/>
-      <c r="AJ40"/>
-      <c r="AK40"/>
-      <c r="AL40"/>
-      <c r="AM40"/>
-      <c r="AN40"/>
-      <c r="AO40"/>
-      <c r="AP40"/>
-      <c r="AQ40"/>
-      <c r="AR40"/>
-      <c r="AS40"/>
-      <c r="AT40"/>
-      <c r="AU40"/>
-      <c r="AV40"/>
-      <c r="AW40"/>
-      <c r="AX40"/>
-      <c r="AY40"/>
-      <c r="AZ40"/>
-      <c r="BA40"/>
-      <c r="BB40"/>
-      <c r="BC40"/>
-      <c r="BD40"/>
-      <c r="BE40"/>
-      <c r="BF40"/>
-      <c r="BG40"/>
-      <c r="BH40"/>
-      <c r="BI40"/>
-    </row>
-    <row r="41" spans="9:61">
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-      <c r="AE41"/>
-      <c r="AF41"/>
-      <c r="AG41"/>
-      <c r="AH41"/>
-      <c r="AI41"/>
-      <c r="AJ41"/>
-      <c r="AK41"/>
-      <c r="AL41"/>
-      <c r="AM41"/>
-      <c r="AN41"/>
-      <c r="AO41"/>
-      <c r="AP41"/>
-      <c r="AQ41"/>
-      <c r="AR41"/>
-      <c r="AS41"/>
-      <c r="AT41"/>
-      <c r="AU41"/>
-      <c r="AV41"/>
-      <c r="AW41"/>
-      <c r="AX41"/>
-      <c r="AY41"/>
-      <c r="AZ41"/>
-      <c r="BA41"/>
-      <c r="BB41"/>
-      <c r="BC41"/>
-      <c r="BD41"/>
-      <c r="BE41"/>
-      <c r="BF41"/>
-      <c r="BG41"/>
-      <c r="BH41"/>
-      <c r="BI41"/>
-    </row>
-    <row r="42" spans="9:61">
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-      <c r="AA42"/>
-      <c r="AB42"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
-      <c r="AE42"/>
-      <c r="AF42"/>
-      <c r="AG42"/>
-      <c r="AH42"/>
-      <c r="AI42"/>
-      <c r="AJ42"/>
-      <c r="AK42"/>
-      <c r="AL42"/>
-      <c r="AM42"/>
-      <c r="AN42"/>
-      <c r="AO42"/>
-      <c r="AP42"/>
-      <c r="AQ42"/>
-      <c r="AR42"/>
-      <c r="AS42"/>
-      <c r="AT42"/>
-      <c r="AU42"/>
-      <c r="AV42"/>
-      <c r="AW42"/>
-      <c r="AX42"/>
-      <c r="AY42"/>
-      <c r="AZ42"/>
-      <c r="BA42"/>
-      <c r="BB42"/>
-      <c r="BC42"/>
-      <c r="BD42"/>
-      <c r="BE42"/>
-      <c r="BF42"/>
-      <c r="BG42"/>
-      <c r="BH42"/>
-      <c r="BI42"/>
-    </row>
-    <row r="43" spans="9:61">
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-      <c r="AA43"/>
-      <c r="AB43"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
-      <c r="AE43"/>
-      <c r="AF43"/>
-      <c r="AG43"/>
-      <c r="AH43"/>
-      <c r="AI43"/>
-      <c r="AJ43"/>
-      <c r="AK43"/>
-      <c r="AL43"/>
-      <c r="AM43"/>
-      <c r="AN43"/>
-      <c r="AO43"/>
-      <c r="AP43"/>
-      <c r="AQ43"/>
-      <c r="AR43"/>
-      <c r="AS43"/>
-      <c r="AT43"/>
-      <c r="AU43"/>
-      <c r="AV43"/>
-      <c r="AW43"/>
-      <c r="AX43"/>
-      <c r="AY43"/>
-      <c r="AZ43"/>
-      <c r="BA43"/>
-      <c r="BB43"/>
-      <c r="BC43"/>
-      <c r="BD43"/>
-      <c r="BE43"/>
-      <c r="BF43"/>
-      <c r="BG43"/>
-      <c r="BH43"/>
-      <c r="BI43"/>
-    </row>
-    <row r="44" spans="9:61">
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-      <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
-      <c r="AE44"/>
-      <c r="AF44"/>
-      <c r="AG44"/>
-      <c r="AH44"/>
-      <c r="AI44"/>
-      <c r="AJ44"/>
-      <c r="AK44"/>
-      <c r="AL44"/>
-      <c r="AM44"/>
-      <c r="AN44"/>
-      <c r="AO44"/>
-      <c r="AP44"/>
-      <c r="AQ44"/>
-      <c r="AR44"/>
-      <c r="AS44"/>
-      <c r="AT44"/>
-      <c r="AU44"/>
-      <c r="AV44"/>
-      <c r="AW44"/>
-      <c r="AX44"/>
-      <c r="AY44"/>
-      <c r="AZ44"/>
-      <c r="BA44"/>
-      <c r="BB44"/>
-      <c r="BC44"/>
-      <c r="BD44"/>
-      <c r="BE44"/>
-      <c r="BF44"/>
-      <c r="BG44"/>
-      <c r="BH44"/>
-      <c r="BI44"/>
-    </row>
-    <row r="45" spans="9:61">
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-      <c r="Z45"/>
-      <c r="AA45"/>
-      <c r="AB45"/>
-      <c r="AC45"/>
-      <c r="AD45"/>
-      <c r="AE45"/>
-      <c r="AF45"/>
-      <c r="AG45"/>
-      <c r="AH45"/>
-      <c r="AI45"/>
-      <c r="AJ45"/>
-      <c r="AK45"/>
-      <c r="AL45"/>
-      <c r="AM45"/>
-      <c r="AN45"/>
-      <c r="AO45"/>
-      <c r="AP45"/>
-      <c r="AQ45"/>
-      <c r="AR45"/>
-      <c r="AS45"/>
-      <c r="AT45"/>
-      <c r="AU45"/>
-      <c r="AV45"/>
-      <c r="AW45"/>
-      <c r="AX45"/>
-      <c r="AY45"/>
-      <c r="AZ45"/>
-      <c r="BA45"/>
-      <c r="BB45"/>
-      <c r="BC45"/>
-      <c r="BD45"/>
-      <c r="BE45"/>
-      <c r="BF45"/>
-      <c r="BG45"/>
-      <c r="BH45"/>
-      <c r="BI45"/>
-    </row>
-    <row r="46" spans="9:61">
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46"/>
-      <c r="AB46"/>
-      <c r="AC46"/>
-      <c r="AD46"/>
-      <c r="AE46"/>
-      <c r="AF46"/>
-      <c r="AG46"/>
-      <c r="AH46"/>
-      <c r="AI46"/>
-      <c r="AJ46"/>
-      <c r="AK46"/>
-      <c r="AL46"/>
-      <c r="AM46"/>
-      <c r="AN46"/>
-      <c r="AO46"/>
-      <c r="AP46"/>
-      <c r="AQ46"/>
-      <c r="AR46"/>
-      <c r="AS46"/>
-      <c r="AT46"/>
-      <c r="AU46"/>
-      <c r="AV46"/>
-      <c r="AW46"/>
-      <c r="AX46"/>
-      <c r="AY46"/>
-      <c r="AZ46"/>
-      <c r="BA46"/>
-      <c r="BB46"/>
-      <c r="BC46"/>
-      <c r="BD46"/>
-      <c r="BE46"/>
-      <c r="BF46"/>
-      <c r="BG46"/>
-      <c r="BH46"/>
-      <c r="BI46"/>
-    </row>
-    <row r="47" spans="9:61">
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-      <c r="AE47"/>
-      <c r="AF47"/>
-      <c r="AG47"/>
-      <c r="AH47"/>
-      <c r="AI47"/>
-      <c r="AJ47"/>
-      <c r="AK47"/>
-      <c r="AL47"/>
-      <c r="AM47"/>
-      <c r="AN47"/>
-      <c r="AO47"/>
-      <c r="AP47"/>
-      <c r="AQ47"/>
-      <c r="AR47"/>
-      <c r="AS47"/>
-      <c r="AT47"/>
-      <c r="AU47"/>
-      <c r="AV47"/>
-      <c r="AW47"/>
-      <c r="AX47"/>
-      <c r="AY47"/>
-      <c r="AZ47"/>
-      <c r="BA47"/>
-      <c r="BB47"/>
-      <c r="BC47"/>
-      <c r="BD47"/>
-      <c r="BE47"/>
-      <c r="BF47"/>
-      <c r="BG47"/>
-      <c r="BH47"/>
-      <c r="BI47"/>
-    </row>
-    <row r="49" spans="9:61">
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
-      <c r="AA49"/>
-      <c r="AB49"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
-      <c r="AE49"/>
-      <c r="AF49"/>
-      <c r="AG49"/>
-      <c r="AH49"/>
-      <c r="AI49"/>
-      <c r="AJ49"/>
-      <c r="AK49"/>
-      <c r="AL49"/>
-      <c r="AM49"/>
-      <c r="AN49"/>
-      <c r="AO49"/>
-      <c r="AP49"/>
-      <c r="AQ49"/>
-      <c r="AR49"/>
-      <c r="AS49"/>
-      <c r="AT49"/>
-      <c r="AU49"/>
-      <c r="AV49"/>
-      <c r="AW49"/>
-      <c r="AX49"/>
-      <c r="AY49"/>
-      <c r="AZ49"/>
-      <c r="BA49"/>
-      <c r="BB49"/>
-      <c r="BC49"/>
-      <c r="BD49"/>
-      <c r="BE49"/>
-      <c r="BF49"/>
-      <c r="BG49"/>
-      <c r="BH49"/>
-      <c r="BI49"/>
-    </row>
-    <row r="50" spans="9:61">
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
-      <c r="Z50"/>
-      <c r="AA50"/>
-      <c r="AB50"/>
-      <c r="AC50"/>
-      <c r="AD50"/>
-      <c r="AE50"/>
-      <c r="AF50"/>
-      <c r="AG50"/>
-      <c r="AH50"/>
-      <c r="AI50"/>
-      <c r="AJ50"/>
-      <c r="AK50"/>
-      <c r="AL50"/>
-      <c r="AM50"/>
-      <c r="AN50"/>
-      <c r="AO50"/>
-      <c r="AP50"/>
-      <c r="AQ50"/>
-      <c r="AR50"/>
-      <c r="AS50"/>
-      <c r="AT50"/>
-      <c r="AU50"/>
-      <c r="AV50"/>
-      <c r="AW50"/>
-      <c r="AX50"/>
-      <c r="AY50"/>
-      <c r="AZ50"/>
-      <c r="BA50"/>
-      <c r="BB50"/>
-      <c r="BC50"/>
-      <c r="BD50"/>
-      <c r="BE50"/>
-      <c r="BF50"/>
-      <c r="BG50"/>
-      <c r="BH50"/>
-      <c r="BI50"/>
+      <c r="BJ38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:62">
+      <c r="BJ39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="9:61">
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+      <c r="AQ51"/>
+      <c r="AR51"/>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51"/>
+      <c r="AV51"/>
+      <c r="AW51"/>
+      <c r="AX51"/>
+      <c r="AY51"/>
+      <c r="AZ51"/>
+      <c r="BA51"/>
+      <c r="BB51"/>
+      <c r="BC51"/>
+      <c r="BD51"/>
+      <c r="BE51"/>
+      <c r="BF51"/>
+      <c r="BG51"/>
+      <c r="BH51"/>
+      <c r="BI51"/>
+    </row>
+    <row r="54" spans="9:61">
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54"/>
+      <c r="AQ54"/>
+      <c r="AR54"/>
+      <c r="AS54"/>
+      <c r="AT54"/>
+      <c r="AU54"/>
+      <c r="AV54"/>
+      <c r="AW54"/>
+      <c r="AX54"/>
+      <c r="AY54"/>
+      <c r="AZ54"/>
+      <c r="BA54"/>
+      <c r="BB54"/>
+      <c r="BC54"/>
+      <c r="BD54"/>
+      <c r="BE54"/>
+      <c r="BF54"/>
+      <c r="BG54"/>
+      <c r="BH54"/>
+      <c r="BI54"/>
+    </row>
+    <row r="55" spans="9:61">
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+      <c r="AQ55"/>
+      <c r="AR55"/>
+      <c r="AS55"/>
+      <c r="AT55"/>
+      <c r="AU55"/>
+      <c r="AV55"/>
+      <c r="AW55"/>
+      <c r="AX55"/>
+      <c r="AY55"/>
+      <c r="AZ55"/>
+      <c r="BA55"/>
+      <c r="BB55"/>
+      <c r="BC55"/>
+      <c r="BD55"/>
+      <c r="BE55"/>
+      <c r="BF55"/>
+      <c r="BG55"/>
+      <c r="BH55"/>
+      <c r="BI55"/>
+    </row>
+    <row r="56" spans="9:61">
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56"/>
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AP56"/>
+      <c r="AQ56"/>
+      <c r="AR56"/>
+      <c r="AS56"/>
+      <c r="AT56"/>
+      <c r="AU56"/>
+      <c r="AV56"/>
+      <c r="AW56"/>
+      <c r="AX56"/>
+      <c r="AY56"/>
+      <c r="AZ56"/>
+      <c r="BA56"/>
+      <c r="BB56"/>
+      <c r="BC56"/>
+      <c r="BD56"/>
+      <c r="BE56"/>
+      <c r="BF56"/>
+      <c r="BG56"/>
+      <c r="BH56"/>
+      <c r="BI56"/>
+    </row>
+    <row r="57" spans="9:61">
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57"/>
+      <c r="AR57"/>
+      <c r="AS57"/>
+      <c r="AT57"/>
+      <c r="AU57"/>
+      <c r="AV57"/>
+      <c r="AW57"/>
+      <c r="AX57"/>
+      <c r="AY57"/>
+      <c r="AZ57"/>
+      <c r="BA57"/>
+      <c r="BB57"/>
+      <c r="BC57"/>
+      <c r="BD57"/>
+      <c r="BE57"/>
+      <c r="BF57"/>
+      <c r="BG57"/>
+      <c r="BH57"/>
+      <c r="BI57"/>
+    </row>
+    <row r="58" spans="9:61">
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58"/>
+      <c r="AO58"/>
+      <c r="AP58"/>
+      <c r="AQ58"/>
+      <c r="AR58"/>
+      <c r="AS58"/>
+      <c r="AT58"/>
+      <c r="AU58"/>
+      <c r="AV58"/>
+      <c r="AW58"/>
+      <c r="AX58"/>
+      <c r="AY58"/>
+      <c r="AZ58"/>
+      <c r="BA58"/>
+      <c r="BB58"/>
+      <c r="BC58"/>
+      <c r="BD58"/>
+      <c r="BE58"/>
+      <c r="BF58"/>
+      <c r="BG58"/>
+      <c r="BH58"/>
+      <c r="BI58"/>
+    </row>
+    <row r="59" spans="9:61">
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+      <c r="AS59"/>
+      <c r="AT59"/>
+      <c r="AU59"/>
+      <c r="AV59"/>
+      <c r="AW59"/>
+      <c r="AX59"/>
+      <c r="AY59"/>
+      <c r="AZ59"/>
+      <c r="BA59"/>
+      <c r="BB59"/>
+      <c r="BC59"/>
+      <c r="BD59"/>
+      <c r="BE59"/>
+      <c r="BF59"/>
+      <c r="BG59"/>
+      <c r="BH59"/>
+      <c r="BI59"/>
+    </row>
+    <row r="60" spans="9:61">
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60"/>
+      <c r="AO60"/>
+      <c r="AP60"/>
+      <c r="AQ60"/>
+      <c r="AR60"/>
+      <c r="AS60"/>
+      <c r="AT60"/>
+      <c r="AU60"/>
+      <c r="AV60"/>
+      <c r="AW60"/>
+      <c r="AX60"/>
+      <c r="AY60"/>
+      <c r="AZ60"/>
+      <c r="BA60"/>
+      <c r="BB60"/>
+      <c r="BC60"/>
+      <c r="BD60"/>
+      <c r="BE60"/>
+      <c r="BF60"/>
+      <c r="BG60"/>
+      <c r="BH60"/>
+      <c r="BI60"/>
+    </row>
+    <row r="61" spans="9:61">
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61"/>
+      <c r="AO61"/>
+      <c r="AP61"/>
+      <c r="AQ61"/>
+      <c r="AR61"/>
+      <c r="AS61"/>
+      <c r="AT61"/>
+      <c r="AU61"/>
+      <c r="AV61"/>
+      <c r="AW61"/>
+      <c r="AX61"/>
+      <c r="AY61"/>
+      <c r="AZ61"/>
+      <c r="BA61"/>
+      <c r="BB61"/>
+      <c r="BC61"/>
+      <c r="BD61"/>
+      <c r="BE61"/>
+      <c r="BF61"/>
+      <c r="BG61"/>
+      <c r="BH61"/>
+      <c r="BI61"/>
+    </row>
+    <row r="63" spans="9:61">
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63"/>
+      <c r="AU63"/>
+      <c r="AV63"/>
+      <c r="AW63"/>
+      <c r="AX63"/>
+      <c r="AY63"/>
+      <c r="AZ63"/>
+      <c r="BA63"/>
+      <c r="BB63"/>
+      <c r="BC63"/>
+      <c r="BD63"/>
+      <c r="BE63"/>
+      <c r="BF63"/>
+      <c r="BG63"/>
+      <c r="BH63"/>
+      <c r="BI63"/>
+    </row>
+    <row r="64" spans="9:61">
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AQ64"/>
+      <c r="AR64"/>
+      <c r="AS64"/>
+      <c r="AT64"/>
+      <c r="AU64"/>
+      <c r="AV64"/>
+      <c r="AW64"/>
+      <c r="AX64"/>
+      <c r="AY64"/>
+      <c r="AZ64"/>
+      <c r="BA64"/>
+      <c r="BB64"/>
+      <c r="BC64"/>
+      <c r="BD64"/>
+      <c r="BE64"/>
+      <c r="BF64"/>
+      <c r="BG64"/>
+      <c r="BH64"/>
+      <c r="BI64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I11:BI21">
-    <cfRule type="expression" dxfId="12" priority="2">
+  <conditionalFormatting sqref="I11:BI19 I34:BI35">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:BI11">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>I$11=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:BI33">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>I$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>I$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6006,13 +6978,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AM21">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7348,13 +8320,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL21">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7778,13 +8750,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:M21">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="207">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2167,6 +2167,9 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
@@ -2279,7 +2282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2343,12 +2346,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,7 +2484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2577,12 +2574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2595,7 +2586,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2612,21 +2602,24 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="62">
     <dxf>
       <fill>
         <patternFill>
@@ -2651,21 +2644,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2760,6 +2739,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3063,55 +3063,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3151,7 +3102,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3554,7 +3505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3598,8 +3549,8 @@
         <v>6</v>
       </c>
       <c r="C6" s="24">
-        <f>SUM(WBS!O62:AS62)</f>
-        <v>16.5</v>
+        <f>SUM(WBS!O63:AS63)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
@@ -3607,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="24">
-        <f>SUM(WBS!AS62:BW62)</f>
+        <f>SUM(WBS!AS63:BW63)</f>
         <v>0</v>
       </c>
     </row>
@@ -3616,7 +3567,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="24">
-        <f>SUM(WBS!BX62:DD62)</f>
+        <f>SUM(WBS!BX63:DD63)</f>
         <v>0</v>
       </c>
     </row>
@@ -3624,9 +3575,9 @@
       <c r="B9" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="59">
         <f>SUM(C3:C8)</f>
-        <v>106</v>
+        <v>107.5</v>
       </c>
     </row>
   </sheetData>
@@ -4962,13 +4913,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL21">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5392,13 +5343,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:M21">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5409,14 +5360,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DE90"/>
+  <dimension ref="B1:DE91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="AM13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5432,861 +5383,861 @@
     <col min="10" max="10" width="9.125" style="13" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.125" customWidth="1"/>
-    <col min="13" max="13" width="10" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="54" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.875" customWidth="1"/>
     <col min="15" max="108" width="7.375" style="13" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:109" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+    <row r="1" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="M1" s="57"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="49"/>
-      <c r="CC1" s="49"/>
-      <c r="CD1" s="49"/>
-      <c r="CE1" s="49"/>
-      <c r="CF1" s="49"/>
-      <c r="CG1" s="49"/>
-      <c r="CH1" s="49"/>
-      <c r="CI1" s="49"/>
-      <c r="CJ1" s="49"/>
-      <c r="CK1" s="49"/>
-      <c r="CL1" s="49"/>
-      <c r="CM1" s="49"/>
-      <c r="CN1" s="49"/>
-      <c r="CO1" s="49"/>
-      <c r="CP1" s="49"/>
-      <c r="CQ1" s="49"/>
-      <c r="CR1" s="49"/>
-      <c r="CS1" s="49"/>
-      <c r="CT1" s="49"/>
-      <c r="CU1" s="49"/>
-      <c r="CV1" s="49"/>
-      <c r="CW1" s="49"/>
-      <c r="CX1" s="49"/>
-      <c r="CY1" s="49"/>
-      <c r="CZ1" s="49"/>
-      <c r="DA1" s="49"/>
-      <c r="DB1" s="49"/>
-      <c r="DC1" s="49"/>
-      <c r="DD1" s="49"/>
-      <c r="DE1" s="50" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="M1" s="54"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="47"/>
+      <c r="BQ1" s="47"/>
+      <c r="BR1" s="47"/>
+      <c r="BS1" s="47"/>
+      <c r="BT1" s="47"/>
+      <c r="BU1" s="47"/>
+      <c r="BV1" s="47"/>
+      <c r="BW1" s="47"/>
+      <c r="BX1" s="47"/>
+      <c r="BY1" s="47"/>
+      <c r="BZ1" s="47"/>
+      <c r="CA1" s="47"/>
+      <c r="CB1" s="47"/>
+      <c r="CC1" s="47"/>
+      <c r="CD1" s="47"/>
+      <c r="CE1" s="47"/>
+      <c r="CF1" s="47"/>
+      <c r="CG1" s="47"/>
+      <c r="CH1" s="47"/>
+      <c r="CI1" s="47"/>
+      <c r="CJ1" s="47"/>
+      <c r="CK1" s="47"/>
+      <c r="CL1" s="47"/>
+      <c r="CM1" s="47"/>
+      <c r="CN1" s="47"/>
+      <c r="CO1" s="47"/>
+      <c r="CP1" s="47"/>
+      <c r="CQ1" s="47"/>
+      <c r="CR1" s="47"/>
+      <c r="CS1" s="47"/>
+      <c r="CT1" s="47"/>
+      <c r="CU1" s="47"/>
+      <c r="CV1" s="47"/>
+      <c r="CW1" s="47"/>
+      <c r="CX1" s="47"/>
+      <c r="CY1" s="47"/>
+      <c r="CZ1" s="47"/>
+      <c r="DA1" s="47"/>
+      <c r="DB1" s="47"/>
+      <c r="DC1" s="47"/>
+      <c r="DD1" s="47"/>
+      <c r="DE1" s="48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:109" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="47"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="M2" s="57"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="49"/>
-      <c r="BT2" s="49"/>
-      <c r="BU2" s="49"/>
-      <c r="BV2" s="49"/>
-      <c r="BW2" s="49"/>
-      <c r="BX2" s="49"/>
-      <c r="BY2" s="49"/>
-      <c r="BZ2" s="49"/>
-      <c r="CA2" s="49"/>
-      <c r="CB2" s="49"/>
-      <c r="CC2" s="49"/>
-      <c r="CD2" s="49"/>
-      <c r="CE2" s="49"/>
-      <c r="CF2" s="49"/>
-      <c r="CG2" s="49"/>
-      <c r="CH2" s="49"/>
-      <c r="CI2" s="49"/>
-      <c r="CJ2" s="49"/>
-      <c r="CK2" s="49"/>
-      <c r="CL2" s="49"/>
-      <c r="CM2" s="49"/>
-      <c r="CN2" s="49"/>
-      <c r="CO2" s="49"/>
-      <c r="CP2" s="49"/>
-      <c r="CQ2" s="49"/>
-      <c r="CR2" s="49"/>
-      <c r="CS2" s="49"/>
-      <c r="CT2" s="49"/>
-      <c r="CU2" s="49"/>
-      <c r="CV2" s="49"/>
-      <c r="CW2" s="49"/>
-      <c r="CX2" s="49"/>
-      <c r="CY2" s="49"/>
-      <c r="CZ2" s="49"/>
-      <c r="DA2" s="49"/>
-      <c r="DB2" s="49"/>
-      <c r="DC2" s="49"/>
-      <c r="DD2" s="49"/>
-      <c r="DE2" s="50" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="M2" s="54"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47"/>
+      <c r="BC2" s="47"/>
+      <c r="BD2" s="47"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="47"/>
+      <c r="BH2" s="47"/>
+      <c r="BI2" s="47"/>
+      <c r="BJ2" s="47"/>
+      <c r="BK2" s="47"/>
+      <c r="BL2" s="47"/>
+      <c r="BM2" s="47"/>
+      <c r="BN2" s="47"/>
+      <c r="BO2" s="47"/>
+      <c r="BP2" s="47"/>
+      <c r="BQ2" s="47"/>
+      <c r="BR2" s="47"/>
+      <c r="BS2" s="47"/>
+      <c r="BT2" s="47"/>
+      <c r="BU2" s="47"/>
+      <c r="BV2" s="47"/>
+      <c r="BW2" s="47"/>
+      <c r="BX2" s="47"/>
+      <c r="BY2" s="47"/>
+      <c r="BZ2" s="47"/>
+      <c r="CA2" s="47"/>
+      <c r="CB2" s="47"/>
+      <c r="CC2" s="47"/>
+      <c r="CD2" s="47"/>
+      <c r="CE2" s="47"/>
+      <c r="CF2" s="47"/>
+      <c r="CG2" s="47"/>
+      <c r="CH2" s="47"/>
+      <c r="CI2" s="47"/>
+      <c r="CJ2" s="47"/>
+      <c r="CK2" s="47"/>
+      <c r="CL2" s="47"/>
+      <c r="CM2" s="47"/>
+      <c r="CN2" s="47"/>
+      <c r="CO2" s="47"/>
+      <c r="CP2" s="47"/>
+      <c r="CQ2" s="47"/>
+      <c r="CR2" s="47"/>
+      <c r="CS2" s="47"/>
+      <c r="CT2" s="47"/>
+      <c r="CU2" s="47"/>
+      <c r="CV2" s="47"/>
+      <c r="CW2" s="47"/>
+      <c r="CX2" s="47"/>
+      <c r="CY2" s="47"/>
+      <c r="CZ2" s="47"/>
+      <c r="DA2" s="47"/>
+      <c r="DB2" s="47"/>
+      <c r="DC2" s="47"/>
+      <c r="DD2" s="47"/>
+      <c r="DE2" s="48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:109" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50" t="s">
+    <row r="3" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>168</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="M3" s="57"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="49"/>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49"/>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="49"/>
-      <c r="CG3" s="49"/>
-      <c r="CH3" s="49"/>
-      <c r="CI3" s="49"/>
-      <c r="CJ3" s="49"/>
-      <c r="CK3" s="49"/>
-      <c r="CL3" s="49"/>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="49"/>
-      <c r="CO3" s="49"/>
-      <c r="CP3" s="49"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="49"/>
-      <c r="CS3" s="49"/>
-      <c r="CT3" s="49"/>
-      <c r="CU3" s="49"/>
-      <c r="CV3" s="49"/>
-      <c r="CW3" s="49"/>
-      <c r="CX3" s="49"/>
-      <c r="CY3" s="49"/>
-      <c r="CZ3" s="49"/>
-      <c r="DA3" s="49"/>
-      <c r="DB3" s="49"/>
-      <c r="DC3" s="49"/>
-      <c r="DD3" s="49"/>
-      <c r="DE3" s="50" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="M3" s="54"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="47"/>
+      <c r="BY3" s="47"/>
+      <c r="BZ3" s="47"/>
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="47"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
+      <c r="CE3" s="47"/>
+      <c r="CF3" s="47"/>
+      <c r="CG3" s="47"/>
+      <c r="CH3" s="47"/>
+      <c r="CI3" s="47"/>
+      <c r="CJ3" s="47"/>
+      <c r="CK3" s="47"/>
+      <c r="CL3" s="47"/>
+      <c r="CM3" s="47"/>
+      <c r="CN3" s="47"/>
+      <c r="CO3" s="47"/>
+      <c r="CP3" s="47"/>
+      <c r="CQ3" s="47"/>
+      <c r="CR3" s="47"/>
+      <c r="CS3" s="47"/>
+      <c r="CT3" s="47"/>
+      <c r="CU3" s="47"/>
+      <c r="CV3" s="47"/>
+      <c r="CW3" s="47"/>
+      <c r="CX3" s="47"/>
+      <c r="CY3" s="47"/>
+      <c r="CZ3" s="47"/>
+      <c r="DA3" s="47"/>
+      <c r="DB3" s="47"/>
+      <c r="DC3" s="47"/>
+      <c r="DD3" s="47"/>
+      <c r="DE3" s="48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:109" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50" t="s">
+    <row r="4" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48" t="s">
         <v>169</v>
       </c>
       <c r="H4" s="13"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="M4" s="57"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="49"/>
-      <c r="BD4" s="49"/>
-      <c r="BE4" s="49"/>
-      <c r="BF4" s="49"/>
-      <c r="BG4" s="49"/>
-      <c r="BH4" s="49"/>
-      <c r="BI4" s="49"/>
-      <c r="BJ4" s="49"/>
-      <c r="BK4" s="49"/>
-      <c r="BL4" s="49"/>
-      <c r="BM4" s="49"/>
-      <c r="BN4" s="49"/>
-      <c r="BO4" s="49"/>
-      <c r="BP4" s="49"/>
-      <c r="BQ4" s="49"/>
-      <c r="BR4" s="49"/>
-      <c r="BS4" s="49"/>
-      <c r="BT4" s="49"/>
-      <c r="BU4" s="49"/>
-      <c r="BV4" s="49"/>
-      <c r="BW4" s="49"/>
-      <c r="BX4" s="49"/>
-      <c r="BY4" s="49"/>
-      <c r="BZ4" s="49"/>
-      <c r="CA4" s="49"/>
-      <c r="CB4" s="49"/>
-      <c r="CC4" s="49"/>
-      <c r="CD4" s="49"/>
-      <c r="CE4" s="49"/>
-      <c r="CF4" s="49"/>
-      <c r="CG4" s="49"/>
-      <c r="CH4" s="49"/>
-      <c r="CI4" s="49"/>
-      <c r="CJ4" s="49"/>
-      <c r="CK4" s="49"/>
-      <c r="CL4" s="49"/>
-      <c r="CM4" s="49"/>
-      <c r="CN4" s="49"/>
-      <c r="CO4" s="49"/>
-      <c r="CP4" s="49"/>
-      <c r="CQ4" s="49"/>
-      <c r="CR4" s="49"/>
-      <c r="CS4" s="49"/>
-      <c r="CT4" s="49"/>
-      <c r="CU4" s="49"/>
-      <c r="CV4" s="49"/>
-      <c r="CW4" s="49"/>
-      <c r="CX4" s="49"/>
-      <c r="CY4" s="49"/>
-      <c r="CZ4" s="49"/>
-      <c r="DA4" s="49"/>
-      <c r="DB4" s="49"/>
-      <c r="DC4" s="49"/>
-      <c r="DD4" s="49"/>
-      <c r="DE4" s="50" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="M4" s="54"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="47"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="47"/>
+      <c r="BN4" s="47"/>
+      <c r="BO4" s="47"/>
+      <c r="BP4" s="47"/>
+      <c r="BQ4" s="47"/>
+      <c r="BR4" s="47"/>
+      <c r="BS4" s="47"/>
+      <c r="BT4" s="47"/>
+      <c r="BU4" s="47"/>
+      <c r="BV4" s="47"/>
+      <c r="BW4" s="47"/>
+      <c r="BX4" s="47"/>
+      <c r="BY4" s="47"/>
+      <c r="BZ4" s="47"/>
+      <c r="CA4" s="47"/>
+      <c r="CB4" s="47"/>
+      <c r="CC4" s="47"/>
+      <c r="CD4" s="47"/>
+      <c r="CE4" s="47"/>
+      <c r="CF4" s="47"/>
+      <c r="CG4" s="47"/>
+      <c r="CH4" s="47"/>
+      <c r="CI4" s="47"/>
+      <c r="CJ4" s="47"/>
+      <c r="CK4" s="47"/>
+      <c r="CL4" s="47"/>
+      <c r="CM4" s="47"/>
+      <c r="CN4" s="47"/>
+      <c r="CO4" s="47"/>
+      <c r="CP4" s="47"/>
+      <c r="CQ4" s="47"/>
+      <c r="CR4" s="47"/>
+      <c r="CS4" s="47"/>
+      <c r="CT4" s="47"/>
+      <c r="CU4" s="47"/>
+      <c r="CV4" s="47"/>
+      <c r="CW4" s="47"/>
+      <c r="CX4" s="47"/>
+      <c r="CY4" s="47"/>
+      <c r="CZ4" s="47"/>
+      <c r="DA4" s="47"/>
+      <c r="DB4" s="47"/>
+      <c r="DC4" s="47"/>
+      <c r="DD4" s="47"/>
+      <c r="DE4" s="48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:109" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+    <row r="5" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="M5" s="57"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="49"/>
-      <c r="BC5" s="49"/>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="49"/>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="49"/>
-      <c r="BH5" s="49"/>
-      <c r="BI5" s="49"/>
-      <c r="BJ5" s="49"/>
-      <c r="BK5" s="49"/>
-      <c r="BL5" s="49"/>
-      <c r="BM5" s="49"/>
-      <c r="BN5" s="49"/>
-      <c r="BO5" s="49"/>
-      <c r="BP5" s="49"/>
-      <c r="BQ5" s="49"/>
-      <c r="BR5" s="49"/>
-      <c r="BS5" s="49"/>
-      <c r="BT5" s="49"/>
-      <c r="BU5" s="49"/>
-      <c r="BV5" s="49"/>
-      <c r="BW5" s="49"/>
-      <c r="BX5" s="49"/>
-      <c r="BY5" s="49"/>
-      <c r="BZ5" s="49"/>
-      <c r="CA5" s="49"/>
-      <c r="CB5" s="49"/>
-      <c r="CC5" s="49"/>
-      <c r="CD5" s="49"/>
-      <c r="CE5" s="49"/>
-      <c r="CF5" s="49"/>
-      <c r="CG5" s="49"/>
-      <c r="CH5" s="49"/>
-      <c r="CI5" s="49"/>
-      <c r="CJ5" s="49"/>
-      <c r="CK5" s="49"/>
-      <c r="CL5" s="49"/>
-      <c r="CM5" s="49"/>
-      <c r="CN5" s="49"/>
-      <c r="CO5" s="49"/>
-      <c r="CP5" s="49"/>
-      <c r="CQ5" s="49"/>
-      <c r="CR5" s="49"/>
-      <c r="CS5" s="49"/>
-      <c r="CT5" s="49"/>
-      <c r="CU5" s="49"/>
-      <c r="CV5" s="49"/>
-      <c r="CW5" s="49"/>
-      <c r="CX5" s="49"/>
-      <c r="CY5" s="49"/>
-      <c r="CZ5" s="49"/>
-      <c r="DA5" s="49"/>
-      <c r="DB5" s="49"/>
-      <c r="DC5" s="49"/>
-      <c r="DD5" s="49"/>
-      <c r="DE5" s="50" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="47"/>
+      <c r="BL5" s="47"/>
+      <c r="BM5" s="47"/>
+      <c r="BN5" s="47"/>
+      <c r="BO5" s="47"/>
+      <c r="BP5" s="47"/>
+      <c r="BQ5" s="47"/>
+      <c r="BR5" s="47"/>
+      <c r="BS5" s="47"/>
+      <c r="BT5" s="47"/>
+      <c r="BU5" s="47"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="47"/>
+      <c r="BX5" s="47"/>
+      <c r="BY5" s="47"/>
+      <c r="BZ5" s="47"/>
+      <c r="CA5" s="47"/>
+      <c r="CB5" s="47"/>
+      <c r="CC5" s="47"/>
+      <c r="CD5" s="47"/>
+      <c r="CE5" s="47"/>
+      <c r="CF5" s="47"/>
+      <c r="CG5" s="47"/>
+      <c r="CH5" s="47"/>
+      <c r="CI5" s="47"/>
+      <c r="CJ5" s="47"/>
+      <c r="CK5" s="47"/>
+      <c r="CL5" s="47"/>
+      <c r="CM5" s="47"/>
+      <c r="CN5" s="47"/>
+      <c r="CO5" s="47"/>
+      <c r="CP5" s="47"/>
+      <c r="CQ5" s="47"/>
+      <c r="CR5" s="47"/>
+      <c r="CS5" s="47"/>
+      <c r="CT5" s="47"/>
+      <c r="CU5" s="47"/>
+      <c r="CV5" s="47"/>
+      <c r="CW5" s="47"/>
+      <c r="CX5" s="47"/>
+      <c r="CY5" s="47"/>
+      <c r="CZ5" s="47"/>
+      <c r="DA5" s="47"/>
+      <c r="DB5" s="47"/>
+      <c r="DC5" s="47"/>
+      <c r="DD5" s="47"/>
+      <c r="DE5" s="48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:109" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="47"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="M6" s="57"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="49"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
-      <c r="BQ6" s="49"/>
-      <c r="BR6" s="49"/>
-      <c r="BS6" s="49"/>
-      <c r="BT6" s="49"/>
-      <c r="BU6" s="49"/>
-      <c r="BV6" s="49"/>
-      <c r="BW6" s="49"/>
-      <c r="BX6" s="49"/>
-      <c r="BY6" s="49"/>
-      <c r="BZ6" s="49"/>
-      <c r="CA6" s="49"/>
-      <c r="CB6" s="49"/>
-      <c r="CC6" s="49"/>
-      <c r="CD6" s="49"/>
-      <c r="CE6" s="49"/>
-      <c r="CF6" s="49"/>
-      <c r="CG6" s="49"/>
-      <c r="CH6" s="49"/>
-      <c r="CI6" s="49"/>
-      <c r="CJ6" s="49"/>
-      <c r="CK6" s="49"/>
-      <c r="CL6" s="49"/>
-      <c r="CM6" s="49"/>
-      <c r="CN6" s="49"/>
-      <c r="CO6" s="49"/>
-      <c r="CP6" s="49"/>
-      <c r="CQ6" s="49"/>
-      <c r="CR6" s="49"/>
-      <c r="CS6" s="49"/>
-      <c r="CT6" s="49"/>
-      <c r="CU6" s="49"/>
-      <c r="CV6" s="49"/>
-      <c r="CW6" s="49"/>
-      <c r="CX6" s="49"/>
-      <c r="CY6" s="49"/>
-      <c r="CZ6" s="49"/>
-      <c r="DA6" s="49"/>
-      <c r="DB6" s="49"/>
-      <c r="DC6" s="49"/>
-      <c r="DD6" s="49"/>
-      <c r="DE6" s="50" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="M6" s="54"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="47"/>
+      <c r="BB6" s="47"/>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="47"/>
+      <c r="BE6" s="47"/>
+      <c r="BF6" s="47"/>
+      <c r="BG6" s="47"/>
+      <c r="BH6" s="47"/>
+      <c r="BI6" s="47"/>
+      <c r="BJ6" s="47"/>
+      <c r="BK6" s="47"/>
+      <c r="BL6" s="47"/>
+      <c r="BM6" s="47"/>
+      <c r="BN6" s="47"/>
+      <c r="BO6" s="47"/>
+      <c r="BP6" s="47"/>
+      <c r="BQ6" s="47"/>
+      <c r="BR6" s="47"/>
+      <c r="BS6" s="47"/>
+      <c r="BT6" s="47"/>
+      <c r="BU6" s="47"/>
+      <c r="BV6" s="47"/>
+      <c r="BW6" s="47"/>
+      <c r="BX6" s="47"/>
+      <c r="BY6" s="47"/>
+      <c r="BZ6" s="47"/>
+      <c r="CA6" s="47"/>
+      <c r="CB6" s="47"/>
+      <c r="CC6" s="47"/>
+      <c r="CD6" s="47"/>
+      <c r="CE6" s="47"/>
+      <c r="CF6" s="47"/>
+      <c r="CG6" s="47"/>
+      <c r="CH6" s="47"/>
+      <c r="CI6" s="47"/>
+      <c r="CJ6" s="47"/>
+      <c r="CK6" s="47"/>
+      <c r="CL6" s="47"/>
+      <c r="CM6" s="47"/>
+      <c r="CN6" s="47"/>
+      <c r="CO6" s="47"/>
+      <c r="CP6" s="47"/>
+      <c r="CQ6" s="47"/>
+      <c r="CR6" s="47"/>
+      <c r="CS6" s="47"/>
+      <c r="CT6" s="47"/>
+      <c r="CU6" s="47"/>
+      <c r="CV6" s="47"/>
+      <c r="CW6" s="47"/>
+      <c r="CX6" s="47"/>
+      <c r="CY6" s="47"/>
+      <c r="CZ6" s="47"/>
+      <c r="DA6" s="47"/>
+      <c r="DB6" s="47"/>
+      <c r="DC6" s="47"/>
+      <c r="DD6" s="47"/>
+      <c r="DE6" s="48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:109" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="49"/>
-      <c r="D7" s="49" t="s">
+    <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="47"/>
+      <c r="D7" s="47" t="s">
         <v>181</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="M7" s="57"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="49"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="49"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="49"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="49"/>
-      <c r="BN7" s="49"/>
-      <c r="BO7" s="49"/>
-      <c r="BP7" s="49"/>
-      <c r="BQ7" s="49"/>
-      <c r="BR7" s="49"/>
-      <c r="BS7" s="49"/>
-      <c r="BT7" s="49"/>
-      <c r="BU7" s="49"/>
-      <c r="BV7" s="49"/>
-      <c r="BW7" s="49"/>
-      <c r="BX7" s="49"/>
-      <c r="BY7" s="49"/>
-      <c r="BZ7" s="49"/>
-      <c r="CA7" s="49"/>
-      <c r="CB7" s="49"/>
-      <c r="CC7" s="49"/>
-      <c r="CD7" s="49"/>
-      <c r="CE7" s="49"/>
-      <c r="CF7" s="49"/>
-      <c r="CG7" s="49"/>
-      <c r="CH7" s="49"/>
-      <c r="CI7" s="49"/>
-      <c r="CJ7" s="49"/>
-      <c r="CK7" s="49"/>
-      <c r="CL7" s="49"/>
-      <c r="CM7" s="49"/>
-      <c r="CN7" s="49"/>
-      <c r="CO7" s="49"/>
-      <c r="CP7" s="49"/>
-      <c r="CQ7" s="49"/>
-      <c r="CR7" s="49"/>
-      <c r="CS7" s="49"/>
-      <c r="CT7" s="49"/>
-      <c r="CU7" s="49"/>
-      <c r="CV7" s="49"/>
-      <c r="CW7" s="49"/>
-      <c r="CX7" s="49"/>
-      <c r="CY7" s="49"/>
-      <c r="CZ7" s="49"/>
-      <c r="DA7" s="49"/>
-      <c r="DB7" s="49"/>
-      <c r="DC7" s="49"/>
-      <c r="DD7" s="49"/>
-      <c r="DE7" s="50" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="M7" s="54"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="47"/>
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="47"/>
+      <c r="BD7" s="47"/>
+      <c r="BE7" s="47"/>
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="47"/>
+      <c r="BH7" s="47"/>
+      <c r="BI7" s="47"/>
+      <c r="BJ7" s="47"/>
+      <c r="BK7" s="47"/>
+      <c r="BL7" s="47"/>
+      <c r="BM7" s="47"/>
+      <c r="BN7" s="47"/>
+      <c r="BO7" s="47"/>
+      <c r="BP7" s="47"/>
+      <c r="BQ7" s="47"/>
+      <c r="BR7" s="47"/>
+      <c r="BS7" s="47"/>
+      <c r="BT7" s="47"/>
+      <c r="BU7" s="47"/>
+      <c r="BV7" s="47"/>
+      <c r="BW7" s="47"/>
+      <c r="BX7" s="47"/>
+      <c r="BY7" s="47"/>
+      <c r="BZ7" s="47"/>
+      <c r="CA7" s="47"/>
+      <c r="CB7" s="47"/>
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="47"/>
+      <c r="CE7" s="47"/>
+      <c r="CF7" s="47"/>
+      <c r="CG7" s="47"/>
+      <c r="CH7" s="47"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="47"/>
+      <c r="CK7" s="47"/>
+      <c r="CL7" s="47"/>
+      <c r="CM7" s="47"/>
+      <c r="CN7" s="47"/>
+      <c r="CO7" s="47"/>
+      <c r="CP7" s="47"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="47"/>
+      <c r="CS7" s="47"/>
+      <c r="CT7" s="47"/>
+      <c r="CU7" s="47"/>
+      <c r="CV7" s="47"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
+      <c r="CZ7" s="47"/>
+      <c r="DA7" s="47"/>
+      <c r="DB7" s="47"/>
+      <c r="DC7" s="47"/>
+      <c r="DD7" s="47"/>
+      <c r="DE7" s="48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:109" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+    <row r="8" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="M8" s="57"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="49"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="49"/>
-      <c r="BB8" s="49"/>
-      <c r="BC8" s="49"/>
-      <c r="BD8" s="49"/>
-      <c r="BE8" s="49"/>
-      <c r="BF8" s="49"/>
-      <c r="BG8" s="49"/>
-      <c r="BH8" s="49"/>
-      <c r="BI8" s="49"/>
-      <c r="BJ8" s="49"/>
-      <c r="BK8" s="49"/>
-      <c r="BL8" s="49"/>
-      <c r="BM8" s="49"/>
-      <c r="BN8" s="49"/>
-      <c r="BO8" s="49"/>
-      <c r="BP8" s="49"/>
-      <c r="BQ8" s="49"/>
-      <c r="BR8" s="49"/>
-      <c r="BS8" s="49"/>
-      <c r="BT8" s="49"/>
-      <c r="BU8" s="49"/>
-      <c r="BV8" s="49"/>
-      <c r="BW8" s="49"/>
-      <c r="BX8" s="49"/>
-      <c r="BY8" s="49"/>
-      <c r="BZ8" s="49"/>
-      <c r="CA8" s="49"/>
-      <c r="CB8" s="49"/>
-      <c r="CC8" s="49"/>
-      <c r="CD8" s="49"/>
-      <c r="CE8" s="49"/>
-      <c r="CF8" s="49"/>
-      <c r="CG8" s="49"/>
-      <c r="CH8" s="49"/>
-      <c r="CI8" s="49"/>
-      <c r="CJ8" s="49"/>
-      <c r="CK8" s="49"/>
-      <c r="CL8" s="49"/>
-      <c r="CM8" s="49"/>
-      <c r="CN8" s="49"/>
-      <c r="CO8" s="49"/>
-      <c r="CP8" s="49"/>
-      <c r="CQ8" s="49"/>
-      <c r="CR8" s="49"/>
-      <c r="CS8" s="49"/>
-      <c r="CT8" s="49"/>
-      <c r="CU8" s="49"/>
-      <c r="CV8" s="49"/>
-      <c r="CW8" s="49"/>
-      <c r="CX8" s="49"/>
-      <c r="CY8" s="49"/>
-      <c r="CZ8" s="49"/>
-      <c r="DA8" s="49"/>
-      <c r="DB8" s="49"/>
-      <c r="DC8" s="49"/>
-      <c r="DD8" s="49"/>
-      <c r="DE8" s="50" t="s">
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="M8" s="54"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="47"/>
+      <c r="AX8" s="47"/>
+      <c r="AY8" s="47"/>
+      <c r="AZ8" s="47"/>
+      <c r="BA8" s="47"/>
+      <c r="BB8" s="47"/>
+      <c r="BC8" s="47"/>
+      <c r="BD8" s="47"/>
+      <c r="BE8" s="47"/>
+      <c r="BF8" s="47"/>
+      <c r="BG8" s="47"/>
+      <c r="BH8" s="47"/>
+      <c r="BI8" s="47"/>
+      <c r="BJ8" s="47"/>
+      <c r="BK8" s="47"/>
+      <c r="BL8" s="47"/>
+      <c r="BM8" s="47"/>
+      <c r="BN8" s="47"/>
+      <c r="BO8" s="47"/>
+      <c r="BP8" s="47"/>
+      <c r="BQ8" s="47"/>
+      <c r="BR8" s="47"/>
+      <c r="BS8" s="47"/>
+      <c r="BT8" s="47"/>
+      <c r="BU8" s="47"/>
+      <c r="BV8" s="47"/>
+      <c r="BW8" s="47"/>
+      <c r="BX8" s="47"/>
+      <c r="BY8" s="47"/>
+      <c r="BZ8" s="47"/>
+      <c r="CA8" s="47"/>
+      <c r="CB8" s="47"/>
+      <c r="CC8" s="47"/>
+      <c r="CD8" s="47"/>
+      <c r="CE8" s="47"/>
+      <c r="CF8" s="47"/>
+      <c r="CG8" s="47"/>
+      <c r="CH8" s="47"/>
+      <c r="CI8" s="47"/>
+      <c r="CJ8" s="47"/>
+      <c r="CK8" s="47"/>
+      <c r="CL8" s="47"/>
+      <c r="CM8" s="47"/>
+      <c r="CN8" s="47"/>
+      <c r="CO8" s="47"/>
+      <c r="CP8" s="47"/>
+      <c r="CQ8" s="47"/>
+      <c r="CR8" s="47"/>
+      <c r="CS8" s="47"/>
+      <c r="CT8" s="47"/>
+      <c r="CU8" s="47"/>
+      <c r="CV8" s="47"/>
+      <c r="CW8" s="47"/>
+      <c r="CX8" s="47"/>
+      <c r="CY8" s="47"/>
+      <c r="CZ8" s="47"/>
+      <c r="DA8" s="47"/>
+      <c r="DB8" s="47"/>
+      <c r="DC8" s="47"/>
+      <c r="DD8" s="47"/>
+      <c r="DE8" s="48" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6789,10 +6740,10 @@
       </c>
     </row>
     <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="48"/>
+      <c r="B12" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="61"/>
       <c r="D12" s="43" t="s">
         <v>40</v>
       </c>
@@ -6814,7 +6765,7 @@
       <c r="L12" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="55" t="s">
         <v>184</v>
       </c>
       <c r="O12" s="15" t="str">
@@ -7204,30 +7155,30 @@
       <c r="C13" s="39">
         <v>1</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="39" t="s">
+      <c r="G13" s="49"/>
+      <c r="H13" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="59">
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="57">
         <f>SUM(O13:DD13)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
@@ -7255,7 +7206,9 @@
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
       <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
+      <c r="AO13" s="17">
+        <v>1.5</v>
+      </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
       <c r="AR13" s="17"/>
@@ -7330,27 +7283,27 @@
     <row r="14" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="39" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="59">
-        <f t="shared" ref="M14:M61" si="53">SUM(O14:DD14)</f>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="57">
+        <f t="shared" ref="M14:M62" si="53">SUM(O14:DD14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="17"/>
@@ -7451,18 +7404,18 @@
     <row r="15" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="42" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="59">
+      <c r="J15" s="62"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -7564,16 +7517,16 @@
     <row r="16" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="59">
+      <c r="D16" s="51"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="57">
         <f t="shared" ref="M16:M21" si="54">SUM(O16:DD16)</f>
         <v>0</v>
       </c>
@@ -7675,28 +7628,28 @@
     <row r="17" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="49">
         <v>5</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="59">
+      <c r="L17" s="49"/>
+      <c r="M17" s="57">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
@@ -7798,26 +7751,26 @@
     <row r="18" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="D18" s="51"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49">
         <v>6</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="59">
+      <c r="L18" s="49"/>
+      <c r="M18" s="57">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
@@ -7919,26 +7872,26 @@
     <row r="19" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="D19" s="51"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49">
         <v>11</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="59">
+      <c r="L19" s="49"/>
+      <c r="M19" s="57">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
@@ -8040,26 +7993,26 @@
     <row r="20" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="D20" s="51"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49">
         <v>20</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="56" t="s">
+      <c r="K20" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="59">
+      <c r="L20" s="49"/>
+      <c r="M20" s="57">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
@@ -8161,13 +8114,13 @@
     <row r="21" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
+      <c r="D21" s="51"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49">
         <v>21</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="50" t="s">
         <v>198</v>
       </c>
       <c r="I21" s="62" t="s">
@@ -8179,10 +8132,10 @@
       <c r="K21" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="L21" s="64" t="s">
+      <c r="L21" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M21" s="57">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
@@ -8284,17 +8237,27 @@
     <row r="22" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="59">
-        <f t="shared" si="53"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49">
+        <v>23</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="57">
+        <f t="shared" ref="M22" si="55">SUM(O22:DD22)</f>
         <v>0</v>
       </c>
       <c r="O22" s="17"/>
@@ -8395,16 +8358,16 @@
     <row r="23" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="59">
+      <c r="D23" s="51"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -8505,29 +8468,17 @@
     </row>
     <row r="24" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B24" s="39"/>
-      <c r="C24" s="39">
-        <v>2</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="59">
+      <c r="C24" s="39"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -8625,35 +8576,32 @@
       <c r="DB24" s="17"/>
       <c r="DC24" s="17"/>
       <c r="DD24" s="17"/>
-      <c r="DE24" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="25" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="C25" s="39">
         <v>2</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I25" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="K25" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="59">
+      <c r="I25" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -8751,30 +8699,35 @@
       <c r="DB25" s="17"/>
       <c r="DC25" s="17"/>
       <c r="DD25" s="17"/>
+      <c r="DE25" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7">
-        <v>7</v>
-      </c>
-      <c r="H26" s="39" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="49">
+        <v>2</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K26" s="55" t="s">
+      <c r="K26" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="59">
+      <c r="L26" s="49"/>
+      <c r="M26" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -8876,26 +8829,26 @@
     <row r="27" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>8</v>
-      </c>
-      <c r="H27" s="39" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49">
+        <v>7</v>
+      </c>
+      <c r="H27" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K27" s="55" t="s">
+      <c r="K27" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="59">
+      <c r="L27" s="49"/>
+      <c r="M27" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -8997,26 +8950,26 @@
     <row r="28" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7">
-        <v>12</v>
-      </c>
-      <c r="H28" s="39" t="s">
+      <c r="D28" s="51"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49">
+        <v>8</v>
+      </c>
+      <c r="H28" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K28" s="55" t="s">
+      <c r="K28" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="59">
+      <c r="L28" s="49"/>
+      <c r="M28" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -9118,26 +9071,26 @@
     <row r="29" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7">
-        <v>13</v>
-      </c>
-      <c r="H29" s="39" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49">
+        <v>12</v>
+      </c>
+      <c r="H29" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K29" s="55" t="s">
+      <c r="K29" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="59">
+      <c r="L29" s="49"/>
+      <c r="M29" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -9239,26 +9192,26 @@
     <row r="30" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7">
-        <v>14</v>
-      </c>
-      <c r="H30" s="39" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49">
+        <v>13</v>
+      </c>
+      <c r="H30" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J30" s="42" t="s">
+      <c r="J30" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="K30" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="59">
+      <c r="L30" s="49"/>
+      <c r="M30" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -9360,26 +9313,26 @@
     <row r="31" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7">
-        <v>15</v>
-      </c>
-      <c r="H31" s="39" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49">
+        <v>14</v>
+      </c>
+      <c r="H31" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J31" s="42" t="s">
+      <c r="J31" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K31" s="55" t="s">
+      <c r="K31" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="59">
+      <c r="L31" s="49"/>
+      <c r="M31" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -9481,26 +9434,26 @@
     <row r="32" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7">
-        <v>16</v>
-      </c>
-      <c r="H32" s="39" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49">
+        <v>15</v>
+      </c>
+      <c r="H32" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J32" s="42" t="s">
+      <c r="J32" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="K32" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="59">
+      <c r="L32" s="49"/>
+      <c r="M32" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -9602,26 +9555,26 @@
     <row r="33" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
-        <v>17</v>
-      </c>
-      <c r="H33" s="39" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49">
+        <v>16</v>
+      </c>
+      <c r="H33" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J33" s="42" t="s">
+      <c r="J33" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K33" s="55" t="s">
+      <c r="K33" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="59">
+      <c r="L33" s="49"/>
+      <c r="M33" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -9723,26 +9676,26 @@
     <row r="34" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7">
-        <v>19</v>
-      </c>
-      <c r="H34" s="39" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49">
+        <v>17</v>
+      </c>
+      <c r="H34" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J34" s="42" t="s">
+      <c r="J34" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="55" t="s">
+      <c r="K34" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="59">
+      <c r="L34" s="49"/>
+      <c r="M34" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -9844,26 +9797,26 @@
     <row r="35" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7">
-        <v>22</v>
-      </c>
-      <c r="H35" s="39" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49">
+        <v>19</v>
+      </c>
+      <c r="H35" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J35" s="42" t="s">
+      <c r="J35" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K35" s="55" t="s">
+      <c r="K35" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="59">
+      <c r="L35" s="49"/>
+      <c r="M35" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -9965,16 +9918,26 @@
     <row r="36" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="59">
+      <c r="D36" s="51"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49">
+        <v>22</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="L36" s="49"/>
+      <c r="M36" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -10075,31 +10038,17 @@
     </row>
     <row r="37" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B37" s="39"/>
-      <c r="C37" s="39">
-        <v>3</v>
-      </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="J37" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M37" s="59">
+      <c r="C37" s="39"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -10200,17 +10149,31 @@
     </row>
     <row r="38" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="59">
+      <c r="C38" s="39">
+        <v>3</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="M38" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -10312,26 +10275,16 @@
     <row r="39" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="J39" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="59">
+      <c r="D39" s="51"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -10433,16 +10386,26 @@
     <row r="40" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="59">
+      <c r="D40" s="51"/>
+      <c r="E40" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -10544,24 +10507,16 @@
     <row r="41" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="J41" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="K41" s="55"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="59">
+      <c r="D41" s="51"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -10663,22 +10618,26 @@
     <row r="42" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M42" s="59">
+      <c r="D42" s="51"/>
+      <c r="E42" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="K42" s="64"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="57">
         <f t="shared" si="53"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
@@ -10706,9 +10665,7 @@
       <c r="AL42" s="17"/>
       <c r="AM42" s="17"/>
       <c r="AN42" s="17"/>
-      <c r="AO42" s="17">
-        <v>16.5</v>
-      </c>
+      <c r="AO42" s="17"/>
       <c r="AP42" s="17"/>
       <c r="AQ42" s="17"/>
       <c r="AR42" s="17"/>
@@ -10780,18 +10737,22 @@
     <row r="43" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
-      <c r="D43" s="53"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="59">
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M43" s="56">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
@@ -10818,7 +10779,9 @@
       <c r="AK43" s="17"/>
       <c r="AL43" s="17"/>
       <c r="AM43" s="17"/>
-      <c r="AN43" s="17"/>
+      <c r="AN43" s="17">
+        <v>16.5</v>
+      </c>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
       <c r="AQ43" s="17"/>
@@ -10889,36 +10852,18 @@
       <c r="DD43" s="17"/>
     </row>
     <row r="44" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="B44" s="39">
-        <v>2</v>
-      </c>
-      <c r="C44" s="39">
-        <v>1</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I44" s="39" t="s">
-        <v>201</v>
-      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
       <c r="J44" s="39"/>
-      <c r="K44" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M44" s="59">
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11018,18 +10963,36 @@
       <c r="DD44" s="17"/>
     </row>
     <row r="45" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="B45" s="39">
+        <v>2</v>
+      </c>
+      <c r="C45" s="39">
+        <v>1</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
+      <c r="H45" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>201</v>
+      </c>
       <c r="J45" s="39"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="59">
+      <c r="K45" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M45" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11131,24 +11094,16 @@
     <row r="46" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="D46" s="52"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="I46" s="39" t="s">
-        <v>196</v>
-      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="39" t="s">
-        <v>196</v>
-      </c>
+      <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="59">
+      <c r="M46" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11246,23 +11201,28 @@
       <c r="DB46" s="17"/>
       <c r="DC46" s="17"/>
       <c r="DD46" s="17"/>
-      <c r="DE46" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="47" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
+      <c r="H47" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="J47" s="39"/>
-      <c r="K47" s="7"/>
+      <c r="K47" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="59">
+      <c r="M47" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11367,24 +11327,16 @@
     <row r="48" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="I48" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="J48" s="52"/>
-      <c r="K48" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="L48" s="51"/>
-      <c r="M48" s="60">
+      <c r="D48" s="52"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11489,16 +11441,24 @@
     <row r="49" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="59">
+      <c r="D49" s="52"/>
+      <c r="E49" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="J49" s="50"/>
+      <c r="K49" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="L49" s="49"/>
+      <c r="M49" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11603,24 +11563,16 @@
     <row r="50" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="D50" s="52"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I50" s="39" t="s">
-        <v>202</v>
-      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
       <c r="J50" s="39"/>
-      <c r="K50" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="59">
+      <c r="M50" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11725,16 +11677,24 @@
     <row r="51" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="7"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
+      <c r="H51" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>202</v>
+      </c>
       <c r="J51" s="39"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="59">
+      <c r="M51" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11836,31 +11796,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="D52" s="52"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I52" s="39" t="s">
-        <v>203</v>
-      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
       <c r="J52" s="39"/>
-      <c r="K52" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M52" s="59">
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11962,19 +11910,31 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:109" ht="27" x14ac:dyDescent="0.15">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="G53" s="7"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="H53" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>203</v>
+      </c>
       <c r="J53" s="39"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="59">
+      <c r="K53" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M53" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -12079,22 +12039,16 @@
     <row r="54" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>174</v>
-      </c>
+      <c r="D54" s="52"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="39" t="s">
-        <v>199</v>
-      </c>
+      <c r="H54" s="39"/>
       <c r="I54" s="39"/>
       <c r="J54" s="39"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="59">
+      <c r="M54" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -12199,16 +12153,22 @@
     <row r="55" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="39"/>
+      <c r="H55" s="39" t="s">
+        <v>199</v>
+      </c>
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="59">
+      <c r="M55" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -12313,7 +12273,7 @@
     <row r="56" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
-      <c r="D56" s="7"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -12322,7 +12282,7 @@
       <c r="J56" s="39"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="59">
+      <c r="M56" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -12436,7 +12396,7 @@
       <c r="J57" s="39"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="59">
+      <c r="M57" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -12550,7 +12510,7 @@
       <c r="J58" s="39"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="59">
+      <c r="M58" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -12664,7 +12624,7 @@
       <c r="J59" s="39"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="59">
+      <c r="M59" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -12778,7 +12738,7 @@
       <c r="J60" s="39"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="59">
+      <c r="M60" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -12881,711 +12841,729 @@
       </c>
     </row>
     <row r="61" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="61">
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="18"/>
-      <c r="AA61" s="18"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-      <c r="AE61" s="18"/>
-      <c r="AF61" s="18"/>
-      <c r="AG61" s="18"/>
-      <c r="AH61" s="18"/>
-      <c r="AI61" s="18"/>
-      <c r="AJ61" s="18"/>
-      <c r="AK61" s="18"/>
-      <c r="AL61" s="18"/>
-      <c r="AM61" s="18"/>
-      <c r="AN61" s="18"/>
-      <c r="AO61" s="18"/>
-      <c r="AP61" s="18"/>
-      <c r="AQ61" s="18"/>
-      <c r="AR61" s="18"/>
-      <c r="AS61" s="18"/>
-      <c r="AT61" s="18"/>
-      <c r="AU61" s="18"/>
-      <c r="AV61" s="18"/>
-      <c r="AW61" s="18"/>
-      <c r="AX61" s="18"/>
-      <c r="AY61" s="18"/>
-      <c r="AZ61" s="18"/>
-      <c r="BA61" s="18"/>
-      <c r="BB61" s="18"/>
-      <c r="BC61" s="18"/>
-      <c r="BD61" s="18"/>
-      <c r="BE61" s="18"/>
-      <c r="BF61" s="18"/>
-      <c r="BG61" s="18"/>
-      <c r="BH61" s="18"/>
-      <c r="BI61" s="18"/>
-      <c r="BJ61" s="18"/>
-      <c r="BK61" s="18"/>
-      <c r="BL61" s="18"/>
-      <c r="BM61" s="18"/>
-      <c r="BN61" s="18"/>
-      <c r="BO61" s="18"/>
-      <c r="BP61" s="18"/>
-      <c r="BQ61" s="18"/>
-      <c r="BR61" s="18"/>
-      <c r="BS61" s="18"/>
-      <c r="BT61" s="18"/>
-      <c r="BU61" s="18"/>
-      <c r="BV61" s="18"/>
-      <c r="BW61" s="18"/>
-      <c r="BX61" s="18"/>
-      <c r="BY61" s="18"/>
-      <c r="BZ61" s="18"/>
-      <c r="CA61" s="18"/>
-      <c r="CB61" s="18"/>
-      <c r="CC61" s="18"/>
-      <c r="CD61" s="18"/>
-      <c r="CE61" s="18"/>
-      <c r="CF61" s="18"/>
-      <c r="CG61" s="18"/>
-      <c r="CH61" s="18"/>
-      <c r="CI61" s="18"/>
-      <c r="CJ61" s="18"/>
-      <c r="CK61" s="18"/>
-      <c r="CL61" s="18"/>
-      <c r="CM61" s="18"/>
-      <c r="CN61" s="18"/>
-      <c r="CO61" s="18"/>
-      <c r="CP61" s="18"/>
-      <c r="CQ61" s="18"/>
-      <c r="CR61" s="18"/>
-      <c r="CS61" s="18"/>
-      <c r="CT61" s="18"/>
-      <c r="CU61" s="18"/>
-      <c r="CV61" s="18"/>
-      <c r="CW61" s="18"/>
-      <c r="CX61" s="18"/>
-      <c r="CY61" s="18"/>
-      <c r="CZ61" s="18"/>
-      <c r="DA61" s="18"/>
-      <c r="DB61" s="18"/>
-      <c r="DC61" s="18"/>
-      <c r="DD61" s="18"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="17"/>
+      <c r="AH61" s="17"/>
+      <c r="AI61" s="17"/>
+      <c r="AJ61" s="17"/>
+      <c r="AK61" s="17"/>
+      <c r="AL61" s="17"/>
+      <c r="AM61" s="17"/>
+      <c r="AN61" s="17"/>
+      <c r="AO61" s="17"/>
+      <c r="AP61" s="17"/>
+      <c r="AQ61" s="17"/>
+      <c r="AR61" s="17"/>
+      <c r="AS61" s="17"/>
+      <c r="AT61" s="17"/>
+      <c r="AU61" s="17"/>
+      <c r="AV61" s="17"/>
+      <c r="AW61" s="17"/>
+      <c r="AX61" s="17"/>
+      <c r="AY61" s="17"/>
+      <c r="AZ61" s="17"/>
+      <c r="BA61" s="17"/>
+      <c r="BB61" s="17"/>
+      <c r="BC61" s="17"/>
+      <c r="BD61" s="17"/>
+      <c r="BE61" s="17"/>
+      <c r="BF61" s="17"/>
+      <c r="BG61" s="17"/>
+      <c r="BH61" s="17"/>
+      <c r="BI61" s="17"/>
+      <c r="BJ61" s="17"/>
+      <c r="BK61" s="17"/>
+      <c r="BL61" s="17"/>
+      <c r="BM61" s="17"/>
+      <c r="BN61" s="17"/>
+      <c r="BO61" s="17"/>
+      <c r="BP61" s="17"/>
+      <c r="BQ61" s="17"/>
+      <c r="BR61" s="17"/>
+      <c r="BS61" s="17"/>
+      <c r="BT61" s="17"/>
+      <c r="BU61" s="17"/>
+      <c r="BV61" s="17"/>
+      <c r="BW61" s="17"/>
+      <c r="BX61" s="17"/>
+      <c r="BY61" s="17"/>
+      <c r="BZ61" s="17"/>
+      <c r="CA61" s="17"/>
+      <c r="CB61" s="17"/>
+      <c r="CC61" s="17"/>
+      <c r="CD61" s="17"/>
+      <c r="CE61" s="17"/>
+      <c r="CF61" s="17"/>
+      <c r="CG61" s="17"/>
+      <c r="CH61" s="17"/>
+      <c r="CI61" s="17"/>
+      <c r="CJ61" s="17"/>
+      <c r="CK61" s="17"/>
+      <c r="CL61" s="17"/>
+      <c r="CM61" s="17"/>
+      <c r="CN61" s="17"/>
+      <c r="CO61" s="17"/>
+      <c r="CP61" s="17"/>
+      <c r="CQ61" s="17"/>
+      <c r="CR61" s="17"/>
+      <c r="CS61" s="17"/>
+      <c r="CT61" s="17"/>
+      <c r="CU61" s="17"/>
+      <c r="CV61" s="17"/>
+      <c r="CW61" s="17"/>
+      <c r="CX61" s="17"/>
+      <c r="CY61" s="17"/>
+      <c r="CZ61" s="17"/>
+      <c r="DA61" s="17"/>
+      <c r="DB61" s="17"/>
+      <c r="DC61" s="17"/>
+      <c r="DD61" s="17"/>
       <c r="DE61" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="M62" s="57">
-        <f>SUM(O62:DD62)</f>
-        <v>16.5</v>
-      </c>
-      <c r="O62" s="20">
-        <f>SUM(O13:O61)</f>
-        <v>0</v>
-      </c>
-      <c r="P62" s="20">
-        <f>SUM(P13:P61)</f>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="20">
-        <f>SUM(Q13:Q61)</f>
-        <v>0</v>
-      </c>
-      <c r="R62" s="20">
-        <f>SUM(R13:R61)</f>
-        <v>0</v>
-      </c>
-      <c r="S62" s="20">
-        <f>SUM(S13:S61)</f>
-        <v>0</v>
-      </c>
-      <c r="T62" s="20">
-        <f>SUM(T13:T61)</f>
-        <v>0</v>
-      </c>
-      <c r="U62" s="20">
-        <f>SUM(U13:U61)</f>
-        <v>0</v>
-      </c>
-      <c r="V62" s="20">
-        <f>SUM(V13:V61)</f>
-        <v>0</v>
-      </c>
-      <c r="W62" s="20">
-        <f>SUM(W13:W61)</f>
-        <v>0</v>
-      </c>
-      <c r="X62" s="20">
-        <f>SUM(X13:X61)</f>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="20">
-        <f>SUM(Y13:Y61)</f>
-        <v>0</v>
-      </c>
-      <c r="Z62" s="20">
-        <f>SUM(Z13:Z61)</f>
-        <v>0</v>
-      </c>
-      <c r="AA62" s="20">
-        <f>SUM(AA13:AA61)</f>
-        <v>0</v>
-      </c>
-      <c r="AB62" s="20">
-        <f>SUM(AB13:AB61)</f>
-        <v>0</v>
-      </c>
-      <c r="AC62" s="20">
-        <f>SUM(AC13:AC61)</f>
-        <v>0</v>
-      </c>
-      <c r="AD62" s="20">
-        <f>SUM(AD13:AD61)</f>
-        <v>0</v>
-      </c>
-      <c r="AE62" s="20">
-        <f>SUM(AE13:AE61)</f>
-        <v>0</v>
-      </c>
-      <c r="AF62" s="20">
-        <f>SUM(AF13:AF61)</f>
-        <v>0</v>
-      </c>
-      <c r="AG62" s="20">
-        <f>SUM(AG13:AG61)</f>
-        <v>0</v>
-      </c>
-      <c r="AH62" s="20">
-        <f>SUM(AH13:AH61)</f>
-        <v>0</v>
-      </c>
-      <c r="AI62" s="20">
-        <f>SUM(AI13:AI61)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="20">
-        <f>SUM(AJ13:AJ61)</f>
-        <v>0</v>
-      </c>
-      <c r="AK62" s="20">
-        <f>SUM(AK13:AK61)</f>
-        <v>0</v>
-      </c>
-      <c r="AL62" s="20">
-        <f>SUM(AL13:AL61)</f>
-        <v>0</v>
-      </c>
-      <c r="AM62" s="20">
-        <f>SUM(AM13:AM61)</f>
-        <v>0</v>
-      </c>
-      <c r="AN62" s="20">
-        <f>SUM(AN13:AN61)</f>
-        <v>0</v>
-      </c>
-      <c r="AO62" s="20">
-        <f>SUM(AO13:AO61)</f>
-        <v>16.5</v>
-      </c>
-      <c r="AP62" s="20">
-        <f>SUM(AP13:AP61)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ62" s="20">
-        <f>SUM(AQ13:AQ61)</f>
-        <v>0</v>
-      </c>
-      <c r="AR62" s="20">
-        <f>SUM(AR13:AR61)</f>
-        <v>0</v>
-      </c>
-      <c r="AS62" s="20">
-        <f>SUM(AS13:AS61)</f>
-        <v>0</v>
-      </c>
-      <c r="AT62" s="20">
-        <f>SUM(AT13:AT61)</f>
-        <v>0</v>
-      </c>
-      <c r="AU62" s="20">
-        <f>SUM(AU13:AU61)</f>
-        <v>0</v>
-      </c>
-      <c r="AV62" s="20">
-        <f>SUM(AV13:AV61)</f>
-        <v>0</v>
-      </c>
-      <c r="AW62" s="20">
-        <f>SUM(AW13:AW61)</f>
-        <v>0</v>
-      </c>
-      <c r="AX62" s="20">
-        <f>SUM(AX13:AX61)</f>
-        <v>0</v>
-      </c>
-      <c r="AY62" s="20">
-        <f>SUM(AY13:AY61)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ62" s="20">
-        <f>SUM(AZ13:AZ61)</f>
-        <v>0</v>
-      </c>
-      <c r="BA62" s="20">
-        <f>SUM(BA13:BA61)</f>
-        <v>0</v>
-      </c>
-      <c r="BB62" s="20">
-        <f>SUM(BB13:BB61)</f>
-        <v>0</v>
-      </c>
-      <c r="BC62" s="20">
-        <f>SUM(BC13:BC61)</f>
-        <v>0</v>
-      </c>
-      <c r="BD62" s="20">
-        <f>SUM(BD13:BD61)</f>
-        <v>0</v>
-      </c>
-      <c r="BE62" s="20">
-        <f>SUM(BE13:BE61)</f>
-        <v>0</v>
-      </c>
-      <c r="BF62" s="20">
-        <f>SUM(BF13:BF61)</f>
-        <v>0</v>
-      </c>
-      <c r="BG62" s="20">
-        <f>SUM(BG13:BG61)</f>
-        <v>0</v>
-      </c>
-      <c r="BH62" s="20">
-        <f>SUM(BH13:BH61)</f>
-        <v>0</v>
-      </c>
-      <c r="BI62" s="20">
-        <f>SUM(BI13:BI61)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ62" s="20">
-        <f>SUM(BJ13:BJ61)</f>
-        <v>0</v>
-      </c>
-      <c r="BK62" s="20">
-        <f>SUM(BK13:BK61)</f>
-        <v>0</v>
-      </c>
-      <c r="BL62" s="20">
-        <f>SUM(BL13:BL61)</f>
-        <v>0</v>
-      </c>
-      <c r="BM62" s="20">
-        <f>SUM(BM13:BM61)</f>
-        <v>0</v>
-      </c>
-      <c r="BN62" s="20">
-        <f>SUM(BN13:BN61)</f>
-        <v>0</v>
-      </c>
-      <c r="BO62" s="20">
-        <f>SUM(BO13:BO61)</f>
-        <v>0</v>
-      </c>
-      <c r="BP62" s="20">
-        <f>SUM(BP13:BP61)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ62" s="20">
-        <f>SUM(BQ13:BQ61)</f>
-        <v>0</v>
-      </c>
-      <c r="BR62" s="20">
-        <f>SUM(BR13:BR61)</f>
-        <v>0</v>
-      </c>
-      <c r="BS62" s="20">
-        <f>SUM(BS13:BS61)</f>
-        <v>0</v>
-      </c>
-      <c r="BT62" s="20">
-        <f>SUM(BT13:BT61)</f>
-        <v>0</v>
-      </c>
-      <c r="BU62" s="20">
-        <f>SUM(BU13:BU61)</f>
-        <v>0</v>
-      </c>
-      <c r="BV62" s="20">
-        <f>SUM(BV13:BV61)</f>
-        <v>0</v>
-      </c>
-      <c r="BW62" s="20">
-        <f>SUM(BW13:BW61)</f>
-        <v>0</v>
-      </c>
-      <c r="BX62" s="20">
-        <f>SUM(BX13:BX61)</f>
-        <v>0</v>
-      </c>
-      <c r="BY62" s="20">
-        <f>SUM(BY13:BY61)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ62" s="20">
-        <f>SUM(BZ13:BZ61)</f>
-        <v>0</v>
-      </c>
-      <c r="CA62" s="20">
-        <f>SUM(CA13:CA61)</f>
-        <v>0</v>
-      </c>
-      <c r="CB62" s="20">
-        <f>SUM(CB13:CB61)</f>
-        <v>0</v>
-      </c>
-      <c r="CC62" s="20">
-        <f>SUM(CC13:CC61)</f>
-        <v>0</v>
-      </c>
-      <c r="CD62" s="20">
-        <f>SUM(CD13:CD61)</f>
-        <v>0</v>
-      </c>
-      <c r="CE62" s="20">
-        <f>SUM(CE13:CE61)</f>
-        <v>0</v>
-      </c>
-      <c r="CF62" s="20">
-        <f>SUM(CF13:CF61)</f>
-        <v>0</v>
-      </c>
-      <c r="CG62" s="20">
-        <f>SUM(CG13:CG61)</f>
-        <v>0</v>
-      </c>
-      <c r="CH62" s="20">
-        <f>SUM(CH13:CH61)</f>
-        <v>0</v>
-      </c>
-      <c r="CI62" s="20">
-        <f>SUM(CI13:CI61)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ62" s="20">
-        <f>SUM(CJ13:CJ61)</f>
-        <v>0</v>
-      </c>
-      <c r="CK62" s="20">
-        <f>SUM(CK13:CK61)</f>
-        <v>0</v>
-      </c>
-      <c r="CL62" s="20">
-        <f>SUM(CL13:CL61)</f>
-        <v>0</v>
-      </c>
-      <c r="CM62" s="20">
-        <f>SUM(CM13:CM61)</f>
-        <v>0</v>
-      </c>
-      <c r="CN62" s="20">
-        <f>SUM(CN13:CN61)</f>
-        <v>0</v>
-      </c>
-      <c r="CO62" s="20">
-        <f>SUM(CO13:CO61)</f>
-        <v>0</v>
-      </c>
-      <c r="CP62" s="20">
-        <f>SUM(CP13:CP61)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ62" s="20">
-        <f>SUM(CQ13:CQ61)</f>
-        <v>0</v>
-      </c>
-      <c r="CR62" s="20">
-        <f>SUM(CR13:CR61)</f>
-        <v>0</v>
-      </c>
-      <c r="CS62" s="20">
-        <f>SUM(CS13:CS61)</f>
-        <v>0</v>
-      </c>
-      <c r="CT62" s="20">
-        <f>SUM(CT13:CT61)</f>
-        <v>0</v>
-      </c>
-      <c r="CU62" s="20">
-        <f>SUM(CU13:CU61)</f>
-        <v>0</v>
-      </c>
-      <c r="CV62" s="20">
-        <f>SUM(CV13:CV61)</f>
-        <v>0</v>
-      </c>
-      <c r="CW62" s="20">
-        <f>SUM(CW13:CW61)</f>
-        <v>0</v>
-      </c>
-      <c r="CX62" s="20">
-        <f>SUM(CX13:CX61)</f>
-        <v>0</v>
-      </c>
-      <c r="CY62" s="20">
-        <f>SUM(CY13:CY61)</f>
-        <v>0</v>
-      </c>
-      <c r="CZ62" s="20">
-        <f>SUM(CZ13:CZ61)</f>
-        <v>0</v>
-      </c>
-      <c r="DA62" s="20">
-        <f>SUM(DA13:DA61)</f>
-        <v>0</v>
-      </c>
-      <c r="DB62" s="20">
-        <f>SUM(DB13:DB61)</f>
-        <v>0</v>
-      </c>
-      <c r="DC62" s="20">
-        <f>SUM(DC13:DC61)</f>
-        <v>0</v>
-      </c>
-      <c r="DD62" s="20">
-        <f>SUM(DD13:DD61)</f>
-        <v>0</v>
-      </c>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="58">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="18"/>
+      <c r="Y62" s="18"/>
+      <c r="Z62" s="18"/>
+      <c r="AA62" s="18"/>
+      <c r="AB62" s="18"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="18"/>
+      <c r="AE62" s="18"/>
+      <c r="AF62" s="18"/>
+      <c r="AG62" s="18"/>
+      <c r="AH62" s="18"/>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="18"/>
+      <c r="AK62" s="18"/>
+      <c r="AL62" s="18"/>
+      <c r="AM62" s="18"/>
+      <c r="AN62" s="18"/>
+      <c r="AO62" s="18"/>
+      <c r="AP62" s="18"/>
+      <c r="AQ62" s="18"/>
+      <c r="AR62" s="18"/>
+      <c r="AS62" s="18"/>
+      <c r="AT62" s="18"/>
+      <c r="AU62" s="18"/>
+      <c r="AV62" s="18"/>
+      <c r="AW62" s="18"/>
+      <c r="AX62" s="18"/>
+      <c r="AY62" s="18"/>
+      <c r="AZ62" s="18"/>
+      <c r="BA62" s="18"/>
+      <c r="BB62" s="18"/>
+      <c r="BC62" s="18"/>
+      <c r="BD62" s="18"/>
+      <c r="BE62" s="18"/>
+      <c r="BF62" s="18"/>
+      <c r="BG62" s="18"/>
+      <c r="BH62" s="18"/>
+      <c r="BI62" s="18"/>
+      <c r="BJ62" s="18"/>
+      <c r="BK62" s="18"/>
+      <c r="BL62" s="18"/>
+      <c r="BM62" s="18"/>
+      <c r="BN62" s="18"/>
+      <c r="BO62" s="18"/>
+      <c r="BP62" s="18"/>
+      <c r="BQ62" s="18"/>
+      <c r="BR62" s="18"/>
+      <c r="BS62" s="18"/>
+      <c r="BT62" s="18"/>
+      <c r="BU62" s="18"/>
+      <c r="BV62" s="18"/>
+      <c r="BW62" s="18"/>
+      <c r="BX62" s="18"/>
+      <c r="BY62" s="18"/>
+      <c r="BZ62" s="18"/>
+      <c r="CA62" s="18"/>
+      <c r="CB62" s="18"/>
+      <c r="CC62" s="18"/>
+      <c r="CD62" s="18"/>
+      <c r="CE62" s="18"/>
+      <c r="CF62" s="18"/>
+      <c r="CG62" s="18"/>
+      <c r="CH62" s="18"/>
+      <c r="CI62" s="18"/>
+      <c r="CJ62" s="18"/>
+      <c r="CK62" s="18"/>
+      <c r="CL62" s="18"/>
+      <c r="CM62" s="18"/>
+      <c r="CN62" s="18"/>
+      <c r="CO62" s="18"/>
+      <c r="CP62" s="18"/>
+      <c r="CQ62" s="18"/>
+      <c r="CR62" s="18"/>
+      <c r="CS62" s="18"/>
+      <c r="CT62" s="18"/>
+      <c r="CU62" s="18"/>
+      <c r="CV62" s="18"/>
+      <c r="CW62" s="18"/>
+      <c r="CX62" s="18"/>
+      <c r="CY62" s="18"/>
+      <c r="CZ62" s="18"/>
+      <c r="DA62" s="18"/>
+      <c r="DB62" s="18"/>
+      <c r="DC62" s="18"/>
+      <c r="DD62" s="18"/>
       <c r="DE62" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="2:109" x14ac:dyDescent="0.15">
+      <c r="M63" s="54">
+        <f>SUM(O63:DD63)</f>
+        <v>18</v>
+      </c>
+      <c r="O63" s="20">
+        <f t="shared" ref="O63:AT63" si="56">SUM(O13:O62)</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AH63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AI63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AK63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AL63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AM63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AN63" s="20">
+        <f t="shared" si="56"/>
+        <v>16.5</v>
+      </c>
+      <c r="AO63" s="20">
+        <f t="shared" si="56"/>
+        <v>1.5</v>
+      </c>
+      <c r="AP63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AR63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AS63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AT63" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AU63" s="20">
+        <f t="shared" ref="AU63:BZ63" si="57">SUM(AU13:AU62)</f>
+        <v>0</v>
+      </c>
+      <c r="AV63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AW63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AX63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AY63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AZ63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BA63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BB63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BC63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BD63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BE63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BF63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BG63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BH63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BI63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BJ63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BK63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BL63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BM63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BN63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BO63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BP63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BQ63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BR63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BS63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BT63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BU63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BV63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BW63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BX63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BY63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BZ63" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="CA63" s="20">
+        <f t="shared" ref="CA63:DF63" si="58">SUM(CA13:CA62)</f>
+        <v>0</v>
+      </c>
+      <c r="CB63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CC63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CD63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CE63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CF63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CG63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CH63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CI63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CJ63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CK63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CL63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CM63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CN63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CO63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CP63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CQ63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CR63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CS63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CT63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CU63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CV63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CW63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CX63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CY63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="CZ63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DA63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DB63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DC63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="DD63" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
       <c r="DE63" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="E64" s="21"/>
       <c r="DE64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="15:109" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="E65" s="21"/>
       <c r="DE65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="15:109" x14ac:dyDescent="0.15">
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-      <c r="AE77"/>
-      <c r="AF77"/>
-      <c r="AG77"/>
-      <c r="AH77"/>
-      <c r="AI77"/>
-      <c r="AJ77"/>
-      <c r="AK77"/>
-      <c r="AL77"/>
-      <c r="AM77"/>
-      <c r="AN77"/>
-      <c r="AO77"/>
-      <c r="AP77"/>
-      <c r="AQ77"/>
-      <c r="AR77"/>
-      <c r="AS77"/>
-      <c r="AT77"/>
-      <c r="AU77"/>
-      <c r="AV77"/>
-      <c r="AW77"/>
-      <c r="AX77"/>
-      <c r="AY77"/>
-      <c r="AZ77"/>
-      <c r="BA77"/>
-      <c r="BB77"/>
-      <c r="BC77"/>
-      <c r="BD77"/>
-      <c r="BE77"/>
-      <c r="BF77"/>
-      <c r="BG77"/>
-      <c r="BH77"/>
-      <c r="BI77"/>
-      <c r="BJ77"/>
-      <c r="BK77"/>
-      <c r="BL77"/>
-      <c r="BM77"/>
-      <c r="BN77"/>
-      <c r="BO77"/>
-      <c r="BP77"/>
-      <c r="BQ77"/>
-      <c r="BR77"/>
-      <c r="BS77"/>
-      <c r="BT77"/>
-      <c r="BU77"/>
-      <c r="BV77"/>
-      <c r="BW77"/>
-      <c r="BX77"/>
-      <c r="BY77"/>
-      <c r="BZ77"/>
-      <c r="CA77"/>
-      <c r="CB77"/>
-      <c r="CC77"/>
-      <c r="CD77"/>
-      <c r="CE77"/>
-      <c r="CF77"/>
-      <c r="CG77"/>
-      <c r="CH77"/>
-      <c r="CI77"/>
-      <c r="CJ77"/>
-      <c r="CK77"/>
-      <c r="CL77"/>
-      <c r="CM77"/>
-      <c r="CN77"/>
-      <c r="CO77"/>
-      <c r="CP77"/>
-      <c r="CQ77"/>
-      <c r="CR77"/>
-      <c r="CS77"/>
-      <c r="CT77"/>
-      <c r="CU77"/>
-      <c r="CV77"/>
-      <c r="CW77"/>
-      <c r="CX77"/>
-      <c r="CY77"/>
-      <c r="CZ77"/>
-      <c r="DA77"/>
-      <c r="DB77"/>
-      <c r="DC77"/>
-      <c r="DD77"/>
-    </row>
-    <row r="80" spans="15:109" x14ac:dyDescent="0.15">
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-      <c r="Z80"/>
-      <c r="AA80"/>
-      <c r="AB80"/>
-      <c r="AC80"/>
-      <c r="AD80"/>
-      <c r="AE80"/>
-      <c r="AF80"/>
-      <c r="AG80"/>
-      <c r="AH80"/>
-      <c r="AI80"/>
-      <c r="AJ80"/>
-      <c r="AK80"/>
-      <c r="AL80"/>
-      <c r="AM80"/>
-      <c r="AN80"/>
-      <c r="AO80"/>
-      <c r="AP80"/>
-      <c r="AQ80"/>
-      <c r="AR80"/>
-      <c r="AS80"/>
-      <c r="AT80"/>
-      <c r="AU80"/>
-      <c r="AV80"/>
-      <c r="AW80"/>
-      <c r="AX80"/>
-      <c r="AY80"/>
-      <c r="AZ80"/>
-      <c r="BA80"/>
-      <c r="BB80"/>
-      <c r="BC80"/>
-      <c r="BD80"/>
-      <c r="BE80"/>
-      <c r="BF80"/>
-      <c r="BG80"/>
-      <c r="BH80"/>
-      <c r="BI80"/>
-      <c r="BJ80"/>
-      <c r="BK80"/>
-      <c r="BL80"/>
-      <c r="BM80"/>
-      <c r="BN80"/>
-      <c r="BO80"/>
-      <c r="BP80"/>
-      <c r="BQ80"/>
-      <c r="BR80"/>
-      <c r="BS80"/>
-      <c r="BT80"/>
-      <c r="BU80"/>
-      <c r="BV80"/>
-      <c r="BW80"/>
-      <c r="BX80"/>
-      <c r="BY80"/>
-      <c r="BZ80"/>
-      <c r="CA80"/>
-      <c r="CB80"/>
-      <c r="CC80"/>
-      <c r="CD80"/>
-      <c r="CE80"/>
-      <c r="CF80"/>
-      <c r="CG80"/>
-      <c r="CH80"/>
-      <c r="CI80"/>
-      <c r="CJ80"/>
-      <c r="CK80"/>
-      <c r="CL80"/>
-      <c r="CM80"/>
-      <c r="CN80"/>
-      <c r="CO80"/>
-      <c r="CP80"/>
-      <c r="CQ80"/>
-      <c r="CR80"/>
-      <c r="CS80"/>
-      <c r="CT80"/>
-      <c r="CU80"/>
-      <c r="CV80"/>
-      <c r="CW80"/>
-      <c r="CX80"/>
-      <c r="CY80"/>
-      <c r="CZ80"/>
-      <c r="DA80"/>
-      <c r="DB80"/>
-      <c r="DC80"/>
-      <c r="DD80"/>
+    <row r="66" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="DE66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78"/>
+      <c r="AI78"/>
+      <c r="AJ78"/>
+      <c r="AK78"/>
+      <c r="AL78"/>
+      <c r="AM78"/>
+      <c r="AN78"/>
+      <c r="AO78"/>
+      <c r="AP78"/>
+      <c r="AQ78"/>
+      <c r="AR78"/>
+      <c r="AS78"/>
+      <c r="AT78"/>
+      <c r="AU78"/>
+      <c r="AV78"/>
+      <c r="AW78"/>
+      <c r="AX78"/>
+      <c r="AY78"/>
+      <c r="AZ78"/>
+      <c r="BA78"/>
+      <c r="BB78"/>
+      <c r="BC78"/>
+      <c r="BD78"/>
+      <c r="BE78"/>
+      <c r="BF78"/>
+      <c r="BG78"/>
+      <c r="BH78"/>
+      <c r="BI78"/>
+      <c r="BJ78"/>
+      <c r="BK78"/>
+      <c r="BL78"/>
+      <c r="BM78"/>
+      <c r="BN78"/>
+      <c r="BO78"/>
+      <c r="BP78"/>
+      <c r="BQ78"/>
+      <c r="BR78"/>
+      <c r="BS78"/>
+      <c r="BT78"/>
+      <c r="BU78"/>
+      <c r="BV78"/>
+      <c r="BW78"/>
+      <c r="BX78"/>
+      <c r="BY78"/>
+      <c r="BZ78"/>
+      <c r="CA78"/>
+      <c r="CB78"/>
+      <c r="CC78"/>
+      <c r="CD78"/>
+      <c r="CE78"/>
+      <c r="CF78"/>
+      <c r="CG78"/>
+      <c r="CH78"/>
+      <c r="CI78"/>
+      <c r="CJ78"/>
+      <c r="CK78"/>
+      <c r="CL78"/>
+      <c r="CM78"/>
+      <c r="CN78"/>
+      <c r="CO78"/>
+      <c r="CP78"/>
+      <c r="CQ78"/>
+      <c r="CR78"/>
+      <c r="CS78"/>
+      <c r="CT78"/>
+      <c r="CU78"/>
+      <c r="CV78"/>
+      <c r="CW78"/>
+      <c r="CX78"/>
+      <c r="CY78"/>
+      <c r="CZ78"/>
+      <c r="DA78"/>
+      <c r="DB78"/>
+      <c r="DC78"/>
+      <c r="DD78"/>
     </row>
     <row r="81" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O81"/>
@@ -14259,101 +14237,101 @@
       <c r="DC87"/>
       <c r="DD87"/>
     </row>
-    <row r="89" spans="15:108" x14ac:dyDescent="0.15">
-      <c r="O89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
-      <c r="R89"/>
-      <c r="S89"/>
-      <c r="T89"/>
-      <c r="U89"/>
-      <c r="V89"/>
-      <c r="W89"/>
-      <c r="X89"/>
-      <c r="Y89"/>
-      <c r="Z89"/>
-      <c r="AA89"/>
-      <c r="AB89"/>
-      <c r="AC89"/>
-      <c r="AD89"/>
-      <c r="AE89"/>
-      <c r="AF89"/>
-      <c r="AG89"/>
-      <c r="AH89"/>
-      <c r="AI89"/>
-      <c r="AJ89"/>
-      <c r="AK89"/>
-      <c r="AL89"/>
-      <c r="AM89"/>
-      <c r="AN89"/>
-      <c r="AO89"/>
-      <c r="AP89"/>
-      <c r="AQ89"/>
-      <c r="AR89"/>
-      <c r="AS89"/>
-      <c r="AT89"/>
-      <c r="AU89"/>
-      <c r="AV89"/>
-      <c r="AW89"/>
-      <c r="AX89"/>
-      <c r="AY89"/>
-      <c r="AZ89"/>
-      <c r="BA89"/>
-      <c r="BB89"/>
-      <c r="BC89"/>
-      <c r="BD89"/>
-      <c r="BE89"/>
-      <c r="BF89"/>
-      <c r="BG89"/>
-      <c r="BH89"/>
-      <c r="BI89"/>
-      <c r="BJ89"/>
-      <c r="BK89"/>
-      <c r="BL89"/>
-      <c r="BM89"/>
-      <c r="BN89"/>
-      <c r="BO89"/>
-      <c r="BP89"/>
-      <c r="BQ89"/>
-      <c r="BR89"/>
-      <c r="BS89"/>
-      <c r="BT89"/>
-      <c r="BU89"/>
-      <c r="BV89"/>
-      <c r="BW89"/>
-      <c r="BX89"/>
-      <c r="BY89"/>
-      <c r="BZ89"/>
-      <c r="CA89"/>
-      <c r="CB89"/>
-      <c r="CC89"/>
-      <c r="CD89"/>
-      <c r="CE89"/>
-      <c r="CF89"/>
-      <c r="CG89"/>
-      <c r="CH89"/>
-      <c r="CI89"/>
-      <c r="CJ89"/>
-      <c r="CK89"/>
-      <c r="CL89"/>
-      <c r="CM89"/>
-      <c r="CN89"/>
-      <c r="CO89"/>
-      <c r="CP89"/>
-      <c r="CQ89"/>
-      <c r="CR89"/>
-      <c r="CS89"/>
-      <c r="CT89"/>
-      <c r="CU89"/>
-      <c r="CV89"/>
-      <c r="CW89"/>
-      <c r="CX89"/>
-      <c r="CY89"/>
-      <c r="CZ89"/>
-      <c r="DA89"/>
-      <c r="DB89"/>
-      <c r="DC89"/>
-      <c r="DD89"/>
+    <row r="88" spans="15:108" x14ac:dyDescent="0.15">
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+      <c r="AG88"/>
+      <c r="AH88"/>
+      <c r="AI88"/>
+      <c r="AJ88"/>
+      <c r="AK88"/>
+      <c r="AL88"/>
+      <c r="AM88"/>
+      <c r="AN88"/>
+      <c r="AO88"/>
+      <c r="AP88"/>
+      <c r="AQ88"/>
+      <c r="AR88"/>
+      <c r="AS88"/>
+      <c r="AT88"/>
+      <c r="AU88"/>
+      <c r="AV88"/>
+      <c r="AW88"/>
+      <c r="AX88"/>
+      <c r="AY88"/>
+      <c r="AZ88"/>
+      <c r="BA88"/>
+      <c r="BB88"/>
+      <c r="BC88"/>
+      <c r="BD88"/>
+      <c r="BE88"/>
+      <c r="BF88"/>
+      <c r="BG88"/>
+      <c r="BH88"/>
+      <c r="BI88"/>
+      <c r="BJ88"/>
+      <c r="BK88"/>
+      <c r="BL88"/>
+      <c r="BM88"/>
+      <c r="BN88"/>
+      <c r="BO88"/>
+      <c r="BP88"/>
+      <c r="BQ88"/>
+      <c r="BR88"/>
+      <c r="BS88"/>
+      <c r="BT88"/>
+      <c r="BU88"/>
+      <c r="BV88"/>
+      <c r="BW88"/>
+      <c r="BX88"/>
+      <c r="BY88"/>
+      <c r="BZ88"/>
+      <c r="CA88"/>
+      <c r="CB88"/>
+      <c r="CC88"/>
+      <c r="CD88"/>
+      <c r="CE88"/>
+      <c r="CF88"/>
+      <c r="CG88"/>
+      <c r="CH88"/>
+      <c r="CI88"/>
+      <c r="CJ88"/>
+      <c r="CK88"/>
+      <c r="CL88"/>
+      <c r="CM88"/>
+      <c r="CN88"/>
+      <c r="CO88"/>
+      <c r="CP88"/>
+      <c r="CQ88"/>
+      <c r="CR88"/>
+      <c r="CS88"/>
+      <c r="CT88"/>
+      <c r="CU88"/>
+      <c r="CV88"/>
+      <c r="CW88"/>
+      <c r="CX88"/>
+      <c r="CY88"/>
+      <c r="CZ88"/>
+      <c r="DA88"/>
+      <c r="DB88"/>
+      <c r="DC88"/>
+      <c r="DD88"/>
     </row>
     <row r="90" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O90"/>
@@ -14451,6 +14429,102 @@
       <c r="DC90"/>
       <c r="DD90"/>
     </row>
+    <row r="91" spans="15:108" x14ac:dyDescent="0.15">
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+      <c r="AF91"/>
+      <c r="AG91"/>
+      <c r="AH91"/>
+      <c r="AI91"/>
+      <c r="AJ91"/>
+      <c r="AK91"/>
+      <c r="AL91"/>
+      <c r="AM91"/>
+      <c r="AN91"/>
+      <c r="AO91"/>
+      <c r="AP91"/>
+      <c r="AQ91"/>
+      <c r="AR91"/>
+      <c r="AS91"/>
+      <c r="AT91"/>
+      <c r="AU91"/>
+      <c r="AV91"/>
+      <c r="AW91"/>
+      <c r="AX91"/>
+      <c r="AY91"/>
+      <c r="AZ91"/>
+      <c r="BA91"/>
+      <c r="BB91"/>
+      <c r="BC91"/>
+      <c r="BD91"/>
+      <c r="BE91"/>
+      <c r="BF91"/>
+      <c r="BG91"/>
+      <c r="BH91"/>
+      <c r="BI91"/>
+      <c r="BJ91"/>
+      <c r="BK91"/>
+      <c r="BL91"/>
+      <c r="BM91"/>
+      <c r="BN91"/>
+      <c r="BO91"/>
+      <c r="BP91"/>
+      <c r="BQ91"/>
+      <c r="BR91"/>
+      <c r="BS91"/>
+      <c r="BT91"/>
+      <c r="BU91"/>
+      <c r="BV91"/>
+      <c r="BW91"/>
+      <c r="BX91"/>
+      <c r="BY91"/>
+      <c r="BZ91"/>
+      <c r="CA91"/>
+      <c r="CB91"/>
+      <c r="CC91"/>
+      <c r="CD91"/>
+      <c r="CE91"/>
+      <c r="CF91"/>
+      <c r="CG91"/>
+      <c r="CH91"/>
+      <c r="CI91"/>
+      <c r="CJ91"/>
+      <c r="CK91"/>
+      <c r="CL91"/>
+      <c r="CM91"/>
+      <c r="CN91"/>
+      <c r="CO91"/>
+      <c r="CP91"/>
+      <c r="CQ91"/>
+      <c r="CR91"/>
+      <c r="CS91"/>
+      <c r="CT91"/>
+      <c r="CU91"/>
+      <c r="CV91"/>
+      <c r="CW91"/>
+      <c r="CX91"/>
+      <c r="CY91"/>
+      <c r="CZ91"/>
+      <c r="DA91"/>
+      <c r="DB91"/>
+      <c r="DC91"/>
+      <c r="DD91"/>
+    </row>
   </sheetData>
   <autoFilter ref="B12:DH12">
     <filterColumn colId="0" showButton="0"/>
@@ -14459,170 +14533,197 @@
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="O60:BN61 DD60:DD61 O11:BF12 O43:DD45 O23:DD24 O13:DD21 O37:DD40">
-    <cfRule type="expression" dxfId="60" priority="59">
+  <conditionalFormatting sqref="O61:BN62 DD61:DD62 O11:BF12 O44:DD46 O24:DD25 O13:DD21 O38:DD41">
+    <cfRule type="expression" dxfId="61" priority="66">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="60" priority="67">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="61">
+    <cfRule type="expression" dxfId="59" priority="68">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11">
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="58" priority="65">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46:BN59 DD46:DD59">
-    <cfRule type="expression" dxfId="56" priority="55">
+  <conditionalFormatting sqref="O47:BN60 DD47:DD60">
+    <cfRule type="expression" dxfId="57" priority="62">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="56" priority="63">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57">
+    <cfRule type="expression" dxfId="55" priority="64">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO60:DC61">
-    <cfRule type="expression" dxfId="53" priority="52">
+  <conditionalFormatting sqref="BO61:DC62">
+    <cfRule type="expression" dxfId="54" priority="59">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="53" priority="60">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54">
+    <cfRule type="expression" dxfId="52" priority="61">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO46:DC59">
-    <cfRule type="expression" dxfId="50" priority="48">
+  <conditionalFormatting sqref="BO47:DC60">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD12">
-    <cfRule type="expression" dxfId="47" priority="45">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="47" priority="53">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD11">
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="45" priority="51">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:I61 I42:I51 J25:J35 I13:L21 I37:L41 I23:L24 J43:L61 L25:L35 M37:M61 M13:M35 I36:M36">
-    <cfRule type="expression" dxfId="43" priority="43">
+  <conditionalFormatting sqref="I54:I62 I43:I52 J26:J36 I38:L42 I24:L25 J44:L62 L26:L36 M38:M62 I13:M21 I37:M37 M23:M36">
+    <cfRule type="expression" dxfId="44" priority="50">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O41:DD41">
-    <cfRule type="expression" dxfId="42" priority="40">
+  <conditionalFormatting sqref="O42:DD42">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="41" priority="49">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:L42">
-    <cfRule type="expression" dxfId="39" priority="36">
-      <formula>$J42="完了"</formula>
+  <conditionalFormatting sqref="J43:L43">
+    <cfRule type="expression" dxfId="40" priority="43">
+      <formula>$J43="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O42:AN42 AP42:DD42">
-    <cfRule type="expression" dxfId="38" priority="33">
+  <conditionalFormatting sqref="O43:AM43 AP43:DD43">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="38" priority="41">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="37" priority="42">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="35" priority="30">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$J23="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:L23">
+    <cfRule type="expression" dxfId="35" priority="32">
+      <formula>$J23="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:DD23">
+    <cfRule type="expression" dxfId="34" priority="29">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="30">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="31">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:DD37">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:DD36">
+    <cfRule type="expression" dxfId="28" priority="21">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="23">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:K36">
+    <cfRule type="expression" dxfId="25" priority="14">
+      <formula>$J26="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I36">
+    <cfRule type="expression" dxfId="24" priority="13">
+      <formula>$J26="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" dxfId="23" priority="11">
+      <formula>$J53="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO43">
+    <cfRule type="expression" dxfId="22" priority="8">
+      <formula>AO$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="9">
+      <formula>AO$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="10">
+      <formula>AO$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22:DD22">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:M22">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$J22="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:L22">
-    <cfRule type="expression" dxfId="34" priority="25">
-      <formula>$J22="完了"</formula>
+  <conditionalFormatting sqref="AN43">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AN$9="祝"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22:DD22">
-    <cfRule type="expression" dxfId="33" priority="22">
-      <formula>O$9="祝"</formula>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="23">
-      <formula>O$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="24">
-      <formula>O$12="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:DD36">
-    <cfRule type="expression" dxfId="30" priority="18">
-      <formula>O$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="19">
-      <formula>O$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
-      <formula>O$12="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:DD35">
-    <cfRule type="expression" dxfId="27" priority="14">
-      <formula>O$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="15">
-      <formula>O$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="16">
-      <formula>O$12="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:K35">
-    <cfRule type="expression" dxfId="24" priority="7">
-      <formula>$J25="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I35">
-    <cfRule type="expression" dxfId="23" priority="6">
-      <formula>$J25="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="22" priority="4">
-      <formula>$J52="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO42">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>AO$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>AO$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>AO$12="土"</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17333,18 +17434,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL35">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:AL11">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>I$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18713,13 +18814,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AM21">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="208">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2169,6 +2169,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2603,41 +2606,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="70">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2733,12 +2722,82 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3102,7 +3161,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3549,8 +3608,8 @@
         <v>6</v>
       </c>
       <c r="C6" s="24">
-        <f>SUM(WBS!O63:AS63)</f>
-        <v>18</v>
+        <f>SUM(WBS!O64:AS64)</f>
+        <v>19.5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
@@ -3558,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="24">
-        <f>SUM(WBS!AS63:BW63)</f>
+        <f>SUM(WBS!AS64:BW64)</f>
         <v>0</v>
       </c>
     </row>
@@ -3567,7 +3626,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="24">
-        <f>SUM(WBS!BX63:DD63)</f>
+        <f>SUM(WBS!BX64:DD64)</f>
         <v>0</v>
       </c>
     </row>
@@ -3577,7 +3636,7 @@
       </c>
       <c r="C9" s="59">
         <f>SUM(C3:C8)</f>
-        <v>107.5</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4913,13 +4972,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL21">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5343,13 +5402,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:M21">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5360,14 +5419,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DE91"/>
+  <dimension ref="B1:DE92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="AM13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="AG13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AO15" sqref="AO15"/>
+      <selection pane="bottomRight" activeCell="AQ20" sqref="AQ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6740,10 +6799,10 @@
       </c>
     </row>
     <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="61"/>
+      <c r="B12" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="64"/>
       <c r="D12" s="43" t="s">
         <v>40</v>
       </c>
@@ -7168,17 +7227,17 @@
       <c r="H13" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="60" t="s">
         <v>155</v>
       </c>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
       <c r="M13" s="57">
         <f>SUM(O13:DD13)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
@@ -7206,9 +7265,7 @@
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
       <c r="AN13" s="17"/>
-      <c r="AO13" s="17">
-        <v>1.5</v>
-      </c>
+      <c r="AO13" s="17"/>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
       <c r="AR13" s="17"/>
@@ -7294,16 +7351,16 @@
       <c r="H14" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="60" t="s">
         <v>155</v>
       </c>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
       <c r="M14" s="57">
-        <f t="shared" ref="M14:M62" si="53">SUM(O14:DD14)</f>
+        <f t="shared" ref="M14:M63" si="53">SUM(O14:DD14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="17"/>
@@ -7409,10 +7466,10 @@
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
       <c r="H15" s="50"/>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="62"/>
+      <c r="J15" s="60"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
       <c r="M15" s="57">
@@ -7522,12 +7579,12 @@
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="64"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="49"/>
       <c r="M16" s="57">
-        <f t="shared" ref="M16:M21" si="54">SUM(O16:DD16)</f>
+        <f t="shared" ref="M16:M22" si="54">SUM(O16:DD16)</f>
         <v>0</v>
       </c>
       <c r="O16" s="17"/>
@@ -7639,13 +7696,13 @@
       <c r="H17" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="J17" s="62" t="s">
+      <c r="J17" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="K17" s="63" t="s">
+      <c r="K17" s="61" t="s">
         <v>182</v>
       </c>
       <c r="L17" s="49"/>
@@ -7760,13 +7817,13 @@
       <c r="H18" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="K18" s="63" t="s">
+      <c r="K18" s="61" t="s">
         <v>182</v>
       </c>
       <c r="L18" s="49"/>
@@ -7881,13 +7938,13 @@
       <c r="H19" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I19" s="62" t="s">
+      <c r="I19" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="J19" s="62" t="s">
+      <c r="J19" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="K19" s="61" t="s">
         <v>182</v>
       </c>
       <c r="L19" s="49"/>
@@ -7997,24 +8054,24 @@
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="49">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="I20" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="J20" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="K20" s="63" t="s">
+      <c r="J20" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="61" t="s">
         <v>182</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="57">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
@@ -8042,9 +8099,13 @@
       <c r="AL20" s="17"/>
       <c r="AM20" s="17"/>
       <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
+      <c r="AO20" s="17">
+        <v>1.5</v>
+      </c>
       <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
+      <c r="AQ20" s="17">
+        <v>1.5</v>
+      </c>
       <c r="AR20" s="17"/>
       <c r="AS20" s="17"/>
       <c r="AT20" s="17"/>
@@ -8118,23 +8179,21 @@
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
       <c r="G21" s="49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="I21" s="62" t="s">
+      <c r="I21" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="J21" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="K21" s="63" t="s">
+      <c r="J21" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="L21" s="49" t="s">
-        <v>186</v>
-      </c>
+      <c r="L21" s="49"/>
       <c r="M21" s="57">
         <f t="shared" si="54"/>
         <v>0</v>
@@ -8241,23 +8300,25 @@
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
       <c r="G22" s="49">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="I22" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="J22" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="63" t="s">
+      <c r="J22" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="L22" s="49"/>
+      <c r="L22" s="49" t="s">
+        <v>186</v>
+      </c>
       <c r="M22" s="57">
-        <f t="shared" ref="M22" si="55">SUM(O22:DD22)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O22" s="17"/>
@@ -8361,14 +8422,24 @@
       <c r="D23" s="51"/>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
+      <c r="G23" s="49">
+        <v>23</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>182</v>
+      </c>
       <c r="L23" s="49"/>
       <c r="M23" s="57">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="M23" si="55">SUM(O23:DD23)</f>
         <v>0</v>
       </c>
       <c r="O23" s="17"/>
@@ -8474,9 +8545,9 @@
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="49"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="49"/>
       <c r="M24" s="57">
         <f t="shared" si="53"/>
@@ -8579,26 +8650,14 @@
     </row>
     <row r="25" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B25" s="39"/>
-      <c r="C25" s="39">
-        <v>2</v>
-      </c>
+      <c r="C25" s="39"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>156</v>
-      </c>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="49"/>
-      <c r="H25" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>178</v>
-      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="57">
@@ -8699,33 +8758,30 @@
       <c r="DB25" s="17"/>
       <c r="DC25" s="17"/>
       <c r="DD25" s="17"/>
-      <c r="DE25" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="26" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="C26" s="39">
+        <v>2</v>
+      </c>
       <c r="D26" s="51"/>
-      <c r="E26" s="49"/>
+      <c r="E26" s="49" t="s">
+        <v>148</v>
+      </c>
       <c r="F26" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="49">
-        <v>2</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G26" s="49"/>
       <c r="H26" s="50" t="s">
         <v>198</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="J26" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="K26" s="64" t="s">
-        <v>182</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="49"/>
       <c r="L26" s="49"/>
       <c r="M26" s="57">
         <f t="shared" si="53"/>
@@ -8825,15 +8881,20 @@
       <c r="DB26" s="17"/>
       <c r="DC26" s="17"/>
       <c r="DD26" s="17"/>
+      <c r="DE26" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="51"/>
       <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="F27" s="49" t="s">
+        <v>172</v>
+      </c>
       <c r="G27" s="49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H27" s="50" t="s">
         <v>198</v>
@@ -8841,10 +8902,10 @@
       <c r="I27" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J27" s="62" t="s">
+      <c r="J27" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K27" s="64" t="s">
+      <c r="K27" s="62" t="s">
         <v>182</v>
       </c>
       <c r="L27" s="49"/>
@@ -8954,7 +9015,7 @@
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
       <c r="G28" s="49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="50" t="s">
         <v>198</v>
@@ -8962,10 +9023,10 @@
       <c r="I28" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J28" s="62" t="s">
+      <c r="J28" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K28" s="64" t="s">
+      <c r="K28" s="62" t="s">
         <v>182</v>
       </c>
       <c r="L28" s="49"/>
@@ -9075,7 +9136,7 @@
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H29" s="50" t="s">
         <v>198</v>
@@ -9083,10 +9144,10 @@
       <c r="I29" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K29" s="64" t="s">
+      <c r="K29" s="62" t="s">
         <v>182</v>
       </c>
       <c r="L29" s="49"/>
@@ -9196,7 +9257,7 @@
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="50" t="s">
         <v>198</v>
@@ -9204,10 +9265,10 @@
       <c r="I30" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K30" s="64" t="s">
+      <c r="K30" s="62" t="s">
         <v>182</v>
       </c>
       <c r="L30" s="49"/>
@@ -9317,7 +9378,7 @@
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" s="50" t="s">
         <v>198</v>
@@ -9325,10 +9386,10 @@
       <c r="I31" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J31" s="62" t="s">
+      <c r="J31" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K31" s="64" t="s">
+      <c r="K31" s="62" t="s">
         <v>182</v>
       </c>
       <c r="L31" s="49"/>
@@ -9438,7 +9499,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
       <c r="G32" s="49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="50" t="s">
         <v>198</v>
@@ -9446,10 +9507,10 @@
       <c r="I32" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J32" s="62" t="s">
+      <c r="J32" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K32" s="64" t="s">
+      <c r="K32" s="62" t="s">
         <v>182</v>
       </c>
       <c r="L32" s="49"/>
@@ -9559,7 +9620,7 @@
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" s="50" t="s">
         <v>198</v>
@@ -9567,10 +9628,10 @@
       <c r="I33" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J33" s="62" t="s">
+      <c r="J33" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K33" s="64" t="s">
+      <c r="K33" s="62" t="s">
         <v>182</v>
       </c>
       <c r="L33" s="49"/>
@@ -9680,7 +9741,7 @@
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="50" t="s">
         <v>198</v>
@@ -9688,10 +9749,10 @@
       <c r="I34" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J34" s="62" t="s">
+      <c r="J34" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="64" t="s">
+      <c r="K34" s="62" t="s">
         <v>182</v>
       </c>
       <c r="L34" s="49"/>
@@ -9801,7 +9862,7 @@
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
       <c r="G35" s="49">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>198</v>
@@ -9809,10 +9870,10 @@
       <c r="I35" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J35" s="62" t="s">
+      <c r="J35" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K35" s="64" t="s">
+      <c r="K35" s="62" t="s">
         <v>182</v>
       </c>
       <c r="L35" s="49"/>
@@ -9922,7 +9983,7 @@
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
       <c r="G36" s="49">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H36" s="50" t="s">
         <v>198</v>
@@ -9930,10 +9991,10 @@
       <c r="I36" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J36" s="62" t="s">
+      <c r="J36" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K36" s="64" t="s">
+      <c r="K36" s="62" t="s">
         <v>182</v>
       </c>
       <c r="L36" s="49"/>
@@ -10042,11 +10103,21 @@
       <c r="D37" s="51"/>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="49"/>
+      <c r="G37" s="49">
+        <v>22</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="62" t="s">
+        <v>182</v>
+      </c>
       <c r="L37" s="49"/>
       <c r="M37" s="57">
         <f t="shared" si="53"/>
@@ -10149,30 +10220,16 @@
     </row>
     <row r="38" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B38" s="39"/>
-      <c r="C38" s="39">
-        <v>3</v>
-      </c>
+      <c r="C38" s="39"/>
       <c r="D38" s="51"/>
-      <c r="E38" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>179</v>
-      </c>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="49"/>
-      <c r="H38" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="I38" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="J38" s="50" t="s">
-        <v>178</v>
-      </c>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
       <c r="K38" s="49"/>
-      <c r="L38" s="49" t="s">
-        <v>180</v>
-      </c>
+      <c r="L38" s="49"/>
       <c r="M38" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -10274,16 +10331,30 @@
     </row>
     <row r="39" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="C39" s="39">
+        <v>3</v>
+      </c>
       <c r="D39" s="51"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
+      <c r="E39" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>179</v>
+      </c>
       <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
+      <c r="H39" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J39" s="50" t="s">
+        <v>178</v>
+      </c>
       <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
+      <c r="L39" s="49" t="s">
+        <v>180</v>
+      </c>
       <c r="M39" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -10387,22 +10458,12 @@
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="51"/>
-      <c r="E40" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>173</v>
-      </c>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="49"/>
-      <c r="H40" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="I40" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="J40" s="50" t="s">
-        <v>178</v>
-      </c>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
       <c r="M40" s="57">
@@ -10508,12 +10569,22 @@
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="51"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
+      <c r="E41" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>173</v>
+      </c>
       <c r="G41" s="49"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
+      <c r="H41" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>178</v>
+      </c>
       <c r="K41" s="49"/>
       <c r="L41" s="49"/>
       <c r="M41" s="57">
@@ -10619,21 +10690,13 @@
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="51"/>
-      <c r="E42" s="49" t="s">
-        <v>176</v>
-      </c>
+      <c r="E42" s="49"/>
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
-      <c r="H42" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="I42" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="J42" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="K42" s="64"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="49"/>
       <c r="L42" s="49"/>
       <c r="M42" s="57">
         <f t="shared" si="53"/>
@@ -10738,21 +10801,25 @@
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="51"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M43" s="56">
+      <c r="E43" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="J43" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="K43" s="62"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="57">
         <f t="shared" si="53"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
@@ -10779,9 +10846,7 @@
       <c r="AK43" s="17"/>
       <c r="AL43" s="17"/>
       <c r="AM43" s="17"/>
-      <c r="AN43" s="17">
-        <v>16.5</v>
-      </c>
+      <c r="AN43" s="17"/>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
       <c r="AQ43" s="17"/>
@@ -10856,16 +10921,20 @@
       <c r="C44" s="39"/>
       <c r="D44" s="51"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="M44" s="56">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
@@ -10892,7 +10961,9 @@
       <c r="AK44" s="17"/>
       <c r="AL44" s="17"/>
       <c r="AM44" s="17"/>
-      <c r="AN44" s="17"/>
+      <c r="AN44" s="17">
+        <v>16.5</v>
+      </c>
       <c r="AO44" s="17"/>
       <c r="AP44" s="17"/>
       <c r="AQ44" s="17"/>
@@ -10963,35 +11034,17 @@
       <c r="DD44" s="17"/>
     </row>
     <row r="45" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="B45" s="39">
-        <v>2</v>
-      </c>
-      <c r="C45" s="39">
-        <v>1</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>201</v>
-      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
       <c r="J45" s="39"/>
-      <c r="K45" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>165</v>
-      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
       <c r="M45" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -11092,17 +11145,35 @@
       <c r="DD45" s="17"/>
     </row>
     <row r="46" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="B46" s="39">
+        <v>2</v>
+      </c>
+      <c r="C46" s="39">
+        <v>1</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
+      <c r="H46" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>201</v>
+      </c>
       <c r="J46" s="39"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="K46" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="M46" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -11206,21 +11277,13 @@
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
       <c r="D47" s="52"/>
-      <c r="E47" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>196</v>
-      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
       <c r="J47" s="39"/>
-      <c r="K47" s="39" t="s">
-        <v>196</v>
-      </c>
+      <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="56">
         <f t="shared" si="53"/>
@@ -11320,21 +11383,26 @@
       <c r="DB47" s="17"/>
       <c r="DC47" s="17"/>
       <c r="DD47" s="17"/>
-      <c r="DE47" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="48" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="52"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
+      <c r="H48" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="J48" s="39"/>
-      <c r="K48" s="7"/>
+      <c r="K48" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="L48" s="7"/>
       <c r="M48" s="56">
         <f t="shared" si="53"/>
@@ -11442,23 +11510,15 @@
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="52"/>
-      <c r="E49" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="I49" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="J49" s="50"/>
-      <c r="K49" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="L49" s="49"/>
-      <c r="M49" s="57">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11564,15 +11624,23 @@
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="52"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="56">
+      <c r="E50" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="J50" s="50"/>
+      <c r="K50" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="L50" s="49"/>
+      <c r="M50" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11678,21 +11746,13 @@
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="52"/>
-      <c r="E51" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>202</v>
-      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
       <c r="J51" s="39"/>
-      <c r="K51" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="56">
         <f t="shared" si="53"/>
@@ -11800,13 +11860,21 @@
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="52"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
+      <c r="H52" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>202</v>
+      </c>
       <c r="J52" s="39"/>
-      <c r="K52" s="7"/>
+      <c r="K52" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="L52" s="7"/>
       <c r="M52" s="56">
         <f t="shared" si="53"/>
@@ -11910,30 +11978,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="52"/>
-      <c r="E53" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>203</v>
-      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
       <c r="J53" s="39"/>
-      <c r="K53" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
       <c r="M53" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -12036,18 +12092,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:109" ht="27" x14ac:dyDescent="0.15">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="52"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="G54" s="7"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
+      <c r="H54" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>203</v>
+      </c>
       <c r="J54" s="39"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
+      <c r="K54" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="M54" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -12154,16 +12222,10 @@
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="52"/>
-      <c r="E55" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>174</v>
-      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="39" t="s">
-        <v>199</v>
-      </c>
+      <c r="H55" s="39"/>
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
       <c r="K55" s="7"/>
@@ -12274,10 +12336,16 @@
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="52"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="39"/>
+      <c r="H56" s="39" t="s">
+        <v>199</v>
+      </c>
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
       <c r="K56" s="7"/>
@@ -12387,7 +12455,7 @@
     <row r="57" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
-      <c r="D57" s="7"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -12955,711 +13023,729 @@
       </c>
     </row>
     <row r="62" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="58">
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
-      <c r="X62" s="18"/>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="18"/>
-      <c r="AA62" s="18"/>
-      <c r="AB62" s="18"/>
-      <c r="AC62" s="18"/>
-      <c r="AD62" s="18"/>
-      <c r="AE62" s="18"/>
-      <c r="AF62" s="18"/>
-      <c r="AG62" s="18"/>
-      <c r="AH62" s="18"/>
-      <c r="AI62" s="18"/>
-      <c r="AJ62" s="18"/>
-      <c r="AK62" s="18"/>
-      <c r="AL62" s="18"/>
-      <c r="AM62" s="18"/>
-      <c r="AN62" s="18"/>
-      <c r="AO62" s="18"/>
-      <c r="AP62" s="18"/>
-      <c r="AQ62" s="18"/>
-      <c r="AR62" s="18"/>
-      <c r="AS62" s="18"/>
-      <c r="AT62" s="18"/>
-      <c r="AU62" s="18"/>
-      <c r="AV62" s="18"/>
-      <c r="AW62" s="18"/>
-      <c r="AX62" s="18"/>
-      <c r="AY62" s="18"/>
-      <c r="AZ62" s="18"/>
-      <c r="BA62" s="18"/>
-      <c r="BB62" s="18"/>
-      <c r="BC62" s="18"/>
-      <c r="BD62" s="18"/>
-      <c r="BE62" s="18"/>
-      <c r="BF62" s="18"/>
-      <c r="BG62" s="18"/>
-      <c r="BH62" s="18"/>
-      <c r="BI62" s="18"/>
-      <c r="BJ62" s="18"/>
-      <c r="BK62" s="18"/>
-      <c r="BL62" s="18"/>
-      <c r="BM62" s="18"/>
-      <c r="BN62" s="18"/>
-      <c r="BO62" s="18"/>
-      <c r="BP62" s="18"/>
-      <c r="BQ62" s="18"/>
-      <c r="BR62" s="18"/>
-      <c r="BS62" s="18"/>
-      <c r="BT62" s="18"/>
-      <c r="BU62" s="18"/>
-      <c r="BV62" s="18"/>
-      <c r="BW62" s="18"/>
-      <c r="BX62" s="18"/>
-      <c r="BY62" s="18"/>
-      <c r="BZ62" s="18"/>
-      <c r="CA62" s="18"/>
-      <c r="CB62" s="18"/>
-      <c r="CC62" s="18"/>
-      <c r="CD62" s="18"/>
-      <c r="CE62" s="18"/>
-      <c r="CF62" s="18"/>
-      <c r="CG62" s="18"/>
-      <c r="CH62" s="18"/>
-      <c r="CI62" s="18"/>
-      <c r="CJ62" s="18"/>
-      <c r="CK62" s="18"/>
-      <c r="CL62" s="18"/>
-      <c r="CM62" s="18"/>
-      <c r="CN62" s="18"/>
-      <c r="CO62" s="18"/>
-      <c r="CP62" s="18"/>
-      <c r="CQ62" s="18"/>
-      <c r="CR62" s="18"/>
-      <c r="CS62" s="18"/>
-      <c r="CT62" s="18"/>
-      <c r="CU62" s="18"/>
-      <c r="CV62" s="18"/>
-      <c r="CW62" s="18"/>
-      <c r="CX62" s="18"/>
-      <c r="CY62" s="18"/>
-      <c r="CZ62" s="18"/>
-      <c r="DA62" s="18"/>
-      <c r="DB62" s="18"/>
-      <c r="DC62" s="18"/>
-      <c r="DD62" s="18"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="17"/>
+      <c r="AD62" s="17"/>
+      <c r="AE62" s="17"/>
+      <c r="AF62" s="17"/>
+      <c r="AG62" s="17"/>
+      <c r="AH62" s="17"/>
+      <c r="AI62" s="17"/>
+      <c r="AJ62" s="17"/>
+      <c r="AK62" s="17"/>
+      <c r="AL62" s="17"/>
+      <c r="AM62" s="17"/>
+      <c r="AN62" s="17"/>
+      <c r="AO62" s="17"/>
+      <c r="AP62" s="17"/>
+      <c r="AQ62" s="17"/>
+      <c r="AR62" s="17"/>
+      <c r="AS62" s="17"/>
+      <c r="AT62" s="17"/>
+      <c r="AU62" s="17"/>
+      <c r="AV62" s="17"/>
+      <c r="AW62" s="17"/>
+      <c r="AX62" s="17"/>
+      <c r="AY62" s="17"/>
+      <c r="AZ62" s="17"/>
+      <c r="BA62" s="17"/>
+      <c r="BB62" s="17"/>
+      <c r="BC62" s="17"/>
+      <c r="BD62" s="17"/>
+      <c r="BE62" s="17"/>
+      <c r="BF62" s="17"/>
+      <c r="BG62" s="17"/>
+      <c r="BH62" s="17"/>
+      <c r="BI62" s="17"/>
+      <c r="BJ62" s="17"/>
+      <c r="BK62" s="17"/>
+      <c r="BL62" s="17"/>
+      <c r="BM62" s="17"/>
+      <c r="BN62" s="17"/>
+      <c r="BO62" s="17"/>
+      <c r="BP62" s="17"/>
+      <c r="BQ62" s="17"/>
+      <c r="BR62" s="17"/>
+      <c r="BS62" s="17"/>
+      <c r="BT62" s="17"/>
+      <c r="BU62" s="17"/>
+      <c r="BV62" s="17"/>
+      <c r="BW62" s="17"/>
+      <c r="BX62" s="17"/>
+      <c r="BY62" s="17"/>
+      <c r="BZ62" s="17"/>
+      <c r="CA62" s="17"/>
+      <c r="CB62" s="17"/>
+      <c r="CC62" s="17"/>
+      <c r="CD62" s="17"/>
+      <c r="CE62" s="17"/>
+      <c r="CF62" s="17"/>
+      <c r="CG62" s="17"/>
+      <c r="CH62" s="17"/>
+      <c r="CI62" s="17"/>
+      <c r="CJ62" s="17"/>
+      <c r="CK62" s="17"/>
+      <c r="CL62" s="17"/>
+      <c r="CM62" s="17"/>
+      <c r="CN62" s="17"/>
+      <c r="CO62" s="17"/>
+      <c r="CP62" s="17"/>
+      <c r="CQ62" s="17"/>
+      <c r="CR62" s="17"/>
+      <c r="CS62" s="17"/>
+      <c r="CT62" s="17"/>
+      <c r="CU62" s="17"/>
+      <c r="CV62" s="17"/>
+      <c r="CW62" s="17"/>
+      <c r="CX62" s="17"/>
+      <c r="CY62" s="17"/>
+      <c r="CZ62" s="17"/>
+      <c r="DA62" s="17"/>
+      <c r="DB62" s="17"/>
+      <c r="DC62" s="17"/>
+      <c r="DD62" s="17"/>
       <c r="DE62" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="M63" s="54">
-        <f>SUM(O63:DD63)</f>
-        <v>18</v>
-      </c>
-      <c r="O63" s="20">
-        <f t="shared" ref="O63:AT63" si="56">SUM(O13:O62)</f>
-        <v>0</v>
-      </c>
-      <c r="P63" s="20">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="58">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="18"/>
+      <c r="AA63" s="18"/>
+      <c r="AB63" s="18"/>
+      <c r="AC63" s="18"/>
+      <c r="AD63" s="18"/>
+      <c r="AE63" s="18"/>
+      <c r="AF63" s="18"/>
+      <c r="AG63" s="18"/>
+      <c r="AH63" s="18"/>
+      <c r="AI63" s="18"/>
+      <c r="AJ63" s="18"/>
+      <c r="AK63" s="18"/>
+      <c r="AL63" s="18"/>
+      <c r="AM63" s="18"/>
+      <c r="AN63" s="18"/>
+      <c r="AO63" s="18"/>
+      <c r="AP63" s="18"/>
+      <c r="AQ63" s="18"/>
+      <c r="AR63" s="18"/>
+      <c r="AS63" s="18"/>
+      <c r="AT63" s="18"/>
+      <c r="AU63" s="18"/>
+      <c r="AV63" s="18"/>
+      <c r="AW63" s="18"/>
+      <c r="AX63" s="18"/>
+      <c r="AY63" s="18"/>
+      <c r="AZ63" s="18"/>
+      <c r="BA63" s="18"/>
+      <c r="BB63" s="18"/>
+      <c r="BC63" s="18"/>
+      <c r="BD63" s="18"/>
+      <c r="BE63" s="18"/>
+      <c r="BF63" s="18"/>
+      <c r="BG63" s="18"/>
+      <c r="BH63" s="18"/>
+      <c r="BI63" s="18"/>
+      <c r="BJ63" s="18"/>
+      <c r="BK63" s="18"/>
+      <c r="BL63" s="18"/>
+      <c r="BM63" s="18"/>
+      <c r="BN63" s="18"/>
+      <c r="BO63" s="18"/>
+      <c r="BP63" s="18"/>
+      <c r="BQ63" s="18"/>
+      <c r="BR63" s="18"/>
+      <c r="BS63" s="18"/>
+      <c r="BT63" s="18"/>
+      <c r="BU63" s="18"/>
+      <c r="BV63" s="18"/>
+      <c r="BW63" s="18"/>
+      <c r="BX63" s="18"/>
+      <c r="BY63" s="18"/>
+      <c r="BZ63" s="18"/>
+      <c r="CA63" s="18"/>
+      <c r="CB63" s="18"/>
+      <c r="CC63" s="18"/>
+      <c r="CD63" s="18"/>
+      <c r="CE63" s="18"/>
+      <c r="CF63" s="18"/>
+      <c r="CG63" s="18"/>
+      <c r="CH63" s="18"/>
+      <c r="CI63" s="18"/>
+      <c r="CJ63" s="18"/>
+      <c r="CK63" s="18"/>
+      <c r="CL63" s="18"/>
+      <c r="CM63" s="18"/>
+      <c r="CN63" s="18"/>
+      <c r="CO63" s="18"/>
+      <c r="CP63" s="18"/>
+      <c r="CQ63" s="18"/>
+      <c r="CR63" s="18"/>
+      <c r="CS63" s="18"/>
+      <c r="CT63" s="18"/>
+      <c r="CU63" s="18"/>
+      <c r="CV63" s="18"/>
+      <c r="CW63" s="18"/>
+      <c r="CX63" s="18"/>
+      <c r="CY63" s="18"/>
+      <c r="CZ63" s="18"/>
+      <c r="DA63" s="18"/>
+      <c r="DB63" s="18"/>
+      <c r="DC63" s="18"/>
+      <c r="DD63" s="18"/>
+      <c r="DE63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="2:109" x14ac:dyDescent="0.15">
+      <c r="M64" s="54">
+        <f>SUM(O64:DD64)</f>
+        <v>19.5</v>
+      </c>
+      <c r="O64" s="20">
+        <f t="shared" ref="O64:AT64" si="56">SUM(O13:O63)</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="20">
+      <c r="Q64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="R63" s="20">
+      <c r="R64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="S63" s="20">
+      <c r="S64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="T63" s="20">
+      <c r="T64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="U63" s="20">
+      <c r="U64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="V63" s="20">
+      <c r="V64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="W63" s="20">
+      <c r="W64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="X63" s="20">
+      <c r="X64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="Y63" s="20">
+      <c r="Y64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="Z63" s="20">
+      <c r="Z64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AA63" s="20">
+      <c r="AA64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AB63" s="20">
+      <c r="AB64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AC63" s="20">
+      <c r="AC64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AD63" s="20">
+      <c r="AD64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AE63" s="20">
+      <c r="AE64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AF63" s="20">
+      <c r="AF64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AG63" s="20">
+      <c r="AG64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AH63" s="20">
+      <c r="AH64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AI63" s="20">
+      <c r="AI64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AJ63" s="20">
+      <c r="AJ64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AK63" s="20">
+      <c r="AK64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AL63" s="20">
+      <c r="AL64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AM63" s="20">
+      <c r="AM64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AN63" s="20">
+      <c r="AN64" s="20">
         <f t="shared" si="56"/>
         <v>16.5</v>
       </c>
-      <c r="AO63" s="20">
+      <c r="AO64" s="20">
         <f t="shared" si="56"/>
         <v>1.5</v>
       </c>
-      <c r="AP63" s="20">
+      <c r="AP64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AQ63" s="20">
+      <c r="AQ64" s="20">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AR63" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="AR64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AS63" s="20">
+      <c r="AS64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AT63" s="20">
+      <c r="AT64" s="20">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AU63" s="20">
-        <f t="shared" ref="AU63:BZ63" si="57">SUM(AU13:AU62)</f>
-        <v>0</v>
-      </c>
-      <c r="AV63" s="20">
+      <c r="AU64" s="20">
+        <f t="shared" ref="AU64:BZ64" si="57">SUM(AU13:AU63)</f>
+        <v>0</v>
+      </c>
+      <c r="AV64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="AW63" s="20">
+      <c r="AW64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="AX63" s="20">
+      <c r="AX64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="AY63" s="20">
+      <c r="AY64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="AZ63" s="20">
+      <c r="AZ64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BA63" s="20">
+      <c r="BA64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BB63" s="20">
+      <c r="BB64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BC63" s="20">
+      <c r="BC64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BD63" s="20">
+      <c r="BD64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BE63" s="20">
+      <c r="BE64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BF63" s="20">
+      <c r="BF64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BG63" s="20">
+      <c r="BG64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BH63" s="20">
+      <c r="BH64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BI63" s="20">
+      <c r="BI64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BJ63" s="20">
+      <c r="BJ64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BK63" s="20">
+      <c r="BK64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BL63" s="20">
+      <c r="BL64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BM63" s="20">
+      <c r="BM64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BN63" s="20">
+      <c r="BN64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BO63" s="20">
+      <c r="BO64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BP63" s="20">
+      <c r="BP64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BQ63" s="20">
+      <c r="BQ64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BR63" s="20">
+      <c r="BR64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BS63" s="20">
+      <c r="BS64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BT63" s="20">
+      <c r="BT64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BU63" s="20">
+      <c r="BU64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BV63" s="20">
+      <c r="BV64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BW63" s="20">
+      <c r="BW64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BX63" s="20">
+      <c r="BX64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BY63" s="20">
+      <c r="BY64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BZ63" s="20">
+      <c r="BZ64" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="CA63" s="20">
-        <f t="shared" ref="CA63:DF63" si="58">SUM(CA13:CA62)</f>
-        <v>0</v>
-      </c>
-      <c r="CB63" s="20">
+      <c r="CA64" s="20">
+        <f t="shared" ref="CA64:DD64" si="58">SUM(CA13:CA63)</f>
+        <v>0</v>
+      </c>
+      <c r="CB64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CC63" s="20">
+      <c r="CC64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CD63" s="20">
+      <c r="CD64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CE63" s="20">
+      <c r="CE64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CF63" s="20">
+      <c r="CF64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CG63" s="20">
+      <c r="CG64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CH63" s="20">
+      <c r="CH64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CI63" s="20">
+      <c r="CI64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CJ63" s="20">
+      <c r="CJ64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CK63" s="20">
+      <c r="CK64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CL63" s="20">
+      <c r="CL64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CM63" s="20">
+      <c r="CM64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CN63" s="20">
+      <c r="CN64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CO63" s="20">
+      <c r="CO64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CP63" s="20">
+      <c r="CP64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CQ63" s="20">
+      <c r="CQ64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CR63" s="20">
+      <c r="CR64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CS63" s="20">
+      <c r="CS64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CT63" s="20">
+      <c r="CT64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CU63" s="20">
+      <c r="CU64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CV63" s="20">
+      <c r="CV64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CW63" s="20">
+      <c r="CW64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CX63" s="20">
+      <c r="CX64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CY63" s="20">
+      <c r="CY64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CZ63" s="20">
+      <c r="CZ64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="DA63" s="20">
+      <c r="DA64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="DB63" s="20">
+      <c r="DB64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="DC63" s="20">
+      <c r="DC64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="DD63" s="20">
+      <c r="DD64" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="DE63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="2:109" x14ac:dyDescent="0.15">
       <c r="DE64" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="65" spans="5:109" x14ac:dyDescent="0.15">
-      <c r="E65" s="21"/>
       <c r="DE65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="66" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="E66" s="21"/>
       <c r="DE66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="5:109" x14ac:dyDescent="0.15">
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-      <c r="Z78"/>
-      <c r="AA78"/>
-      <c r="AB78"/>
-      <c r="AC78"/>
-      <c r="AD78"/>
-      <c r="AE78"/>
-      <c r="AF78"/>
-      <c r="AG78"/>
-      <c r="AH78"/>
-      <c r="AI78"/>
-      <c r="AJ78"/>
-      <c r="AK78"/>
-      <c r="AL78"/>
-      <c r="AM78"/>
-      <c r="AN78"/>
-      <c r="AO78"/>
-      <c r="AP78"/>
-      <c r="AQ78"/>
-      <c r="AR78"/>
-      <c r="AS78"/>
-      <c r="AT78"/>
-      <c r="AU78"/>
-      <c r="AV78"/>
-      <c r="AW78"/>
-      <c r="AX78"/>
-      <c r="AY78"/>
-      <c r="AZ78"/>
-      <c r="BA78"/>
-      <c r="BB78"/>
-      <c r="BC78"/>
-      <c r="BD78"/>
-      <c r="BE78"/>
-      <c r="BF78"/>
-      <c r="BG78"/>
-      <c r="BH78"/>
-      <c r="BI78"/>
-      <c r="BJ78"/>
-      <c r="BK78"/>
-      <c r="BL78"/>
-      <c r="BM78"/>
-      <c r="BN78"/>
-      <c r="BO78"/>
-      <c r="BP78"/>
-      <c r="BQ78"/>
-      <c r="BR78"/>
-      <c r="BS78"/>
-      <c r="BT78"/>
-      <c r="BU78"/>
-      <c r="BV78"/>
-      <c r="BW78"/>
-      <c r="BX78"/>
-      <c r="BY78"/>
-      <c r="BZ78"/>
-      <c r="CA78"/>
-      <c r="CB78"/>
-      <c r="CC78"/>
-      <c r="CD78"/>
-      <c r="CE78"/>
-      <c r="CF78"/>
-      <c r="CG78"/>
-      <c r="CH78"/>
-      <c r="CI78"/>
-      <c r="CJ78"/>
-      <c r="CK78"/>
-      <c r="CL78"/>
-      <c r="CM78"/>
-      <c r="CN78"/>
-      <c r="CO78"/>
-      <c r="CP78"/>
-      <c r="CQ78"/>
-      <c r="CR78"/>
-      <c r="CS78"/>
-      <c r="CT78"/>
-      <c r="CU78"/>
-      <c r="CV78"/>
-      <c r="CW78"/>
-      <c r="CX78"/>
-      <c r="CY78"/>
-      <c r="CZ78"/>
-      <c r="DA78"/>
-      <c r="DB78"/>
-      <c r="DC78"/>
-      <c r="DD78"/>
-    </row>
-    <row r="81" spans="15:108" x14ac:dyDescent="0.15">
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-      <c r="Z81"/>
-      <c r="AA81"/>
-      <c r="AB81"/>
-      <c r="AC81"/>
-      <c r="AD81"/>
-      <c r="AE81"/>
-      <c r="AF81"/>
-      <c r="AG81"/>
-      <c r="AH81"/>
-      <c r="AI81"/>
-      <c r="AJ81"/>
-      <c r="AK81"/>
-      <c r="AL81"/>
-      <c r="AM81"/>
-      <c r="AN81"/>
-      <c r="AO81"/>
-      <c r="AP81"/>
-      <c r="AQ81"/>
-      <c r="AR81"/>
-      <c r="AS81"/>
-      <c r="AT81"/>
-      <c r="AU81"/>
-      <c r="AV81"/>
-      <c r="AW81"/>
-      <c r="AX81"/>
-      <c r="AY81"/>
-      <c r="AZ81"/>
-      <c r="BA81"/>
-      <c r="BB81"/>
-      <c r="BC81"/>
-      <c r="BD81"/>
-      <c r="BE81"/>
-      <c r="BF81"/>
-      <c r="BG81"/>
-      <c r="BH81"/>
-      <c r="BI81"/>
-      <c r="BJ81"/>
-      <c r="BK81"/>
-      <c r="BL81"/>
-      <c r="BM81"/>
-      <c r="BN81"/>
-      <c r="BO81"/>
-      <c r="BP81"/>
-      <c r="BQ81"/>
-      <c r="BR81"/>
-      <c r="BS81"/>
-      <c r="BT81"/>
-      <c r="BU81"/>
-      <c r="BV81"/>
-      <c r="BW81"/>
-      <c r="BX81"/>
-      <c r="BY81"/>
-      <c r="BZ81"/>
-      <c r="CA81"/>
-      <c r="CB81"/>
-      <c r="CC81"/>
-      <c r="CD81"/>
-      <c r="CE81"/>
-      <c r="CF81"/>
-      <c r="CG81"/>
-      <c r="CH81"/>
-      <c r="CI81"/>
-      <c r="CJ81"/>
-      <c r="CK81"/>
-      <c r="CL81"/>
-      <c r="CM81"/>
-      <c r="CN81"/>
-      <c r="CO81"/>
-      <c r="CP81"/>
-      <c r="CQ81"/>
-      <c r="CR81"/>
-      <c r="CS81"/>
-      <c r="CT81"/>
-      <c r="CU81"/>
-      <c r="CV81"/>
-      <c r="CW81"/>
-      <c r="CX81"/>
-      <c r="CY81"/>
-      <c r="CZ81"/>
-      <c r="DA81"/>
-      <c r="DB81"/>
-      <c r="DC81"/>
-      <c r="DD81"/>
+    <row r="67" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="DE67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79"/>
+      <c r="AI79"/>
+      <c r="AJ79"/>
+      <c r="AK79"/>
+      <c r="AL79"/>
+      <c r="AM79"/>
+      <c r="AN79"/>
+      <c r="AO79"/>
+      <c r="AP79"/>
+      <c r="AQ79"/>
+      <c r="AR79"/>
+      <c r="AS79"/>
+      <c r="AT79"/>
+      <c r="AU79"/>
+      <c r="AV79"/>
+      <c r="AW79"/>
+      <c r="AX79"/>
+      <c r="AY79"/>
+      <c r="AZ79"/>
+      <c r="BA79"/>
+      <c r="BB79"/>
+      <c r="BC79"/>
+      <c r="BD79"/>
+      <c r="BE79"/>
+      <c r="BF79"/>
+      <c r="BG79"/>
+      <c r="BH79"/>
+      <c r="BI79"/>
+      <c r="BJ79"/>
+      <c r="BK79"/>
+      <c r="BL79"/>
+      <c r="BM79"/>
+      <c r="BN79"/>
+      <c r="BO79"/>
+      <c r="BP79"/>
+      <c r="BQ79"/>
+      <c r="BR79"/>
+      <c r="BS79"/>
+      <c r="BT79"/>
+      <c r="BU79"/>
+      <c r="BV79"/>
+      <c r="BW79"/>
+      <c r="BX79"/>
+      <c r="BY79"/>
+      <c r="BZ79"/>
+      <c r="CA79"/>
+      <c r="CB79"/>
+      <c r="CC79"/>
+      <c r="CD79"/>
+      <c r="CE79"/>
+      <c r="CF79"/>
+      <c r="CG79"/>
+      <c r="CH79"/>
+      <c r="CI79"/>
+      <c r="CJ79"/>
+      <c r="CK79"/>
+      <c r="CL79"/>
+      <c r="CM79"/>
+      <c r="CN79"/>
+      <c r="CO79"/>
+      <c r="CP79"/>
+      <c r="CQ79"/>
+      <c r="CR79"/>
+      <c r="CS79"/>
+      <c r="CT79"/>
+      <c r="CU79"/>
+      <c r="CV79"/>
+      <c r="CW79"/>
+      <c r="CX79"/>
+      <c r="CY79"/>
+      <c r="CZ79"/>
+      <c r="DA79"/>
+      <c r="DB79"/>
+      <c r="DC79"/>
+      <c r="DD79"/>
     </row>
     <row r="82" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O82"/>
@@ -14333,101 +14419,101 @@
       <c r="DC88"/>
       <c r="DD88"/>
     </row>
-    <row r="90" spans="15:108" x14ac:dyDescent="0.15">
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
-      <c r="R90"/>
-      <c r="S90"/>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-      <c r="Z90"/>
-      <c r="AA90"/>
-      <c r="AB90"/>
-      <c r="AC90"/>
-      <c r="AD90"/>
-      <c r="AE90"/>
-      <c r="AF90"/>
-      <c r="AG90"/>
-      <c r="AH90"/>
-      <c r="AI90"/>
-      <c r="AJ90"/>
-      <c r="AK90"/>
-      <c r="AL90"/>
-      <c r="AM90"/>
-      <c r="AN90"/>
-      <c r="AO90"/>
-      <c r="AP90"/>
-      <c r="AQ90"/>
-      <c r="AR90"/>
-      <c r="AS90"/>
-      <c r="AT90"/>
-      <c r="AU90"/>
-      <c r="AV90"/>
-      <c r="AW90"/>
-      <c r="AX90"/>
-      <c r="AY90"/>
-      <c r="AZ90"/>
-      <c r="BA90"/>
-      <c r="BB90"/>
-      <c r="BC90"/>
-      <c r="BD90"/>
-      <c r="BE90"/>
-      <c r="BF90"/>
-      <c r="BG90"/>
-      <c r="BH90"/>
-      <c r="BI90"/>
-      <c r="BJ90"/>
-      <c r="BK90"/>
-      <c r="BL90"/>
-      <c r="BM90"/>
-      <c r="BN90"/>
-      <c r="BO90"/>
-      <c r="BP90"/>
-      <c r="BQ90"/>
-      <c r="BR90"/>
-      <c r="BS90"/>
-      <c r="BT90"/>
-      <c r="BU90"/>
-      <c r="BV90"/>
-      <c r="BW90"/>
-      <c r="BX90"/>
-      <c r="BY90"/>
-      <c r="BZ90"/>
-      <c r="CA90"/>
-      <c r="CB90"/>
-      <c r="CC90"/>
-      <c r="CD90"/>
-      <c r="CE90"/>
-      <c r="CF90"/>
-      <c r="CG90"/>
-      <c r="CH90"/>
-      <c r="CI90"/>
-      <c r="CJ90"/>
-      <c r="CK90"/>
-      <c r="CL90"/>
-      <c r="CM90"/>
-      <c r="CN90"/>
-      <c r="CO90"/>
-      <c r="CP90"/>
-      <c r="CQ90"/>
-      <c r="CR90"/>
-      <c r="CS90"/>
-      <c r="CT90"/>
-      <c r="CU90"/>
-      <c r="CV90"/>
-      <c r="CW90"/>
-      <c r="CX90"/>
-      <c r="CY90"/>
-      <c r="CZ90"/>
-      <c r="DA90"/>
-      <c r="DB90"/>
-      <c r="DC90"/>
-      <c r="DD90"/>
+    <row r="89" spans="15:108" x14ac:dyDescent="0.15">
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+      <c r="AG89"/>
+      <c r="AH89"/>
+      <c r="AI89"/>
+      <c r="AJ89"/>
+      <c r="AK89"/>
+      <c r="AL89"/>
+      <c r="AM89"/>
+      <c r="AN89"/>
+      <c r="AO89"/>
+      <c r="AP89"/>
+      <c r="AQ89"/>
+      <c r="AR89"/>
+      <c r="AS89"/>
+      <c r="AT89"/>
+      <c r="AU89"/>
+      <c r="AV89"/>
+      <c r="AW89"/>
+      <c r="AX89"/>
+      <c r="AY89"/>
+      <c r="AZ89"/>
+      <c r="BA89"/>
+      <c r="BB89"/>
+      <c r="BC89"/>
+      <c r="BD89"/>
+      <c r="BE89"/>
+      <c r="BF89"/>
+      <c r="BG89"/>
+      <c r="BH89"/>
+      <c r="BI89"/>
+      <c r="BJ89"/>
+      <c r="BK89"/>
+      <c r="BL89"/>
+      <c r="BM89"/>
+      <c r="BN89"/>
+      <c r="BO89"/>
+      <c r="BP89"/>
+      <c r="BQ89"/>
+      <c r="BR89"/>
+      <c r="BS89"/>
+      <c r="BT89"/>
+      <c r="BU89"/>
+      <c r="BV89"/>
+      <c r="BW89"/>
+      <c r="BX89"/>
+      <c r="BY89"/>
+      <c r="BZ89"/>
+      <c r="CA89"/>
+      <c r="CB89"/>
+      <c r="CC89"/>
+      <c r="CD89"/>
+      <c r="CE89"/>
+      <c r="CF89"/>
+      <c r="CG89"/>
+      <c r="CH89"/>
+      <c r="CI89"/>
+      <c r="CJ89"/>
+      <c r="CK89"/>
+      <c r="CL89"/>
+      <c r="CM89"/>
+      <c r="CN89"/>
+      <c r="CO89"/>
+      <c r="CP89"/>
+      <c r="CQ89"/>
+      <c r="CR89"/>
+      <c r="CS89"/>
+      <c r="CT89"/>
+      <c r="CU89"/>
+      <c r="CV89"/>
+      <c r="CW89"/>
+      <c r="CX89"/>
+      <c r="CY89"/>
+      <c r="CZ89"/>
+      <c r="DA89"/>
+      <c r="DB89"/>
+      <c r="DC89"/>
+      <c r="DD89"/>
     </row>
     <row r="91" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O91"/>
@@ -14525,6 +14611,102 @@
       <c r="DC91"/>
       <c r="DD91"/>
     </row>
+    <row r="92" spans="15:108" x14ac:dyDescent="0.15">
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+      <c r="AG92"/>
+      <c r="AH92"/>
+      <c r="AI92"/>
+      <c r="AJ92"/>
+      <c r="AK92"/>
+      <c r="AL92"/>
+      <c r="AM92"/>
+      <c r="AN92"/>
+      <c r="AO92"/>
+      <c r="AP92"/>
+      <c r="AQ92"/>
+      <c r="AR92"/>
+      <c r="AS92"/>
+      <c r="AT92"/>
+      <c r="AU92"/>
+      <c r="AV92"/>
+      <c r="AW92"/>
+      <c r="AX92"/>
+      <c r="AY92"/>
+      <c r="AZ92"/>
+      <c r="BA92"/>
+      <c r="BB92"/>
+      <c r="BC92"/>
+      <c r="BD92"/>
+      <c r="BE92"/>
+      <c r="BF92"/>
+      <c r="BG92"/>
+      <c r="BH92"/>
+      <c r="BI92"/>
+      <c r="BJ92"/>
+      <c r="BK92"/>
+      <c r="BL92"/>
+      <c r="BM92"/>
+      <c r="BN92"/>
+      <c r="BO92"/>
+      <c r="BP92"/>
+      <c r="BQ92"/>
+      <c r="BR92"/>
+      <c r="BS92"/>
+      <c r="BT92"/>
+      <c r="BU92"/>
+      <c r="BV92"/>
+      <c r="BW92"/>
+      <c r="BX92"/>
+      <c r="BY92"/>
+      <c r="BZ92"/>
+      <c r="CA92"/>
+      <c r="CB92"/>
+      <c r="CC92"/>
+      <c r="CD92"/>
+      <c r="CE92"/>
+      <c r="CF92"/>
+      <c r="CG92"/>
+      <c r="CH92"/>
+      <c r="CI92"/>
+      <c r="CJ92"/>
+      <c r="CK92"/>
+      <c r="CL92"/>
+      <c r="CM92"/>
+      <c r="CN92"/>
+      <c r="CO92"/>
+      <c r="CP92"/>
+      <c r="CQ92"/>
+      <c r="CR92"/>
+      <c r="CS92"/>
+      <c r="CT92"/>
+      <c r="CU92"/>
+      <c r="CV92"/>
+      <c r="CW92"/>
+      <c r="CX92"/>
+      <c r="CY92"/>
+      <c r="CZ92"/>
+      <c r="DA92"/>
+      <c r="DB92"/>
+      <c r="DC92"/>
+      <c r="DD92"/>
+    </row>
   </sheetData>
   <autoFilter ref="B12:DH12">
     <filterColumn colId="0" showButton="0"/>
@@ -14533,197 +14715,213 @@
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="O61:BN62 DD61:DD62 O11:BF12 O44:DD46 O24:DD25 O13:DD21 O38:DD41">
-    <cfRule type="expression" dxfId="61" priority="66">
+  <conditionalFormatting sqref="O62:BN63 DD62:DD63 O11:BF12 O45:DD47 O25:DD26 O13:DD19 O39:DD42 O21:DD22">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="67">
+    <cfRule type="expression" dxfId="68" priority="71">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="68">
+    <cfRule type="expression" dxfId="67" priority="72">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11">
-    <cfRule type="expression" dxfId="58" priority="65">
+    <cfRule type="expression" dxfId="66" priority="69">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47:BN60 DD47:DD60">
-    <cfRule type="expression" dxfId="57" priority="62">
+  <conditionalFormatting sqref="O48:BN61 DD48:DD61">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="63">
+    <cfRule type="expression" dxfId="64" priority="67">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="64">
+    <cfRule type="expression" dxfId="63" priority="68">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO61:DC62">
-    <cfRule type="expression" dxfId="54" priority="59">
+  <conditionalFormatting sqref="BO62:DC63">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="60">
+    <cfRule type="expression" dxfId="61" priority="64">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="61">
+    <cfRule type="expression" dxfId="60" priority="65">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO47:DC60">
-    <cfRule type="expression" dxfId="51" priority="55">
+  <conditionalFormatting sqref="BO48:DC61">
+    <cfRule type="expression" dxfId="59" priority="59">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="56">
+    <cfRule type="expression" dxfId="58" priority="60">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="57">
+    <cfRule type="expression" dxfId="57" priority="61">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD12">
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="53">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="54">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD11">
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I62 I43:I52 J26:J36 I38:L42 I24:L25 J44:L62 L26:L36 M38:M62 I13:M21 I37:M37 M23:M36">
-    <cfRule type="expression" dxfId="44" priority="50">
+  <conditionalFormatting sqref="I55:I63 I44:I53 J27:J37 I39:L43 I25:L26 J45:L63 L27:L37 M39:M63 I13:M19 I38:M38 M24:M37 I21:M22">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O42:DD42">
-    <cfRule type="expression" dxfId="43" priority="47">
+  <conditionalFormatting sqref="O43:DD43">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="49">
+    <cfRule type="expression" dxfId="49" priority="53">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:L43">
-    <cfRule type="expression" dxfId="40" priority="43">
-      <formula>$J43="完了"</formula>
+  <conditionalFormatting sqref="J44:L44">
+    <cfRule type="expression" dxfId="48" priority="47">
+      <formula>$J44="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43:AM43 AP43:DD43">
-    <cfRule type="expression" dxfId="39" priority="40">
+  <conditionalFormatting sqref="O44:AM44 AP44:DD44">
+    <cfRule type="expression" dxfId="47" priority="44">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="41">
+    <cfRule type="expression" dxfId="46" priority="45">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="42">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="36" priority="37">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="44" priority="41">
+      <formula>$J24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:L24">
+    <cfRule type="expression" dxfId="43" priority="36">
+      <formula>$J24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24:DD24">
+    <cfRule type="expression" dxfId="42" priority="33">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="34">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="35">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38:DD38">
+    <cfRule type="expression" dxfId="39" priority="29">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="30">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="31">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:DD37">
+    <cfRule type="expression" dxfId="36" priority="25">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="26">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="27">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K37">
+    <cfRule type="expression" dxfId="33" priority="18">
+      <formula>$J27="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I37">
+    <cfRule type="expression" dxfId="32" priority="17">
+      <formula>$J27="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" dxfId="31" priority="15">
+      <formula>$J54="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO44">
+    <cfRule type="expression" dxfId="30" priority="12">
+      <formula>AO$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="13">
+      <formula>AO$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="14">
+      <formula>AO$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:DD23">
+    <cfRule type="expression" dxfId="27" priority="9">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="10">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="11">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:M23">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$J23="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:L23">
-    <cfRule type="expression" dxfId="35" priority="32">
-      <formula>$J23="完了"</formula>
+  <conditionalFormatting sqref="AN44">
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>AN$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>AN$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="7">
+      <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23:DD23">
-    <cfRule type="expression" dxfId="34" priority="29">
+  <conditionalFormatting sqref="O20:DD20">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37:DD37">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>O$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>O$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
-      <formula>O$12="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26:DD36">
-    <cfRule type="expression" dxfId="28" priority="21">
-      <formula>O$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="22">
-      <formula>O$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="23">
-      <formula>O$12="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K36">
-    <cfRule type="expression" dxfId="25" priority="14">
-      <formula>$J26="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I36">
-    <cfRule type="expression" dxfId="24" priority="13">
-      <formula>$J26="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="23" priority="11">
-      <formula>$J53="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO43">
-    <cfRule type="expression" dxfId="22" priority="8">
-      <formula>AO$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
-      <formula>AO$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
-      <formula>AO$12="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22:DD22">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>O$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>O$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>O$12="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:M22">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$J22="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN43">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AN$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AN$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AN$12="土"</formula>
+  <conditionalFormatting sqref="I20:M20">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$J20="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17434,18 +17632,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL35">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:AL11">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>I$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18814,13 +19012,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AM21">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -20,14 +20,14 @@
     <sheet name="工数_3" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$DH$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$DH$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="210">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1733,16 +1733,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対応中</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
       <t>ジッソウ</t>
@@ -1830,19 +1820,6 @@
     </rPh>
     <rPh sb="44" eb="45">
       <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本の内容をピックアップして読む</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2172,6 +2149,63 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>・本の内容をピックアップして読む
+・週一回実施</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・本の内容をピックアップして読む
+・週一回実施</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2030-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0701 課題対応完了により完了とする</t>
+    <rPh sb="5" eb="7">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2622,60 +2656,11 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="67">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2749,6 +2734,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3161,7 +3174,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3609,7 +3622,7 @@
       </c>
       <c r="C6" s="24">
         <f>SUM(WBS!O64:AS64)</f>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
@@ -3618,7 +3631,7 @@
       </c>
       <c r="C7" s="24">
         <f>SUM(WBS!AS64:BW64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
@@ -3636,7 +3649,7 @@
       </c>
       <c r="C9" s="59">
         <f>SUM(C3:C8)</f>
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4972,13 +4985,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL21">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5402,13 +5415,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:M21">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5421,12 +5434,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DE92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="AG13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="AQ16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AQ20" sqref="AQ20"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5555,7 +5568,7 @@
     </row>
     <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="47"/>
       <c r="H2" s="13"/>
@@ -5664,7 +5677,7 @@
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="47"/>
@@ -5772,7 +5785,7 @@
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="47"/>
@@ -5983,7 +5996,7 @@
     </row>
     <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="47"/>
       <c r="H6" s="13"/>
@@ -6091,7 +6104,7 @@
     <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="47"/>
       <c r="D7" s="47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="47"/>
@@ -6127,7 +6140,9 @@
       <c r="AP7" s="47"/>
       <c r="AQ7" s="47"/>
       <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
+      <c r="AS7" s="47" t="s">
+        <v>208</v>
+      </c>
       <c r="AT7" s="47"/>
       <c r="AU7" s="47"/>
       <c r="AV7" s="47"/>
@@ -6411,7 +6426,7 @@
         <v>8</v>
       </c>
       <c r="DD10" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DE10" t="s">
         <v>43</v>
@@ -6810,22 +6825,22 @@
       <c r="F12" s="44"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J12" s="41" t="s">
         <v>154</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L12" s="41" t="s">
         <v>153</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" ref="O12:BF12" si="51">TEXT(O11,"aaa")</f>
@@ -7215,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>147</v>
@@ -7225,15 +7240,17 @@
       </c>
       <c r="G13" s="49"/>
       <c r="H13" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J13" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" s="49"/>
+        <v>185</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>209</v>
+      </c>
       <c r="L13" s="49"/>
       <c r="M13" s="57">
         <f>SUM(O13:DD13)</f>
@@ -7341,7 +7358,7 @@
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49" t="s">
@@ -7349,15 +7366,17 @@
       </c>
       <c r="G14" s="49"/>
       <c r="H14" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I14" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" s="49"/>
+        <v>185</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>209</v>
+      </c>
       <c r="L14" s="49"/>
       <c r="M14" s="57">
         <f t="shared" ref="M14:M63" si="53">SUM(O14:DD14)</f>
@@ -7467,7 +7486,7 @@
       <c r="G15" s="49"/>
       <c r="H15" s="50"/>
       <c r="I15" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J15" s="60"/>
       <c r="K15" s="49"/>
@@ -7688,22 +7707,22 @@
       <c r="D17" s="51"/>
       <c r="E17" s="49"/>
       <c r="F17" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G17" s="49">
         <v>5</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J17" s="60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L17" s="49"/>
       <c r="M17" s="57">
@@ -7815,16 +7834,16 @@
         <v>6</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J18" s="60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K18" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L18" s="49"/>
       <c r="M18" s="57">
@@ -7936,16 +7955,16 @@
         <v>11</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L19" s="49"/>
       <c r="M19" s="57">
@@ -8057,21 +8076,21 @@
         <v>18</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="57">
         <f t="shared" si="54"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
@@ -8107,7 +8126,9 @@
         <v>1.5</v>
       </c>
       <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
+      <c r="AS20" s="17">
+        <v>1</v>
+      </c>
       <c r="AT20" s="17"/>
       <c r="AU20" s="17"/>
       <c r="AV20" s="17"/>
@@ -8182,16 +8203,16 @@
         <v>20</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L21" s="49"/>
       <c r="M21" s="57">
@@ -8303,19 +8324,19 @@
         <v>21</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K22" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L22" s="49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M22" s="57">
         <f t="shared" si="54"/>
@@ -8426,16 +8447,16 @@
         <v>23</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J23" s="60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K23" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L23" s="49"/>
       <c r="M23" s="57">
@@ -8769,17 +8790,17 @@
         <v>148</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G26" s="49"/>
       <c r="H26" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K26" s="49"/>
       <c r="L26" s="49"/>
@@ -8891,22 +8912,22 @@
       <c r="D27" s="51"/>
       <c r="E27" s="49"/>
       <c r="F27" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G27" s="49">
         <v>2</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J27" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K27" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L27" s="49"/>
       <c r="M27" s="57">
@@ -9018,16 +9039,16 @@
         <v>7</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I28" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K28" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L28" s="49"/>
       <c r="M28" s="57">
@@ -9139,16 +9160,16 @@
         <v>8</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I29" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J29" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K29" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L29" s="49"/>
       <c r="M29" s="57">
@@ -9260,16 +9281,16 @@
         <v>12</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J30" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K30" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L30" s="49"/>
       <c r="M30" s="57">
@@ -9381,16 +9402,16 @@
         <v>13</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J31" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K31" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L31" s="49"/>
       <c r="M31" s="57">
@@ -9502,16 +9523,16 @@
         <v>14</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K32" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L32" s="49"/>
       <c r="M32" s="57">
@@ -9623,16 +9644,16 @@
         <v>15</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I33" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J33" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K33" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L33" s="49"/>
       <c r="M33" s="57">
@@ -9744,16 +9765,16 @@
         <v>16</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I34" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J34" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K34" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L34" s="49"/>
       <c r="M34" s="57">
@@ -9865,16 +9886,16 @@
         <v>17</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I35" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J35" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K35" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L35" s="49"/>
       <c r="M35" s="57">
@@ -9986,16 +10007,16 @@
         <v>19</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I36" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J36" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K36" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L36" s="49"/>
       <c r="M36" s="57">
@@ -10107,16 +10128,16 @@
         <v>22</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I37" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J37" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K37" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L37" s="49"/>
       <c r="M37" s="57">
@@ -10339,21 +10360,21 @@
         <v>149</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I39" s="50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K39" s="49"/>
       <c r="L39" s="49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M39" s="57">
         <f t="shared" si="53"/>
@@ -10570,20 +10591,20 @@
       <c r="C41" s="39"/>
       <c r="D41" s="51"/>
       <c r="E41" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I41" s="50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J41" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K41" s="49"/>
       <c r="L41" s="49"/>
@@ -10802,18 +10823,18 @@
       <c r="C43" s="39"/>
       <c r="D43" s="51"/>
       <c r="E43" s="49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="49"/>
       <c r="H43" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I43" s="60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J43" s="60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K43" s="62"/>
       <c r="L43" s="49"/>
@@ -10922,7 +10943,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="39"/>
@@ -10930,7 +10951,7 @@
       <c r="J44" s="42"/>
       <c r="K44" s="53"/>
       <c r="L44" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M44" s="56">
         <f t="shared" si="53"/>
@@ -11144,7 +11165,7 @@
       <c r="DC45" s="17"/>
       <c r="DD45" s="17"/>
     </row>
-    <row r="46" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:109" ht="27" x14ac:dyDescent="0.15">
       <c r="B46" s="39">
         <v>2</v>
       </c>
@@ -11162,17 +11183,17 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I46" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J46" s="39"/>
-      <c r="K46" s="7" t="s">
-        <v>166</v>
+      <c r="K46" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M46" s="56">
         <f t="shared" si="53"/>
@@ -11394,14 +11415,14 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J48" s="39"/>
       <c r="K48" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="56">
@@ -11625,19 +11646,19 @@
       <c r="C50" s="39"/>
       <c r="D50" s="52"/>
       <c r="E50" s="49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F50" s="49"/>
       <c r="G50" s="49"/>
       <c r="H50" s="50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I50" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J50" s="50"/>
       <c r="K50" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L50" s="49"/>
       <c r="M50" s="57">
@@ -11856,24 +11877,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:109" ht="27" x14ac:dyDescent="0.15">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="52"/>
       <c r="E52" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J52" s="39"/>
-      <c r="K52" s="7" t="s">
-        <v>166</v>
+      <c r="K52" s="46" t="s">
+        <v>207</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="56">
@@ -12097,24 +12118,24 @@
       <c r="C54" s="39"/>
       <c r="D54" s="52"/>
       <c r="E54" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J54" s="39"/>
       <c r="K54" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M54" s="56">
         <f t="shared" si="53"/>
@@ -12337,14 +12358,14 @@
       <c r="C56" s="39"/>
       <c r="D56" s="52"/>
       <c r="E56" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
@@ -13253,7 +13274,7 @@
     <row r="64" spans="2:109" x14ac:dyDescent="0.15">
       <c r="M64" s="54">
         <f>SUM(O64:DD64)</f>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="O64" s="20">
         <f t="shared" ref="O64:AT64" si="56">SUM(O13:O63)</f>
@@ -13377,7 +13398,7 @@
       </c>
       <c r="AS64" s="20">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT64" s="20">
         <f t="shared" si="56"/>
@@ -14708,7 +14729,7 @@
       <c r="DD92"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:DH12">
+  <autoFilter ref="B12:DH14">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -14716,211 +14737,211 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O62:BN63 DD62:DD63 O11:BF12 O45:DD47 O25:DD26 O13:DD19 O39:DD42 O21:DD22">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="66" priority="70">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="71">
+    <cfRule type="expression" dxfId="65" priority="71">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="72">
+    <cfRule type="expression" dxfId="64" priority="72">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11">
-    <cfRule type="expression" dxfId="66" priority="69">
+    <cfRule type="expression" dxfId="63" priority="69">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48:BN61 DD48:DD61">
-    <cfRule type="expression" dxfId="65" priority="66">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="67">
+    <cfRule type="expression" dxfId="61" priority="67">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="68">
+    <cfRule type="expression" dxfId="60" priority="68">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO62:DC63">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="59" priority="63">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="64">
+    <cfRule type="expression" dxfId="58" priority="64">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="65">
+    <cfRule type="expression" dxfId="57" priority="65">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO48:DC61">
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="56" priority="59">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
+    <cfRule type="expression" dxfId="55" priority="60">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="61">
+    <cfRule type="expression" dxfId="54" priority="61">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD12">
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="53" priority="56">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57">
+    <cfRule type="expression" dxfId="52" priority="57">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58">
+    <cfRule type="expression" dxfId="51" priority="58">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD11">
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I63 I44:I53 J27:J37 I39:L43 I25:L26 J45:L63 L27:L37 M39:M63 I13:M19 I38:M38 M24:M37 I21:M22">
-    <cfRule type="expression" dxfId="52" priority="54">
+  <conditionalFormatting sqref="I55:I63 I44:I53 J27:J37 I39:L43 I25:L26 J45:L63 L27:L37 M39:M63 I38:M38 M24:M37 I21:M22 I13:M19">
+    <cfRule type="expression" dxfId="49" priority="54">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43:DD43">
-    <cfRule type="expression" dxfId="51" priority="51">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="46" priority="53">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L44">
-    <cfRule type="expression" dxfId="48" priority="47">
+    <cfRule type="expression" dxfId="45" priority="47">
       <formula>$J44="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44:AM44 AP44:DD44">
-    <cfRule type="expression" dxfId="47" priority="44">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="45">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="44" priority="41">
+    <cfRule type="expression" dxfId="41" priority="41">
       <formula>$J24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:L24">
-    <cfRule type="expression" dxfId="43" priority="36">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>$J24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DD24">
-    <cfRule type="expression" dxfId="42" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38:DD38">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="36" priority="29">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="30">
+    <cfRule type="expression" dxfId="35" priority="30">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:DD37">
-    <cfRule type="expression" dxfId="36" priority="25">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="26">
+    <cfRule type="expression" dxfId="32" priority="26">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="27">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K37">
-    <cfRule type="expression" dxfId="33" priority="18">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>$J27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I37">
-    <cfRule type="expression" dxfId="32" priority="17">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>$J27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="28" priority="15">
       <formula>$J54="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO44">
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="27" priority="12">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="13">
+    <cfRule type="expression" dxfId="26" priority="13">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DD23">
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="24" priority="9">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="22" priority="11">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:M23">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>$J23="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN44">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DD20">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:M20">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>$J20="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17632,18 +17653,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL35">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:AL11">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>I$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19012,13 +19033,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AM21">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="211">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2204,6 +2204,16 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2656,14 +2666,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <fill>
         <patternFill>
@@ -3577,7 +3580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3631,7 +3636,7 @@
       </c>
       <c r="C7" s="24">
         <f>SUM(WBS!AS64:BW64)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
@@ -3649,7 +3654,7 @@
       </c>
       <c r="C9" s="59">
         <f>SUM(C3:C8)</f>
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4985,13 +4990,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL21">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5415,13 +5420,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:M21">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5434,12 +5439,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DE92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="AQ16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="AJ13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="AX46" sqref="AX46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9892,7 +9897,7 @@
         <v>188</v>
       </c>
       <c r="J35" s="60" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="K35" s="62" t="s">
         <v>180</v>
@@ -9900,7 +9905,7 @@
       <c r="L35" s="49"/>
       <c r="M35" s="57">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
@@ -9938,7 +9943,9 @@
       <c r="AV35" s="17"/>
       <c r="AW35" s="17"/>
       <c r="AX35" s="17"/>
-      <c r="AY35" s="17"/>
+      <c r="AY35" s="17">
+        <v>2</v>
+      </c>
       <c r="AZ35" s="17"/>
       <c r="BA35" s="17"/>
       <c r="BB35" s="17"/>
@@ -11197,7 +11204,7 @@
       </c>
       <c r="M46" s="56">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
@@ -11234,7 +11241,9 @@
       <c r="AU46" s="17"/>
       <c r="AV46" s="17"/>
       <c r="AW46" s="17"/>
-      <c r="AX46" s="17"/>
+      <c r="AX46" s="17">
+        <v>1</v>
+      </c>
       <c r="AY46" s="17"/>
       <c r="AZ46" s="17"/>
       <c r="BA46" s="17"/>
@@ -13274,7 +13283,7 @@
     <row r="64" spans="2:109" x14ac:dyDescent="0.15">
       <c r="M64" s="54">
         <f>SUM(O64:DD64)</f>
-        <v>20.5</v>
+        <v>23.5</v>
       </c>
       <c r="O64" s="20">
         <f t="shared" ref="O64:AT64" si="56">SUM(O13:O63)</f>
@@ -13418,11 +13427,11 @@
       </c>
       <c r="AX64" s="20">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY64" s="20">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ64" s="20">
         <f t="shared" si="57"/>
@@ -14737,211 +14746,211 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O62:BN63 DD62:DD63 O11:BF12 O45:DD47 O25:DD26 O13:DD19 O39:DD42 O21:DD22">
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="65" priority="70">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71">
+    <cfRule type="expression" dxfId="64" priority="71">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="63" priority="72">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11">
-    <cfRule type="expression" dxfId="63" priority="69">
+    <cfRule type="expression" dxfId="62" priority="69">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48:BN61 DD48:DD61">
-    <cfRule type="expression" dxfId="62" priority="66">
+    <cfRule type="expression" dxfId="61" priority="66">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="67">
+    <cfRule type="expression" dxfId="60" priority="67">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="68">
+    <cfRule type="expression" dxfId="59" priority="68">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO62:DC63">
-    <cfRule type="expression" dxfId="59" priority="63">
+    <cfRule type="expression" dxfId="58" priority="63">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="64">
+    <cfRule type="expression" dxfId="57" priority="64">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="65">
+    <cfRule type="expression" dxfId="56" priority="65">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO48:DC61">
-    <cfRule type="expression" dxfId="56" priority="59">
+    <cfRule type="expression" dxfId="55" priority="59">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="60">
+    <cfRule type="expression" dxfId="54" priority="60">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="61">
+    <cfRule type="expression" dxfId="53" priority="61">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD12">
-    <cfRule type="expression" dxfId="53" priority="56">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="57">
+    <cfRule type="expression" dxfId="51" priority="57">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="58">
+    <cfRule type="expression" dxfId="50" priority="58">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD11">
-    <cfRule type="expression" dxfId="50" priority="55">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:I63 I44:I53 J27:J37 I39:L43 I25:L26 J45:L63 L27:L37 M39:M63 I38:M38 M24:M37 I21:M22 I13:M19">
-    <cfRule type="expression" dxfId="49" priority="54">
+    <cfRule type="expression" dxfId="48" priority="54">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43:DD43">
-    <cfRule type="expression" dxfId="48" priority="51">
+    <cfRule type="expression" dxfId="47" priority="51">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="52">
+    <cfRule type="expression" dxfId="46" priority="52">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="53">
+    <cfRule type="expression" dxfId="45" priority="53">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L44">
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="44" priority="47">
       <formula>$J44="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44:AM44 AP44:DD44">
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="42" priority="45">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="41" priority="46">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>$J24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:L24">
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>$J24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DD24">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="38" priority="33">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="37" priority="34">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="36" priority="35">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38:DD38">
-    <cfRule type="expression" dxfId="36" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="30">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:DD37">
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K37">
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>$J27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I37">
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="28" priority="17">
       <formula>$J27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="28" priority="15">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>$J54="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO44">
-    <cfRule type="expression" dxfId="27" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DD23">
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:M23">
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>$J23="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN44">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DD20">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:M20">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$J20="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17653,18 +17662,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL35">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:AL11">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>I$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19033,13 +19042,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AM21">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="212">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2216,6 +2216,9 @@
       <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【暫定】～7月末</t>
   </si>
 </sst>
 </file>
@@ -2666,7 +2669,35 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3177,7 +3208,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3580,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3626,7 +3657,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="24">
-        <f>SUM(WBS!O64:AS64)</f>
+        <f>SUM(WBS!O65:AS65)</f>
         <v>20.5</v>
       </c>
     </row>
@@ -3635,7 +3666,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="24">
-        <f>SUM(WBS!AS64:BW64)</f>
+        <f>SUM(WBS!AS65:BW65)</f>
         <v>4</v>
       </c>
     </row>
@@ -3644,7 +3675,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="24">
-        <f>SUM(WBS!BX64:DD64)</f>
+        <f>SUM(WBS!BX65:DD65)</f>
         <v>0</v>
       </c>
     </row>
@@ -4990,13 +5021,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL21">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5420,13 +5451,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:M21">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5437,14 +5468,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DE92"/>
+  <dimension ref="B1:DE93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="AJ13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="O16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AX46" sqref="AX46"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5454,7 +5485,7 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="23.375" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="8" width="7.125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.125" style="13" customWidth="1"/>
@@ -7384,7 +7415,7 @@
       </c>
       <c r="L14" s="49"/>
       <c r="M14" s="57">
-        <f t="shared" ref="M14:M63" si="53">SUM(O14:DD14)</f>
+        <f t="shared" ref="M14:M64" si="53">SUM(O14:DD14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="17"/>
@@ -8569,14 +8600,24 @@
       <c r="D24" s="51"/>
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
+      <c r="G24" s="49">
+        <v>24</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="61" t="s">
+        <v>180</v>
+      </c>
       <c r="L24" s="49"/>
       <c r="M24" s="57">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="M24" si="56">SUM(O24:DD24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="17"/>
@@ -8684,7 +8725,7 @@
       <c r="H25" s="50"/>
       <c r="I25" s="60"/>
       <c r="J25" s="60"/>
-      <c r="K25" s="49"/>
+      <c r="K25" s="61"/>
       <c r="L25" s="49"/>
       <c r="M25" s="57">
         <f t="shared" si="53"/>
@@ -8787,26 +8828,14 @@
     </row>
     <row r="26" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B26" s="39"/>
-      <c r="C26" s="39">
-        <v>2</v>
-      </c>
+      <c r="C26" s="39"/>
       <c r="D26" s="51"/>
-      <c r="E26" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>155</v>
-      </c>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="49"/>
-      <c r="H26" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>176</v>
-      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="49"/>
       <c r="L26" s="49"/>
       <c r="M26" s="57">
@@ -8907,33 +8936,30 @@
       <c r="DB26" s="17"/>
       <c r="DC26" s="17"/>
       <c r="DD26" s="17"/>
-      <c r="DE26" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="27" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="C27" s="39">
+        <v>2</v>
+      </c>
       <c r="D27" s="51"/>
-      <c r="E27" s="49"/>
+      <c r="E27" s="49" t="s">
+        <v>148</v>
+      </c>
       <c r="F27" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="49">
-        <v>2</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G27" s="49"/>
       <c r="H27" s="50" t="s">
         <v>196</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="J27" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" s="62" t="s">
-        <v>180</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="49"/>
       <c r="L27" s="49"/>
       <c r="M27" s="57">
         <f t="shared" si="53"/>
@@ -9033,15 +9059,20 @@
       <c r="DB27" s="17"/>
       <c r="DC27" s="17"/>
       <c r="DD27" s="17"/>
+      <c r="DE27" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="51"/>
       <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="F28" s="49" t="s">
+        <v>170</v>
+      </c>
       <c r="G28" s="49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H28" s="50" t="s">
         <v>196</v>
@@ -9162,7 +9193,7 @@
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="50" t="s">
         <v>196</v>
@@ -9283,7 +9314,7 @@
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H30" s="50" t="s">
         <v>196</v>
@@ -9404,7 +9435,7 @@
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="50" t="s">
         <v>196</v>
@@ -9525,7 +9556,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
       <c r="G32" s="49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" s="50" t="s">
         <v>196</v>
@@ -9639,14 +9670,14 @@
       <c r="DC32" s="17"/>
       <c r="DD32" s="17"/>
     </row>
-    <row r="33" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="51"/>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="50" t="s">
         <v>196</v>
@@ -9760,14 +9791,14 @@
       <c r="DC33" s="17"/>
       <c r="DD33" s="17"/>
     </row>
-    <row r="34" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="51"/>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" s="50" t="s">
         <v>196</v>
@@ -9881,14 +9912,14 @@
       <c r="DC34" s="17"/>
       <c r="DD34" s="17"/>
     </row>
-    <row r="35" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="51"/>
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
       <c r="G35" s="49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>196</v>
@@ -9897,7 +9928,7 @@
         <v>188</v>
       </c>
       <c r="J35" s="60" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="K35" s="62" t="s">
         <v>180</v>
@@ -9905,7 +9936,7 @@
       <c r="L35" s="49"/>
       <c r="M35" s="57">
         <f t="shared" si="53"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
@@ -9943,9 +9974,7 @@
       <c r="AV35" s="17"/>
       <c r="AW35" s="17"/>
       <c r="AX35" s="17"/>
-      <c r="AY35" s="17">
-        <v>2</v>
-      </c>
+      <c r="AY35" s="17"/>
       <c r="AZ35" s="17"/>
       <c r="BA35" s="17"/>
       <c r="BB35" s="17"/>
@@ -10004,14 +10033,14 @@
       <c r="DC35" s="17"/>
       <c r="DD35" s="17"/>
     </row>
-    <row r="36" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="51"/>
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
       <c r="G36" s="49">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H36" s="50" t="s">
         <v>196</v>
@@ -10020,7 +10049,7 @@
         <v>188</v>
       </c>
       <c r="J36" s="60" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="K36" s="62" t="s">
         <v>180</v>
@@ -10028,7 +10057,7 @@
       <c r="L36" s="49"/>
       <c r="M36" s="57">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
@@ -10066,7 +10095,9 @@
       <c r="AV36" s="17"/>
       <c r="AW36" s="17"/>
       <c r="AX36" s="17"/>
-      <c r="AY36" s="17"/>
+      <c r="AY36" s="17">
+        <v>2</v>
+      </c>
       <c r="AZ36" s="17"/>
       <c r="BA36" s="17"/>
       <c r="BB36" s="17"/>
@@ -10125,14 +10156,14 @@
       <c r="DC36" s="17"/>
       <c r="DD36" s="17"/>
     </row>
-    <row r="37" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="51"/>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
       <c r="G37" s="49">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H37" s="50" t="s">
         <v>196</v>
@@ -10246,17 +10277,27 @@
       <c r="DC37" s="17"/>
       <c r="DD37" s="17"/>
     </row>
-    <row r="38" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="51"/>
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="49"/>
+      <c r="G38" s="49">
+        <v>22</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="K38" s="62" t="s">
+        <v>180</v>
+      </c>
       <c r="L38" s="49"/>
       <c r="M38" s="57">
         <f t="shared" si="53"/>
@@ -10357,32 +10398,18 @@
       <c r="DC38" s="17"/>
       <c r="DD38" s="17"/>
     </row>
-    <row r="39" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B39" s="39"/>
-      <c r="C39" s="39">
-        <v>3</v>
-      </c>
+      <c r="C39" s="39"/>
       <c r="D39" s="51"/>
-      <c r="E39" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>177</v>
-      </c>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="49"/>
-      <c r="H39" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="I39" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="50" t="s">
-        <v>176</v>
-      </c>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
       <c r="K39" s="49"/>
-      <c r="L39" s="49" t="s">
-        <v>178</v>
-      </c>
+      <c r="L39" s="49"/>
       <c r="M39" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -10482,18 +10509,32 @@
       <c r="DC39" s="17"/>
       <c r="DD39" s="17"/>
     </row>
-    <row r="40" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="C40" s="39">
+        <v>3</v>
+      </c>
       <c r="D40" s="51"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
+      <c r="E40" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>177</v>
+      </c>
       <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
+      <c r="H40" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>176</v>
+      </c>
       <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
+      <c r="L40" s="49" t="s">
+        <v>178</v>
+      </c>
       <c r="M40" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -10593,26 +10634,16 @@
       <c r="DC40" s="17"/>
       <c r="DD40" s="17"/>
     </row>
-    <row r="41" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="51"/>
-      <c r="E41" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F41" s="49" t="s">
-        <v>171</v>
-      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
       <c r="G41" s="49"/>
-      <c r="H41" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="I41" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="J41" s="50" t="s">
-        <v>176</v>
-      </c>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
       <c r="K41" s="49"/>
       <c r="L41" s="49"/>
       <c r="M41" s="57">
@@ -10714,16 +10745,26 @@
       <c r="DC41" s="17"/>
       <c r="DD41" s="17"/>
     </row>
-    <row r="42" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="51"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
+      <c r="E42" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>171</v>
+      </c>
       <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
+      <c r="H42" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="50" t="s">
+        <v>176</v>
+      </c>
       <c r="K42" s="49"/>
       <c r="L42" s="49"/>
       <c r="M42" s="57">
@@ -10825,25 +10866,17 @@
       <c r="DC42" s="17"/>
       <c r="DD42" s="17"/>
     </row>
-    <row r="43" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="51"/>
-      <c r="E43" s="49" t="s">
-        <v>174</v>
-      </c>
+      <c r="E43" s="49"/>
       <c r="F43" s="49"/>
       <c r="G43" s="49"/>
-      <c r="H43" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="I43" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="J43" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="K43" s="62"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="49"/>
       <c r="L43" s="49"/>
       <c r="M43" s="57">
         <f t="shared" si="53"/>
@@ -10944,25 +10977,29 @@
       <c r="DC43" s="17"/>
       <c r="DD43" s="17"/>
     </row>
-    <row r="44" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="51"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M44" s="56">
+      <c r="E44" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44" s="62"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="57">
         <f t="shared" si="53"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
@@ -10989,9 +11026,7 @@
       <c r="AK44" s="17"/>
       <c r="AL44" s="17"/>
       <c r="AM44" s="17"/>
-      <c r="AN44" s="17">
-        <v>16.5</v>
-      </c>
+      <c r="AN44" s="17"/>
       <c r="AO44" s="17"/>
       <c r="AP44" s="17"/>
       <c r="AQ44" s="17"/>
@@ -11061,21 +11096,25 @@
       <c r="DC44" s="17"/>
       <c r="DD44" s="17"/>
     </row>
-    <row r="45" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="51"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="M45" s="56">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
@@ -11102,7 +11141,9 @@
       <c r="AK45" s="17"/>
       <c r="AL45" s="17"/>
       <c r="AM45" s="17"/>
-      <c r="AN45" s="17"/>
+      <c r="AN45" s="17">
+        <v>16.5</v>
+      </c>
       <c r="AO45" s="17"/>
       <c r="AP45" s="17"/>
       <c r="AQ45" s="17"/>
@@ -11172,39 +11213,21 @@
       <c r="DC45" s="17"/>
       <c r="DD45" s="17"/>
     </row>
-    <row r="46" spans="2:109" ht="27" x14ac:dyDescent="0.15">
-      <c r="B46" s="39">
-        <v>2</v>
-      </c>
-      <c r="C46" s="39">
-        <v>1</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>146</v>
-      </c>
+    <row r="46" spans="2:108" x14ac:dyDescent="0.15">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I46" s="39" t="s">
-        <v>199</v>
-      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
       <c r="M46" s="56">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
@@ -11241,9 +11264,7 @@
       <c r="AU46" s="17"/>
       <c r="AV46" s="17"/>
       <c r="AW46" s="17"/>
-      <c r="AX46" s="17">
-        <v>1</v>
-      </c>
+      <c r="AX46" s="17"/>
       <c r="AY46" s="17"/>
       <c r="AZ46" s="17"/>
       <c r="BA46" s="17"/>
@@ -11303,21 +11324,39 @@
       <c r="DC46" s="17"/>
       <c r="DD46" s="17"/>
     </row>
-    <row r="47" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+    <row r="47" spans="2:108" ht="27" x14ac:dyDescent="0.15">
+      <c r="B47" s="39">
+        <v>2</v>
+      </c>
+      <c r="C47" s="39">
+        <v>1</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
+      <c r="H47" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>199</v>
+      </c>
       <c r="J47" s="39"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="K47" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="M47" s="56">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
@@ -11354,7 +11393,9 @@
       <c r="AU47" s="17"/>
       <c r="AV47" s="17"/>
       <c r="AW47" s="17"/>
-      <c r="AX47" s="17"/>
+      <c r="AX47" s="17">
+        <v>1</v>
+      </c>
       <c r="AY47" s="17"/>
       <c r="AZ47" s="17"/>
       <c r="BA47" s="17"/>
@@ -11414,25 +11455,17 @@
       <c r="DC47" s="17"/>
       <c r="DD47" s="17"/>
     </row>
-    <row r="48" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="52"/>
-      <c r="E48" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I48" s="39" t="s">
-        <v>194</v>
-      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
       <c r="J48" s="39"/>
-      <c r="K48" s="39" t="s">
-        <v>194</v>
-      </c>
+      <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="56">
         <f t="shared" si="53"/>
@@ -11532,21 +11565,26 @@
       <c r="DB48" s="17"/>
       <c r="DC48" s="17"/>
       <c r="DD48" s="17"/>
-      <c r="DE48" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="49" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="52"/>
-      <c r="E49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
+      <c r="H49" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>194</v>
+      </c>
       <c r="J49" s="39"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="39" t="s">
+        <v>194</v>
+      </c>
       <c r="L49" s="7"/>
       <c r="M49" s="56">
         <f t="shared" si="53"/>
@@ -11654,23 +11692,15 @@
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="52"/>
-      <c r="E50" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="I50" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="J50" s="50"/>
-      <c r="K50" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="L50" s="49"/>
-      <c r="M50" s="57">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11776,15 +11806,23 @@
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="52"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="56">
+      <c r="E51" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J51" s="50"/>
+      <c r="K51" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="L51" s="49"/>
+      <c r="M51" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -11886,25 +11924,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="52"/>
-      <c r="E52" s="7" t="s">
-        <v>157</v>
-      </c>
+      <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I52" s="39" t="s">
-        <v>200</v>
-      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
       <c r="J52" s="39"/>
-      <c r="K52" s="46" t="s">
-        <v>207</v>
-      </c>
+      <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="56">
         <f t="shared" si="53"/>
@@ -12008,17 +12038,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:109" ht="27" x14ac:dyDescent="0.15">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="52"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="H53" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>200</v>
+      </c>
       <c r="J53" s="39"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="46" t="s">
+        <v>207</v>
+      </c>
       <c r="L53" s="7"/>
       <c r="M53" s="56">
         <f t="shared" si="53"/>
@@ -12122,30 +12160,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="52"/>
-      <c r="E54" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>201</v>
-      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
       <c r="J54" s="39"/>
-      <c r="K54" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
       <c r="M54" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -12248,18 +12274,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:109" ht="27" x14ac:dyDescent="0.15">
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="52"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
+      <c r="H55" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>201</v>
+      </c>
       <c r="J55" s="39"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
+      <c r="K55" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="M55" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -12366,16 +12404,10 @@
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="52"/>
-      <c r="E56" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="39" t="s">
-        <v>197</v>
-      </c>
+      <c r="H56" s="39"/>
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
       <c r="K56" s="7"/>
@@ -12486,10 +12518,16 @@
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="52"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="39"/>
+      <c r="H57" s="39" t="s">
+        <v>197</v>
+      </c>
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
       <c r="K57" s="7"/>
@@ -12599,7 +12637,7 @@
     <row r="58" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
-      <c r="D58" s="7"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -13167,711 +13205,729 @@
       </c>
     </row>
     <row r="63" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="58">
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="18"/>
-      <c r="AB63" s="18"/>
-      <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-      <c r="AE63" s="18"/>
-      <c r="AF63" s="18"/>
-      <c r="AG63" s="18"/>
-      <c r="AH63" s="18"/>
-      <c r="AI63" s="18"/>
-      <c r="AJ63" s="18"/>
-      <c r="AK63" s="18"/>
-      <c r="AL63" s="18"/>
-      <c r="AM63" s="18"/>
-      <c r="AN63" s="18"/>
-      <c r="AO63" s="18"/>
-      <c r="AP63" s="18"/>
-      <c r="AQ63" s="18"/>
-      <c r="AR63" s="18"/>
-      <c r="AS63" s="18"/>
-      <c r="AT63" s="18"/>
-      <c r="AU63" s="18"/>
-      <c r="AV63" s="18"/>
-      <c r="AW63" s="18"/>
-      <c r="AX63" s="18"/>
-      <c r="AY63" s="18"/>
-      <c r="AZ63" s="18"/>
-      <c r="BA63" s="18"/>
-      <c r="BB63" s="18"/>
-      <c r="BC63" s="18"/>
-      <c r="BD63" s="18"/>
-      <c r="BE63" s="18"/>
-      <c r="BF63" s="18"/>
-      <c r="BG63" s="18"/>
-      <c r="BH63" s="18"/>
-      <c r="BI63" s="18"/>
-      <c r="BJ63" s="18"/>
-      <c r="BK63" s="18"/>
-      <c r="BL63" s="18"/>
-      <c r="BM63" s="18"/>
-      <c r="BN63" s="18"/>
-      <c r="BO63" s="18"/>
-      <c r="BP63" s="18"/>
-      <c r="BQ63" s="18"/>
-      <c r="BR63" s="18"/>
-      <c r="BS63" s="18"/>
-      <c r="BT63" s="18"/>
-      <c r="BU63" s="18"/>
-      <c r="BV63" s="18"/>
-      <c r="BW63" s="18"/>
-      <c r="BX63" s="18"/>
-      <c r="BY63" s="18"/>
-      <c r="BZ63" s="18"/>
-      <c r="CA63" s="18"/>
-      <c r="CB63" s="18"/>
-      <c r="CC63" s="18"/>
-      <c r="CD63" s="18"/>
-      <c r="CE63" s="18"/>
-      <c r="CF63" s="18"/>
-      <c r="CG63" s="18"/>
-      <c r="CH63" s="18"/>
-      <c r="CI63" s="18"/>
-      <c r="CJ63" s="18"/>
-      <c r="CK63" s="18"/>
-      <c r="CL63" s="18"/>
-      <c r="CM63" s="18"/>
-      <c r="CN63" s="18"/>
-      <c r="CO63" s="18"/>
-      <c r="CP63" s="18"/>
-      <c r="CQ63" s="18"/>
-      <c r="CR63" s="18"/>
-      <c r="CS63" s="18"/>
-      <c r="CT63" s="18"/>
-      <c r="CU63" s="18"/>
-      <c r="CV63" s="18"/>
-      <c r="CW63" s="18"/>
-      <c r="CX63" s="18"/>
-      <c r="CY63" s="18"/>
-      <c r="CZ63" s="18"/>
-      <c r="DA63" s="18"/>
-      <c r="DB63" s="18"/>
-      <c r="DC63" s="18"/>
-      <c r="DD63" s="18"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="17"/>
+      <c r="AF63" s="17"/>
+      <c r="AG63" s="17"/>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="17"/>
+      <c r="AJ63" s="17"/>
+      <c r="AK63" s="17"/>
+      <c r="AL63" s="17"/>
+      <c r="AM63" s="17"/>
+      <c r="AN63" s="17"/>
+      <c r="AO63" s="17"/>
+      <c r="AP63" s="17"/>
+      <c r="AQ63" s="17"/>
+      <c r="AR63" s="17"/>
+      <c r="AS63" s="17"/>
+      <c r="AT63" s="17"/>
+      <c r="AU63" s="17"/>
+      <c r="AV63" s="17"/>
+      <c r="AW63" s="17"/>
+      <c r="AX63" s="17"/>
+      <c r="AY63" s="17"/>
+      <c r="AZ63" s="17"/>
+      <c r="BA63" s="17"/>
+      <c r="BB63" s="17"/>
+      <c r="BC63" s="17"/>
+      <c r="BD63" s="17"/>
+      <c r="BE63" s="17"/>
+      <c r="BF63" s="17"/>
+      <c r="BG63" s="17"/>
+      <c r="BH63" s="17"/>
+      <c r="BI63" s="17"/>
+      <c r="BJ63" s="17"/>
+      <c r="BK63" s="17"/>
+      <c r="BL63" s="17"/>
+      <c r="BM63" s="17"/>
+      <c r="BN63" s="17"/>
+      <c r="BO63" s="17"/>
+      <c r="BP63" s="17"/>
+      <c r="BQ63" s="17"/>
+      <c r="BR63" s="17"/>
+      <c r="BS63" s="17"/>
+      <c r="BT63" s="17"/>
+      <c r="BU63" s="17"/>
+      <c r="BV63" s="17"/>
+      <c r="BW63" s="17"/>
+      <c r="BX63" s="17"/>
+      <c r="BY63" s="17"/>
+      <c r="BZ63" s="17"/>
+      <c r="CA63" s="17"/>
+      <c r="CB63" s="17"/>
+      <c r="CC63" s="17"/>
+      <c r="CD63" s="17"/>
+      <c r="CE63" s="17"/>
+      <c r="CF63" s="17"/>
+      <c r="CG63" s="17"/>
+      <c r="CH63" s="17"/>
+      <c r="CI63" s="17"/>
+      <c r="CJ63" s="17"/>
+      <c r="CK63" s="17"/>
+      <c r="CL63" s="17"/>
+      <c r="CM63" s="17"/>
+      <c r="CN63" s="17"/>
+      <c r="CO63" s="17"/>
+      <c r="CP63" s="17"/>
+      <c r="CQ63" s="17"/>
+      <c r="CR63" s="17"/>
+      <c r="CS63" s="17"/>
+      <c r="CT63" s="17"/>
+      <c r="CU63" s="17"/>
+      <c r="CV63" s="17"/>
+      <c r="CW63" s="17"/>
+      <c r="CX63" s="17"/>
+      <c r="CY63" s="17"/>
+      <c r="CZ63" s="17"/>
+      <c r="DA63" s="17"/>
+      <c r="DB63" s="17"/>
+      <c r="DC63" s="17"/>
+      <c r="DD63" s="17"/>
       <c r="DE63" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:109" x14ac:dyDescent="0.15">
-      <c r="M64" s="54">
-        <f>SUM(O64:DD64)</f>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="58">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="18"/>
+      <c r="W64" s="18"/>
+      <c r="X64" s="18"/>
+      <c r="Y64" s="18"/>
+      <c r="Z64" s="18"/>
+      <c r="AA64" s="18"/>
+      <c r="AB64" s="18"/>
+      <c r="AC64" s="18"/>
+      <c r="AD64" s="18"/>
+      <c r="AE64" s="18"/>
+      <c r="AF64" s="18"/>
+      <c r="AG64" s="18"/>
+      <c r="AH64" s="18"/>
+      <c r="AI64" s="18"/>
+      <c r="AJ64" s="18"/>
+      <c r="AK64" s="18"/>
+      <c r="AL64" s="18"/>
+      <c r="AM64" s="18"/>
+      <c r="AN64" s="18"/>
+      <c r="AO64" s="18"/>
+      <c r="AP64" s="18"/>
+      <c r="AQ64" s="18"/>
+      <c r="AR64" s="18"/>
+      <c r="AS64" s="18"/>
+      <c r="AT64" s="18"/>
+      <c r="AU64" s="18"/>
+      <c r="AV64" s="18"/>
+      <c r="AW64" s="18"/>
+      <c r="AX64" s="18"/>
+      <c r="AY64" s="18"/>
+      <c r="AZ64" s="18"/>
+      <c r="BA64" s="18"/>
+      <c r="BB64" s="18"/>
+      <c r="BC64" s="18"/>
+      <c r="BD64" s="18"/>
+      <c r="BE64" s="18"/>
+      <c r="BF64" s="18"/>
+      <c r="BG64" s="18"/>
+      <c r="BH64" s="18"/>
+      <c r="BI64" s="18"/>
+      <c r="BJ64" s="18"/>
+      <c r="BK64" s="18"/>
+      <c r="BL64" s="18"/>
+      <c r="BM64" s="18"/>
+      <c r="BN64" s="18"/>
+      <c r="BO64" s="18"/>
+      <c r="BP64" s="18"/>
+      <c r="BQ64" s="18"/>
+      <c r="BR64" s="18"/>
+      <c r="BS64" s="18"/>
+      <c r="BT64" s="18"/>
+      <c r="BU64" s="18"/>
+      <c r="BV64" s="18"/>
+      <c r="BW64" s="18"/>
+      <c r="BX64" s="18"/>
+      <c r="BY64" s="18"/>
+      <c r="BZ64" s="18"/>
+      <c r="CA64" s="18"/>
+      <c r="CB64" s="18"/>
+      <c r="CC64" s="18"/>
+      <c r="CD64" s="18"/>
+      <c r="CE64" s="18"/>
+      <c r="CF64" s="18"/>
+      <c r="CG64" s="18"/>
+      <c r="CH64" s="18"/>
+      <c r="CI64" s="18"/>
+      <c r="CJ64" s="18"/>
+      <c r="CK64" s="18"/>
+      <c r="CL64" s="18"/>
+      <c r="CM64" s="18"/>
+      <c r="CN64" s="18"/>
+      <c r="CO64" s="18"/>
+      <c r="CP64" s="18"/>
+      <c r="CQ64" s="18"/>
+      <c r="CR64" s="18"/>
+      <c r="CS64" s="18"/>
+      <c r="CT64" s="18"/>
+      <c r="CU64" s="18"/>
+      <c r="CV64" s="18"/>
+      <c r="CW64" s="18"/>
+      <c r="CX64" s="18"/>
+      <c r="CY64" s="18"/>
+      <c r="CZ64" s="18"/>
+      <c r="DA64" s="18"/>
+      <c r="DB64" s="18"/>
+      <c r="DC64" s="18"/>
+      <c r="DD64" s="18"/>
+      <c r="DE64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="M65" s="54">
+        <f>SUM(O65:DD65)</f>
         <v>23.5</v>
       </c>
-      <c r="O64" s="20">
-        <f t="shared" ref="O64:AT64" si="56">SUM(O13:O63)</f>
-        <v>0</v>
-      </c>
-      <c r="P64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="S64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="T64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="V64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="X64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="Y64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="Z64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AA64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AB64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AC64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AD64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AE64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AF64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AG64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AH64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AI64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AK64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AL64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AM64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AN64" s="20">
-        <f t="shared" si="56"/>
+      <c r="O65" s="20">
+        <f t="shared" ref="O65:AT65" si="57">SUM(O13:O64)</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AH65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AK65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AL65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AM65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AN65" s="20">
+        <f t="shared" si="57"/>
         <v>16.5</v>
       </c>
-      <c r="AO64" s="20">
-        <f t="shared" si="56"/>
+      <c r="AO65" s="20">
+        <f t="shared" si="57"/>
         <v>1.5</v>
       </c>
-      <c r="AP64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="20">
-        <f t="shared" si="56"/>
+      <c r="AP65" s="20">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="20">
+        <f t="shared" si="57"/>
         <v>1.5</v>
       </c>
-      <c r="AR64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AS64" s="20">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="AT64" s="20">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AU64" s="20">
-        <f t="shared" ref="AU64:BZ64" si="57">SUM(AU13:AU63)</f>
-        <v>0</v>
-      </c>
-      <c r="AV64" s="20">
+      <c r="AR65" s="20">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="AW64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AX64" s="20">
+      <c r="AS65" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AY64" s="20">
+      <c r="AT65" s="20">
         <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AU65" s="20">
+        <f t="shared" ref="AU65:BZ65" si="58">SUM(AU13:AU64)</f>
+        <v>0</v>
+      </c>
+      <c r="AV65" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AW65" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AX65" s="20">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="AY65" s="20">
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
-      <c r="AZ64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BA64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BB64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BC64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BD64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BE64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BF64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BG64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BH64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BI64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BJ64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BK64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BL64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BM64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BN64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BO64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BP64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BQ64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BR64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BS64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BT64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BU64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BV64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BW64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BX64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BY64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="BZ64" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="CA64" s="20">
-        <f t="shared" ref="CA64:DD64" si="58">SUM(CA13:CA63)</f>
-        <v>0</v>
-      </c>
-      <c r="CB64" s="20">
+      <c r="AZ65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CC64" s="20">
+      <c r="BA65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CD64" s="20">
+      <c r="BB65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CE64" s="20">
+      <c r="BC65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CF64" s="20">
+      <c r="BD65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CG64" s="20">
+      <c r="BE65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CH64" s="20">
+      <c r="BF65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CI64" s="20">
+      <c r="BG65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CJ64" s="20">
+      <c r="BH65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CK64" s="20">
+      <c r="BI65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CL64" s="20">
+      <c r="BJ65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CM64" s="20">
+      <c r="BK65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CN64" s="20">
+      <c r="BL65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CO64" s="20">
+      <c r="BM65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CP64" s="20">
+      <c r="BN65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CQ64" s="20">
+      <c r="BO65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CR64" s="20">
+      <c r="BP65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CS64" s="20">
+      <c r="BQ65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CT64" s="20">
+      <c r="BR65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CU64" s="20">
+      <c r="BS65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CV64" s="20">
+      <c r="BT65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CW64" s="20">
+      <c r="BU65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CX64" s="20">
+      <c r="BV65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CY64" s="20">
+      <c r="BW65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="CZ64" s="20">
+      <c r="BX65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="DA64" s="20">
+      <c r="BY65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="DB64" s="20">
+      <c r="BZ65" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="DC64" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="DD64" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="DE64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="CA65" s="20">
+        <f t="shared" ref="CA65:DD65" si="59">SUM(CA13:CA64)</f>
+        <v>0</v>
+      </c>
+      <c r="CB65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CC65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CD65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CE65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CF65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CG65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CH65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CI65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CJ65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CK65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CL65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CM65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CN65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CO65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CP65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CQ65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CR65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CS65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CT65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CU65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CV65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CW65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CX65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CY65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="CZ65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DA65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DB65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DC65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="DD65" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
       <c r="DE65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="66" spans="5:109" x14ac:dyDescent="0.15">
-      <c r="E66" s="21"/>
       <c r="DE66" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="67" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="E67" s="21"/>
       <c r="DE67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="5:109" x14ac:dyDescent="0.15">
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="U79"/>
-      <c r="V79"/>
-      <c r="W79"/>
-      <c r="X79"/>
-      <c r="Y79"/>
-      <c r="Z79"/>
-      <c r="AA79"/>
-      <c r="AB79"/>
-      <c r="AC79"/>
-      <c r="AD79"/>
-      <c r="AE79"/>
-      <c r="AF79"/>
-      <c r="AG79"/>
-      <c r="AH79"/>
-      <c r="AI79"/>
-      <c r="AJ79"/>
-      <c r="AK79"/>
-      <c r="AL79"/>
-      <c r="AM79"/>
-      <c r="AN79"/>
-      <c r="AO79"/>
-      <c r="AP79"/>
-      <c r="AQ79"/>
-      <c r="AR79"/>
-      <c r="AS79"/>
-      <c r="AT79"/>
-      <c r="AU79"/>
-      <c r="AV79"/>
-      <c r="AW79"/>
-      <c r="AX79"/>
-      <c r="AY79"/>
-      <c r="AZ79"/>
-      <c r="BA79"/>
-      <c r="BB79"/>
-      <c r="BC79"/>
-      <c r="BD79"/>
-      <c r="BE79"/>
-      <c r="BF79"/>
-      <c r="BG79"/>
-      <c r="BH79"/>
-      <c r="BI79"/>
-      <c r="BJ79"/>
-      <c r="BK79"/>
-      <c r="BL79"/>
-      <c r="BM79"/>
-      <c r="BN79"/>
-      <c r="BO79"/>
-      <c r="BP79"/>
-      <c r="BQ79"/>
-      <c r="BR79"/>
-      <c r="BS79"/>
-      <c r="BT79"/>
-      <c r="BU79"/>
-      <c r="BV79"/>
-      <c r="BW79"/>
-      <c r="BX79"/>
-      <c r="BY79"/>
-      <c r="BZ79"/>
-      <c r="CA79"/>
-      <c r="CB79"/>
-      <c r="CC79"/>
-      <c r="CD79"/>
-      <c r="CE79"/>
-      <c r="CF79"/>
-      <c r="CG79"/>
-      <c r="CH79"/>
-      <c r="CI79"/>
-      <c r="CJ79"/>
-      <c r="CK79"/>
-      <c r="CL79"/>
-      <c r="CM79"/>
-      <c r="CN79"/>
-      <c r="CO79"/>
-      <c r="CP79"/>
-      <c r="CQ79"/>
-      <c r="CR79"/>
-      <c r="CS79"/>
-      <c r="CT79"/>
-      <c r="CU79"/>
-      <c r="CV79"/>
-      <c r="CW79"/>
-      <c r="CX79"/>
-      <c r="CY79"/>
-      <c r="CZ79"/>
-      <c r="DA79"/>
-      <c r="DB79"/>
-      <c r="DC79"/>
-      <c r="DD79"/>
-    </row>
-    <row r="82" spans="15:108" x14ac:dyDescent="0.15">
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="U82"/>
-      <c r="V82"/>
-      <c r="W82"/>
-      <c r="X82"/>
-      <c r="Y82"/>
-      <c r="Z82"/>
-      <c r="AA82"/>
-      <c r="AB82"/>
-      <c r="AC82"/>
-      <c r="AD82"/>
-      <c r="AE82"/>
-      <c r="AF82"/>
-      <c r="AG82"/>
-      <c r="AH82"/>
-      <c r="AI82"/>
-      <c r="AJ82"/>
-      <c r="AK82"/>
-      <c r="AL82"/>
-      <c r="AM82"/>
-      <c r="AN82"/>
-      <c r="AO82"/>
-      <c r="AP82"/>
-      <c r="AQ82"/>
-      <c r="AR82"/>
-      <c r="AS82"/>
-      <c r="AT82"/>
-      <c r="AU82"/>
-      <c r="AV82"/>
-      <c r="AW82"/>
-      <c r="AX82"/>
-      <c r="AY82"/>
-      <c r="AZ82"/>
-      <c r="BA82"/>
-      <c r="BB82"/>
-      <c r="BC82"/>
-      <c r="BD82"/>
-      <c r="BE82"/>
-      <c r="BF82"/>
-      <c r="BG82"/>
-      <c r="BH82"/>
-      <c r="BI82"/>
-      <c r="BJ82"/>
-      <c r="BK82"/>
-      <c r="BL82"/>
-      <c r="BM82"/>
-      <c r="BN82"/>
-      <c r="BO82"/>
-      <c r="BP82"/>
-      <c r="BQ82"/>
-      <c r="BR82"/>
-      <c r="BS82"/>
-      <c r="BT82"/>
-      <c r="BU82"/>
-      <c r="BV82"/>
-      <c r="BW82"/>
-      <c r="BX82"/>
-      <c r="BY82"/>
-      <c r="BZ82"/>
-      <c r="CA82"/>
-      <c r="CB82"/>
-      <c r="CC82"/>
-      <c r="CD82"/>
-      <c r="CE82"/>
-      <c r="CF82"/>
-      <c r="CG82"/>
-      <c r="CH82"/>
-      <c r="CI82"/>
-      <c r="CJ82"/>
-      <c r="CK82"/>
-      <c r="CL82"/>
-      <c r="CM82"/>
-      <c r="CN82"/>
-      <c r="CO82"/>
-      <c r="CP82"/>
-      <c r="CQ82"/>
-      <c r="CR82"/>
-      <c r="CS82"/>
-      <c r="CT82"/>
-      <c r="CU82"/>
-      <c r="CV82"/>
-      <c r="CW82"/>
-      <c r="CX82"/>
-      <c r="CY82"/>
-      <c r="CZ82"/>
-      <c r="DA82"/>
-      <c r="DB82"/>
-      <c r="DC82"/>
-      <c r="DD82"/>
+    <row r="68" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="DE68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+      <c r="AK80"/>
+      <c r="AL80"/>
+      <c r="AM80"/>
+      <c r="AN80"/>
+      <c r="AO80"/>
+      <c r="AP80"/>
+      <c r="AQ80"/>
+      <c r="AR80"/>
+      <c r="AS80"/>
+      <c r="AT80"/>
+      <c r="AU80"/>
+      <c r="AV80"/>
+      <c r="AW80"/>
+      <c r="AX80"/>
+      <c r="AY80"/>
+      <c r="AZ80"/>
+      <c r="BA80"/>
+      <c r="BB80"/>
+      <c r="BC80"/>
+      <c r="BD80"/>
+      <c r="BE80"/>
+      <c r="BF80"/>
+      <c r="BG80"/>
+      <c r="BH80"/>
+      <c r="BI80"/>
+      <c r="BJ80"/>
+      <c r="BK80"/>
+      <c r="BL80"/>
+      <c r="BM80"/>
+      <c r="BN80"/>
+      <c r="BO80"/>
+      <c r="BP80"/>
+      <c r="BQ80"/>
+      <c r="BR80"/>
+      <c r="BS80"/>
+      <c r="BT80"/>
+      <c r="BU80"/>
+      <c r="BV80"/>
+      <c r="BW80"/>
+      <c r="BX80"/>
+      <c r="BY80"/>
+      <c r="BZ80"/>
+      <c r="CA80"/>
+      <c r="CB80"/>
+      <c r="CC80"/>
+      <c r="CD80"/>
+      <c r="CE80"/>
+      <c r="CF80"/>
+      <c r="CG80"/>
+      <c r="CH80"/>
+      <c r="CI80"/>
+      <c r="CJ80"/>
+      <c r="CK80"/>
+      <c r="CL80"/>
+      <c r="CM80"/>
+      <c r="CN80"/>
+      <c r="CO80"/>
+      <c r="CP80"/>
+      <c r="CQ80"/>
+      <c r="CR80"/>
+      <c r="CS80"/>
+      <c r="CT80"/>
+      <c r="CU80"/>
+      <c r="CV80"/>
+      <c r="CW80"/>
+      <c r="CX80"/>
+      <c r="CY80"/>
+      <c r="CZ80"/>
+      <c r="DA80"/>
+      <c r="DB80"/>
+      <c r="DC80"/>
+      <c r="DD80"/>
     </row>
     <row r="83" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O83"/>
@@ -14545,101 +14601,101 @@
       <c r="DC89"/>
       <c r="DD89"/>
     </row>
-    <row r="91" spans="15:108" x14ac:dyDescent="0.15">
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
-      <c r="R91"/>
-      <c r="S91"/>
-      <c r="T91"/>
-      <c r="U91"/>
-      <c r="V91"/>
-      <c r="W91"/>
-      <c r="X91"/>
-      <c r="Y91"/>
-      <c r="Z91"/>
-      <c r="AA91"/>
-      <c r="AB91"/>
-      <c r="AC91"/>
-      <c r="AD91"/>
-      <c r="AE91"/>
-      <c r="AF91"/>
-      <c r="AG91"/>
-      <c r="AH91"/>
-      <c r="AI91"/>
-      <c r="AJ91"/>
-      <c r="AK91"/>
-      <c r="AL91"/>
-      <c r="AM91"/>
-      <c r="AN91"/>
-      <c r="AO91"/>
-      <c r="AP91"/>
-      <c r="AQ91"/>
-      <c r="AR91"/>
-      <c r="AS91"/>
-      <c r="AT91"/>
-      <c r="AU91"/>
-      <c r="AV91"/>
-      <c r="AW91"/>
-      <c r="AX91"/>
-      <c r="AY91"/>
-      <c r="AZ91"/>
-      <c r="BA91"/>
-      <c r="BB91"/>
-      <c r="BC91"/>
-      <c r="BD91"/>
-      <c r="BE91"/>
-      <c r="BF91"/>
-      <c r="BG91"/>
-      <c r="BH91"/>
-      <c r="BI91"/>
-      <c r="BJ91"/>
-      <c r="BK91"/>
-      <c r="BL91"/>
-      <c r="BM91"/>
-      <c r="BN91"/>
-      <c r="BO91"/>
-      <c r="BP91"/>
-      <c r="BQ91"/>
-      <c r="BR91"/>
-      <c r="BS91"/>
-      <c r="BT91"/>
-      <c r="BU91"/>
-      <c r="BV91"/>
-      <c r="BW91"/>
-      <c r="BX91"/>
-      <c r="BY91"/>
-      <c r="BZ91"/>
-      <c r="CA91"/>
-      <c r="CB91"/>
-      <c r="CC91"/>
-      <c r="CD91"/>
-      <c r="CE91"/>
-      <c r="CF91"/>
-      <c r="CG91"/>
-      <c r="CH91"/>
-      <c r="CI91"/>
-      <c r="CJ91"/>
-      <c r="CK91"/>
-      <c r="CL91"/>
-      <c r="CM91"/>
-      <c r="CN91"/>
-      <c r="CO91"/>
-      <c r="CP91"/>
-      <c r="CQ91"/>
-      <c r="CR91"/>
-      <c r="CS91"/>
-      <c r="CT91"/>
-      <c r="CU91"/>
-      <c r="CV91"/>
-      <c r="CW91"/>
-      <c r="CX91"/>
-      <c r="CY91"/>
-      <c r="CZ91"/>
-      <c r="DA91"/>
-      <c r="DB91"/>
-      <c r="DC91"/>
-      <c r="DD91"/>
+    <row r="90" spans="15:108" x14ac:dyDescent="0.15">
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90"/>
+      <c r="AG90"/>
+      <c r="AH90"/>
+      <c r="AI90"/>
+      <c r="AJ90"/>
+      <c r="AK90"/>
+      <c r="AL90"/>
+      <c r="AM90"/>
+      <c r="AN90"/>
+      <c r="AO90"/>
+      <c r="AP90"/>
+      <c r="AQ90"/>
+      <c r="AR90"/>
+      <c r="AS90"/>
+      <c r="AT90"/>
+      <c r="AU90"/>
+      <c r="AV90"/>
+      <c r="AW90"/>
+      <c r="AX90"/>
+      <c r="AY90"/>
+      <c r="AZ90"/>
+      <c r="BA90"/>
+      <c r="BB90"/>
+      <c r="BC90"/>
+      <c r="BD90"/>
+      <c r="BE90"/>
+      <c r="BF90"/>
+      <c r="BG90"/>
+      <c r="BH90"/>
+      <c r="BI90"/>
+      <c r="BJ90"/>
+      <c r="BK90"/>
+      <c r="BL90"/>
+      <c r="BM90"/>
+      <c r="BN90"/>
+      <c r="BO90"/>
+      <c r="BP90"/>
+      <c r="BQ90"/>
+      <c r="BR90"/>
+      <c r="BS90"/>
+      <c r="BT90"/>
+      <c r="BU90"/>
+      <c r="BV90"/>
+      <c r="BW90"/>
+      <c r="BX90"/>
+      <c r="BY90"/>
+      <c r="BZ90"/>
+      <c r="CA90"/>
+      <c r="CB90"/>
+      <c r="CC90"/>
+      <c r="CD90"/>
+      <c r="CE90"/>
+      <c r="CF90"/>
+      <c r="CG90"/>
+      <c r="CH90"/>
+      <c r="CI90"/>
+      <c r="CJ90"/>
+      <c r="CK90"/>
+      <c r="CL90"/>
+      <c r="CM90"/>
+      <c r="CN90"/>
+      <c r="CO90"/>
+      <c r="CP90"/>
+      <c r="CQ90"/>
+      <c r="CR90"/>
+      <c r="CS90"/>
+      <c r="CT90"/>
+      <c r="CU90"/>
+      <c r="CV90"/>
+      <c r="CW90"/>
+      <c r="CX90"/>
+      <c r="CY90"/>
+      <c r="CZ90"/>
+      <c r="DA90"/>
+      <c r="DB90"/>
+      <c r="DC90"/>
+      <c r="DD90"/>
     </row>
     <row r="92" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O92"/>
@@ -14737,6 +14793,102 @@
       <c r="DC92"/>
       <c r="DD92"/>
     </row>
+    <row r="93" spans="15:108" x14ac:dyDescent="0.15">
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+      <c r="AF93"/>
+      <c r="AG93"/>
+      <c r="AH93"/>
+      <c r="AI93"/>
+      <c r="AJ93"/>
+      <c r="AK93"/>
+      <c r="AL93"/>
+      <c r="AM93"/>
+      <c r="AN93"/>
+      <c r="AO93"/>
+      <c r="AP93"/>
+      <c r="AQ93"/>
+      <c r="AR93"/>
+      <c r="AS93"/>
+      <c r="AT93"/>
+      <c r="AU93"/>
+      <c r="AV93"/>
+      <c r="AW93"/>
+      <c r="AX93"/>
+      <c r="AY93"/>
+      <c r="AZ93"/>
+      <c r="BA93"/>
+      <c r="BB93"/>
+      <c r="BC93"/>
+      <c r="BD93"/>
+      <c r="BE93"/>
+      <c r="BF93"/>
+      <c r="BG93"/>
+      <c r="BH93"/>
+      <c r="BI93"/>
+      <c r="BJ93"/>
+      <c r="BK93"/>
+      <c r="BL93"/>
+      <c r="BM93"/>
+      <c r="BN93"/>
+      <c r="BO93"/>
+      <c r="BP93"/>
+      <c r="BQ93"/>
+      <c r="BR93"/>
+      <c r="BS93"/>
+      <c r="BT93"/>
+      <c r="BU93"/>
+      <c r="BV93"/>
+      <c r="BW93"/>
+      <c r="BX93"/>
+      <c r="BY93"/>
+      <c r="BZ93"/>
+      <c r="CA93"/>
+      <c r="CB93"/>
+      <c r="CC93"/>
+      <c r="CD93"/>
+      <c r="CE93"/>
+      <c r="CF93"/>
+      <c r="CG93"/>
+      <c r="CH93"/>
+      <c r="CI93"/>
+      <c r="CJ93"/>
+      <c r="CK93"/>
+      <c r="CL93"/>
+      <c r="CM93"/>
+      <c r="CN93"/>
+      <c r="CO93"/>
+      <c r="CP93"/>
+      <c r="CQ93"/>
+      <c r="CR93"/>
+      <c r="CS93"/>
+      <c r="CT93"/>
+      <c r="CU93"/>
+      <c r="CV93"/>
+      <c r="CW93"/>
+      <c r="CX93"/>
+      <c r="CY93"/>
+      <c r="CZ93"/>
+      <c r="DA93"/>
+      <c r="DB93"/>
+      <c r="DC93"/>
+      <c r="DD93"/>
+    </row>
   </sheetData>
   <autoFilter ref="B12:DH14">
     <filterColumn colId="0" showButton="0"/>
@@ -14745,7 +14897,23 @@
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="O62:BN63 DD62:DD63 O11:BF12 O45:DD47 O25:DD26 O13:DD19 O39:DD42 O21:DD22">
+  <conditionalFormatting sqref="O63:BN64 DD63:DD64 O11:BF12 O46:DD48 O26:DD27 O13:DD19 O40:DD43 O21:DD22">
+    <cfRule type="expression" dxfId="69" priority="74">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="75">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="76">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:BF11">
+    <cfRule type="expression" dxfId="66" priority="73">
+      <formula>O$11=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O49:BN62 DD49:DD62">
     <cfRule type="expression" dxfId="65" priority="70">
       <formula>O$9="祝"</formula>
     </cfRule>
@@ -14756,202 +14924,202 @@
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:BF11">
-    <cfRule type="expression" dxfId="62" priority="69">
-      <formula>O$11=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O48:BN61 DD48:DD61">
-    <cfRule type="expression" dxfId="61" priority="66">
-      <formula>O$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="67">
-      <formula>O$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="68">
-      <formula>O$12="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO62:DC63">
-    <cfRule type="expression" dxfId="58" priority="63">
+  <conditionalFormatting sqref="BO63:DC64">
+    <cfRule type="expression" dxfId="62" priority="67">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="64">
+    <cfRule type="expression" dxfId="61" priority="68">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="65">
+    <cfRule type="expression" dxfId="60" priority="69">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO48:DC61">
-    <cfRule type="expression" dxfId="55" priority="59">
+  <conditionalFormatting sqref="BO49:DC62">
+    <cfRule type="expression" dxfId="59" priority="63">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="60">
+    <cfRule type="expression" dxfId="58" priority="64">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="61">
+    <cfRule type="expression" dxfId="57" priority="65">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD12">
-    <cfRule type="expression" dxfId="52" priority="56">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="57">
+    <cfRule type="expression" dxfId="55" priority="61">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="58">
+    <cfRule type="expression" dxfId="54" priority="62">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD11">
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I63 I44:I53 J27:J37 I39:L43 I25:L26 J45:L63 L27:L37 M39:M63 I38:M38 M24:M37 I21:M22 I13:M19">
-    <cfRule type="expression" dxfId="48" priority="54">
+  <conditionalFormatting sqref="I56:I64 I45:I54 J28:J38 I40:L44 I26:L27 J46:L64 L28:L38 M40:M64 I39:M39 M25:M38 I21:M22 I13:M19">
+    <cfRule type="expression" dxfId="52" priority="58">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43:DD43">
-    <cfRule type="expression" dxfId="47" priority="51">
+  <conditionalFormatting sqref="O44:DD44">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="52">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="53">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:L44">
-    <cfRule type="expression" dxfId="44" priority="47">
-      <formula>$J44="完了"</formula>
+  <conditionalFormatting sqref="J45:L45">
+    <cfRule type="expression" dxfId="48" priority="51">
+      <formula>$J45="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44:AM44 AP44:DD44">
-    <cfRule type="expression" dxfId="43" priority="44">
+  <conditionalFormatting sqref="O45:AM45 AP45:DD45">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45">
+    <cfRule type="expression" dxfId="46" priority="49">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="46">
+    <cfRule type="expression" dxfId="45" priority="50">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>$J24="完了"</formula>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>$J25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:L24">
-    <cfRule type="expression" dxfId="39" priority="36">
-      <formula>$J24="完了"</formula>
+  <conditionalFormatting sqref="J25:L25">
+    <cfRule type="expression" dxfId="43" priority="40">
+      <formula>$J25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24:DD24">
-    <cfRule type="expression" dxfId="38" priority="33">
+  <conditionalFormatting sqref="O25:DD25">
+    <cfRule type="expression" dxfId="42" priority="37">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="40" priority="39">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O38:DD38">
-    <cfRule type="expression" dxfId="35" priority="29">
+  <conditionalFormatting sqref="O39:DD39">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:DD37">
-    <cfRule type="expression" dxfId="32" priority="25">
+  <conditionalFormatting sqref="O28:DD38">
+    <cfRule type="expression" dxfId="36" priority="29">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="26">
+    <cfRule type="expression" dxfId="35" priority="30">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K37">
-    <cfRule type="expression" dxfId="29" priority="18">
-      <formula>$J27="完了"</formula>
+  <conditionalFormatting sqref="K28:K38">
+    <cfRule type="expression" dxfId="33" priority="22">
+      <formula>$J28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I37">
-    <cfRule type="expression" dxfId="28" priority="17">
-      <formula>$J27="完了"</formula>
+  <conditionalFormatting sqref="I28:I38">
+    <cfRule type="expression" dxfId="32" priority="21">
+      <formula>$J28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="27" priority="15">
-      <formula>$J54="完了"</formula>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" dxfId="31" priority="19">
+      <formula>$J55="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO44">
-    <cfRule type="expression" dxfId="26" priority="12">
+  <conditionalFormatting sqref="AO45">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DD23">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="26" priority="14">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:M23">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>$J23="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN44">
-    <cfRule type="expression" dxfId="19" priority="5">
+  <conditionalFormatting sqref="AN45">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DD20">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:M20">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>$J20="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24:DD24">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:M24">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$J24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17662,18 +17830,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL35">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:AL11">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>I$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19042,13 +19210,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AM21">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
     <sheet name="WBS" sheetId="18" r:id="rId2"/>
-    <sheet name="do0415補足" sheetId="9" r:id="rId3"/>
-    <sheet name="do0609" sheetId="10" r:id="rId4"/>
-    <sheet name="計画" sheetId="8" state="hidden" r:id="rId5"/>
-    <sheet name="BK" sheetId="19" r:id="rId6"/>
-    <sheet name="memoBK" sheetId="12" r:id="rId7"/>
-    <sheet name="工数_6" sheetId="16" r:id="rId8"/>
-    <sheet name="工数_5" sheetId="15" r:id="rId9"/>
-    <sheet name="工数_4" sheetId="14" r:id="rId10"/>
-    <sheet name="工数_3" sheetId="13" r:id="rId11"/>
+    <sheet name="WBS_value" sheetId="20" r:id="rId3"/>
+    <sheet name="do0415補足" sheetId="9" r:id="rId4"/>
+    <sheet name="do0609" sheetId="10" r:id="rId5"/>
+    <sheet name="計画" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="BK" sheetId="19" r:id="rId7"/>
+    <sheet name="memoBK" sheetId="12" r:id="rId8"/>
+    <sheet name="工数_6" sheetId="16" r:id="rId9"/>
+    <sheet name="工数_5" sheetId="15" r:id="rId10"/>
+    <sheet name="工数_4" sheetId="14" r:id="rId11"/>
+    <sheet name="工数_3" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$DH$14</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="214">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2219,6 +2220,16 @@
   </si>
   <si>
     <t>【暫定】～7月末</t>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
   </si>
 </sst>
 </file>
@@ -2400,7 +2411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2529,12 +2540,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2652,7 +2689,6 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2664,40 +2700,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2768,6 +2782,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3208,7 +3250,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3611,20 +3653,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B37"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="67" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3632,7 +3673,7 @@
       <c r="B3" s="24">
         <v>3</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="68">
         <v>10.5</v>
       </c>
     </row>
@@ -3640,7 +3681,7 @@
       <c r="B4" s="24">
         <v>4</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="68">
         <v>58</v>
       </c>
     </row>
@@ -3648,7 +3689,7 @@
       <c r="B5" s="24">
         <v>5</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="68">
         <v>21</v>
       </c>
     </row>
@@ -3656,7 +3697,7 @@
       <c r="B6" s="24">
         <v>6</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="68">
         <f>SUM(WBS!O65:AS65)</f>
         <v>20.5</v>
       </c>
@@ -3665,16 +3706,16 @@
       <c r="B7" s="24">
         <v>7</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="68">
         <f>SUM(WBS!AS65:BW65)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="24">
         <v>8</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="68">
         <f>SUM(WBS!BX65:DD65)</f>
         <v>0</v>
       </c>
@@ -3683,9 +3724,9 @@
       <c r="B9" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="69">
         <f>SUM(C3:C8)</f>
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3695,6 +3736,1381 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN50"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="3.25" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="39" width="5.625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AN1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="G10" s="12"/>
+      <c r="I10" s="34">
+        <v>43221</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="14">
+        <f>I10</f>
+        <v>43221</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" ref="J11:AL11" si="0">I11+1</f>
+        <v>43222</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>43223</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="0"/>
+        <v>43224</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="0"/>
+        <v>43225</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="0"/>
+        <v>43226</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="0"/>
+        <v>43227</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="0"/>
+        <v>43228</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="0"/>
+        <v>43229</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="0"/>
+        <v>43230</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="0"/>
+        <v>43231</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="0"/>
+        <v>43232</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="0"/>
+        <v>43233</v>
+      </c>
+      <c r="V11" s="14">
+        <f t="shared" si="0"/>
+        <v>43234</v>
+      </c>
+      <c r="W11" s="14">
+        <f t="shared" si="0"/>
+        <v>43235</v>
+      </c>
+      <c r="X11" s="14">
+        <f t="shared" si="0"/>
+        <v>43236</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="0"/>
+        <v>43237</v>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="0"/>
+        <v>43238</v>
+      </c>
+      <c r="AA11" s="14">
+        <f t="shared" si="0"/>
+        <v>43239</v>
+      </c>
+      <c r="AB11" s="14">
+        <f t="shared" si="0"/>
+        <v>43240</v>
+      </c>
+      <c r="AC11" s="14">
+        <f t="shared" si="0"/>
+        <v>43241</v>
+      </c>
+      <c r="AD11" s="14">
+        <f t="shared" si="0"/>
+        <v>43242</v>
+      </c>
+      <c r="AE11" s="14">
+        <f t="shared" si="0"/>
+        <v>43243</v>
+      </c>
+      <c r="AF11" s="14">
+        <f t="shared" si="0"/>
+        <v>43244</v>
+      </c>
+      <c r="AG11" s="14">
+        <f t="shared" si="0"/>
+        <v>43245</v>
+      </c>
+      <c r="AH11" s="14">
+        <f t="shared" si="0"/>
+        <v>43246</v>
+      </c>
+      <c r="AI11" s="14">
+        <f t="shared" si="0"/>
+        <v>43247</v>
+      </c>
+      <c r="AJ11" s="14">
+        <f t="shared" si="0"/>
+        <v>43248</v>
+      </c>
+      <c r="AK11" s="14">
+        <f t="shared" si="0"/>
+        <v>43249</v>
+      </c>
+      <c r="AL11" s="14">
+        <f t="shared" si="0"/>
+        <v>43250</v>
+      </c>
+      <c r="AM11" s="14">
+        <f t="shared" ref="AM11" si="1">AL11+1</f>
+        <v>43251</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="15" t="str">
+        <f t="shared" ref="I12:AK12" si="2">TEXT(I11,"aaa")</f>
+        <v>火</v>
+      </c>
+      <c r="J12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>水</v>
+      </c>
+      <c r="K12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>木</v>
+      </c>
+      <c r="L12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>金</v>
+      </c>
+      <c r="M12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>土</v>
+      </c>
+      <c r="N12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>日</v>
+      </c>
+      <c r="O12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>月</v>
+      </c>
+      <c r="P12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>火</v>
+      </c>
+      <c r="Q12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>水</v>
+      </c>
+      <c r="R12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>木</v>
+      </c>
+      <c r="S12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>金</v>
+      </c>
+      <c r="T12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>土</v>
+      </c>
+      <c r="U12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>日</v>
+      </c>
+      <c r="V12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>月</v>
+      </c>
+      <c r="W12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>火</v>
+      </c>
+      <c r="X12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>水</v>
+      </c>
+      <c r="Y12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>木</v>
+      </c>
+      <c r="Z12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>金</v>
+      </c>
+      <c r="AA12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>土</v>
+      </c>
+      <c r="AB12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>日</v>
+      </c>
+      <c r="AC12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>月</v>
+      </c>
+      <c r="AD12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>火</v>
+      </c>
+      <c r="AE12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>水</v>
+      </c>
+      <c r="AF12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>木</v>
+      </c>
+      <c r="AG12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>金</v>
+      </c>
+      <c r="AH12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>土</v>
+      </c>
+      <c r="AI12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>日</v>
+      </c>
+      <c r="AJ12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>月</v>
+      </c>
+      <c r="AK12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>火</v>
+      </c>
+      <c r="AL12" s="15" t="str">
+        <f t="shared" ref="AL12:AM12" si="3">TEXT(AL11,"aaa")</f>
+        <v>水</v>
+      </c>
+      <c r="AM12" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>木</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="16">
+        <v>4</v>
+      </c>
+      <c r="J13" s="16">
+        <v>4</v>
+      </c>
+      <c r="K13" s="16">
+        <v>4</v>
+      </c>
+      <c r="L13" s="16">
+        <v>4</v>
+      </c>
+      <c r="M13" s="16">
+        <v>5</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+      <c r="T13" s="16">
+        <v>0</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="I22" s="20">
+        <f t="shared" ref="I22:AM22" si="4">SUM(I13:I21)</f>
+        <v>4</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L22" s="20">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AN23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="21">
+        <f>SUM(I22:AM22)</f>
+        <v>21</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AN25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+    </row>
+    <row r="40" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+    </row>
+    <row r="41" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+    </row>
+    <row r="42" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+    </row>
+    <row r="43" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+    </row>
+    <row r="44" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+    </row>
+    <row r="45" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+    </row>
+    <row r="46" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+    </row>
+    <row r="47" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+    </row>
+    <row r="49" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+    </row>
+    <row r="50" spans="9:39" x14ac:dyDescent="0.15">
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="I11:AM21">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>I$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>I$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>I$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM50"/>
   <sheetViews>
@@ -5021,13 +6437,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL21">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5036,7 +6452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N50"/>
   <sheetViews>
@@ -5451,13 +6867,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:M21">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5470,12 +6886,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DE93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="O16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6850,10 +8266,10 @@
       </c>
     </row>
     <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="64"/>
+      <c r="B12" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="63"/>
       <c r="D12" s="43" t="s">
         <v>40</v>
       </c>
@@ -7278,10 +8694,10 @@
       <c r="H13" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="59" t="s">
         <v>185</v>
       </c>
       <c r="K13" s="49" t="s">
@@ -7404,10 +8820,10 @@
       <c r="H14" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="59" t="s">
         <v>185</v>
       </c>
       <c r="K14" s="49" t="s">
@@ -7521,10 +8937,10 @@
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
       <c r="H15" s="50"/>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="J15" s="60"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
       <c r="M15" s="57">
@@ -7634,9 +9050,9 @@
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="62"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="61"/>
       <c r="L16" s="49"/>
       <c r="M16" s="57">
         <f t="shared" ref="M16:M22" si="54">SUM(O16:DD16)</f>
@@ -7751,13 +9167,13 @@
       <c r="H17" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="60" t="s">
         <v>180</v>
       </c>
       <c r="L17" s="49"/>
@@ -7872,13 +9288,13 @@
       <c r="H18" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="J18" s="60" t="s">
+      <c r="J18" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="60" t="s">
         <v>180</v>
       </c>
       <c r="L18" s="49"/>
@@ -7993,13 +9409,13 @@
       <c r="H19" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="60" t="s">
         <v>180</v>
       </c>
       <c r="L19" s="49"/>
@@ -8114,13 +9530,13 @@
       <c r="H20" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="60" t="s">
         <v>180</v>
       </c>
       <c r="L20" s="49"/>
@@ -8241,13 +9657,13 @@
       <c r="H21" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="K21" s="61" t="s">
+      <c r="K21" s="60" t="s">
         <v>180</v>
       </c>
       <c r="L21" s="49"/>
@@ -8362,13 +9778,13 @@
       <c r="H22" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="K22" s="61" t="s">
+      <c r="K22" s="60" t="s">
         <v>180</v>
       </c>
       <c r="L22" s="49" t="s">
@@ -8485,13 +9901,13 @@
       <c r="H23" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="J23" s="60" t="s">
+      <c r="J23" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="60" t="s">
         <v>180</v>
       </c>
       <c r="L23" s="49"/>
@@ -8606,13 +10022,13 @@
       <c r="H24" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="J24" s="60" t="s">
+      <c r="J24" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="K24" s="61" t="s">
+      <c r="K24" s="60" t="s">
         <v>180</v>
       </c>
       <c r="L24" s="49"/>
@@ -8723,9 +10139,9 @@
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="60"/>
       <c r="L25" s="49"/>
       <c r="M25" s="57">
         <f t="shared" si="53"/>
@@ -8834,8 +10250,8 @@
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
       <c r="H26" s="50"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
       <c r="K26" s="49"/>
       <c r="L26" s="49"/>
       <c r="M26" s="57">
@@ -9080,10 +10496,10 @@
       <c r="I28" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L28" s="49"/>
@@ -9201,10 +10617,10 @@
       <c r="I29" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="60" t="s">
+      <c r="J29" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L29" s="49"/>
@@ -9322,10 +10738,10 @@
       <c r="I30" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J30" s="60" t="s">
+      <c r="J30" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K30" s="62" t="s">
+      <c r="K30" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L30" s="49"/>
@@ -9443,10 +10859,10 @@
       <c r="I31" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J31" s="60" t="s">
+      <c r="J31" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K31" s="62" t="s">
+      <c r="K31" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L31" s="49"/>
@@ -9564,10 +10980,10 @@
       <c r="I32" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J32" s="60" t="s">
+      <c r="J32" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L32" s="49"/>
@@ -9685,10 +11101,10 @@
       <c r="I33" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="60" t="s">
+      <c r="J33" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K33" s="62" t="s">
+      <c r="K33" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L33" s="49"/>
@@ -9806,10 +11222,10 @@
       <c r="I34" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J34" s="60" t="s">
+      <c r="J34" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K34" s="62" t="s">
+      <c r="K34" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L34" s="49"/>
@@ -9927,10 +11343,10 @@
       <c r="I35" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J35" s="60" t="s">
+      <c r="J35" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K35" s="62" t="s">
+      <c r="K35" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L35" s="49"/>
@@ -10048,16 +11464,16 @@
       <c r="I36" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J36" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="62" t="s">
+      <c r="J36" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L36" s="49"/>
       <c r="M36" s="57">
         <f t="shared" si="53"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
@@ -10098,7 +11514,9 @@
       <c r="AY36" s="17">
         <v>2</v>
       </c>
-      <c r="AZ36" s="17"/>
+      <c r="AZ36" s="17">
+        <v>11</v>
+      </c>
       <c r="BA36" s="17"/>
       <c r="BB36" s="17"/>
       <c r="BC36" s="17"/>
@@ -10171,10 +11589,10 @@
       <c r="I37" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J37" s="60" t="s">
+      <c r="J37" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L37" s="49"/>
@@ -10292,10 +11710,10 @@
       <c r="I38" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J38" s="60" t="s">
+      <c r="J38" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K38" s="62" t="s">
+      <c r="K38" s="61" t="s">
         <v>180</v>
       </c>
       <c r="L38" s="49"/>
@@ -10989,13 +12407,13 @@
       <c r="H44" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="I44" s="60" t="s">
+      <c r="I44" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="J44" s="60" t="s">
+      <c r="J44" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="K44" s="62"/>
+      <c r="K44" s="61"/>
       <c r="L44" s="49"/>
       <c r="M44" s="57">
         <f t="shared" si="53"/>
@@ -13435,7 +14853,7 @@
     <row r="65" spans="5:109" x14ac:dyDescent="0.15">
       <c r="M65" s="54">
         <f>SUM(O65:DD65)</f>
-        <v>23.5</v>
+        <v>34.5</v>
       </c>
       <c r="O65" s="20">
         <f t="shared" ref="O65:AT65" si="57">SUM(O13:O64)</f>
@@ -13587,7 +15005,7 @@
       </c>
       <c r="AZ65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BA65" s="20">
         <f t="shared" si="58"/>
@@ -15107,27 +16525,86 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DD24">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:M24">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$J24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>WBS_value!$B$4:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>J13:J64</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="65"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="66"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
@@ -15459,7 +16936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R38"/>
   <sheetViews>
@@ -15658,7 +17135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD32"/>
   <sheetViews>
@@ -15867,7 +17344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15880,7 +17357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
@@ -15966,7 +17443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM64"/>
   <sheetViews>
@@ -17830,1397 +19307,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL35">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:AL11">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>I$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN50"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="39" width="5.625" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="AN1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="G10" s="12"/>
-      <c r="I10" s="34">
-        <v>43221</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="14">
-        <f>I10</f>
-        <v>43221</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" ref="J11:AL11" si="0">I11+1</f>
-        <v>43222</v>
-      </c>
-      <c r="K11" s="14">
-        <f t="shared" si="0"/>
-        <v>43223</v>
-      </c>
-      <c r="L11" s="14">
-        <f t="shared" si="0"/>
-        <v>43224</v>
-      </c>
-      <c r="M11" s="14">
-        <f t="shared" si="0"/>
-        <v>43225</v>
-      </c>
-      <c r="N11" s="14">
-        <f t="shared" si="0"/>
-        <v>43226</v>
-      </c>
-      <c r="O11" s="14">
-        <f t="shared" si="0"/>
-        <v>43227</v>
-      </c>
-      <c r="P11" s="14">
-        <f t="shared" si="0"/>
-        <v>43228</v>
-      </c>
-      <c r="Q11" s="14">
-        <f t="shared" si="0"/>
-        <v>43229</v>
-      </c>
-      <c r="R11" s="14">
-        <f t="shared" si="0"/>
-        <v>43230</v>
-      </c>
-      <c r="S11" s="14">
-        <f t="shared" si="0"/>
-        <v>43231</v>
-      </c>
-      <c r="T11" s="14">
-        <f t="shared" si="0"/>
-        <v>43232</v>
-      </c>
-      <c r="U11" s="14">
-        <f t="shared" si="0"/>
-        <v>43233</v>
-      </c>
-      <c r="V11" s="14">
-        <f t="shared" si="0"/>
-        <v>43234</v>
-      </c>
-      <c r="W11" s="14">
-        <f t="shared" si="0"/>
-        <v>43235</v>
-      </c>
-      <c r="X11" s="14">
-        <f t="shared" si="0"/>
-        <v>43236</v>
-      </c>
-      <c r="Y11" s="14">
-        <f t="shared" si="0"/>
-        <v>43237</v>
-      </c>
-      <c r="Z11" s="14">
-        <f t="shared" si="0"/>
-        <v>43238</v>
-      </c>
-      <c r="AA11" s="14">
-        <f t="shared" si="0"/>
-        <v>43239</v>
-      </c>
-      <c r="AB11" s="14">
-        <f t="shared" si="0"/>
-        <v>43240</v>
-      </c>
-      <c r="AC11" s="14">
-        <f t="shared" si="0"/>
-        <v>43241</v>
-      </c>
-      <c r="AD11" s="14">
-        <f t="shared" si="0"/>
-        <v>43242</v>
-      </c>
-      <c r="AE11" s="14">
-        <f t="shared" si="0"/>
-        <v>43243</v>
-      </c>
-      <c r="AF11" s="14">
-        <f t="shared" si="0"/>
-        <v>43244</v>
-      </c>
-      <c r="AG11" s="14">
-        <f t="shared" si="0"/>
-        <v>43245</v>
-      </c>
-      <c r="AH11" s="14">
-        <f t="shared" si="0"/>
-        <v>43246</v>
-      </c>
-      <c r="AI11" s="14">
-        <f t="shared" si="0"/>
-        <v>43247</v>
-      </c>
-      <c r="AJ11" s="14">
-        <f t="shared" si="0"/>
-        <v>43248</v>
-      </c>
-      <c r="AK11" s="14">
-        <f t="shared" si="0"/>
-        <v>43249</v>
-      </c>
-      <c r="AL11" s="14">
-        <f t="shared" si="0"/>
-        <v>43250</v>
-      </c>
-      <c r="AM11" s="14">
-        <f t="shared" ref="AM11" si="1">AL11+1</f>
-        <v>43251</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="15" t="str">
-        <f t="shared" ref="I12:AK12" si="2">TEXT(I11,"aaa")</f>
-        <v>火</v>
-      </c>
-      <c r="J12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>水</v>
-      </c>
-      <c r="K12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>木</v>
-      </c>
-      <c r="L12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>金</v>
-      </c>
-      <c r="M12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>土</v>
-      </c>
-      <c r="N12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>日</v>
-      </c>
-      <c r="O12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>月</v>
-      </c>
-      <c r="P12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>火</v>
-      </c>
-      <c r="Q12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>水</v>
-      </c>
-      <c r="R12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>木</v>
-      </c>
-      <c r="S12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>金</v>
-      </c>
-      <c r="T12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>土</v>
-      </c>
-      <c r="U12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>日</v>
-      </c>
-      <c r="V12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>月</v>
-      </c>
-      <c r="W12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>火</v>
-      </c>
-      <c r="X12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>水</v>
-      </c>
-      <c r="Y12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>木</v>
-      </c>
-      <c r="Z12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>金</v>
-      </c>
-      <c r="AA12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>土</v>
-      </c>
-      <c r="AB12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>日</v>
-      </c>
-      <c r="AC12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>月</v>
-      </c>
-      <c r="AD12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>火</v>
-      </c>
-      <c r="AE12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>水</v>
-      </c>
-      <c r="AF12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>木</v>
-      </c>
-      <c r="AG12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>金</v>
-      </c>
-      <c r="AH12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>土</v>
-      </c>
-      <c r="AI12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>日</v>
-      </c>
-      <c r="AJ12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>月</v>
-      </c>
-      <c r="AK12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>火</v>
-      </c>
-      <c r="AL12" s="15" t="str">
-        <f t="shared" ref="AL12:AM12" si="3">TEXT(AL11,"aaa")</f>
-        <v>水</v>
-      </c>
-      <c r="AM12" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>木</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="16">
-        <v>4</v>
-      </c>
-      <c r="J13" s="16">
-        <v>4</v>
-      </c>
-      <c r="K13" s="16">
-        <v>4</v>
-      </c>
-      <c r="L13" s="16">
-        <v>4</v>
-      </c>
-      <c r="M13" s="16">
-        <v>5</v>
-      </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>0</v>
-      </c>
-      <c r="R13" s="16">
-        <v>0</v>
-      </c>
-      <c r="S13" s="16">
-        <v>0</v>
-      </c>
-      <c r="T13" s="16">
-        <v>0</v>
-      </c>
-      <c r="U13" s="16">
-        <v>0</v>
-      </c>
-      <c r="V13" s="16">
-        <v>0</v>
-      </c>
-      <c r="W13" s="16">
-        <v>0</v>
-      </c>
-      <c r="X13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-    </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-    </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-    </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-    </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="I22" s="20">
-        <f t="shared" ref="I22:AM22" si="4">SUM(I13:I21)</f>
-        <v>4</v>
-      </c>
-      <c r="J22" s="20">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K22" s="20">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L22" s="20">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="M22" s="20">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="N22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AM22" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="AN23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="21">
-        <f>SUM(I22:AM22)</f>
-        <v>21</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="AN25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AF37"/>
-      <c r="AG37"/>
-      <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37"/>
-      <c r="AK37"/>
-      <c r="AL37"/>
-      <c r="AM37"/>
-    </row>
-    <row r="40" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AB40"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
-      <c r="AE40"/>
-      <c r="AF40"/>
-      <c r="AG40"/>
-      <c r="AH40"/>
-      <c r="AI40"/>
-      <c r="AJ40"/>
-      <c r="AK40"/>
-      <c r="AL40"/>
-      <c r="AM40"/>
-    </row>
-    <row r="41" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-      <c r="AE41"/>
-      <c r="AF41"/>
-      <c r="AG41"/>
-      <c r="AH41"/>
-      <c r="AI41"/>
-      <c r="AJ41"/>
-      <c r="AK41"/>
-      <c r="AL41"/>
-      <c r="AM41"/>
-    </row>
-    <row r="42" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-      <c r="AA42"/>
-      <c r="AB42"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
-      <c r="AE42"/>
-      <c r="AF42"/>
-      <c r="AG42"/>
-      <c r="AH42"/>
-      <c r="AI42"/>
-      <c r="AJ42"/>
-      <c r="AK42"/>
-      <c r="AL42"/>
-      <c r="AM42"/>
-    </row>
-    <row r="43" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-      <c r="AA43"/>
-      <c r="AB43"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
-      <c r="AE43"/>
-      <c r="AF43"/>
-      <c r="AG43"/>
-      <c r="AH43"/>
-      <c r="AI43"/>
-      <c r="AJ43"/>
-      <c r="AK43"/>
-      <c r="AL43"/>
-      <c r="AM43"/>
-    </row>
-    <row r="44" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-      <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
-      <c r="AE44"/>
-      <c r="AF44"/>
-      <c r="AG44"/>
-      <c r="AH44"/>
-      <c r="AI44"/>
-      <c r="AJ44"/>
-      <c r="AK44"/>
-      <c r="AL44"/>
-      <c r="AM44"/>
-    </row>
-    <row r="45" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-      <c r="Z45"/>
-      <c r="AA45"/>
-      <c r="AB45"/>
-      <c r="AC45"/>
-      <c r="AD45"/>
-      <c r="AE45"/>
-      <c r="AF45"/>
-      <c r="AG45"/>
-      <c r="AH45"/>
-      <c r="AI45"/>
-      <c r="AJ45"/>
-      <c r="AK45"/>
-      <c r="AL45"/>
-      <c r="AM45"/>
-    </row>
-    <row r="46" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46"/>
-      <c r="AB46"/>
-      <c r="AC46"/>
-      <c r="AD46"/>
-      <c r="AE46"/>
-      <c r="AF46"/>
-      <c r="AG46"/>
-      <c r="AH46"/>
-      <c r="AI46"/>
-      <c r="AJ46"/>
-      <c r="AK46"/>
-      <c r="AL46"/>
-      <c r="AM46"/>
-    </row>
-    <row r="47" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-      <c r="AE47"/>
-      <c r="AF47"/>
-      <c r="AG47"/>
-      <c r="AH47"/>
-      <c r="AI47"/>
-      <c r="AJ47"/>
-      <c r="AK47"/>
-      <c r="AL47"/>
-      <c r="AM47"/>
-    </row>
-    <row r="49" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
-      <c r="AA49"/>
-      <c r="AB49"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
-      <c r="AE49"/>
-      <c r="AF49"/>
-      <c r="AG49"/>
-      <c r="AH49"/>
-      <c r="AI49"/>
-      <c r="AJ49"/>
-      <c r="AK49"/>
-      <c r="AL49"/>
-      <c r="AM49"/>
-    </row>
-    <row r="50" spans="9:39" x14ac:dyDescent="0.15">
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
-      <c r="Z50"/>
-      <c r="AA50"/>
-      <c r="AB50"/>
-      <c r="AC50"/>
-      <c r="AD50"/>
-      <c r="AE50"/>
-      <c r="AF50"/>
-      <c r="AG50"/>
-      <c r="AH50"/>
-      <c r="AI50"/>
-      <c r="AJ50"/>
-      <c r="AK50"/>
-      <c r="AL50"/>
-      <c r="AM50"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I11:AM21">
-    <cfRule type="expression" dxfId="12" priority="1">
-      <formula>I$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>I$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>I$12="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -2244,7 +2244,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2694,18 +2694,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3250,7 +3250,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3655,78 +3655,78 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" s="24">
         <v>3</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="66">
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" s="24">
         <v>4</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="66">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" s="24">
         <v>5</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="66">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" s="24">
         <v>6</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="66">
         <f>SUM(WBS!O65:AS65)</f>
         <v>20.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" s="24">
         <v>7</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="66">
         <f>SUM(WBS!AS65:BW65)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" s="24">
         <v>8</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="66">
         <f>SUM(WBS!BX65:DD65)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3746,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -3756,12 +3756,12 @@
     <col min="10" max="39" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40">
       <c r="AN1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43221</v>
@@ -3873,7 +3873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4296,7 +4296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4338,7 +4338,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4377,7 +4377,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:40">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4416,7 +4416,7 @@
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:40">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4455,7 +4455,7 @@
       <c r="AL18" s="17"/>
       <c r="AM18" s="17"/>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:40">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4494,7 +4494,7 @@
       <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:40">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4536,7 +4536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:40">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4578,7 +4578,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:40">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AM22" si="4">SUM(I13:I21)</f>
         <v>4</v>
@@ -4707,12 +4707,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:40">
       <c r="AN23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:40">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -4724,12 +4724,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:40">
       <c r="AN25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:39">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -4762,7 +4762,7 @@
       <c r="AL37"/>
       <c r="AM37"/>
     </row>
-    <row r="40" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:39">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -4795,7 +4795,7 @@
       <c r="AL40"/>
       <c r="AM40"/>
     </row>
-    <row r="41" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:39">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -4828,7 +4828,7 @@
       <c r="AL41"/>
       <c r="AM41"/>
     </row>
-    <row r="42" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:39">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -4861,7 +4861,7 @@
       <c r="AL42"/>
       <c r="AM42"/>
     </row>
-    <row r="43" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:39">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -4894,7 +4894,7 @@
       <c r="AL43"/>
       <c r="AM43"/>
     </row>
-    <row r="44" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:39">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -4927,7 +4927,7 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:39">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -4960,7 +4960,7 @@
       <c r="AL45"/>
       <c r="AM45"/>
     </row>
-    <row r="46" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:39">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -4993,7 +4993,7 @@
       <c r="AL46"/>
       <c r="AM46"/>
     </row>
-    <row r="47" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:39">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -5026,7 +5026,7 @@
       <c r="AL47"/>
       <c r="AM47"/>
     </row>
-    <row r="49" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:39">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -5059,7 +5059,7 @@
       <c r="AL49"/>
       <c r="AM49"/>
     </row>
-    <row r="50" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:39">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -5121,7 +5121,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -5131,12 +5131,12 @@
     <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43191</v>
@@ -5247,7 +5247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5658,7 +5658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5739,7 +5739,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:39">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5777,7 +5777,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:39">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5815,7 +5815,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:39">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5853,7 +5853,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:39">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:39">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -5935,7 +5935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:39">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AL22" si="2">SUM(I13:I21)</f>
         <v>9</v>
@@ -6060,12 +6060,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:39">
       <c r="AM23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:39">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6077,12 +6077,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:39">
       <c r="AM25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:38">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -6114,7 +6114,7 @@
       <c r="AK37"/>
       <c r="AL37"/>
     </row>
-    <row r="40" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:38">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -6146,7 +6146,7 @@
       <c r="AK40"/>
       <c r="AL40"/>
     </row>
-    <row r="41" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:38">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -6178,7 +6178,7 @@
       <c r="AK41"/>
       <c r="AL41"/>
     </row>
-    <row r="42" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:38">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -6210,7 +6210,7 @@
       <c r="AK42"/>
       <c r="AL42"/>
     </row>
-    <row r="43" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:38">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -6242,7 +6242,7 @@
       <c r="AK43"/>
       <c r="AL43"/>
     </row>
-    <row r="44" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:38">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -6274,7 +6274,7 @@
       <c r="AK44"/>
       <c r="AL44"/>
     </row>
-    <row r="45" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:38">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -6306,7 +6306,7 @@
       <c r="AK45"/>
       <c r="AL45"/>
     </row>
-    <row r="46" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:38">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -6338,7 +6338,7 @@
       <c r="AK46"/>
       <c r="AL46"/>
     </row>
-    <row r="47" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:38">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -6370,7 +6370,7 @@
       <c r="AK47"/>
       <c r="AL47"/>
     </row>
-    <row r="49" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:38">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -6402,7 +6402,7 @@
       <c r="AK49"/>
       <c r="AL49"/>
     </row>
-    <row r="50" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:38">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6463,7 +6463,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -6472,47 +6472,47 @@
     <col min="9" max="13" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14">
       <c r="N1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14">
       <c r="N2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14">
       <c r="N3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14">
       <c r="N4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="N5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14">
       <c r="N6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14">
       <c r="N7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14">
       <c r="N8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -6522,7 +6522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="G10" s="12"/>
       <c r="I10" s="13">
         <v>3</v>
@@ -6531,7 +6531,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="I11" s="14">
         <v>43185</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6638,7 +6638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6669,7 +6669,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6682,7 +6682,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6695,7 +6695,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6708,7 +6708,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6724,7 +6724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6740,7 +6740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14">
       <c r="I22" s="20">
         <f>SUM(I13:I21)</f>
         <v>0</v>
@@ -6765,12 +6765,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14">
       <c r="N23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6782,82 +6782,82 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14">
       <c r="N25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:13">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:13">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:13">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:13">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:13">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:13">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:13">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:13">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:13">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:13">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:13">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6887,14 +6887,14 @@
   <dimension ref="B1:DE93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="AT28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="AZ37" sqref="AZ37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="3" width="2.375" style="13" customWidth="1"/>
@@ -6913,7 +6913,7 @@
     <col min="109" max="109" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:109" s="48" customFormat="1">
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="H1" s="13"/>
@@ -7018,7 +7018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:109" s="48" customFormat="1">
       <c r="B2" s="47" t="s">
         <v>165</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:109" s="48" customFormat="1">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
@@ -7233,7 +7233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:109" s="48" customFormat="1">
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
@@ -7341,7 +7341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:109" s="48" customFormat="1">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="H5" s="13"/>
@@ -7446,7 +7446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:109" s="48" customFormat="1">
       <c r="B6" s="47" t="s">
         <v>168</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:109" s="48" customFormat="1">
       <c r="B7" s="47"/>
       <c r="D7" s="47" t="s">
         <v>179</v>
@@ -7662,7 +7662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:109" s="48" customFormat="1">
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="H8" s="13"/>
@@ -7767,7 +7767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:109">
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -7866,7 +7866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:109">
       <c r="L10" s="12"/>
       <c r="O10" s="38">
         <v>43252</v>
@@ -7884,7 +7884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:109">
       <c r="O11" s="14">
         <f>O10</f>
         <v>43252</v>
@@ -8265,11 +8265,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="63"/>
+    <row r="12" spans="2:109" ht="28.5" customHeight="1">
+      <c r="B12" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="69"/>
       <c r="D12" s="43" t="s">
         <v>40</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:109">
       <c r="B13" s="39">
         <v>1</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:109">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="51" t="s">
@@ -8929,7 +8929,7 @@
       <c r="DC14" s="17"/>
       <c r="DD14" s="17"/>
     </row>
-    <row r="15" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:109">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="51"/>
@@ -9042,7 +9042,7 @@
       <c r="DC15" s="17"/>
       <c r="DD15" s="17"/>
     </row>
-    <row r="16" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:109">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="51"/>
@@ -9153,7 +9153,7 @@
       <c r="DC16" s="17"/>
       <c r="DD16" s="17"/>
     </row>
-    <row r="17" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:109">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="51"/>
@@ -9276,7 +9276,7 @@
       <c r="DC17" s="17"/>
       <c r="DD17" s="17"/>
     </row>
-    <row r="18" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:109">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="51"/>
@@ -9397,7 +9397,7 @@
       <c r="DC18" s="17"/>
       <c r="DD18" s="17"/>
     </row>
-    <row r="19" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:109">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="51"/>
@@ -9518,7 +9518,7 @@
       <c r="DC19" s="17"/>
       <c r="DD19" s="17"/>
     </row>
-    <row r="20" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:109">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="51"/>
@@ -9645,7 +9645,7 @@
       <c r="DC20" s="17"/>
       <c r="DD20" s="17"/>
     </row>
-    <row r="21" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:109">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="51"/>
@@ -9766,7 +9766,7 @@
       <c r="DC21" s="17"/>
       <c r="DD21" s="17"/>
     </row>
-    <row r="22" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:109">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="51"/>
@@ -9889,7 +9889,7 @@
       <c r="DC22" s="17"/>
       <c r="DD22" s="17"/>
     </row>
-    <row r="23" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:109">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="51"/>
@@ -10010,7 +10010,7 @@
       <c r="DC23" s="17"/>
       <c r="DD23" s="17"/>
     </row>
-    <row r="24" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:109">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="51"/>
@@ -10131,7 +10131,7 @@
       <c r="DC24" s="17"/>
       <c r="DD24" s="17"/>
     </row>
-    <row r="25" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:109">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="51"/>
@@ -10242,7 +10242,7 @@
       <c r="DC25" s="17"/>
       <c r="DD25" s="17"/>
     </row>
-    <row r="26" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:109">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="51"/>
@@ -10353,7 +10353,7 @@
       <c r="DC26" s="17"/>
       <c r="DD26" s="17"/>
     </row>
-    <row r="27" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:109">
       <c r="B27" s="39"/>
       <c r="C27" s="39">
         <v>2</v>
@@ -10479,7 +10479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:109">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="51"/>
@@ -10602,7 +10602,7 @@
       <c r="DC28" s="17"/>
       <c r="DD28" s="17"/>
     </row>
-    <row r="29" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:109">
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="51"/>
@@ -10723,7 +10723,7 @@
       <c r="DC29" s="17"/>
       <c r="DD29" s="17"/>
     </row>
-    <row r="30" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:109">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="51"/>
@@ -10844,7 +10844,7 @@
       <c r="DC30" s="17"/>
       <c r="DD30" s="17"/>
     </row>
-    <row r="31" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:109">
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="51"/>
@@ -10965,7 +10965,7 @@
       <c r="DC31" s="17"/>
       <c r="DD31" s="17"/>
     </row>
-    <row r="32" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:109">
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="51"/>
@@ -11086,7 +11086,7 @@
       <c r="DC32" s="17"/>
       <c r="DD32" s="17"/>
     </row>
-    <row r="33" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:108">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="51"/>
@@ -11207,7 +11207,7 @@
       <c r="DC33" s="17"/>
       <c r="DD33" s="17"/>
     </row>
-    <row r="34" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:108">
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="51"/>
@@ -11328,7 +11328,7 @@
       <c r="DC34" s="17"/>
       <c r="DD34" s="17"/>
     </row>
-    <row r="35" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:108">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="51"/>
@@ -11449,7 +11449,7 @@
       <c r="DC35" s="17"/>
       <c r="DD35" s="17"/>
     </row>
-    <row r="36" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:108">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="51"/>
@@ -11473,7 +11473,7 @@
       <c r="L36" s="49"/>
       <c r="M36" s="57">
         <f t="shared" si="53"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
@@ -11515,7 +11515,7 @@
         <v>2</v>
       </c>
       <c r="AZ36" s="17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA36" s="17"/>
       <c r="BB36" s="17"/>
@@ -11574,7 +11574,7 @@
       <c r="DC36" s="17"/>
       <c r="DD36" s="17"/>
     </row>
-    <row r="37" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:108">
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="51"/>
@@ -11695,7 +11695,7 @@
       <c r="DC37" s="17"/>
       <c r="DD37" s="17"/>
     </row>
-    <row r="38" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:108">
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="51"/>
@@ -11816,7 +11816,7 @@
       <c r="DC38" s="17"/>
       <c r="DD38" s="17"/>
     </row>
-    <row r="39" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:108">
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="51"/>
@@ -11927,7 +11927,7 @@
       <c r="DC39" s="17"/>
       <c r="DD39" s="17"/>
     </row>
-    <row r="40" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:108">
       <c r="B40" s="39"/>
       <c r="C40" s="39">
         <v>3</v>
@@ -12052,7 +12052,7 @@
       <c r="DC40" s="17"/>
       <c r="DD40" s="17"/>
     </row>
-    <row r="41" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:108">
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="51"/>
@@ -12163,7 +12163,7 @@
       <c r="DC41" s="17"/>
       <c r="DD41" s="17"/>
     </row>
-    <row r="42" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:108">
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="51"/>
@@ -12284,7 +12284,7 @@
       <c r="DC42" s="17"/>
       <c r="DD42" s="17"/>
     </row>
-    <row r="43" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:108">
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="51"/>
@@ -12395,7 +12395,7 @@
       <c r="DC43" s="17"/>
       <c r="DD43" s="17"/>
     </row>
-    <row r="44" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:108">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="51"/>
@@ -12514,7 +12514,7 @@
       <c r="DC44" s="17"/>
       <c r="DD44" s="17"/>
     </row>
-    <row r="45" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:108">
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="51"/>
@@ -12631,7 +12631,7 @@
       <c r="DC45" s="17"/>
       <c r="DD45" s="17"/>
     </row>
-    <row r="46" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:108" ht="48" customHeight="1">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="51"/>
@@ -12742,7 +12742,7 @@
       <c r="DC46" s="17"/>
       <c r="DD46" s="17"/>
     </row>
-    <row r="47" spans="2:108" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:108" ht="27">
       <c r="B47" s="39">
         <v>2</v>
       </c>
@@ -12873,7 +12873,7 @@
       <c r="DC47" s="17"/>
       <c r="DD47" s="17"/>
     </row>
-    <row r="48" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:108">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="52"/>
@@ -12984,7 +12984,7 @@
       <c r="DC48" s="17"/>
       <c r="DD48" s="17"/>
     </row>
-    <row r="49" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:109">
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="52"/>
@@ -13106,7 +13106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:109">
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="52"/>
@@ -13220,7 +13220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:109">
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="52"/>
@@ -13342,7 +13342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:109">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="52"/>
@@ -13456,7 +13456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:109" ht="27">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="52"/>
@@ -13578,7 +13578,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:109">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="52"/>
@@ -13692,7 +13692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:109" ht="27">
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="52"/>
@@ -13818,7 +13818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:109">
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="52"/>
@@ -13932,7 +13932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:109">
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="52"/>
@@ -14052,7 +14052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:109">
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
       <c r="D58" s="52"/>
@@ -14166,7 +14166,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:109">
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="7"/>
@@ -14280,7 +14280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:109">
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
       <c r="D60" s="7"/>
@@ -14394,7 +14394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:109">
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
       <c r="D61" s="7"/>
@@ -14508,7 +14508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:109">
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="7"/>
@@ -14622,7 +14622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:109">
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
       <c r="D63" s="7"/>
@@ -14736,7 +14736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:109">
       <c r="B64" s="40"/>
       <c r="C64" s="40"/>
       <c r="D64" s="8"/>
@@ -14850,10 +14850,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:109">
       <c r="M65" s="54">
         <f>SUM(O65:DD65)</f>
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="O65" s="20">
         <f t="shared" ref="O65:AT65" si="57">SUM(O13:O64)</f>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="AZ65" s="20">
         <f t="shared" si="58"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA65" s="20">
         <f t="shared" si="58"/>
@@ -15235,23 +15235,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:109">
       <c r="DE66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="67" spans="5:109">
       <c r="E67" s="21"/>
       <c r="DE67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="68" spans="5:109">
       <c r="DE68" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="80" spans="5:109">
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
@@ -15347,7 +15347,7 @@
       <c r="DC80"/>
       <c r="DD80"/>
     </row>
-    <row r="83" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="83" spans="15:108">
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
@@ -15443,7 +15443,7 @@
       <c r="DC83"/>
       <c r="DD83"/>
     </row>
-    <row r="84" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="84" spans="15:108">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -15539,7 +15539,7 @@
       <c r="DC84"/>
       <c r="DD84"/>
     </row>
-    <row r="85" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="85" spans="15:108">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -15635,7 +15635,7 @@
       <c r="DC85"/>
       <c r="DD85"/>
     </row>
-    <row r="86" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="86" spans="15:108">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -15731,7 +15731,7 @@
       <c r="DC86"/>
       <c r="DD86"/>
     </row>
-    <row r="87" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="87" spans="15:108">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -15827,7 +15827,7 @@
       <c r="DC87"/>
       <c r="DD87"/>
     </row>
-    <row r="88" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="88" spans="15:108">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -15923,7 +15923,7 @@
       <c r="DC88"/>
       <c r="DD88"/>
     </row>
-    <row r="89" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="89" spans="15:108">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -16019,7 +16019,7 @@
       <c r="DC89"/>
       <c r="DD89"/>
     </row>
-    <row r="90" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="90" spans="15:108">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -16115,7 +16115,7 @@
       <c r="DC90"/>
       <c r="DD90"/>
     </row>
-    <row r="92" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="92" spans="15:108">
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
@@ -16211,7 +16211,7 @@
       <c r="DC92"/>
       <c r="DD92"/>
     </row>
-    <row r="93" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="93" spans="15:108">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -16565,38 +16565,38 @@
       <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="64" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="65" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="65" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="63" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="65" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="63" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="65" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="65"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="66"/>
+    <row r="9" spans="2:2">
+      <c r="B9" s="63"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -16610,7 +16610,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
@@ -16620,7 +16620,7 @@
     <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>46</v>
       </c>
@@ -16628,62 +16628,62 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="165" customHeight="1">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -16723,7 +16723,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>68</v>
       </c>
@@ -16738,7 +16738,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="B22" s="24" t="s">
         <v>73</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="B23" s="24" t="s">
         <v>74</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="54">
       <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="B25" s="24" t="s">
         <v>80</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="40.5">
       <c r="B26" s="24" t="s">
         <v>83</v>
       </c>
@@ -16818,7 +16818,7 @@
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="B27" s="24" t="s">
         <v>85</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="B28" s="24" t="s">
         <v>86</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="B29" s="27" t="s">
         <v>88</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="B30" s="27" t="s">
         <v>89</v>
       </c>
@@ -16866,7 +16866,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="B31" s="27" t="s">
         <v>91</v>
       </c>
@@ -16878,21 +16878,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="B32" s="28"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" s="22" customFormat="1">
       <c r="A37" s="11" t="s">
         <v>94</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" s="22" customFormat="1">
       <c r="A38" s="11" t="s">
         <v>96</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" s="22" customFormat="1">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" s="22" customFormat="1">
       <c r="A40" s="11"/>
       <c r="B40"/>
     </row>
@@ -16942,12 +16942,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>100</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -16963,7 +16963,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="I5" t="s">
         <v>121</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>103</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="I7" s="33" t="s">
         <v>135</v>
       </c>
@@ -16990,68 +16990,68 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="Q8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="Q9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="R10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="Q11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="32" customFormat="1">
       <c r="B16" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" s="32" customFormat="1">
       <c r="C17" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" s="32" customFormat="1">
       <c r="B18" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" s="32" customFormat="1">
       <c r="C19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" s="32" customFormat="1"/>
+    <row r="22" spans="2:16" s="30" customFormat="1">
       <c r="B22" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="D24" t="s">
         <v>106</v>
       </c>
@@ -17059,27 +17059,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="E25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="D27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="E28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="E29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="E30" t="s">
         <v>111</v>
       </c>
@@ -17087,37 +17087,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16">
       <c r="D34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16">
       <c r="E35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16">
       <c r="E36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16">
       <c r="D37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16">
       <c r="E38" t="s">
         <v>118</v>
       </c>
@@ -17143,14 +17143,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17175,7 +17175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -17252,7 +17252,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17263,62 +17263,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>2</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>3</v>
       </c>
@@ -17350,7 +17350,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17363,9 +17363,9 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" s="24">
         <v>7</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>142</v>
       </c>
@@ -17454,7 +17454,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -17464,47 +17464,47 @@
     <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:39">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:39">
       <c r="AM2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:39">
       <c r="AM3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:39">
       <c r="AM4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:39">
       <c r="AM5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:39">
       <c r="AM6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:39">
       <c r="AM7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:39">
       <c r="AM8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:39">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -17539,7 +17539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:39">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43252</v>
@@ -17548,7 +17548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:39">
       <c r="I11" s="14">
         <f>I10</f>
         <v>43252</v>
@@ -17673,7 +17673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:39" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:39">
       <c r="B13" s="6" t="s">
         <v>138</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:39">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -17932,7 +17932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:39">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:39">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -18015,7 +18015,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:39">
       <c r="B17" s="7" t="s">
         <v>143</v>
       </c>
@@ -18061,7 +18061,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:39">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -18099,7 +18099,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:39">
       <c r="B19" s="7" t="s">
         <v>144</v>
       </c>
@@ -18143,7 +18143,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:39">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -18184,7 +18184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:39">
       <c r="B21" s="7" t="s">
         <v>145</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:39">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -18272,7 +18272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:39">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -18313,7 +18313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:39">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -18354,7 +18354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:39">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -18395,7 +18395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:39">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -18436,7 +18436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:39">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -18477,7 +18477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:39">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -18518,7 +18518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:39">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -18559,7 +18559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:39">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -18600,7 +18600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:39">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -18641,7 +18641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:39">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -18682,7 +18682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:39">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -18723,7 +18723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:39">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -18764,7 +18764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:39">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -18805,7 +18805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:39">
       <c r="I36" s="20">
         <f t="shared" ref="I36:AB36" si="2">SUM(I13:I35)</f>
         <v>0</v>
@@ -18930,12 +18930,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:39">
       <c r="AM37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:39">
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -18947,12 +18947,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:39">
       <c r="AM39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="51" spans="9:38">
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
@@ -18984,7 +18984,7 @@
       <c r="AK51"/>
       <c r="AL51"/>
     </row>
-    <row r="54" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="54" spans="9:38">
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -19016,7 +19016,7 @@
       <c r="AK54"/>
       <c r="AL54"/>
     </row>
-    <row r="55" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="55" spans="9:38">
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -19048,7 +19048,7 @@
       <c r="AK55"/>
       <c r="AL55"/>
     </row>
-    <row r="56" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="56" spans="9:38">
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -19080,7 +19080,7 @@
       <c r="AK56"/>
       <c r="AL56"/>
     </row>
-    <row r="57" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="57" spans="9:38">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -19112,7 +19112,7 @@
       <c r="AK57"/>
       <c r="AL57"/>
     </row>
-    <row r="58" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="58" spans="9:38">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -19144,7 +19144,7 @@
       <c r="AK58"/>
       <c r="AL58"/>
     </row>
-    <row r="59" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="59" spans="9:38">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -19176,7 +19176,7 @@
       <c r="AK59"/>
       <c r="AL59"/>
     </row>
-    <row r="60" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="60" spans="9:38">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -19208,7 +19208,7 @@
       <c r="AK60"/>
       <c r="AL60"/>
     </row>
-    <row r="61" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="61" spans="9:38">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -19240,7 +19240,7 @@
       <c r="AK61"/>
       <c r="AL61"/>
     </row>
-    <row r="63" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="63" spans="9:38">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
@@ -19272,7 +19272,7 @@
       <c r="AK63"/>
       <c r="AL63"/>
     </row>
-    <row r="64" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="64" spans="9:38">
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="216">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2231,6 +2231,29 @@
   <si>
     <t>―</t>
   </si>
+  <si>
+    <t>【不定期】</t>
+    <rPh sb="1" eb="4">
+      <t>フテイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的な書き方を理解</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2244,7 +2267,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3250,7 +3273,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3655,13 +3678,13 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -3669,7 +3692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -3677,7 +3700,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -3685,7 +3708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -3693,7 +3716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -3702,16 +3725,16 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="24">
         <v>7</v>
       </c>
       <c r="C7" s="66">
         <f>SUM(WBS!AS65:BW65)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -3720,13 +3743,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="24" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
-        <v>127</v>
+        <v>130.5</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3769,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -3756,12 +3779,12 @@
     <col min="10" max="39" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="AN1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -3769,7 +3792,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -3777,7 +3800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3785,7 +3808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -3796,7 +3819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -3804,7 +3827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -3815,7 +3838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -3823,7 +3846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -3864,7 +3887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43221</v>
@@ -3873,7 +3896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4005,7 +4028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5" customHeight="1">
+    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -4148,7 +4171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -4254,7 +4277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4296,7 +4319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4338,7 +4361,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4377,7 +4400,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
     </row>
-    <row r="17" spans="2:40">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4416,7 +4439,7 @@
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
     </row>
-    <row r="18" spans="2:40">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4455,7 +4478,7 @@
       <c r="AL18" s="17"/>
       <c r="AM18" s="17"/>
     </row>
-    <row r="19" spans="2:40">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4494,7 +4517,7 @@
       <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
     </row>
-    <row r="20" spans="2:40">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4536,7 +4559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:40">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4578,7 +4601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:40">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.15">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AM22" si="4">SUM(I13:I21)</f>
         <v>4</v>
@@ -4707,12 +4730,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:40">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.15">
       <c r="AN23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:40">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -4724,12 +4747,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:40">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.15">
       <c r="AN25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:39">
+    <row r="37" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -4762,7 +4785,7 @@
       <c r="AL37"/>
       <c r="AM37"/>
     </row>
-    <row r="40" spans="9:39">
+    <row r="40" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -4795,7 +4818,7 @@
       <c r="AL40"/>
       <c r="AM40"/>
     </row>
-    <row r="41" spans="9:39">
+    <row r="41" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -4828,7 +4851,7 @@
       <c r="AL41"/>
       <c r="AM41"/>
     </row>
-    <row r="42" spans="9:39">
+    <row r="42" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -4861,7 +4884,7 @@
       <c r="AL42"/>
       <c r="AM42"/>
     </row>
-    <row r="43" spans="9:39">
+    <row r="43" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -4894,7 +4917,7 @@
       <c r="AL43"/>
       <c r="AM43"/>
     </row>
-    <row r="44" spans="9:39">
+    <row r="44" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -4927,7 +4950,7 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="9:39">
+    <row r="45" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -4960,7 +4983,7 @@
       <c r="AL45"/>
       <c r="AM45"/>
     </row>
-    <row r="46" spans="9:39">
+    <row r="46" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -4993,7 +5016,7 @@
       <c r="AL46"/>
       <c r="AM46"/>
     </row>
-    <row r="47" spans="9:39">
+    <row r="47" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -5026,7 +5049,7 @@
       <c r="AL47"/>
       <c r="AM47"/>
     </row>
-    <row r="49" spans="9:39">
+    <row r="49" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -5059,7 +5082,7 @@
       <c r="AL49"/>
       <c r="AM49"/>
     </row>
-    <row r="50" spans="9:39">
+    <row r="50" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -5121,7 +5144,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -5131,12 +5154,12 @@
     <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -5144,7 +5167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -5152,7 +5175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5160,7 +5183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -5171,7 +5194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -5179,7 +5202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -5190,7 +5213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -5198,7 +5221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -5238,7 +5261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43191</v>
@@ -5247,7 +5270,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5375,7 +5398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="28.5" customHeight="1">
+    <row r="12" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -5514,7 +5537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -5617,7 +5640,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5658,7 +5681,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -5701,7 +5724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5739,7 +5762,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5777,7 +5800,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5815,7 +5838,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5853,7 +5876,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5894,7 +5917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -5935,7 +5958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AL22" si="2">SUM(I13:I21)</f>
         <v>9</v>
@@ -6060,12 +6083,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6077,12 +6100,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:38">
+    <row r="37" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -6114,7 +6137,7 @@
       <c r="AK37"/>
       <c r="AL37"/>
     </row>
-    <row r="40" spans="9:38">
+    <row r="40" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -6146,7 +6169,7 @@
       <c r="AK40"/>
       <c r="AL40"/>
     </row>
-    <row r="41" spans="9:38">
+    <row r="41" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -6178,7 +6201,7 @@
       <c r="AK41"/>
       <c r="AL41"/>
     </row>
-    <row r="42" spans="9:38">
+    <row r="42" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -6210,7 +6233,7 @@
       <c r="AK42"/>
       <c r="AL42"/>
     </row>
-    <row r="43" spans="9:38">
+    <row r="43" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -6242,7 +6265,7 @@
       <c r="AK43"/>
       <c r="AL43"/>
     </row>
-    <row r="44" spans="9:38">
+    <row r="44" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -6274,7 +6297,7 @@
       <c r="AK44"/>
       <c r="AL44"/>
     </row>
-    <row r="45" spans="9:38">
+    <row r="45" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -6306,7 +6329,7 @@
       <c r="AK45"/>
       <c r="AL45"/>
     </row>
-    <row r="46" spans="9:38">
+    <row r="46" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -6338,7 +6361,7 @@
       <c r="AK46"/>
       <c r="AL46"/>
     </row>
-    <row r="47" spans="9:38">
+    <row r="47" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -6370,7 +6393,7 @@
       <c r="AK47"/>
       <c r="AL47"/>
     </row>
-    <row r="49" spans="9:38">
+    <row r="49" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -6402,7 +6425,7 @@
       <c r="AK49"/>
       <c r="AL49"/>
     </row>
-    <row r="50" spans="9:38">
+    <row r="50" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6463,7 +6486,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -6472,47 +6495,47 @@
     <col min="9" max="13" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -6522,7 +6545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="G10" s="12"/>
       <c r="I10" s="13">
         <v>3</v>
@@ -6531,7 +6554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="I11" s="14">
         <v>43185</v>
       </c>
@@ -6555,7 +6578,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="28.5" customHeight="1">
+    <row r="12" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -6594,7 +6617,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -6622,7 +6645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6638,7 +6661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -6656,7 +6679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6669,7 +6692,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6682,7 +6705,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6695,7 +6718,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6708,7 +6731,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6724,7 +6747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6740,7 +6763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="I22" s="20">
         <f>SUM(I13:I21)</f>
         <v>0</v>
@@ -6765,12 +6788,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6782,82 +6805,82 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:13">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="40" spans="9:13">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="9:13">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="9:13">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="9:13">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="9:13">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="9:13">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="9:13">
+    <row r="46" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="9:13">
+    <row r="47" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="49" spans="9:13">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="9:13">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6887,14 +6910,14 @@
   <dimension ref="B1:DE93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="AT28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="AZ25" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AZ37" sqref="AZ37"/>
+      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="3" width="2.375" style="13" customWidth="1"/>
@@ -6913,7 +6936,7 @@
     <col min="109" max="109" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:109" s="48" customFormat="1">
+    <row r="1" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="H1" s="13"/>
@@ -7018,7 +7041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:109" s="48" customFormat="1">
+    <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
         <v>165</v>
       </c>
@@ -7125,7 +7148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:109" s="48" customFormat="1">
+    <row r="3" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
@@ -7233,7 +7256,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:109" s="48" customFormat="1">
+    <row r="4" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
@@ -7341,7 +7364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:109" s="48" customFormat="1">
+    <row r="5" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="H5" s="13"/>
@@ -7446,7 +7469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:109" s="48" customFormat="1">
+    <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="47" t="s">
         <v>168</v>
       </c>
@@ -7553,7 +7576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:109" s="48" customFormat="1">
+    <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="47"/>
       <c r="D7" s="47" t="s">
         <v>179</v>
@@ -7662,7 +7685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:109" s="48" customFormat="1">
+    <row r="8" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="H8" s="13"/>
@@ -7767,7 +7790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:109">
+    <row r="9" spans="2:109" x14ac:dyDescent="0.15">
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -7866,7 +7889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:109">
+    <row r="10" spans="2:109" x14ac:dyDescent="0.15">
       <c r="L10" s="12"/>
       <c r="O10" s="38">
         <v>43252</v>
@@ -7884,7 +7907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:109">
+    <row r="11" spans="2:109" x14ac:dyDescent="0.15">
       <c r="O11" s="14">
         <f>O10</f>
         <v>43252</v>
@@ -8265,7 +8288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:109" ht="28.5" customHeight="1">
+    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="68" t="s">
         <v>0</v>
       </c>
@@ -8674,7 +8697,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:109">
+    <row r="13" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B13" s="39">
         <v>1</v>
       </c>
@@ -8806,7 +8829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:109">
+    <row r="14" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="51" t="s">
@@ -8929,7 +8952,7 @@
       <c r="DC14" s="17"/>
       <c r="DD14" s="17"/>
     </row>
-    <row r="15" spans="2:109">
+    <row r="15" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="51"/>
@@ -9042,7 +9065,7 @@
       <c r="DC15" s="17"/>
       <c r="DD15" s="17"/>
     </row>
-    <row r="16" spans="2:109">
+    <row r="16" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="51"/>
@@ -9153,7 +9176,7 @@
       <c r="DC16" s="17"/>
       <c r="DD16" s="17"/>
     </row>
-    <row r="17" spans="2:109">
+    <row r="17" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="51"/>
@@ -9276,7 +9299,7 @@
       <c r="DC17" s="17"/>
       <c r="DD17" s="17"/>
     </row>
-    <row r="18" spans="2:109">
+    <row r="18" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="51"/>
@@ -9397,7 +9420,7 @@
       <c r="DC18" s="17"/>
       <c r="DD18" s="17"/>
     </row>
-    <row r="19" spans="2:109">
+    <row r="19" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="51"/>
@@ -9518,7 +9541,7 @@
       <c r="DC19" s="17"/>
       <c r="DD19" s="17"/>
     </row>
-    <row r="20" spans="2:109">
+    <row r="20" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="51"/>
@@ -9645,7 +9668,7 @@
       <c r="DC20" s="17"/>
       <c r="DD20" s="17"/>
     </row>
-    <row r="21" spans="2:109">
+    <row r="21" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="51"/>
@@ -9766,7 +9789,7 @@
       <c r="DC21" s="17"/>
       <c r="DD21" s="17"/>
     </row>
-    <row r="22" spans="2:109">
+    <row r="22" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="51"/>
@@ -9889,7 +9912,7 @@
       <c r="DC22" s="17"/>
       <c r="DD22" s="17"/>
     </row>
-    <row r="23" spans="2:109">
+    <row r="23" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="51"/>
@@ -10010,7 +10033,7 @@
       <c r="DC23" s="17"/>
       <c r="DD23" s="17"/>
     </row>
-    <row r="24" spans="2:109">
+    <row r="24" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="51"/>
@@ -10131,7 +10154,7 @@
       <c r="DC24" s="17"/>
       <c r="DD24" s="17"/>
     </row>
-    <row r="25" spans="2:109">
+    <row r="25" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="51"/>
@@ -10242,7 +10265,7 @@
       <c r="DC25" s="17"/>
       <c r="DD25" s="17"/>
     </row>
-    <row r="26" spans="2:109">
+    <row r="26" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="51"/>
@@ -10353,7 +10376,7 @@
       <c r="DC26" s="17"/>
       <c r="DD26" s="17"/>
     </row>
-    <row r="27" spans="2:109">
+    <row r="27" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B27" s="39"/>
       <c r="C27" s="39">
         <v>2</v>
@@ -10479,7 +10502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:109">
+    <row r="28" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="51"/>
@@ -10602,7 +10625,7 @@
       <c r="DC28" s="17"/>
       <c r="DD28" s="17"/>
     </row>
-    <row r="29" spans="2:109">
+    <row r="29" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="51"/>
@@ -10723,7 +10746,7 @@
       <c r="DC29" s="17"/>
       <c r="DD29" s="17"/>
     </row>
-    <row r="30" spans="2:109">
+    <row r="30" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="51"/>
@@ -10844,7 +10867,7 @@
       <c r="DC30" s="17"/>
       <c r="DD30" s="17"/>
     </row>
-    <row r="31" spans="2:109">
+    <row r="31" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="51"/>
@@ -10965,7 +10988,7 @@
       <c r="DC31" s="17"/>
       <c r="DD31" s="17"/>
     </row>
-    <row r="32" spans="2:109">
+    <row r="32" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="51"/>
@@ -11086,7 +11109,7 @@
       <c r="DC32" s="17"/>
       <c r="DD32" s="17"/>
     </row>
-    <row r="33" spans="2:108">
+    <row r="33" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="51"/>
@@ -11207,7 +11230,7 @@
       <c r="DC33" s="17"/>
       <c r="DD33" s="17"/>
     </row>
-    <row r="34" spans="2:108">
+    <row r="34" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="51"/>
@@ -11223,7 +11246,7 @@
         <v>188</v>
       </c>
       <c r="J34" s="59" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="K34" s="61" t="s">
         <v>180</v>
@@ -11231,7 +11254,7 @@
       <c r="L34" s="49"/>
       <c r="M34" s="57">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
@@ -11271,7 +11294,9 @@
       <c r="AX34" s="17"/>
       <c r="AY34" s="17"/>
       <c r="AZ34" s="17"/>
-      <c r="BA34" s="17"/>
+      <c r="BA34" s="17">
+        <v>2</v>
+      </c>
       <c r="BB34" s="17"/>
       <c r="BC34" s="17"/>
       <c r="BD34" s="17"/>
@@ -11328,7 +11353,7 @@
       <c r="DC34" s="17"/>
       <c r="DD34" s="17"/>
     </row>
-    <row r="35" spans="2:108">
+    <row r="35" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="51"/>
@@ -11449,7 +11474,7 @@
       <c r="DC35" s="17"/>
       <c r="DD35" s="17"/>
     </row>
-    <row r="36" spans="2:108">
+    <row r="36" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="51"/>
@@ -11574,7 +11599,7 @@
       <c r="DC36" s="17"/>
       <c r="DD36" s="17"/>
     </row>
-    <row r="37" spans="2:108">
+    <row r="37" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="51"/>
@@ -11695,7 +11720,7 @@
       <c r="DC37" s="17"/>
       <c r="DD37" s="17"/>
     </row>
-    <row r="38" spans="2:108">
+    <row r="38" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="51"/>
@@ -11816,7 +11841,7 @@
       <c r="DC38" s="17"/>
       <c r="DD38" s="17"/>
     </row>
-    <row r="39" spans="2:108">
+    <row r="39" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="51"/>
@@ -11927,7 +11952,7 @@
       <c r="DC39" s="17"/>
       <c r="DD39" s="17"/>
     </row>
-    <row r="40" spans="2:108">
+    <row r="40" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B40" s="39"/>
       <c r="C40" s="39">
         <v>3</v>
@@ -12052,7 +12077,7 @@
       <c r="DC40" s="17"/>
       <c r="DD40" s="17"/>
     </row>
-    <row r="41" spans="2:108">
+    <row r="41" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="51"/>
@@ -12163,7 +12188,7 @@
       <c r="DC41" s="17"/>
       <c r="DD41" s="17"/>
     </row>
-    <row r="42" spans="2:108">
+    <row r="42" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="51"/>
@@ -12284,7 +12309,7 @@
       <c r="DC42" s="17"/>
       <c r="DD42" s="17"/>
     </row>
-    <row r="43" spans="2:108">
+    <row r="43" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="51"/>
@@ -12395,7 +12420,7 @@
       <c r="DC43" s="17"/>
       <c r="DD43" s="17"/>
     </row>
-    <row r="44" spans="2:108">
+    <row r="44" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="51"/>
@@ -12514,7 +12539,7 @@
       <c r="DC44" s="17"/>
       <c r="DD44" s="17"/>
     </row>
-    <row r="45" spans="2:108">
+    <row r="45" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="51"/>
@@ -12631,7 +12656,7 @@
       <c r="DC45" s="17"/>
       <c r="DD45" s="17"/>
     </row>
-    <row r="46" spans="2:108" ht="48" customHeight="1">
+    <row r="46" spans="2:108" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="51"/>
@@ -12742,7 +12767,7 @@
       <c r="DC46" s="17"/>
       <c r="DD46" s="17"/>
     </row>
-    <row r="47" spans="2:108" ht="27">
+    <row r="47" spans="2:108" ht="27" x14ac:dyDescent="0.15">
       <c r="B47" s="39">
         <v>2</v>
       </c>
@@ -12873,7 +12898,7 @@
       <c r="DC47" s="17"/>
       <c r="DD47" s="17"/>
     </row>
-    <row r="48" spans="2:108">
+    <row r="48" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="52"/>
@@ -12984,7 +13009,7 @@
       <c r="DC48" s="17"/>
       <c r="DD48" s="17"/>
     </row>
-    <row r="49" spans="2:109">
+    <row r="49" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="52"/>
@@ -13106,7 +13131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:109">
+    <row r="50" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="52"/>
@@ -13220,7 +13245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:109">
+    <row r="51" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="52"/>
@@ -13233,16 +13258,18 @@
         <v>198</v>
       </c>
       <c r="I51" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="J51" s="50"/>
+        <v>214</v>
+      </c>
+      <c r="J51" s="50" t="s">
+        <v>210</v>
+      </c>
       <c r="K51" s="39" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L51" s="49"/>
       <c r="M51" s="57">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
@@ -13282,7 +13309,9 @@
       <c r="AX51" s="17"/>
       <c r="AY51" s="17"/>
       <c r="AZ51" s="17"/>
-      <c r="BA51" s="17"/>
+      <c r="BA51" s="17">
+        <v>1.5</v>
+      </c>
       <c r="BB51" s="17"/>
       <c r="BC51" s="17"/>
       <c r="BD51" s="17"/>
@@ -13342,7 +13371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:109">
+    <row r="52" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="52"/>
@@ -13456,7 +13485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:109" ht="27">
+    <row r="53" spans="2:109" ht="27" x14ac:dyDescent="0.15">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="52"/>
@@ -13578,7 +13607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:109">
+    <row r="54" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="52"/>
@@ -13692,7 +13721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:109" ht="27">
+    <row r="55" spans="2:109" ht="27" x14ac:dyDescent="0.15">
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="52"/>
@@ -13818,7 +13847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:109">
+    <row r="56" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="52"/>
@@ -13932,7 +13961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:109">
+    <row r="57" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="52"/>
@@ -14052,7 +14081,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:109">
+    <row r="58" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
       <c r="D58" s="52"/>
@@ -14166,7 +14195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:109">
+    <row r="59" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="7"/>
@@ -14280,7 +14309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:109">
+    <row r="60" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
       <c r="D60" s="7"/>
@@ -14394,7 +14423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:109">
+    <row r="61" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
       <c r="D61" s="7"/>
@@ -14508,7 +14537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:109">
+    <row r="62" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="7"/>
@@ -14622,7 +14651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:109">
+    <row r="63" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
       <c r="D63" s="7"/>
@@ -14736,7 +14765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:109">
+    <row r="64" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B64" s="40"/>
       <c r="C64" s="40"/>
       <c r="D64" s="8"/>
@@ -14850,10 +14879,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="5:109">
+    <row r="65" spans="5:109" x14ac:dyDescent="0.15">
       <c r="M65" s="54">
         <f>SUM(O65:DD65)</f>
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="O65" s="20">
         <f t="shared" ref="O65:AT65" si="57">SUM(O13:O64)</f>
@@ -15009,7 +15038,7 @@
       </c>
       <c r="BA65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BB65" s="20">
         <f t="shared" si="58"/>
@@ -15235,23 +15264,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="5:109">
+    <row r="66" spans="5:109" x14ac:dyDescent="0.15">
       <c r="DE66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="5:109">
+    <row r="67" spans="5:109" x14ac:dyDescent="0.15">
       <c r="E67" s="21"/>
+      <c r="I67" s="13">
+        <v>1.5</v>
+      </c>
       <c r="DE67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="5:109">
+    <row r="68" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="I68" s="13">
+        <v>1</v>
+      </c>
       <c r="DE68" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="5:109">
+    <row r="69" spans="5:109" x14ac:dyDescent="0.15">
+      <c r="I69" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="5:109" x14ac:dyDescent="0.15">
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
@@ -15347,7 +15387,7 @@
       <c r="DC80"/>
       <c r="DD80"/>
     </row>
-    <row r="83" spans="15:108">
+    <row r="83" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
@@ -15443,7 +15483,7 @@
       <c r="DC83"/>
       <c r="DD83"/>
     </row>
-    <row r="84" spans="15:108">
+    <row r="84" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -15539,7 +15579,7 @@
       <c r="DC84"/>
       <c r="DD84"/>
     </row>
-    <row r="85" spans="15:108">
+    <row r="85" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -15635,7 +15675,7 @@
       <c r="DC85"/>
       <c r="DD85"/>
     </row>
-    <row r="86" spans="15:108">
+    <row r="86" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -15731,7 +15771,7 @@
       <c r="DC86"/>
       <c r="DD86"/>
     </row>
-    <row r="87" spans="15:108">
+    <row r="87" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -15827,7 +15867,7 @@
       <c r="DC87"/>
       <c r="DD87"/>
     </row>
-    <row r="88" spans="15:108">
+    <row r="88" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -15923,7 +15963,7 @@
       <c r="DC88"/>
       <c r="DD88"/>
     </row>
-    <row r="89" spans="15:108">
+    <row r="89" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -16019,7 +16059,7 @@
       <c r="DC89"/>
       <c r="DD89"/>
     </row>
-    <row r="90" spans="15:108">
+    <row r="90" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -16115,7 +16155,7 @@
       <c r="DC90"/>
       <c r="DD90"/>
     </row>
-    <row r="92" spans="15:108">
+    <row r="92" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
@@ -16211,7 +16251,7 @@
       <c r="DC92"/>
       <c r="DD92"/>
     </row>
-    <row r="93" spans="15:108">
+    <row r="93" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -16565,37 +16605,37 @@
       <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="63" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="63" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="63"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="64"/>
     </row>
   </sheetData>
@@ -16610,7 +16650,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
@@ -16620,7 +16660,7 @@
     <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>46</v>
       </c>
@@ -16628,62 +16668,62 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
@@ -16691,7 +16731,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -16705,7 +16745,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -16723,7 +16763,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="24" t="s">
         <v>68</v>
       </c>
@@ -16738,7 +16778,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
@@ -16750,7 +16790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="24" t="s">
         <v>73</v>
       </c>
@@ -16762,7 +16802,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="24" t="s">
         <v>74</v>
       </c>
@@ -16776,7 +16816,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54">
+    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
@@ -16791,7 +16831,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="24" t="s">
         <v>80</v>
       </c>
@@ -16803,7 +16843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5">
+    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B26" s="24" t="s">
         <v>83</v>
       </c>
@@ -16818,7 +16858,7 @@
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" s="24" t="s">
         <v>85</v>
       </c>
@@ -16830,7 +16870,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" s="24" t="s">
         <v>86</v>
       </c>
@@ -16839,7 +16879,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>88</v>
       </c>
@@ -16851,7 +16891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>89</v>
       </c>
@@ -16866,7 +16906,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>91</v>
       </c>
@@ -16878,21 +16918,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="28"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -16900,7 +16940,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="22" customFormat="1">
+    <row r="37" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>94</v>
       </c>
@@ -16908,7 +16948,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="22" customFormat="1">
+    <row r="38" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
         <v>96</v>
       </c>
@@ -16916,7 +16956,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="22" customFormat="1">
+    <row r="39" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
@@ -16924,7 +16964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="22" customFormat="1">
+    <row r="40" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40"/>
     </row>
@@ -16942,12 +16982,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>100</v>
       </c>
@@ -16955,7 +16995,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -16963,7 +17003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I5" t="s">
         <v>121</v>
       </c>
@@ -16971,7 +17011,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>103</v>
       </c>
@@ -16982,7 +17022,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I7" s="33" t="s">
         <v>135</v>
       </c>
@@ -16990,68 +17030,68 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="32" customFormat="1">
+    <row r="16" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="32" customFormat="1">
+    <row r="17" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="32" customFormat="1">
+    <row r="18" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="32" customFormat="1">
+    <row r="19" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="32" customFormat="1"/>
-    <row r="22" spans="2:16" s="30" customFormat="1">
+    <row r="20" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>106</v>
       </c>
@@ -17059,27 +17099,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
         <v>111</v>
       </c>
@@ -17087,37 +17127,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
         <v>118</v>
       </c>
@@ -17143,14 +17183,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17164,7 +17204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17175,7 +17215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17186,7 +17226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17194,7 +17234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17208,7 +17248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17216,7 +17256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -17252,7 +17292,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17263,62 +17303,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -17329,7 +17369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -17350,7 +17390,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17363,9 +17403,9 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -17373,7 +17413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -17382,7 +17422,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -17391,7 +17431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -17400,7 +17440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -17409,7 +17449,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="24">
         <v>7</v>
       </c>
@@ -17418,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -17427,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>142</v>
       </c>
@@ -17454,7 +17494,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -17464,47 +17504,47 @@
     <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39">
+    <row r="1" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:39">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:39">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:39">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:39">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:39">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:39">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:39">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:39">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.15">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -17539,7 +17579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:39">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.15">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43252</v>
@@ -17548,7 +17588,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:39">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.15">
       <c r="I11" s="14">
         <f>I10</f>
         <v>43252</v>
@@ -17673,7 +17713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:39" ht="28.5" customHeight="1">
+    <row r="12" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -17812,7 +17852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:39">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>138</v>
       </c>
@@ -17891,7 +17931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:39">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -17932,7 +17972,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:39">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -17977,7 +18017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:39">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -18015,7 +18055,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>143</v>
       </c>
@@ -18061,7 +18101,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -18099,7 +18139,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>144</v>
       </c>
@@ -18143,7 +18183,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -18184,7 +18224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
         <v>145</v>
       </c>
@@ -18231,7 +18271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -18272,7 +18312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -18313,7 +18353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -18354,7 +18394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -18395,7 +18435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:39">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -18436,7 +18476,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:39">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -18477,7 +18517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:39">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -18518,7 +18558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:39">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -18559,7 +18599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:39">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -18600,7 +18640,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:39">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -18641,7 +18681,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:39">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -18682,7 +18722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:39">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -18723,7 +18763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:39">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -18764,7 +18804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:39">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -18805,7 +18845,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:39">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.15">
       <c r="I36" s="20">
         <f t="shared" ref="I36:AB36" si="2">SUM(I13:I35)</f>
         <v>0</v>
@@ -18930,12 +18970,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:39">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:39">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -18947,12 +18987,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:39">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="9:38">
+    <row r="51" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
@@ -18984,7 +19024,7 @@
       <c r="AK51"/>
       <c r="AL51"/>
     </row>
-    <row r="54" spans="9:38">
+    <row r="54" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -19016,7 +19056,7 @@
       <c r="AK54"/>
       <c r="AL54"/>
     </row>
-    <row r="55" spans="9:38">
+    <row r="55" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -19048,7 +19088,7 @@
       <c r="AK55"/>
       <c r="AL55"/>
     </row>
-    <row r="56" spans="9:38">
+    <row r="56" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -19080,7 +19120,7 @@
       <c r="AK56"/>
       <c r="AL56"/>
     </row>
-    <row r="57" spans="9:38">
+    <row r="57" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -19112,7 +19152,7 @@
       <c r="AK57"/>
       <c r="AL57"/>
     </row>
-    <row r="58" spans="9:38">
+    <row r="58" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -19144,7 +19184,7 @@
       <c r="AK58"/>
       <c r="AL58"/>
     </row>
-    <row r="59" spans="9:38">
+    <row r="59" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -19176,7 +19216,7 @@
       <c r="AK59"/>
       <c r="AL59"/>
     </row>
-    <row r="60" spans="9:38">
+    <row r="60" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -19208,7 +19248,7 @@
       <c r="AK60"/>
       <c r="AL60"/>
     </row>
-    <row r="61" spans="9:38">
+    <row r="61" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -19240,7 +19280,7 @@
       <c r="AK61"/>
       <c r="AL61"/>
     </row>
-    <row r="63" spans="9:38">
+    <row r="63" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
@@ -19272,7 +19312,7 @@
       <c r="AK63"/>
       <c r="AL63"/>
     </row>
-    <row r="64" spans="9:38">
+    <row r="64" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -3273,7 +3273,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="C7" s="66">
         <f>SUM(WBS!AS65:BW65)</f>
-        <v>20.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
-        <v>130.5</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6910,11 +6910,11 @@
   <dimension ref="B1:DE93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="AZ25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="AW28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10762,7 +10762,7 @@
         <v>188</v>
       </c>
       <c r="J30" s="59" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="K30" s="61" t="s">
         <v>180</v>
@@ -10770,7 +10770,7 @@
       <c r="L30" s="49"/>
       <c r="M30" s="57">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
@@ -10815,7 +10815,9 @@
       <c r="BC30" s="17"/>
       <c r="BD30" s="17"/>
       <c r="BE30" s="17"/>
-      <c r="BF30" s="17"/>
+      <c r="BF30" s="17">
+        <v>10.5</v>
+      </c>
       <c r="BG30" s="17"/>
       <c r="BH30" s="17"/>
       <c r="BI30" s="17"/>
@@ -14882,7 +14884,7 @@
     <row r="65" spans="5:109" x14ac:dyDescent="0.15">
       <c r="M65" s="54">
         <f>SUM(O65:DD65)</f>
-        <v>40</v>
+        <v>50.5</v>
       </c>
       <c r="O65" s="20">
         <f t="shared" ref="O65:AT65" si="57">SUM(O13:O64)</f>
@@ -15058,7 +15060,7 @@
       </c>
       <c r="BF65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BG65" s="20">
         <f t="shared" si="58"/>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4482C94D-DFB1-451F-B675-920B038B2F9B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
     <sheet name="WBS" sheetId="18" r:id="rId2"/>
     <sheet name="WBS_value" sheetId="20" r:id="rId3"/>
-    <sheet name="do0415補足" sheetId="9" r:id="rId4"/>
-    <sheet name="do0609" sheetId="10" r:id="rId5"/>
-    <sheet name="計画" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="BK" sheetId="19" r:id="rId7"/>
-    <sheet name="memoBK" sheetId="12" r:id="rId8"/>
-    <sheet name="工数_6" sheetId="16" r:id="rId9"/>
-    <sheet name="工数_5" sheetId="15" r:id="rId10"/>
-    <sheet name="工数_4" sheetId="14" r:id="rId11"/>
-    <sheet name="工数_3" sheetId="13" r:id="rId12"/>
+    <sheet name="WBS_しゅうじタスク" sheetId="21" r:id="rId4"/>
+    <sheet name="do0415補足" sheetId="9" r:id="rId5"/>
+    <sheet name="do0609" sheetId="10" r:id="rId6"/>
+    <sheet name="計画" sheetId="8" state="hidden" r:id="rId7"/>
+    <sheet name="BK" sheetId="19" r:id="rId8"/>
+    <sheet name="memoBK" sheetId="12" r:id="rId9"/>
+    <sheet name="工数_6" sheetId="16" r:id="rId10"/>
+    <sheet name="工数_5" sheetId="15" r:id="rId11"/>
+    <sheet name="工数_4" sheetId="14" r:id="rId12"/>
+    <sheet name="工数_3" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$DH$14</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="224">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2231,11 +2233,78 @@
   <si>
     <t>―</t>
   </si>
+  <si>
+    <t>esa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やった日</t>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～7月3週</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～7月2週</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～7月４週</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～7月１週</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://iwatakhr69.esa.io/posts/69</t>
+  </si>
+  <si>
+    <t>https://iwatakhr69.esa.io/posts/47</t>
+  </si>
+  <si>
+    <t>https://iwatakhr69.esa.io/posts/75</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -2571,7 +2640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2694,18 +2763,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3250,7 +3322,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3365,7 +3437,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3407,7 +3479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3440,9 +3512,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3475,6 +3564,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3650,81 +3756,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="24">
         <v>3</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="66">
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="24">
         <v>4</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="66">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="24">
         <v>5</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="66">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="24">
         <v>6</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="66">
         <f>SUM(WBS!O65:AS65)</f>
         <v>20.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="24">
         <v>7</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="66">
         <f>SUM(WBS!AS65:BW65)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="24">
         <v>8</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="66">
         <f>SUM(WBS!BX65:DD65)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
         <v>125</v>
       </c>
@@ -3736,7 +3842,1891 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B1:AM64"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="38" width="5.6328125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="G10" s="12"/>
+      <c r="I10" s="34">
+        <v>43252</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="I11" s="14">
+        <f>I10</f>
+        <v>43252</v>
+      </c>
+      <c r="J11" s="14">
+        <f>I11+1</f>
+        <v>43253</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" ref="K11:AL11" si="0">J11+1</f>
+        <v>43254</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="0"/>
+        <v>43255</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="0"/>
+        <v>43256</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="0"/>
+        <v>43257</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="0"/>
+        <v>43258</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="0"/>
+        <v>43259</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="0"/>
+        <v>43260</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="0"/>
+        <v>43261</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="0"/>
+        <v>43262</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="0"/>
+        <v>43263</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="0"/>
+        <v>43264</v>
+      </c>
+      <c r="V11" s="14">
+        <f t="shared" si="0"/>
+        <v>43265</v>
+      </c>
+      <c r="W11" s="14">
+        <f t="shared" si="0"/>
+        <v>43266</v>
+      </c>
+      <c r="X11" s="14">
+        <f t="shared" si="0"/>
+        <v>43267</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="0"/>
+        <v>43268</v>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="0"/>
+        <v>43269</v>
+      </c>
+      <c r="AA11" s="14">
+        <f t="shared" si="0"/>
+        <v>43270</v>
+      </c>
+      <c r="AB11" s="14">
+        <f t="shared" si="0"/>
+        <v>43271</v>
+      </c>
+      <c r="AC11" s="14">
+        <f t="shared" si="0"/>
+        <v>43272</v>
+      </c>
+      <c r="AD11" s="14">
+        <f t="shared" si="0"/>
+        <v>43273</v>
+      </c>
+      <c r="AE11" s="14">
+        <f t="shared" si="0"/>
+        <v>43274</v>
+      </c>
+      <c r="AF11" s="14">
+        <f t="shared" si="0"/>
+        <v>43275</v>
+      </c>
+      <c r="AG11" s="14">
+        <f t="shared" si="0"/>
+        <v>43276</v>
+      </c>
+      <c r="AH11" s="14">
+        <f t="shared" si="0"/>
+        <v>43277</v>
+      </c>
+      <c r="AI11" s="14">
+        <f t="shared" si="0"/>
+        <v>43278</v>
+      </c>
+      <c r="AJ11" s="14">
+        <f t="shared" si="0"/>
+        <v>43279</v>
+      </c>
+      <c r="AK11" s="14">
+        <f t="shared" si="0"/>
+        <v>43280</v>
+      </c>
+      <c r="AL11" s="14">
+        <f t="shared" si="0"/>
+        <v>43281</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="15" t="str">
+        <f t="shared" ref="I12:AL12" si="1">TEXT(I11,"aaa")</f>
+        <v>金</v>
+      </c>
+      <c r="J12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="K12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="L12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="M12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="N12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="O12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="P12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="Q12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="R12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="S12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="T12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="U12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="V12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="W12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="X12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="Y12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="Z12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="AA12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="AB12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="AC12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="AD12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="AE12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="AF12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="AG12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="AH12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="AI12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="AJ12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="AK12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="AL12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>1</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+      <c r="T13" s="16">
+        <v>0</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="17">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="I36" s="20">
+        <f t="shared" ref="I36:AB36" si="2">SUM(I13:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="20">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB36" s="20">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC36" s="20">
+        <f t="shared" ref="AC36:AL36" si="3">SUM(AC13:AC35)</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AF36" s="20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AG36" s="20">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH36" s="20">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AI36" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="21">
+        <f>SUM(I36:AL36)</f>
+        <v>16.5</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+    </row>
+    <row r="54" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+    </row>
+    <row r="55" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+    </row>
+    <row r="56" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+    </row>
+    <row r="57" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+    </row>
+    <row r="58" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+    </row>
+    <row r="59" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+    </row>
+    <row r="60" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+    </row>
+    <row r="61" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+    </row>
+    <row r="63" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+    </row>
+    <row r="64" spans="9:38" x14ac:dyDescent="0.2">
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="I11:AL35">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>I$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>I$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>I$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:AL11">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>I$11=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3746,22 +5736,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="39" width="5.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="39" width="5.6328125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AN1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -3769,7 +5759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -3777,7 +5767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3785,7 +5775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -3796,7 +5786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -3804,7 +5794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -3815,7 +5805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -3823,7 +5813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -3864,7 +5854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43221</v>
@@ -3873,7 +5863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4005,7 +5995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -4148,7 +6138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -4254,7 +6244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4296,7 +6286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4338,7 +6328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4377,7 +6367,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4416,7 +6406,7 @@
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4455,7 +6445,7 @@
       <c r="AL18" s="17"/>
       <c r="AM18" s="17"/>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4494,7 +6484,7 @@
       <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4536,7 +6526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4578,7 +6568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AM22" si="4">SUM(I13:I21)</f>
         <v>4</v>
@@ -4707,12 +6697,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -4724,12 +6714,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -4762,7 +6752,7 @@
       <c r="AL37"/>
       <c r="AM37"/>
     </row>
-    <row r="40" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -4795,7 +6785,7 @@
       <c r="AL40"/>
       <c r="AM40"/>
     </row>
-    <row r="41" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -4828,7 +6818,7 @@
       <c r="AL41"/>
       <c r="AM41"/>
     </row>
-    <row r="42" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -4861,7 +6851,7 @@
       <c r="AL42"/>
       <c r="AM42"/>
     </row>
-    <row r="43" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -4894,7 +6884,7 @@
       <c r="AL43"/>
       <c r="AM43"/>
     </row>
-    <row r="44" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -4927,7 +6917,7 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -4960,7 +6950,7 @@
       <c r="AL45"/>
       <c r="AM45"/>
     </row>
-    <row r="46" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -4993,7 +6983,7 @@
       <c r="AL46"/>
       <c r="AM46"/>
     </row>
-    <row r="47" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -5026,7 +7016,7 @@
       <c r="AL47"/>
       <c r="AM47"/>
     </row>
-    <row r="49" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -5059,7 +7049,7 @@
       <c r="AL49"/>
       <c r="AM49"/>
     </row>
-    <row r="50" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -5110,8 +7100,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5121,22 +7111,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="38" width="5.6328125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -5144,7 +7134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -5152,7 +7142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5160,7 +7150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -5171,7 +7161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -5179,7 +7169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -5190,7 +7180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -5198,7 +7188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -5238,7 +7228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43191</v>
@@ -5247,7 +7237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5375,7 +7365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -5514,7 +7504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -5617,7 +7607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5658,7 +7648,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -5701,7 +7691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5739,7 +7729,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5777,7 +7767,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5815,7 +7805,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5853,7 +7843,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5894,7 +7884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -5935,7 +7925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AL22" si="2">SUM(I13:I21)</f>
         <v>9</v>
@@ -6060,12 +8050,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6077,12 +8067,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -6114,7 +8104,7 @@
       <c r="AK37"/>
       <c r="AL37"/>
     </row>
-    <row r="40" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -6146,7 +8136,7 @@
       <c r="AK40"/>
       <c r="AL40"/>
     </row>
-    <row r="41" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -6178,7 +8168,7 @@
       <c r="AK41"/>
       <c r="AL41"/>
     </row>
-    <row r="42" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -6210,7 +8200,7 @@
       <c r="AK42"/>
       <c r="AL42"/>
     </row>
-    <row r="43" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -6242,7 +8232,7 @@
       <c r="AK43"/>
       <c r="AL43"/>
     </row>
-    <row r="44" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -6274,7 +8264,7 @@
       <c r="AK44"/>
       <c r="AL44"/>
     </row>
-    <row r="45" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -6306,7 +8296,7 @@
       <c r="AK45"/>
       <c r="AL45"/>
     </row>
-    <row r="46" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -6338,7 +8328,7 @@
       <c r="AK46"/>
       <c r="AL46"/>
     </row>
-    <row r="47" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -6370,7 +8360,7 @@
       <c r="AK47"/>
       <c r="AL47"/>
     </row>
-    <row r="49" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -6402,7 +8392,7 @@
       <c r="AK49"/>
       <c r="AL49"/>
     </row>
-    <row r="50" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6452,8 +8442,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:N50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6463,56 +8453,56 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="13" width="5.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.26953125" customWidth="1"/>
+    <col min="9" max="13" width="5.6328125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -6522,7 +8512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G10" s="12"/>
       <c r="I10" s="13">
         <v>3</v>
@@ -6531,7 +8521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I11" s="14">
         <v>43185</v>
       </c>
@@ -6555,7 +8545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -6594,7 +8584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -6622,7 +8612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6638,7 +8628,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -6656,7 +8646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6669,7 +8659,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6682,7 +8672,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6695,7 +8685,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6708,7 +8698,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6724,7 +8714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6740,7 +8730,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I22" s="20">
         <f>SUM(I13:I21)</f>
         <v>0</v>
@@ -6765,12 +8755,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6782,82 +8772,82 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6883,37 +8873,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:DE93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="S46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="3" width="2.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="3" width="2.36328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="13" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="32.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="108" width="7.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" customWidth="1"/>
+    <col min="15" max="108" width="7.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="H1" s="13"/>
@@ -7018,7 +9008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="47" t="s">
         <v>165</v>
       </c>
@@ -7125,7 +9115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
@@ -7233,7 +9223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
@@ -7341,7 +9331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="H5" s="13"/>
@@ -7446,7 +9436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
         <v>168</v>
       </c>
@@ -7553,7 +9543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="47"/>
       <c r="D7" s="47" t="s">
         <v>179</v>
@@ -7662,7 +9652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="H8" s="13"/>
@@ -7767,7 +9757,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:109" x14ac:dyDescent="0.2">
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -7866,7 +9856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:109" x14ac:dyDescent="0.2">
       <c r="L10" s="12"/>
       <c r="O10" s="38">
         <v>43252</v>
@@ -7884,7 +9874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:109" x14ac:dyDescent="0.2">
       <c r="O11" s="14">
         <f>O10</f>
         <v>43252</v>
@@ -8265,11 +10255,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="63"/>
+    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="69"/>
       <c r="D12" s="43" t="s">
         <v>40</v>
       </c>
@@ -8674,7 +10664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B13" s="39">
         <v>1</v>
       </c>
@@ -8806,7 +10796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="51" t="s">
@@ -8929,7 +10919,7 @@
       <c r="DC14" s="17"/>
       <c r="DD14" s="17"/>
     </row>
-    <row r="15" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="51"/>
@@ -9042,7 +11032,7 @@
       <c r="DC15" s="17"/>
       <c r="DD15" s="17"/>
     </row>
-    <row r="16" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="51"/>
@@ -9153,7 +11143,7 @@
       <c r="DC16" s="17"/>
       <c r="DD16" s="17"/>
     </row>
-    <row r="17" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="51"/>
@@ -9276,7 +11266,7 @@
       <c r="DC17" s="17"/>
       <c r="DD17" s="17"/>
     </row>
-    <row r="18" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="51"/>
@@ -9397,7 +11387,7 @@
       <c r="DC18" s="17"/>
       <c r="DD18" s="17"/>
     </row>
-    <row r="19" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="51"/>
@@ -9518,7 +11508,7 @@
       <c r="DC19" s="17"/>
       <c r="DD19" s="17"/>
     </row>
-    <row r="20" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="51"/>
@@ -9645,7 +11635,7 @@
       <c r="DC20" s="17"/>
       <c r="DD20" s="17"/>
     </row>
-    <row r="21" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="51"/>
@@ -9766,7 +11756,7 @@
       <c r="DC21" s="17"/>
       <c r="DD21" s="17"/>
     </row>
-    <row r="22" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="51"/>
@@ -9889,7 +11879,7 @@
       <c r="DC22" s="17"/>
       <c r="DD22" s="17"/>
     </row>
-    <row r="23" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="51"/>
@@ -10010,7 +12000,7 @@
       <c r="DC23" s="17"/>
       <c r="DD23" s="17"/>
     </row>
-    <row r="24" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="51"/>
@@ -10131,7 +12121,7 @@
       <c r="DC24" s="17"/>
       <c r="DD24" s="17"/>
     </row>
-    <row r="25" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="51"/>
@@ -10242,7 +12232,7 @@
       <c r="DC25" s="17"/>
       <c r="DD25" s="17"/>
     </row>
-    <row r="26" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="51"/>
@@ -10353,7 +12343,7 @@
       <c r="DC26" s="17"/>
       <c r="DD26" s="17"/>
     </row>
-    <row r="27" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B27" s="39"/>
       <c r="C27" s="39">
         <v>2</v>
@@ -10479,7 +12469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="51"/>
@@ -10602,7 +12592,7 @@
       <c r="DC28" s="17"/>
       <c r="DD28" s="17"/>
     </row>
-    <row r="29" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="51"/>
@@ -10723,7 +12713,7 @@
       <c r="DC29" s="17"/>
       <c r="DD29" s="17"/>
     </row>
-    <row r="30" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="51"/>
@@ -10844,7 +12834,7 @@
       <c r="DC30" s="17"/>
       <c r="DD30" s="17"/>
     </row>
-    <row r="31" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="51"/>
@@ -10965,7 +12955,7 @@
       <c r="DC31" s="17"/>
       <c r="DD31" s="17"/>
     </row>
-    <row r="32" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="51"/>
@@ -11086,7 +13076,7 @@
       <c r="DC32" s="17"/>
       <c r="DD32" s="17"/>
     </row>
-    <row r="33" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="51"/>
@@ -11207,7 +13197,7 @@
       <c r="DC33" s="17"/>
       <c r="DD33" s="17"/>
     </row>
-    <row r="34" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="51"/>
@@ -11328,7 +13318,7 @@
       <c r="DC34" s="17"/>
       <c r="DD34" s="17"/>
     </row>
-    <row r="35" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="51"/>
@@ -11449,7 +13439,7 @@
       <c r="DC35" s="17"/>
       <c r="DD35" s="17"/>
     </row>
-    <row r="36" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="51"/>
@@ -11574,7 +13564,7 @@
       <c r="DC36" s="17"/>
       <c r="DD36" s="17"/>
     </row>
-    <row r="37" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="51"/>
@@ -11695,7 +13685,7 @@
       <c r="DC37" s="17"/>
       <c r="DD37" s="17"/>
     </row>
-    <row r="38" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="51"/>
@@ -11816,7 +13806,7 @@
       <c r="DC38" s="17"/>
       <c r="DD38" s="17"/>
     </row>
-    <row r="39" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="51"/>
@@ -11927,7 +13917,7 @@
       <c r="DC39" s="17"/>
       <c r="DD39" s="17"/>
     </row>
-    <row r="40" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B40" s="39"/>
       <c r="C40" s="39">
         <v>3</v>
@@ -12052,7 +14042,7 @@
       <c r="DC40" s="17"/>
       <c r="DD40" s="17"/>
     </row>
-    <row r="41" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="51"/>
@@ -12163,7 +14153,7 @@
       <c r="DC41" s="17"/>
       <c r="DD41" s="17"/>
     </row>
-    <row r="42" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="51"/>
@@ -12284,7 +14274,7 @@
       <c r="DC42" s="17"/>
       <c r="DD42" s="17"/>
     </row>
-    <row r="43" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="51"/>
@@ -12395,7 +14385,7 @@
       <c r="DC43" s="17"/>
       <c r="DD43" s="17"/>
     </row>
-    <row r="44" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="51"/>
@@ -12514,7 +14504,7 @@
       <c r="DC44" s="17"/>
       <c r="DD44" s="17"/>
     </row>
-    <row r="45" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="51"/>
@@ -12631,7 +14621,7 @@
       <c r="DC45" s="17"/>
       <c r="DD45" s="17"/>
     </row>
-    <row r="46" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="51"/>
@@ -12742,7 +14732,7 @@
       <c r="DC46" s="17"/>
       <c r="DD46" s="17"/>
     </row>
-    <row r="47" spans="2:108" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:108" ht="39" x14ac:dyDescent="0.2">
       <c r="B47" s="39">
         <v>2</v>
       </c>
@@ -12873,7 +14863,7 @@
       <c r="DC47" s="17"/>
       <c r="DD47" s="17"/>
     </row>
-    <row r="48" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="52"/>
@@ -12984,7 +14974,7 @@
       <c r="DC48" s="17"/>
       <c r="DD48" s="17"/>
     </row>
-    <row r="49" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="52"/>
@@ -13106,7 +15096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="52"/>
@@ -13220,7 +15210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="52"/>
@@ -13342,7 +15332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="52"/>
@@ -13456,7 +15446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:109" ht="39" x14ac:dyDescent="0.2">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="52"/>
@@ -13578,7 +15568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="52"/>
@@ -13692,7 +15682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:109" ht="26" x14ac:dyDescent="0.2">
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="52"/>
@@ -13818,7 +15808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="52"/>
@@ -13932,7 +15922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="52"/>
@@ -14052,7 +16042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
       <c r="D58" s="52"/>
@@ -14166,7 +16156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="7"/>
@@ -14280,7 +16270,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
       <c r="D60" s="7"/>
@@ -14394,7 +16384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
       <c r="D61" s="7"/>
@@ -14508,7 +16498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="7"/>
@@ -14622,7 +16612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
       <c r="D63" s="7"/>
@@ -14736,7 +16726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B64" s="40"/>
       <c r="C64" s="40"/>
       <c r="D64" s="8"/>
@@ -14850,7 +16840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:109" x14ac:dyDescent="0.2">
       <c r="M65" s="54">
         <f>SUM(O65:DD65)</f>
         <v>34.5</v>
@@ -15235,23 +17225,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:109" x14ac:dyDescent="0.2">
       <c r="DE66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="67" spans="5:109" x14ac:dyDescent="0.2">
       <c r="E67" s="21"/>
       <c r="DE67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="68" spans="5:109" x14ac:dyDescent="0.2">
       <c r="DE68" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="80" spans="5:109" x14ac:dyDescent="0.2">
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
@@ -15347,7 +17337,7 @@
       <c r="DC80"/>
       <c r="DD80"/>
     </row>
-    <row r="83" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="83" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
@@ -15443,7 +17433,7 @@
       <c r="DC83"/>
       <c r="DD83"/>
     </row>
-    <row r="84" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="84" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -15539,7 +17529,7 @@
       <c r="DC84"/>
       <c r="DD84"/>
     </row>
-    <row r="85" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="85" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -15635,7 +17625,7 @@
       <c r="DC85"/>
       <c r="DD85"/>
     </row>
-    <row r="86" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="86" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -15731,7 +17721,7 @@
       <c r="DC86"/>
       <c r="DD86"/>
     </row>
-    <row r="87" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="87" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -15827,7 +17817,7 @@
       <c r="DC87"/>
       <c r="DD87"/>
     </row>
-    <row r="88" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="88" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -15923,7 +17913,7 @@
       <c r="DC88"/>
       <c r="DD88"/>
     </row>
-    <row r="89" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="89" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -16019,7 +18009,7 @@
       <c r="DC89"/>
       <c r="DD89"/>
     </row>
-    <row r="90" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="90" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -16115,7 +18105,7 @@
       <c r="DC90"/>
       <c r="DD90"/>
     </row>
-    <row r="92" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="92" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
@@ -16211,7 +18201,7 @@
       <c r="DC92"/>
       <c r="DD92"/>
     </row>
-    <row r="93" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="93" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -16308,7 +18298,7 @@
       <c r="DD93"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:DH14">
+  <autoFilter ref="B12:DH14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -16545,7 +18535,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -16558,45 +18548,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="64" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="65" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="65" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="63" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="65" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="63" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="65" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="65"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="66"/>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="63"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -16605,22 +18595,191 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6A2FA4-5C1E-403B-9710-BA697AF66C5A}">
+  <dimension ref="B1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="41.453125" customWidth="1"/>
+    <col min="3" max="4" width="24.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="72">
+        <v>43296</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="71">
+        <v>43283</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="71">
+        <v>43293</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="77.26953125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>46</v>
       </c>
@@ -16628,62 +18787,62 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
@@ -16691,7 +18850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -16705,7 +18864,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -16723,7 +18882,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>68</v>
       </c>
@@ -16738,7 +18897,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
@@ -16750,7 +18909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>73</v>
       </c>
@@ -16762,7 +18921,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
         <v>74</v>
       </c>
@@ -16776,7 +18935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
       <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
@@ -16791,7 +18950,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
         <v>80</v>
       </c>
@@ -16803,7 +18962,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>83</v>
       </c>
@@ -16818,7 +18977,7 @@
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>85</v>
       </c>
@@ -16830,7 +18989,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>86</v>
       </c>
@@ -16839,7 +18998,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="27" t="s">
         <v>88</v>
       </c>
@@ -16851,7 +19010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="27" t="s">
         <v>89</v>
       </c>
@@ -16866,7 +19025,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="27" t="s">
         <v>91</v>
       </c>
@@ -16878,21 +19037,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="28"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -16900,7 +19059,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>94</v>
       </c>
@@ -16908,7 +19067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>96</v>
       </c>
@@ -16916,7 +19075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
@@ -16924,7 +19083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40"/>
     </row>
@@ -16936,18 +19095,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>100</v>
       </c>
@@ -16955,7 +19114,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -16963,7 +19122,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>121</v>
       </c>
@@ -16971,7 +19130,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>103</v>
       </c>
@@ -16982,7 +19141,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I7" s="33" t="s">
         <v>135</v>
       </c>
@@ -16990,68 +19149,68 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>106</v>
       </c>
@@ -17059,27 +19218,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>111</v>
       </c>
@@ -17087,37 +19246,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>118</v>
       </c>
@@ -17128,29 +19287,29 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17164,7 +19323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17175,7 +19334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17186,7 +19345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17194,7 +19353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17208,7 +19367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17216,7 +19375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -17252,7 +19411,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17263,62 +19422,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -17329,7 +19488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -17344,28 +19503,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -17373,7 +19532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -17382,7 +19541,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -17391,7 +19550,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -17400,7 +19559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -17409,7 +19568,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="24">
         <v>7</v>
       </c>
@@ -17418,7 +19577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -17427,7 +19586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>142</v>
       </c>
@@ -17441,1888 +19600,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AM64"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="AM1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="AM2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="AM3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="AM4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="AM5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="AM6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="AM7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="AM8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="G10" s="12"/>
-      <c r="I10" s="34">
-        <v>43252</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="I11" s="14">
-        <f>I10</f>
-        <v>43252</v>
-      </c>
-      <c r="J11" s="14">
-        <f>I11+1</f>
-        <v>43253</v>
-      </c>
-      <c r="K11" s="14">
-        <f t="shared" ref="K11:AL11" si="0">J11+1</f>
-        <v>43254</v>
-      </c>
-      <c r="L11" s="14">
-        <f t="shared" si="0"/>
-        <v>43255</v>
-      </c>
-      <c r="M11" s="14">
-        <f t="shared" si="0"/>
-        <v>43256</v>
-      </c>
-      <c r="N11" s="14">
-        <f t="shared" si="0"/>
-        <v>43257</v>
-      </c>
-      <c r="O11" s="14">
-        <f t="shared" si="0"/>
-        <v>43258</v>
-      </c>
-      <c r="P11" s="14">
-        <f t="shared" si="0"/>
-        <v>43259</v>
-      </c>
-      <c r="Q11" s="14">
-        <f t="shared" si="0"/>
-        <v>43260</v>
-      </c>
-      <c r="R11" s="14">
-        <f t="shared" si="0"/>
-        <v>43261</v>
-      </c>
-      <c r="S11" s="14">
-        <f t="shared" si="0"/>
-        <v>43262</v>
-      </c>
-      <c r="T11" s="14">
-        <f t="shared" si="0"/>
-        <v>43263</v>
-      </c>
-      <c r="U11" s="14">
-        <f t="shared" si="0"/>
-        <v>43264</v>
-      </c>
-      <c r="V11" s="14">
-        <f t="shared" si="0"/>
-        <v>43265</v>
-      </c>
-      <c r="W11" s="14">
-        <f t="shared" si="0"/>
-        <v>43266</v>
-      </c>
-      <c r="X11" s="14">
-        <f t="shared" si="0"/>
-        <v>43267</v>
-      </c>
-      <c r="Y11" s="14">
-        <f t="shared" si="0"/>
-        <v>43268</v>
-      </c>
-      <c r="Z11" s="14">
-        <f t="shared" si="0"/>
-        <v>43269</v>
-      </c>
-      <c r="AA11" s="14">
-        <f t="shared" si="0"/>
-        <v>43270</v>
-      </c>
-      <c r="AB11" s="14">
-        <f t="shared" si="0"/>
-        <v>43271</v>
-      </c>
-      <c r="AC11" s="14">
-        <f t="shared" si="0"/>
-        <v>43272</v>
-      </c>
-      <c r="AD11" s="14">
-        <f t="shared" si="0"/>
-        <v>43273</v>
-      </c>
-      <c r="AE11" s="14">
-        <f t="shared" si="0"/>
-        <v>43274</v>
-      </c>
-      <c r="AF11" s="14">
-        <f t="shared" si="0"/>
-        <v>43275</v>
-      </c>
-      <c r="AG11" s="14">
-        <f t="shared" si="0"/>
-        <v>43276</v>
-      </c>
-      <c r="AH11" s="14">
-        <f t="shared" si="0"/>
-        <v>43277</v>
-      </c>
-      <c r="AI11" s="14">
-        <f t="shared" si="0"/>
-        <v>43278</v>
-      </c>
-      <c r="AJ11" s="14">
-        <f t="shared" si="0"/>
-        <v>43279</v>
-      </c>
-      <c r="AK11" s="14">
-        <f t="shared" si="0"/>
-        <v>43280</v>
-      </c>
-      <c r="AL11" s="14">
-        <f t="shared" si="0"/>
-        <v>43281</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="15" t="str">
-        <f t="shared" ref="I12:AL12" si="1">TEXT(I11,"aaa")</f>
-        <v>金</v>
-      </c>
-      <c r="J12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>土</v>
-      </c>
-      <c r="K12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>日</v>
-      </c>
-      <c r="L12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>月</v>
-      </c>
-      <c r="M12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>火</v>
-      </c>
-      <c r="N12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>水</v>
-      </c>
-      <c r="O12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>木</v>
-      </c>
-      <c r="P12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>金</v>
-      </c>
-      <c r="Q12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>土</v>
-      </c>
-      <c r="R12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>日</v>
-      </c>
-      <c r="S12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>月</v>
-      </c>
-      <c r="T12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>火</v>
-      </c>
-      <c r="U12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>水</v>
-      </c>
-      <c r="V12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>木</v>
-      </c>
-      <c r="W12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>金</v>
-      </c>
-      <c r="X12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>土</v>
-      </c>
-      <c r="Y12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>日</v>
-      </c>
-      <c r="Z12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>月</v>
-      </c>
-      <c r="AA12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>火</v>
-      </c>
-      <c r="AB12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>水</v>
-      </c>
-      <c r="AC12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>木</v>
-      </c>
-      <c r="AD12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>金</v>
-      </c>
-      <c r="AE12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>土</v>
-      </c>
-      <c r="AF12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>日</v>
-      </c>
-      <c r="AG12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>月</v>
-      </c>
-      <c r="AH12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>火</v>
-      </c>
-      <c r="AI12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>水</v>
-      </c>
-      <c r="AJ12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>木</v>
-      </c>
-      <c r="AK12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>金</v>
-      </c>
-      <c r="AL12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>土</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
-        <v>0</v>
-      </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>1</v>
-      </c>
-      <c r="R13" s="16">
-        <v>0</v>
-      </c>
-      <c r="S13" s="16">
-        <v>0</v>
-      </c>
-      <c r="T13" s="16">
-        <v>0</v>
-      </c>
-      <c r="U13" s="16">
-        <v>0</v>
-      </c>
-      <c r="V13" s="16">
-        <v>0</v>
-      </c>
-      <c r="W13" s="16">
-        <v>0</v>
-      </c>
-      <c r="X13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-    </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="17">
-        <v>5</v>
-      </c>
-      <c r="AG17" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-    </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-    </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-    </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
-      <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
-      <c r="AJ35" s="18"/>
-      <c r="AK35" s="18"/>
-      <c r="AL35" s="18"/>
-      <c r="AM35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="I36" s="20">
-        <f t="shared" ref="I36:AB36" si="2">SUM(I13:I35)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="20">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="AB36" s="20">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="AC36" s="20">
-        <f t="shared" ref="AC36:AL36" si="3">SUM(AC13:AC35)</f>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AF36" s="20">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AG36" s="20">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="AH36" s="20">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AI36" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL36" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="AM37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="21">
-        <f>SUM(I36:AL36)</f>
-        <v>16.5</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="AM39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51"/>
-      <c r="X51"/>
-      <c r="Y51"/>
-      <c r="Z51"/>
-      <c r="AA51"/>
-      <c r="AB51"/>
-      <c r="AC51"/>
-      <c r="AD51"/>
-      <c r="AE51"/>
-      <c r="AF51"/>
-      <c r="AG51"/>
-      <c r="AH51"/>
-      <c r="AI51"/>
-      <c r="AJ51"/>
-      <c r="AK51"/>
-      <c r="AL51"/>
-    </row>
-    <row r="54" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-      <c r="AA54"/>
-      <c r="AB54"/>
-      <c r="AC54"/>
-      <c r="AD54"/>
-      <c r="AE54"/>
-      <c r="AF54"/>
-      <c r="AG54"/>
-      <c r="AH54"/>
-      <c r="AI54"/>
-      <c r="AJ54"/>
-      <c r="AK54"/>
-      <c r="AL54"/>
-    </row>
-    <row r="55" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
-      <c r="AA55"/>
-      <c r="AB55"/>
-      <c r="AC55"/>
-      <c r="AD55"/>
-      <c r="AE55"/>
-      <c r="AF55"/>
-      <c r="AG55"/>
-      <c r="AH55"/>
-      <c r="AI55"/>
-      <c r="AJ55"/>
-      <c r="AK55"/>
-      <c r="AL55"/>
-    </row>
-    <row r="56" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
-      <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AC56"/>
-      <c r="AD56"/>
-      <c r="AE56"/>
-      <c r="AF56"/>
-      <c r="AG56"/>
-      <c r="AH56"/>
-      <c r="AI56"/>
-      <c r="AJ56"/>
-      <c r="AK56"/>
-      <c r="AL56"/>
-    </row>
-    <row r="57" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
-      <c r="AE57"/>
-      <c r="AF57"/>
-      <c r="AG57"/>
-      <c r="AH57"/>
-      <c r="AI57"/>
-      <c r="AJ57"/>
-      <c r="AK57"/>
-      <c r="AL57"/>
-    </row>
-    <row r="58" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
-      <c r="AE58"/>
-      <c r="AF58"/>
-      <c r="AG58"/>
-      <c r="AH58"/>
-      <c r="AI58"/>
-      <c r="AJ58"/>
-      <c r="AK58"/>
-      <c r="AL58"/>
-    </row>
-    <row r="59" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AC59"/>
-      <c r="AD59"/>
-      <c r="AE59"/>
-      <c r="AF59"/>
-      <c r="AG59"/>
-      <c r="AH59"/>
-      <c r="AI59"/>
-      <c r="AJ59"/>
-      <c r="AK59"/>
-      <c r="AL59"/>
-    </row>
-    <row r="60" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
-      <c r="AA60"/>
-      <c r="AB60"/>
-      <c r="AC60"/>
-      <c r="AD60"/>
-      <c r="AE60"/>
-      <c r="AF60"/>
-      <c r="AG60"/>
-      <c r="AH60"/>
-      <c r="AI60"/>
-      <c r="AJ60"/>
-      <c r="AK60"/>
-      <c r="AL60"/>
-    </row>
-    <row r="61" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-      <c r="AA61"/>
-      <c r="AB61"/>
-      <c r="AC61"/>
-      <c r="AD61"/>
-      <c r="AE61"/>
-      <c r="AF61"/>
-      <c r="AG61"/>
-      <c r="AH61"/>
-      <c r="AI61"/>
-      <c r="AJ61"/>
-      <c r="AK61"/>
-      <c r="AL61"/>
-    </row>
-    <row r="63" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
-      <c r="AK63"/>
-      <c r="AL63"/>
-    </row>
-    <row r="64" spans="9:38" x14ac:dyDescent="0.15">
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-      <c r="Y64"/>
-      <c r="Z64"/>
-      <c r="AA64"/>
-      <c r="AB64"/>
-      <c r="AC64"/>
-      <c r="AD64"/>
-      <c r="AE64"/>
-      <c r="AF64"/>
-      <c r="AG64"/>
-      <c r="AH64"/>
-      <c r="AI64"/>
-      <c r="AJ64"/>
-      <c r="AK64"/>
-      <c r="AL64"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I11:AL35">
-    <cfRule type="expression" dxfId="12" priority="5">
-      <formula>I$9="祝"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>I$12="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
-      <formula>I$12="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:AL11">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>I$11=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -2267,7 +2267,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3257,6 +3257,79 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>728382</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5658971" y="8404412"/>
+          <a:ext cx="8146676" cy="2599764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>7/22</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>（日）以降　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Torello</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>で管理するため不要</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4408</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -3273,7 +3346,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3678,13 +3751,13 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -3692,7 +3765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -3700,7 +3773,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -3708,7 +3781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -3716,7 +3789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -3725,16 +3798,16 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" s="24">
         <v>7</v>
       </c>
       <c r="C7" s="66">
         <f>SUM(WBS!AS65:BW65)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -3743,13 +3816,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" s="24" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
-        <v>141</v>
+        <v>161.5</v>
       </c>
     </row>
   </sheetData>
@@ -3769,7 +3842,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -3779,12 +3852,12 @@
     <col min="10" max="39" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40">
       <c r="AN1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -3792,7 +3865,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -3800,7 +3873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3808,7 +3881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -3819,7 +3892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -3827,7 +3900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -3838,7 +3911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -3846,7 +3919,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -3887,7 +3960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43221</v>
@@ -3896,7 +3969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4028,7 +4101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -4171,7 +4244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -4277,7 +4350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4319,7 +4392,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4361,7 +4434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4400,7 +4473,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:40">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4439,7 +4512,7 @@
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:40">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4478,7 +4551,7 @@
       <c r="AL18" s="17"/>
       <c r="AM18" s="17"/>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:40">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4517,7 +4590,7 @@
       <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:40">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4559,7 +4632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:40">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4601,7 +4674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:40">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AM22" si="4">SUM(I13:I21)</f>
         <v>4</v>
@@ -4730,12 +4803,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:40">
       <c r="AN23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:40">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -4747,12 +4820,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:40">
       <c r="AN25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:39">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -4785,7 +4858,7 @@
       <c r="AL37"/>
       <c r="AM37"/>
     </row>
-    <row r="40" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:39">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -4818,7 +4891,7 @@
       <c r="AL40"/>
       <c r="AM40"/>
     </row>
-    <row r="41" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:39">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -4851,7 +4924,7 @@
       <c r="AL41"/>
       <c r="AM41"/>
     </row>
-    <row r="42" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:39">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -4884,7 +4957,7 @@
       <c r="AL42"/>
       <c r="AM42"/>
     </row>
-    <row r="43" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:39">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -4917,7 +4990,7 @@
       <c r="AL43"/>
       <c r="AM43"/>
     </row>
-    <row r="44" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:39">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -4950,7 +5023,7 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:39">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -4983,7 +5056,7 @@
       <c r="AL45"/>
       <c r="AM45"/>
     </row>
-    <row r="46" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:39">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -5016,7 +5089,7 @@
       <c r="AL46"/>
       <c r="AM46"/>
     </row>
-    <row r="47" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:39">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -5049,7 +5122,7 @@
       <c r="AL47"/>
       <c r="AM47"/>
     </row>
-    <row r="49" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:39">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -5082,7 +5155,7 @@
       <c r="AL49"/>
       <c r="AM49"/>
     </row>
-    <row r="50" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:39">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -5144,7 +5217,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -5154,12 +5227,12 @@
     <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -5167,7 +5240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -5175,7 +5248,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5183,7 +5256,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -5194,7 +5267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -5202,7 +5275,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -5213,7 +5286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -5221,7 +5294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -5261,7 +5334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43191</v>
@@ -5270,7 +5343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5398,7 +5471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -5537,7 +5610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -5640,7 +5713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5681,7 +5754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -5724,7 +5797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5762,7 +5835,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:39">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5800,7 +5873,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:39">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5838,7 +5911,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:39">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5876,7 +5949,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:39">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5917,7 +5990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:39">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -5958,7 +6031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:39">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AL22" si="2">SUM(I13:I21)</f>
         <v>9</v>
@@ -6083,12 +6156,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:39">
       <c r="AM23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:39">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6100,12 +6173,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:39">
       <c r="AM25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:38">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -6137,7 +6210,7 @@
       <c r="AK37"/>
       <c r="AL37"/>
     </row>
-    <row r="40" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:38">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -6169,7 +6242,7 @@
       <c r="AK40"/>
       <c r="AL40"/>
     </row>
-    <row r="41" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:38">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -6201,7 +6274,7 @@
       <c r="AK41"/>
       <c r="AL41"/>
     </row>
-    <row r="42" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:38">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -6233,7 +6306,7 @@
       <c r="AK42"/>
       <c r="AL42"/>
     </row>
-    <row r="43" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:38">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -6265,7 +6338,7 @@
       <c r="AK43"/>
       <c r="AL43"/>
     </row>
-    <row r="44" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:38">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -6297,7 +6370,7 @@
       <c r="AK44"/>
       <c r="AL44"/>
     </row>
-    <row r="45" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:38">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -6329,7 +6402,7 @@
       <c r="AK45"/>
       <c r="AL45"/>
     </row>
-    <row r="46" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:38">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -6361,7 +6434,7 @@
       <c r="AK46"/>
       <c r="AL46"/>
     </row>
-    <row r="47" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:38">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -6393,7 +6466,7 @@
       <c r="AK47"/>
       <c r="AL47"/>
     </row>
-    <row r="49" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:38">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -6425,7 +6498,7 @@
       <c r="AK49"/>
       <c r="AL49"/>
     </row>
-    <row r="50" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:38">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6486,7 +6559,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -6495,47 +6568,47 @@
     <col min="9" max="13" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14">
       <c r="N1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14">
       <c r="N2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14">
       <c r="N3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14">
       <c r="N4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="N5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14">
       <c r="N6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14">
       <c r="N7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14">
       <c r="N8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -6545,7 +6618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="G10" s="12"/>
       <c r="I10" s="13">
         <v>3</v>
@@ -6554,7 +6627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="I11" s="14">
         <v>43185</v>
       </c>
@@ -6578,7 +6651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -6617,7 +6690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -6645,7 +6718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6661,7 +6734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -6679,7 +6752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6692,7 +6765,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6705,7 +6778,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6718,7 +6791,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6731,7 +6804,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6747,7 +6820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6763,7 +6836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14">
       <c r="I22" s="20">
         <f>SUM(I13:I21)</f>
         <v>0</v>
@@ -6788,12 +6861,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14">
       <c r="N23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6805,82 +6878,82 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14">
       <c r="N25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:13">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:13">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:13">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:13">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:13">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:13">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:13">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:13">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:13">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:13">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:13">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6910,18 +6983,18 @@
   <dimension ref="B1:DE93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="AW28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="BE13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="3" width="2.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.375" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
@@ -6936,7 +7009,7 @@
     <col min="109" max="109" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:109" s="48" customFormat="1">
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="H1" s="13"/>
@@ -7041,7 +7114,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:109" s="48" customFormat="1">
       <c r="B2" s="47" t="s">
         <v>165</v>
       </c>
@@ -7148,7 +7221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:109" s="48" customFormat="1">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
@@ -7256,7 +7329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:109" s="48" customFormat="1">
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
@@ -7364,7 +7437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:109" s="48" customFormat="1">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="H5" s="13"/>
@@ -7469,7 +7542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:109" s="48" customFormat="1">
       <c r="B6" s="47" t="s">
         <v>168</v>
       </c>
@@ -7576,7 +7649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:109" s="48" customFormat="1">
       <c r="B7" s="47"/>
       <c r="D7" s="47" t="s">
         <v>179</v>
@@ -7685,7 +7758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:109" s="48" customFormat="1">
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="H8" s="13"/>
@@ -7790,7 +7863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:109">
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -7889,7 +7962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:109">
       <c r="L10" s="12"/>
       <c r="O10" s="38">
         <v>43252</v>
@@ -7907,7 +7980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:109">
       <c r="O11" s="14">
         <f>O10</f>
         <v>43252</v>
@@ -8288,7 +8361,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:109" ht="28.5" customHeight="1">
       <c r="B12" s="68" t="s">
         <v>0</v>
       </c>
@@ -8697,7 +8770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:109">
       <c r="B13" s="39">
         <v>1</v>
       </c>
@@ -8829,7 +8902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:109">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="51" t="s">
@@ -8952,7 +9025,7 @@
       <c r="DC14" s="17"/>
       <c r="DD14" s="17"/>
     </row>
-    <row r="15" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:109">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="51"/>
@@ -9065,7 +9138,7 @@
       <c r="DC15" s="17"/>
       <c r="DD15" s="17"/>
     </row>
-    <row r="16" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:109">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="51"/>
@@ -9176,7 +9249,7 @@
       <c r="DC16" s="17"/>
       <c r="DD16" s="17"/>
     </row>
-    <row r="17" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:109">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="51"/>
@@ -9299,7 +9372,7 @@
       <c r="DC17" s="17"/>
       <c r="DD17" s="17"/>
     </row>
-    <row r="18" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:109">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="51"/>
@@ -9420,7 +9493,7 @@
       <c r="DC18" s="17"/>
       <c r="DD18" s="17"/>
     </row>
-    <row r="19" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:109">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="51"/>
@@ -9541,7 +9614,7 @@
       <c r="DC19" s="17"/>
       <c r="DD19" s="17"/>
     </row>
-    <row r="20" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:109">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="51"/>
@@ -9668,7 +9741,7 @@
       <c r="DC20" s="17"/>
       <c r="DD20" s="17"/>
     </row>
-    <row r="21" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:109">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="51"/>
@@ -9789,7 +9862,7 @@
       <c r="DC21" s="17"/>
       <c r="DD21" s="17"/>
     </row>
-    <row r="22" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:109">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="51"/>
@@ -9912,7 +9985,7 @@
       <c r="DC22" s="17"/>
       <c r="DD22" s="17"/>
     </row>
-    <row r="23" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:109">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="51"/>
@@ -10033,7 +10106,7 @@
       <c r="DC23" s="17"/>
       <c r="DD23" s="17"/>
     </row>
-    <row r="24" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:109">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="51"/>
@@ -10154,7 +10227,7 @@
       <c r="DC24" s="17"/>
       <c r="DD24" s="17"/>
     </row>
-    <row r="25" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:109">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="51"/>
@@ -10265,7 +10338,7 @@
       <c r="DC25" s="17"/>
       <c r="DD25" s="17"/>
     </row>
-    <row r="26" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:109">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="51"/>
@@ -10376,7 +10449,7 @@
       <c r="DC26" s="17"/>
       <c r="DD26" s="17"/>
     </row>
-    <row r="27" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:109">
       <c r="B27" s="39"/>
       <c r="C27" s="39">
         <v>2</v>
@@ -10502,7 +10575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:109">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="51"/>
@@ -10625,7 +10698,7 @@
       <c r="DC28" s="17"/>
       <c r="DD28" s="17"/>
     </row>
-    <row r="29" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:109">
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="51"/>
@@ -10746,7 +10819,7 @@
       <c r="DC29" s="17"/>
       <c r="DD29" s="17"/>
     </row>
-    <row r="30" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:109">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="51"/>
@@ -10762,7 +10835,7 @@
         <v>188</v>
       </c>
       <c r="J30" s="59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K30" s="61" t="s">
         <v>180</v>
@@ -10770,7 +10843,7 @@
       <c r="L30" s="49"/>
       <c r="M30" s="57">
         <f t="shared" si="53"/>
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
@@ -10818,8 +10891,12 @@
       <c r="BF30" s="17">
         <v>10.5</v>
       </c>
-      <c r="BG30" s="17"/>
-      <c r="BH30" s="17"/>
+      <c r="BG30" s="17">
+        <v>2</v>
+      </c>
+      <c r="BH30" s="17">
+        <v>3</v>
+      </c>
       <c r="BI30" s="17"/>
       <c r="BJ30" s="17"/>
       <c r="BK30" s="17"/>
@@ -10869,7 +10946,7 @@
       <c r="DC30" s="17"/>
       <c r="DD30" s="17"/>
     </row>
-    <row r="31" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:109">
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="51"/>
@@ -10990,7 +11067,7 @@
       <c r="DC31" s="17"/>
       <c r="DD31" s="17"/>
     </row>
-    <row r="32" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:109">
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="51"/>
@@ -11006,7 +11083,7 @@
         <v>188</v>
       </c>
       <c r="J32" s="59" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="K32" s="61" t="s">
         <v>180</v>
@@ -11014,7 +11091,7 @@
       <c r="L32" s="49"/>
       <c r="M32" s="57">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
@@ -11061,12 +11138,16 @@
       <c r="BE32" s="17"/>
       <c r="BF32" s="17"/>
       <c r="BG32" s="17"/>
-      <c r="BH32" s="17"/>
+      <c r="BH32" s="17">
+        <v>4</v>
+      </c>
       <c r="BI32" s="17"/>
       <c r="BJ32" s="17"/>
       <c r="BK32" s="17"/>
       <c r="BL32" s="17"/>
-      <c r="BM32" s="17"/>
+      <c r="BM32" s="17">
+        <v>6</v>
+      </c>
       <c r="BN32" s="17"/>
       <c r="BO32" s="17"/>
       <c r="BP32" s="17"/>
@@ -11111,7 +11192,7 @@
       <c r="DC32" s="17"/>
       <c r="DD32" s="17"/>
     </row>
-    <row r="33" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:108">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="51"/>
@@ -11232,7 +11313,7 @@
       <c r="DC33" s="17"/>
       <c r="DD33" s="17"/>
     </row>
-    <row r="34" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:108">
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="51"/>
@@ -11355,7 +11436,7 @@
       <c r="DC34" s="17"/>
       <c r="DD34" s="17"/>
     </row>
-    <row r="35" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:108">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="51"/>
@@ -11476,7 +11557,7 @@
       <c r="DC35" s="17"/>
       <c r="DD35" s="17"/>
     </row>
-    <row r="36" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:108">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="51"/>
@@ -11601,7 +11682,7 @@
       <c r="DC36" s="17"/>
       <c r="DD36" s="17"/>
     </row>
-    <row r="37" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:108">
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="51"/>
@@ -11722,7 +11803,7 @@
       <c r="DC37" s="17"/>
       <c r="DD37" s="17"/>
     </row>
-    <row r="38" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:108">
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="51"/>
@@ -11843,7 +11924,7 @@
       <c r="DC38" s="17"/>
       <c r="DD38" s="17"/>
     </row>
-    <row r="39" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:108">
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="51"/>
@@ -11954,7 +12035,7 @@
       <c r="DC39" s="17"/>
       <c r="DD39" s="17"/>
     </row>
-    <row r="40" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:108">
       <c r="B40" s="39"/>
       <c r="C40" s="39">
         <v>3</v>
@@ -12079,7 +12160,7 @@
       <c r="DC40" s="17"/>
       <c r="DD40" s="17"/>
     </row>
-    <row r="41" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:108">
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="51"/>
@@ -12190,7 +12271,7 @@
       <c r="DC41" s="17"/>
       <c r="DD41" s="17"/>
     </row>
-    <row r="42" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:108">
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="51"/>
@@ -12311,7 +12392,7 @@
       <c r="DC42" s="17"/>
       <c r="DD42" s="17"/>
     </row>
-    <row r="43" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:108">
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="51"/>
@@ -12422,7 +12503,7 @@
       <c r="DC43" s="17"/>
       <c r="DD43" s="17"/>
     </row>
-    <row r="44" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:108">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="51"/>
@@ -12541,7 +12622,7 @@
       <c r="DC44" s="17"/>
       <c r="DD44" s="17"/>
     </row>
-    <row r="45" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:108">
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="51"/>
@@ -12658,7 +12739,7 @@
       <c r="DC45" s="17"/>
       <c r="DD45" s="17"/>
     </row>
-    <row r="46" spans="2:108" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:108" ht="48" customHeight="1">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="51"/>
@@ -12769,7 +12850,7 @@
       <c r="DC46" s="17"/>
       <c r="DD46" s="17"/>
     </row>
-    <row r="47" spans="2:108" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:108" ht="27">
       <c r="B47" s="39">
         <v>2</v>
       </c>
@@ -12801,7 +12882,7 @@
       </c>
       <c r="M47" s="56">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
@@ -12849,7 +12930,9 @@
       <c r="BD47" s="17"/>
       <c r="BE47" s="17"/>
       <c r="BF47" s="17"/>
-      <c r="BG47" s="17"/>
+      <c r="BG47" s="17">
+        <v>2.5</v>
+      </c>
       <c r="BH47" s="17"/>
       <c r="BI47" s="17"/>
       <c r="BJ47" s="17"/>
@@ -12900,7 +12983,7 @@
       <c r="DC47" s="17"/>
       <c r="DD47" s="17"/>
     </row>
-    <row r="48" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:108">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="52"/>
@@ -13011,7 +13094,7 @@
       <c r="DC48" s="17"/>
       <c r="DD48" s="17"/>
     </row>
-    <row r="49" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:109">
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="52"/>
@@ -13133,7 +13216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:109">
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="52"/>
@@ -13247,7 +13330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:109">
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="52"/>
@@ -13373,7 +13456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:109">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="52"/>
@@ -13487,7 +13570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:109" ht="27">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="52"/>
@@ -13609,7 +13692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:109">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="52"/>
@@ -13723,7 +13806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:109" ht="27">
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="52"/>
@@ -13749,7 +13832,7 @@
       </c>
       <c r="M55" s="56">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
@@ -13795,10 +13878,16 @@
       <c r="BD55" s="17"/>
       <c r="BE55" s="17"/>
       <c r="BF55" s="17"/>
-      <c r="BG55" s="17"/>
+      <c r="BG55" s="17">
+        <v>1.5</v>
+      </c>
       <c r="BH55" s="17"/>
-      <c r="BI55" s="17"/>
-      <c r="BJ55" s="17"/>
+      <c r="BI55" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="BJ55" s="17">
+        <v>1</v>
+      </c>
       <c r="BK55" s="17"/>
       <c r="BL55" s="17"/>
       <c r="BM55" s="17"/>
@@ -13849,7 +13938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:109">
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="52"/>
@@ -13963,7 +14052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:109">
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="52"/>
@@ -14083,7 +14172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:109">
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
       <c r="D58" s="52"/>
@@ -14197,7 +14286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:109">
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="7"/>
@@ -14311,7 +14400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:109">
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
       <c r="D60" s="7"/>
@@ -14425,7 +14514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:109">
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
       <c r="D61" s="7"/>
@@ -14539,7 +14628,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:109">
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="7"/>
@@ -14653,7 +14742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:109">
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
       <c r="D63" s="7"/>
@@ -14767,7 +14856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:109">
       <c r="B64" s="40"/>
       <c r="C64" s="40"/>
       <c r="D64" s="8"/>
@@ -14881,10 +14970,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:109">
       <c r="M65" s="54">
         <f>SUM(O65:DD65)</f>
-        <v>50.5</v>
+        <v>71</v>
       </c>
       <c r="O65" s="20">
         <f t="shared" ref="O65:AT65" si="57">SUM(O13:O64)</f>
@@ -15064,19 +15153,19 @@
       </c>
       <c r="BG65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BI65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK65" s="20">
         <f t="shared" si="58"/>
@@ -15088,7 +15177,7 @@
       </c>
       <c r="BM65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BN65" s="20">
         <f t="shared" si="58"/>
@@ -15266,12 +15355,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:109">
       <c r="DE66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="67" spans="5:109">
       <c r="E67" s="21"/>
       <c r="I67" s="13">
         <v>1.5</v>
@@ -15280,7 +15369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="68" spans="5:109">
       <c r="I68" s="13">
         <v>1</v>
       </c>
@@ -15288,12 +15377,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="69" spans="5:109">
       <c r="I69" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="5:109" x14ac:dyDescent="0.15">
+    <row r="80" spans="5:109">
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
@@ -15389,7 +15478,7 @@
       <c r="DC80"/>
       <c r="DD80"/>
     </row>
-    <row r="83" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="83" spans="15:108">
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
@@ -15485,7 +15574,7 @@
       <c r="DC83"/>
       <c r="DD83"/>
     </row>
-    <row r="84" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="84" spans="15:108">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -15581,7 +15670,7 @@
       <c r="DC84"/>
       <c r="DD84"/>
     </row>
-    <row r="85" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="85" spans="15:108">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -15677,7 +15766,7 @@
       <c r="DC85"/>
       <c r="DD85"/>
     </row>
-    <row r="86" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="86" spans="15:108">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -15773,7 +15862,7 @@
       <c r="DC86"/>
       <c r="DD86"/>
     </row>
-    <row r="87" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="87" spans="15:108">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -15869,7 +15958,7 @@
       <c r="DC87"/>
       <c r="DD87"/>
     </row>
-    <row r="88" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="88" spans="15:108">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -15965,7 +16054,7 @@
       <c r="DC88"/>
       <c r="DD88"/>
     </row>
-    <row r="89" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="89" spans="15:108">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -16061,7 +16150,7 @@
       <c r="DC89"/>
       <c r="DD89"/>
     </row>
-    <row r="90" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="90" spans="15:108">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -16157,7 +16246,7 @@
       <c r="DC90"/>
       <c r="DD90"/>
     </row>
-    <row r="92" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="92" spans="15:108">
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
@@ -16253,7 +16342,7 @@
       <c r="DC92"/>
       <c r="DD92"/>
     </row>
-    <row r="93" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="93" spans="15:108">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -16584,6 +16673,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -16604,40 +16694,40 @@
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="63" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" s="63" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="63"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="64"/>
     </row>
   </sheetData>
@@ -16652,7 +16742,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
@@ -16662,7 +16752,7 @@
     <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>46</v>
       </c>
@@ -16670,62 +16760,62 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
@@ -16733,7 +16823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -16747,7 +16837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="165" customHeight="1">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -16765,7 +16855,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>68</v>
       </c>
@@ -16780,7 +16870,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
@@ -16792,7 +16882,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="B22" s="24" t="s">
         <v>73</v>
       </c>
@@ -16804,7 +16894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="B23" s="24" t="s">
         <v>74</v>
       </c>
@@ -16818,7 +16908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="54">
       <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
@@ -16833,7 +16923,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="B25" s="24" t="s">
         <v>80</v>
       </c>
@@ -16845,7 +16935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="40.5">
       <c r="B26" s="24" t="s">
         <v>83</v>
       </c>
@@ -16860,7 +16950,7 @@
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="B27" s="24" t="s">
         <v>85</v>
       </c>
@@ -16872,7 +16962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="B28" s="24" t="s">
         <v>86</v>
       </c>
@@ -16881,7 +16971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="B29" s="27" t="s">
         <v>88</v>
       </c>
@@ -16893,7 +16983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="B30" s="27" t="s">
         <v>89</v>
       </c>
@@ -16908,7 +16998,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="B31" s="27" t="s">
         <v>91</v>
       </c>
@@ -16920,21 +17010,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="B32" s="28"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -16942,7 +17032,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" s="22" customFormat="1">
       <c r="A37" s="11" t="s">
         <v>94</v>
       </c>
@@ -16950,7 +17040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" s="22" customFormat="1">
       <c r="A38" s="11" t="s">
         <v>96</v>
       </c>
@@ -16958,7 +17048,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" s="22" customFormat="1">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
@@ -16966,7 +17056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" s="22" customFormat="1">
       <c r="A40" s="11"/>
       <c r="B40"/>
     </row>
@@ -16984,12 +17074,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>100</v>
       </c>
@@ -16997,7 +17087,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -17005,7 +17095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="I5" t="s">
         <v>121</v>
       </c>
@@ -17013,7 +17103,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>103</v>
       </c>
@@ -17024,7 +17114,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="I7" s="33" t="s">
         <v>135</v>
       </c>
@@ -17032,68 +17122,68 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="Q8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="Q9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="R10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="Q11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="32" customFormat="1">
       <c r="B16" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" s="32" customFormat="1">
       <c r="C17" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" s="32" customFormat="1">
       <c r="B18" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" s="32" customFormat="1">
       <c r="C19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" s="32" customFormat="1"/>
+    <row r="22" spans="2:16" s="30" customFormat="1">
       <c r="B22" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="D24" t="s">
         <v>106</v>
       </c>
@@ -17101,27 +17191,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="E25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="D27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="E28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="E29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="E30" t="s">
         <v>111</v>
       </c>
@@ -17129,37 +17219,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16">
       <c r="D34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16">
       <c r="E35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16">
       <c r="E36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16">
       <c r="D37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16">
       <c r="E38" t="s">
         <v>118</v>
       </c>
@@ -17185,14 +17275,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17206,7 +17296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17217,7 +17307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17228,7 +17318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17236,7 +17326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17250,7 +17340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17258,7 +17348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -17294,7 +17384,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17305,62 +17395,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>2</v>
       </c>
@@ -17371,7 +17461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>3</v>
       </c>
@@ -17392,7 +17482,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17405,9 +17495,9 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -17415,7 +17505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -17424,7 +17514,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -17433,7 +17523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -17442,7 +17532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -17451,7 +17541,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" s="24">
         <v>7</v>
       </c>
@@ -17460,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -17469,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>142</v>
       </c>
@@ -17496,7 +17586,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -17506,47 +17596,47 @@
     <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:39">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:39">
       <c r="AM2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:39">
       <c r="AM3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:39">
       <c r="AM4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:39">
       <c r="AM5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:39">
       <c r="AM6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:39">
       <c r="AM7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:39">
       <c r="AM8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:39">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -17581,7 +17671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:39">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43252</v>
@@ -17590,7 +17680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:39">
       <c r="I11" s="14">
         <f>I10</f>
         <v>43252</v>
@@ -17715,7 +17805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:39" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -17854,7 +17944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:39">
       <c r="B13" s="6" t="s">
         <v>138</v>
       </c>
@@ -17933,7 +18023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:39">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -17974,7 +18064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:39">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -18019,7 +18109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:39">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -18057,7 +18147,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:39">
       <c r="B17" s="7" t="s">
         <v>143</v>
       </c>
@@ -18103,7 +18193,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:39">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -18141,7 +18231,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:39">
       <c r="B19" s="7" t="s">
         <v>144</v>
       </c>
@@ -18185,7 +18275,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:39">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -18226,7 +18316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:39">
       <c r="B21" s="7" t="s">
         <v>145</v>
       </c>
@@ -18273,7 +18363,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:39">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -18314,7 +18404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:39">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -18355,7 +18445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:39">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -18396,7 +18486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:39">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -18437,7 +18527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:39">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -18478,7 +18568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:39">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -18519,7 +18609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:39">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -18560,7 +18650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:39">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -18601,7 +18691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:39">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -18642,7 +18732,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:39">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -18683,7 +18773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:39">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -18724,7 +18814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:39">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -18765,7 +18855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:39">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -18806,7 +18896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:39">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -18847,7 +18937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:39">
       <c r="I36" s="20">
         <f t="shared" ref="I36:AB36" si="2">SUM(I13:I35)</f>
         <v>0</v>
@@ -18972,12 +19062,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:39">
       <c r="AM37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:39">
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -18989,12 +19079,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:39">
       <c r="AM39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="51" spans="9:38">
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
@@ -19026,7 +19116,7 @@
       <c r="AK51"/>
       <c r="AL51"/>
     </row>
-    <row r="54" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="54" spans="9:38">
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -19058,7 +19148,7 @@
       <c r="AK54"/>
       <c r="AL54"/>
     </row>
-    <row r="55" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="55" spans="9:38">
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -19090,7 +19180,7 @@
       <c r="AK55"/>
       <c r="AL55"/>
     </row>
-    <row r="56" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="56" spans="9:38">
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -19122,7 +19212,7 @@
       <c r="AK56"/>
       <c r="AL56"/>
     </row>
-    <row r="57" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="57" spans="9:38">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -19154,7 +19244,7 @@
       <c r="AK57"/>
       <c r="AL57"/>
     </row>
-    <row r="58" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="58" spans="9:38">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -19186,7 +19276,7 @@
       <c r="AK58"/>
       <c r="AL58"/>
     </row>
-    <row r="59" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="59" spans="9:38">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -19218,7 +19308,7 @@
       <c r="AK59"/>
       <c r="AL59"/>
     </row>
-    <row r="60" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="60" spans="9:38">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -19250,7 +19340,7 @@
       <c r="AK60"/>
       <c r="AL60"/>
     </row>
-    <row r="61" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="61" spans="9:38">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -19282,7 +19372,7 @@
       <c r="AK61"/>
       <c r="AL61"/>
     </row>
-    <row r="63" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="63" spans="9:38">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
@@ -19314,7 +19404,7 @@
       <c r="AK63"/>
       <c r="AL63"/>
     </row>
-    <row r="64" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="64" spans="9:38">
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -3804,7 +3804,7 @@
       </c>
       <c r="C7" s="66">
         <f>SUM(WBS!AS65:BW65)</f>
-        <v>51.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
-        <v>161.5</v>
+        <v>166.5</v>
       </c>
     </row>
   </sheetData>
@@ -6983,11 +6983,11 @@
   <dimension ref="B1:DE93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="BE13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="BK13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="BS32" sqref="BS32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11091,7 +11091,7 @@
       <c r="L32" s="49"/>
       <c r="M32" s="57">
         <f t="shared" si="53"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
@@ -11150,10 +11150,18 @@
       </c>
       <c r="BN32" s="17"/>
       <c r="BO32" s="17"/>
-      <c r="BP32" s="17"/>
-      <c r="BQ32" s="17"/>
-      <c r="BR32" s="17"/>
-      <c r="BS32" s="17"/>
+      <c r="BP32" s="17">
+        <v>2</v>
+      </c>
+      <c r="BQ32" s="17">
+        <v>1</v>
+      </c>
+      <c r="BR32" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS32" s="17">
+        <v>1</v>
+      </c>
       <c r="BT32" s="17"/>
       <c r="BU32" s="17"/>
       <c r="BV32" s="17"/>
@@ -14973,7 +14981,7 @@
     <row r="65" spans="5:109">
       <c r="M65" s="54">
         <f>SUM(O65:DD65)</f>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O65" s="20">
         <f t="shared" ref="O65:AT65" si="57">SUM(O13:O64)</f>
@@ -15189,19 +15197,19 @@
       </c>
       <c r="BP65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT65" s="20">
         <f t="shared" si="58"/>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E3A761-968F-4A3F-B4B1-A7BDA90B3DC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -23,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$DH$14</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -2258,7 +2259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -2267,7 +2268,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3270,7 +3271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3346,7 +3353,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,7 +3468,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3503,7 +3510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3536,9 +3543,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3571,6 +3595,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3746,18 +3787,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -3765,7 +3806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -3773,7 +3814,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -3781,7 +3822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -3789,7 +3830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -3798,16 +3839,16 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="24">
         <v>7</v>
       </c>
       <c r="C7" s="66">
         <f>SUM(WBS!AS65:BW65)</f>
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -3816,13 +3857,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
-        <v>166.5</v>
+        <v>168.5</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3842,22 +3883,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="39" width="5.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="39" width="5.6328125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AN1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -3865,7 +3906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -3873,7 +3914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3881,7 +3922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -3892,7 +3933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -3900,7 +3941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -3911,7 +3952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -3919,7 +3960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -3960,7 +4001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43221</v>
@@ -3969,7 +4010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4101,7 +4142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5" customHeight="1">
+    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -4244,7 +4285,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -4350,7 +4391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4392,7 +4433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4434,7 +4475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4473,7 +4514,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
     </row>
-    <row r="17" spans="2:40">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4512,7 +4553,7 @@
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
     </row>
-    <row r="18" spans="2:40">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4551,7 +4592,7 @@
       <c r="AL18" s="17"/>
       <c r="AM18" s="17"/>
     </row>
-    <row r="19" spans="2:40">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4590,7 +4631,7 @@
       <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
     </row>
-    <row r="20" spans="2:40">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4632,7 +4673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:40">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4674,7 +4715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:40">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AM22" si="4">SUM(I13:I21)</f>
         <v>4</v>
@@ -4803,12 +4844,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:40">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:40">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -4820,12 +4861,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:40">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:39">
+    <row r="37" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -4858,7 +4899,7 @@
       <c r="AL37"/>
       <c r="AM37"/>
     </row>
-    <row r="40" spans="9:39">
+    <row r="40" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -4891,7 +4932,7 @@
       <c r="AL40"/>
       <c r="AM40"/>
     </row>
-    <row r="41" spans="9:39">
+    <row r="41" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -4924,7 +4965,7 @@
       <c r="AL41"/>
       <c r="AM41"/>
     </row>
-    <row r="42" spans="9:39">
+    <row r="42" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -4957,7 +4998,7 @@
       <c r="AL42"/>
       <c r="AM42"/>
     </row>
-    <row r="43" spans="9:39">
+    <row r="43" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -4990,7 +5031,7 @@
       <c r="AL43"/>
       <c r="AM43"/>
     </row>
-    <row r="44" spans="9:39">
+    <row r="44" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -5023,7 +5064,7 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="9:39">
+    <row r="45" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -5056,7 +5097,7 @@
       <c r="AL45"/>
       <c r="AM45"/>
     </row>
-    <row r="46" spans="9:39">
+    <row r="46" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -5089,7 +5130,7 @@
       <c r="AL46"/>
       <c r="AM46"/>
     </row>
-    <row r="47" spans="9:39">
+    <row r="47" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -5122,7 +5163,7 @@
       <c r="AL47"/>
       <c r="AM47"/>
     </row>
-    <row r="49" spans="9:39">
+    <row r="49" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -5155,7 +5196,7 @@
       <c r="AL49"/>
       <c r="AM49"/>
     </row>
-    <row r="50" spans="9:39">
+    <row r="50" spans="9:39" x14ac:dyDescent="0.2">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -5207,7 +5248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5217,22 +5258,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="38" width="5.6328125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -5240,7 +5281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -5248,7 +5289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5256,7 +5297,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -5267,7 +5308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -5275,7 +5316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -5286,7 +5327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -5294,7 +5335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -5334,7 +5375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43191</v>
@@ -5343,7 +5384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5471,7 +5512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="28.5" customHeight="1">
+    <row r="12" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -5610,7 +5651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -5713,7 +5754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5754,7 +5795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -5797,7 +5838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5835,7 +5876,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5873,7 +5914,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5911,7 +5952,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5949,7 +5990,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5990,7 +6031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6031,7 +6072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AL22" si="2">SUM(I13:I21)</f>
         <v>9</v>
@@ -6156,12 +6197,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6173,12 +6214,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:38">
+    <row r="37" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -6210,7 +6251,7 @@
       <c r="AK37"/>
       <c r="AL37"/>
     </row>
-    <row r="40" spans="9:38">
+    <row r="40" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -6242,7 +6283,7 @@
       <c r="AK40"/>
       <c r="AL40"/>
     </row>
-    <row r="41" spans="9:38">
+    <row r="41" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -6274,7 +6315,7 @@
       <c r="AK41"/>
       <c r="AL41"/>
     </row>
-    <row r="42" spans="9:38">
+    <row r="42" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -6306,7 +6347,7 @@
       <c r="AK42"/>
       <c r="AL42"/>
     </row>
-    <row r="43" spans="9:38">
+    <row r="43" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -6338,7 +6379,7 @@
       <c r="AK43"/>
       <c r="AL43"/>
     </row>
-    <row r="44" spans="9:38">
+    <row r="44" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -6370,7 +6411,7 @@
       <c r="AK44"/>
       <c r="AL44"/>
     </row>
-    <row r="45" spans="9:38">
+    <row r="45" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -6402,7 +6443,7 @@
       <c r="AK45"/>
       <c r="AL45"/>
     </row>
-    <row r="46" spans="9:38">
+    <row r="46" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -6434,7 +6475,7 @@
       <c r="AK46"/>
       <c r="AL46"/>
     </row>
-    <row r="47" spans="9:38">
+    <row r="47" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -6466,7 +6507,7 @@
       <c r="AK47"/>
       <c r="AL47"/>
     </row>
-    <row r="49" spans="9:38">
+    <row r="49" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -6498,7 +6539,7 @@
       <c r="AK49"/>
       <c r="AL49"/>
     </row>
-    <row r="50" spans="9:38">
+    <row r="50" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6549,7 +6590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:N50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6559,56 +6600,56 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="13" width="5.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.26953125" customWidth="1"/>
+    <col min="9" max="13" width="5.6328125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -6618,7 +6659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G10" s="12"/>
       <c r="I10" s="13">
         <v>3</v>
@@ -6627,7 +6668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I11" s="14">
         <v>43185</v>
       </c>
@@ -6651,7 +6692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="28.5" customHeight="1">
+    <row r="12" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -6690,7 +6731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -6718,7 +6759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6734,7 +6775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -6752,7 +6793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6765,7 +6806,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6778,7 +6819,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6791,7 +6832,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6804,7 +6845,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6820,7 +6861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6836,7 +6877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I22" s="20">
         <f>SUM(I13:I21)</f>
         <v>0</v>
@@ -6861,12 +6902,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6878,82 +6919,82 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:13">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="40" spans="9:13">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="9:13">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="9:13">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="9:13">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="9:13">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="9:13">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="9:13">
+    <row r="46" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="9:13">
+    <row r="47" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="49" spans="9:13">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="9:13">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6979,37 +7020,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:DE93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="BK13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="BQ22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BS32" sqref="BS32"/>
+      <selection pane="bottomRight" activeCell="BU32" sqref="BU32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="3" width="2.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="3" width="2.36328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="13" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="32.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="108" width="7.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" customWidth="1"/>
+    <col min="15" max="108" width="7.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:109" s="48" customFormat="1">
+    <row r="1" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="H1" s="13"/>
@@ -7114,7 +7155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:109" s="48" customFormat="1">
+    <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="47" t="s">
         <v>165</v>
       </c>
@@ -7221,7 +7262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:109" s="48" customFormat="1">
+    <row r="3" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
@@ -7329,7 +7370,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:109" s="48" customFormat="1">
+    <row r="4" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
@@ -7437,7 +7478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:109" s="48" customFormat="1">
+    <row r="5" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="H5" s="13"/>
@@ -7542,7 +7583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:109" s="48" customFormat="1">
+    <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
         <v>168</v>
       </c>
@@ -7649,7 +7690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:109" s="48" customFormat="1">
+    <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="47"/>
       <c r="D7" s="47" t="s">
         <v>179</v>
@@ -7758,7 +7799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:109" s="48" customFormat="1">
+    <row r="8" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="H8" s="13"/>
@@ -7863,7 +7904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:109">
+    <row r="9" spans="2:109" x14ac:dyDescent="0.2">
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -7962,7 +8003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:109">
+    <row r="10" spans="2:109" x14ac:dyDescent="0.2">
       <c r="L10" s="12"/>
       <c r="O10" s="38">
         <v>43252</v>
@@ -7980,7 +8021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:109">
+    <row r="11" spans="2:109" x14ac:dyDescent="0.2">
       <c r="O11" s="14">
         <f>O10</f>
         <v>43252</v>
@@ -8361,7 +8402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:109" ht="28.5" customHeight="1">
+    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="68" t="s">
         <v>0</v>
       </c>
@@ -8770,7 +8811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:109">
+    <row r="13" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B13" s="39">
         <v>1</v>
       </c>
@@ -8902,7 +8943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:109">
+    <row r="14" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="51" t="s">
@@ -9025,7 +9066,7 @@
       <c r="DC14" s="17"/>
       <c r="DD14" s="17"/>
     </row>
-    <row r="15" spans="2:109">
+    <row r="15" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="51"/>
@@ -9138,7 +9179,7 @@
       <c r="DC15" s="17"/>
       <c r="DD15" s="17"/>
     </row>
-    <row r="16" spans="2:109">
+    <row r="16" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="51"/>
@@ -9249,7 +9290,7 @@
       <c r="DC16" s="17"/>
       <c r="DD16" s="17"/>
     </row>
-    <row r="17" spans="2:109">
+    <row r="17" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="51"/>
@@ -9372,7 +9413,7 @@
       <c r="DC17" s="17"/>
       <c r="DD17" s="17"/>
     </row>
-    <row r="18" spans="2:109">
+    <row r="18" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="51"/>
@@ -9493,7 +9534,7 @@
       <c r="DC18" s="17"/>
       <c r="DD18" s="17"/>
     </row>
-    <row r="19" spans="2:109">
+    <row r="19" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="51"/>
@@ -9614,7 +9655,7 @@
       <c r="DC19" s="17"/>
       <c r="DD19" s="17"/>
     </row>
-    <row r="20" spans="2:109">
+    <row r="20" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="51"/>
@@ -9741,7 +9782,7 @@
       <c r="DC20" s="17"/>
       <c r="DD20" s="17"/>
     </row>
-    <row r="21" spans="2:109">
+    <row r="21" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="51"/>
@@ -9862,7 +9903,7 @@
       <c r="DC21" s="17"/>
       <c r="DD21" s="17"/>
     </row>
-    <row r="22" spans="2:109">
+    <row r="22" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="51"/>
@@ -9985,7 +10026,7 @@
       <c r="DC22" s="17"/>
       <c r="DD22" s="17"/>
     </row>
-    <row r="23" spans="2:109">
+    <row r="23" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="51"/>
@@ -10106,7 +10147,7 @@
       <c r="DC23" s="17"/>
       <c r="DD23" s="17"/>
     </row>
-    <row r="24" spans="2:109">
+    <row r="24" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="51"/>
@@ -10227,7 +10268,7 @@
       <c r="DC24" s="17"/>
       <c r="DD24" s="17"/>
     </row>
-    <row r="25" spans="2:109">
+    <row r="25" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="51"/>
@@ -10338,7 +10379,7 @@
       <c r="DC25" s="17"/>
       <c r="DD25" s="17"/>
     </row>
-    <row r="26" spans="2:109">
+    <row r="26" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="51"/>
@@ -10449,7 +10490,7 @@
       <c r="DC26" s="17"/>
       <c r="DD26" s="17"/>
     </row>
-    <row r="27" spans="2:109">
+    <row r="27" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B27" s="39"/>
       <c r="C27" s="39">
         <v>2</v>
@@ -10575,7 +10616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:109">
+    <row r="28" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="51"/>
@@ -10698,7 +10739,7 @@
       <c r="DC28" s="17"/>
       <c r="DD28" s="17"/>
     </row>
-    <row r="29" spans="2:109">
+    <row r="29" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="51"/>
@@ -10819,7 +10860,7 @@
       <c r="DC29" s="17"/>
       <c r="DD29" s="17"/>
     </row>
-    <row r="30" spans="2:109">
+    <row r="30" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="51"/>
@@ -10946,7 +10987,7 @@
       <c r="DC30" s="17"/>
       <c r="DD30" s="17"/>
     </row>
-    <row r="31" spans="2:109">
+    <row r="31" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="51"/>
@@ -11067,7 +11108,7 @@
       <c r="DC31" s="17"/>
       <c r="DD31" s="17"/>
     </row>
-    <row r="32" spans="2:109">
+    <row r="32" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="51"/>
@@ -11091,7 +11132,7 @@
       <c r="L32" s="49"/>
       <c r="M32" s="57">
         <f t="shared" si="53"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
@@ -11163,7 +11204,9 @@
         <v>1</v>
       </c>
       <c r="BT32" s="17"/>
-      <c r="BU32" s="17"/>
+      <c r="BU32" s="17">
+        <v>2</v>
+      </c>
       <c r="BV32" s="17"/>
       <c r="BW32" s="17"/>
       <c r="BX32" s="17"/>
@@ -11200,7 +11243,7 @@
       <c r="DC32" s="17"/>
       <c r="DD32" s="17"/>
     </row>
-    <row r="33" spans="2:108">
+    <row r="33" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="51"/>
@@ -11321,7 +11364,7 @@
       <c r="DC33" s="17"/>
       <c r="DD33" s="17"/>
     </row>
-    <row r="34" spans="2:108">
+    <row r="34" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="51"/>
@@ -11444,7 +11487,7 @@
       <c r="DC34" s="17"/>
       <c r="DD34" s="17"/>
     </row>
-    <row r="35" spans="2:108">
+    <row r="35" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="51"/>
@@ -11565,7 +11608,7 @@
       <c r="DC35" s="17"/>
       <c r="DD35" s="17"/>
     </row>
-    <row r="36" spans="2:108">
+    <row r="36" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="51"/>
@@ -11690,7 +11733,7 @@
       <c r="DC36" s="17"/>
       <c r="DD36" s="17"/>
     </row>
-    <row r="37" spans="2:108">
+    <row r="37" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="51"/>
@@ -11811,7 +11854,7 @@
       <c r="DC37" s="17"/>
       <c r="DD37" s="17"/>
     </row>
-    <row r="38" spans="2:108">
+    <row r="38" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="51"/>
@@ -11932,7 +11975,7 @@
       <c r="DC38" s="17"/>
       <c r="DD38" s="17"/>
     </row>
-    <row r="39" spans="2:108">
+    <row r="39" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="51"/>
@@ -12043,7 +12086,7 @@
       <c r="DC39" s="17"/>
       <c r="DD39" s="17"/>
     </row>
-    <row r="40" spans="2:108">
+    <row r="40" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B40" s="39"/>
       <c r="C40" s="39">
         <v>3</v>
@@ -12168,7 +12211,7 @@
       <c r="DC40" s="17"/>
       <c r="DD40" s="17"/>
     </row>
-    <row r="41" spans="2:108">
+    <row r="41" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="51"/>
@@ -12279,7 +12322,7 @@
       <c r="DC41" s="17"/>
       <c r="DD41" s="17"/>
     </row>
-    <row r="42" spans="2:108">
+    <row r="42" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="51"/>
@@ -12400,7 +12443,7 @@
       <c r="DC42" s="17"/>
       <c r="DD42" s="17"/>
     </row>
-    <row r="43" spans="2:108">
+    <row r="43" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="51"/>
@@ -12511,7 +12554,7 @@
       <c r="DC43" s="17"/>
       <c r="DD43" s="17"/>
     </row>
-    <row r="44" spans="2:108">
+    <row r="44" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="51"/>
@@ -12630,7 +12673,7 @@
       <c r="DC44" s="17"/>
       <c r="DD44" s="17"/>
     </row>
-    <row r="45" spans="2:108">
+    <row r="45" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="51"/>
@@ -12747,7 +12790,7 @@
       <c r="DC45" s="17"/>
       <c r="DD45" s="17"/>
     </row>
-    <row r="46" spans="2:108" ht="48" customHeight="1">
+    <row r="46" spans="2:108" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="51"/>
@@ -12858,7 +12901,7 @@
       <c r="DC46" s="17"/>
       <c r="DD46" s="17"/>
     </row>
-    <row r="47" spans="2:108" ht="27">
+    <row r="47" spans="2:108" ht="39" x14ac:dyDescent="0.2">
       <c r="B47" s="39">
         <v>2</v>
       </c>
@@ -12991,7 +13034,7 @@
       <c r="DC47" s="17"/>
       <c r="DD47" s="17"/>
     </row>
-    <row r="48" spans="2:108">
+    <row r="48" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="52"/>
@@ -13102,7 +13145,7 @@
       <c r="DC48" s="17"/>
       <c r="DD48" s="17"/>
     </row>
-    <row r="49" spans="2:109">
+    <row r="49" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="52"/>
@@ -13224,7 +13267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:109">
+    <row r="50" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="52"/>
@@ -13338,7 +13381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:109">
+    <row r="51" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="52"/>
@@ -13464,7 +13507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:109">
+    <row r="52" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="52"/>
@@ -13578,7 +13621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:109" ht="27">
+    <row r="53" spans="2:109" ht="39" x14ac:dyDescent="0.2">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="52"/>
@@ -13700,7 +13743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:109">
+    <row r="54" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="52"/>
@@ -13814,7 +13857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:109" ht="27">
+    <row r="55" spans="2:109" ht="26" x14ac:dyDescent="0.2">
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="52"/>
@@ -13946,7 +13989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:109">
+    <row r="56" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="52"/>
@@ -14060,7 +14103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:109">
+    <row r="57" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="52"/>
@@ -14180,7 +14223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:109">
+    <row r="58" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
       <c r="D58" s="52"/>
@@ -14294,7 +14337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:109">
+    <row r="59" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="7"/>
@@ -14408,7 +14451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:109">
+    <row r="60" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
       <c r="D60" s="7"/>
@@ -14522,7 +14565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:109">
+    <row r="61" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
       <c r="D61" s="7"/>
@@ -14636,7 +14679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:109">
+    <row r="62" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="7"/>
@@ -14750,7 +14793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:109">
+    <row r="63" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
       <c r="D63" s="7"/>
@@ -14864,7 +14907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:109">
+    <row r="64" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B64" s="40"/>
       <c r="C64" s="40"/>
       <c r="D64" s="8"/>
@@ -14978,10 +15021,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="5:109">
+    <row r="65" spans="5:109" x14ac:dyDescent="0.2">
       <c r="M65" s="54">
         <f>SUM(O65:DD65)</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O65" s="20">
         <f t="shared" ref="O65:AT65" si="57">SUM(O13:O64)</f>
@@ -15217,7 +15260,7 @@
       </c>
       <c r="BU65" s="20">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV65" s="20">
         <f t="shared" si="58"/>
@@ -15363,12 +15406,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="5:109">
+    <row r="66" spans="5:109" x14ac:dyDescent="0.2">
       <c r="DE66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="5:109">
+    <row r="67" spans="5:109" x14ac:dyDescent="0.2">
       <c r="E67" s="21"/>
       <c r="I67" s="13">
         <v>1.5</v>
@@ -15377,7 +15420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="5:109">
+    <row r="68" spans="5:109" x14ac:dyDescent="0.2">
       <c r="I68" s="13">
         <v>1</v>
       </c>
@@ -15385,12 +15428,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="5:109">
+    <row r="69" spans="5:109" x14ac:dyDescent="0.2">
       <c r="I69" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="5:109">
+    <row r="80" spans="5:109" x14ac:dyDescent="0.2">
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
@@ -15486,7 +15529,7 @@
       <c r="DC80"/>
       <c r="DD80"/>
     </row>
-    <row r="83" spans="15:108">
+    <row r="83" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
@@ -15582,7 +15625,7 @@
       <c r="DC83"/>
       <c r="DD83"/>
     </row>
-    <row r="84" spans="15:108">
+    <row r="84" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -15678,7 +15721,7 @@
       <c r="DC84"/>
       <c r="DD84"/>
     </row>
-    <row r="85" spans="15:108">
+    <row r="85" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -15774,7 +15817,7 @@
       <c r="DC85"/>
       <c r="DD85"/>
     </row>
-    <row r="86" spans="15:108">
+    <row r="86" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -15870,7 +15913,7 @@
       <c r="DC86"/>
       <c r="DD86"/>
     </row>
-    <row r="87" spans="15:108">
+    <row r="87" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -15966,7 +16009,7 @@
       <c r="DC87"/>
       <c r="DD87"/>
     </row>
-    <row r="88" spans="15:108">
+    <row r="88" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -16062,7 +16105,7 @@
       <c r="DC88"/>
       <c r="DD88"/>
     </row>
-    <row r="89" spans="15:108">
+    <row r="89" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -16158,7 +16201,7 @@
       <c r="DC89"/>
       <c r="DD89"/>
     </row>
-    <row r="90" spans="15:108">
+    <row r="90" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -16254,7 +16297,7 @@
       <c r="DC90"/>
       <c r="DD90"/>
     </row>
-    <row r="92" spans="15:108">
+    <row r="92" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
@@ -16350,7 +16393,7 @@
       <c r="DC92"/>
       <c r="DD92"/>
     </row>
-    <row r="93" spans="15:108">
+    <row r="93" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -16447,7 +16490,7 @@
       <c r="DD93"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:DH14">
+  <autoFilter ref="B12:DH14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -16685,7 +16728,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -16698,44 +16741,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="63" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="63" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="63"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="64"/>
     </row>
   </sheetData>
@@ -16745,22 +16788,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="77.26953125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>46</v>
       </c>
@@ -16768,62 +16811,62 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
@@ -16831,7 +16874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -16845,7 +16888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -16863,7 +16906,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>68</v>
       </c>
@@ -16878,7 +16921,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
@@ -16890,7 +16933,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>73</v>
       </c>
@@ -16902,7 +16945,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
         <v>74</v>
       </c>
@@ -16916,7 +16959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54">
+    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
       <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
@@ -16931,7 +16974,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
         <v>80</v>
       </c>
@@ -16943,7 +16986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5">
+    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>83</v>
       </c>
@@ -16958,7 +17001,7 @@
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>85</v>
       </c>
@@ -16970,7 +17013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>86</v>
       </c>
@@ -16979,7 +17022,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="27" t="s">
         <v>88</v>
       </c>
@@ -16991,7 +17034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="27" t="s">
         <v>89</v>
       </c>
@@ -17006,7 +17049,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="27" t="s">
         <v>91</v>
       </c>
@@ -17018,21 +17061,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="28"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -17040,7 +17083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="22" customFormat="1">
+    <row r="37" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>94</v>
       </c>
@@ -17048,7 +17091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="22" customFormat="1">
+    <row r="38" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>96</v>
       </c>
@@ -17056,7 +17099,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="22" customFormat="1">
+    <row r="39" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
@@ -17064,7 +17107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="22" customFormat="1">
+    <row r="40" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40"/>
     </row>
@@ -17077,17 +17120,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>100</v>
       </c>
@@ -17095,7 +17138,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -17103,7 +17146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>121</v>
       </c>
@@ -17111,7 +17154,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>103</v>
       </c>
@@ -17122,7 +17165,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I7" s="33" t="s">
         <v>135</v>
       </c>
@@ -17130,68 +17173,68 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="32" customFormat="1">
+    <row r="16" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="32" customFormat="1">
+    <row r="17" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="32" customFormat="1">
+    <row r="18" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="32" customFormat="1">
+    <row r="19" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="32" customFormat="1"/>
-    <row r="22" spans="2:16" s="30" customFormat="1">
+    <row r="20" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>106</v>
       </c>
@@ -17199,27 +17242,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>111</v>
       </c>
@@ -17227,37 +17270,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>118</v>
       </c>
@@ -17268,7 +17311,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -17276,21 +17319,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17304,7 +17347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17315,7 +17358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17326,7 +17369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17334,7 +17377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17348,7 +17391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17356,7 +17399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -17392,7 +17435,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17403,62 +17446,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -17469,7 +17512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -17485,12 +17528,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17498,14 +17541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -17513,7 +17556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -17522,7 +17565,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -17531,7 +17574,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -17540,7 +17583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -17549,7 +17592,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="24">
         <v>7</v>
       </c>
@@ -17558,7 +17601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -17567,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>142</v>
       </c>
@@ -17584,7 +17627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AM64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17594,57 +17637,57 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="3.25" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="38" width="5.6328125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39">
+    <row r="1" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:39">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:39">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:39">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:39">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:39">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:39">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:39">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:39">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -17679,7 +17722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:39">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43252</v>
@@ -17688,7 +17731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:39">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
       <c r="I11" s="14">
         <f>I10</f>
         <v>43252</v>
@@ -17813,7 +17856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:39" ht="28.5" customHeight="1">
+    <row r="12" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -17952,7 +17995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:39">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>138</v>
       </c>
@@ -18031,7 +18074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:39">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -18072,7 +18115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:39">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -18117,7 +18160,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:39">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -18155,7 +18198,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>143</v>
       </c>
@@ -18201,7 +18244,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -18239,7 +18282,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>144</v>
       </c>
@@ -18283,7 +18326,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -18324,7 +18367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>145</v>
       </c>
@@ -18371,7 +18414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -18412,7 +18455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -18453,7 +18496,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -18494,7 +18537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -18535,7 +18578,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:39">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -18576,7 +18619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:39">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -18617,7 +18660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:39">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -18658,7 +18701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:39">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -18699,7 +18742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:39">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -18740,7 +18783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:39">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -18781,7 +18824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:39">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -18822,7 +18865,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:39">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -18863,7 +18906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:39">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -18904,7 +18947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:39">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -18945,7 +18988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:39">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
       <c r="I36" s="20">
         <f t="shared" ref="I36:AB36" si="2">SUM(I13:I35)</f>
         <v>0</v>
@@ -19070,12 +19113,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:39">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:39">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -19087,12 +19130,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:39">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
       <c r="AM39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="9:38">
+    <row r="51" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
@@ -19124,7 +19167,7 @@
       <c r="AK51"/>
       <c r="AL51"/>
     </row>
-    <row r="54" spans="9:38">
+    <row r="54" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -19156,7 +19199,7 @@
       <c r="AK54"/>
       <c r="AL54"/>
     </row>
-    <row r="55" spans="9:38">
+    <row r="55" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -19188,7 +19231,7 @@
       <c r="AK55"/>
       <c r="AL55"/>
     </row>
-    <row r="56" spans="9:38">
+    <row r="56" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -19220,7 +19263,7 @@
       <c r="AK56"/>
       <c r="AL56"/>
     </row>
-    <row r="57" spans="9:38">
+    <row r="57" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -19252,7 +19295,7 @@
       <c r="AK57"/>
       <c r="AL57"/>
     </row>
-    <row r="58" spans="9:38">
+    <row r="58" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -19284,7 +19327,7 @@
       <c r="AK58"/>
       <c r="AL58"/>
     </row>
-    <row r="59" spans="9:38">
+    <row r="59" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -19316,7 +19359,7 @@
       <c r="AK59"/>
       <c r="AL59"/>
     </row>
-    <row r="60" spans="9:38">
+    <row r="60" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -19348,7 +19391,7 @@
       <c r="AK60"/>
       <c r="AL60"/>
     </row>
-    <row r="61" spans="9:38">
+    <row r="61" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -19380,7 +19423,7 @@
       <c r="AK61"/>
       <c r="AL61"/>
     </row>
-    <row r="63" spans="9:38">
+    <row r="63" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
@@ -19412,7 +19455,7 @@
       <c r="AK63"/>
       <c r="AL63"/>
     </row>
-    <row r="64" spans="9:38">
+    <row r="64" spans="9:38" x14ac:dyDescent="0.2">
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E3A761-968F-4A3F-B4B1-A7BDA90B3DC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -24,12 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$DH$14</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="217">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2255,11 +2254,15 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -2735,7 +2738,91 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="82">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3260,13 +3347,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>728382</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3274,7 +3361,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3440,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3468,7 +3555,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3510,7 +3597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3543,26 +3630,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3595,23 +3665,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3787,18 +3840,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -3806,7 +3859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -3814,7 +3867,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -3822,7 +3875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -3830,40 +3883,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="24">
         <v>6</v>
       </c>
       <c r="C6" s="66">
-        <f>SUM(WBS!O65:AS65)</f>
+        <f>SUM(WBS!O66:AS66)</f>
         <v>20.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="24">
         <v>7</v>
       </c>
       <c r="C7" s="66">
-        <f>SUM(WBS!AS65:BW65)</f>
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+        <f>SUM(WBS!AS66:BW66)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="24">
         <v>8</v>
       </c>
       <c r="C8" s="66">
-        <f>SUM(WBS!BX65:DD65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+        <f>SUM(WBS!BX66:DD66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="24" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
-        <v>168.5</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3873,7 +3926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3883,22 +3936,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="3.26953125" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="39" width="5.6328125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="3.25" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="39" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="AN1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -3906,7 +3959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -3914,7 +3967,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3922,7 +3975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -3933,7 +3986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -3941,7 +3994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -3952,7 +4005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -3960,7 +4013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -4001,7 +4054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43221</v>
@@ -4010,7 +4063,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4142,7 +4195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -4285,7 +4338,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -4391,7 +4444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4433,7 +4486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4475,7 +4528,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4514,7 +4567,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4553,7 +4606,7 @@
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4592,7 +4645,7 @@
       <c r="AL18" s="17"/>
       <c r="AM18" s="17"/>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4631,7 +4684,7 @@
       <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4673,7 +4726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4715,7 +4768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.15">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AM22" si="4">SUM(I13:I21)</f>
         <v>4</v>
@@ -4844,12 +4897,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.15">
       <c r="AN23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -4861,12 +4914,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.15">
       <c r="AN25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -4899,7 +4952,7 @@
       <c r="AL37"/>
       <c r="AM37"/>
     </row>
-    <row r="40" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -4932,7 +4985,7 @@
       <c r="AL40"/>
       <c r="AM40"/>
     </row>
-    <row r="41" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -4965,7 +5018,7 @@
       <c r="AL41"/>
       <c r="AM41"/>
     </row>
-    <row r="42" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -4998,7 +5051,7 @@
       <c r="AL42"/>
       <c r="AM42"/>
     </row>
-    <row r="43" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -5031,7 +5084,7 @@
       <c r="AL43"/>
       <c r="AM43"/>
     </row>
-    <row r="44" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -5064,7 +5117,7 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -5097,7 +5150,7 @@
       <c r="AL45"/>
       <c r="AM45"/>
     </row>
-    <row r="46" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -5130,7 +5183,7 @@
       <c r="AL46"/>
       <c r="AM46"/>
     </row>
-    <row r="47" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -5163,7 +5216,7 @@
       <c r="AL47"/>
       <c r="AM47"/>
     </row>
-    <row r="49" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -5196,7 +5249,7 @@
       <c r="AL49"/>
       <c r="AM49"/>
     </row>
-    <row r="50" spans="9:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:39" x14ac:dyDescent="0.15">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -5232,13 +5285,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AM21">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5248,7 +5301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5258,22 +5311,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="3.26953125" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="38" width="5.6328125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="3.25" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -5281,7 +5334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -5289,7 +5342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5297,7 +5350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -5308,7 +5361,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -5316,7 +5369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -5327,7 +5380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -5335,7 +5388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -5375,7 +5428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43191</v>
@@ -5384,7 +5437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5512,7 +5565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -5651,7 +5704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -5754,7 +5807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5795,7 +5848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -5838,7 +5891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5876,7 +5929,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5914,7 +5967,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5952,7 +6005,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5990,7 +6043,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6031,7 +6084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6072,7 +6125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AL22" si="2">SUM(I13:I21)</f>
         <v>9</v>
@@ -6197,12 +6250,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6214,12 +6267,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -6251,7 +6304,7 @@
       <c r="AK37"/>
       <c r="AL37"/>
     </row>
-    <row r="40" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -6283,7 +6336,7 @@
       <c r="AK40"/>
       <c r="AL40"/>
     </row>
-    <row r="41" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -6315,7 +6368,7 @@
       <c r="AK41"/>
       <c r="AL41"/>
     </row>
-    <row r="42" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -6347,7 +6400,7 @@
       <c r="AK42"/>
       <c r="AL42"/>
     </row>
-    <row r="43" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -6379,7 +6432,7 @@
       <c r="AK43"/>
       <c r="AL43"/>
     </row>
-    <row r="44" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -6411,7 +6464,7 @@
       <c r="AK44"/>
       <c r="AL44"/>
     </row>
-    <row r="45" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -6443,7 +6496,7 @@
       <c r="AK45"/>
       <c r="AL45"/>
     </row>
-    <row r="46" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -6475,7 +6528,7 @@
       <c r="AK46"/>
       <c r="AL46"/>
     </row>
-    <row r="47" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -6507,7 +6560,7 @@
       <c r="AK47"/>
       <c r="AL47"/>
     </row>
-    <row r="49" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -6539,7 +6592,7 @@
       <c r="AK49"/>
       <c r="AL49"/>
     </row>
-    <row r="50" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6574,13 +6627,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL21">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6590,7 +6643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6600,56 +6653,56 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="3.26953125" customWidth="1"/>
-    <col min="9" max="13" width="5.6328125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="3.25" customWidth="1"/>
+    <col min="9" max="13" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -6659,7 +6712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="G10" s="12"/>
       <c r="I10" s="13">
         <v>3</v>
@@ -6668,7 +6721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="I11" s="14">
         <v>43185</v>
       </c>
@@ -6692,7 +6745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -6731,7 +6784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -6759,7 +6812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6775,7 +6828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -6793,7 +6846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6806,7 +6859,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6819,7 +6872,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6832,7 +6885,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6845,7 +6898,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6861,7 +6914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6877,7 +6930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="I22" s="20">
         <f>SUM(I13:I21)</f>
         <v>0</v>
@@ -6902,12 +6955,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6919,82 +6972,82 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -7004,13 +7057,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:M21">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7020,37 +7073,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:DE93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:DE94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="BQ22" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="BT13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BU32" sqref="BU32"/>
+      <selection pane="bottomRight" activeCell="BV32" sqref="BV32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="3" width="2.36328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" customWidth="1"/>
-    <col min="8" max="8" width="7.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="3" width="2.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="13" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.08984375" customWidth="1"/>
+    <col min="12" max="12" width="32.125" customWidth="1"/>
     <col min="13" max="13" width="10" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.90625" customWidth="1"/>
-    <col min="15" max="108" width="7.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="15" max="108" width="7.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="H1" s="13"/>
@@ -7155,7 +7208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
         <v>165</v>
       </c>
@@ -7262,7 +7315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
@@ -7370,7 +7423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
@@ -7478,7 +7531,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="H5" s="13"/>
@@ -7583,7 +7636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="47" t="s">
         <v>168</v>
       </c>
@@ -7690,7 +7743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="47"/>
       <c r="D7" s="47" t="s">
         <v>179</v>
@@ -7799,7 +7852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="H8" s="13"/>
@@ -7904,7 +7957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:109" x14ac:dyDescent="0.15">
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -8003,7 +8056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:109" x14ac:dyDescent="0.15">
       <c r="L10" s="12"/>
       <c r="O10" s="38">
         <v>43252</v>
@@ -8021,7 +8074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:109" x14ac:dyDescent="0.15">
       <c r="O11" s="14">
         <f>O10</f>
         <v>43252</v>
@@ -8402,7 +8455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="68" t="s">
         <v>0</v>
       </c>
@@ -8811,7 +8864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B13" s="39">
         <v>1</v>
       </c>
@@ -8943,7 +8996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="51" t="s">
@@ -8968,7 +9021,7 @@
       </c>
       <c r="L14" s="49"/>
       <c r="M14" s="57">
-        <f t="shared" ref="M14:M64" si="53">SUM(O14:DD14)</f>
+        <f t="shared" ref="M14:M65" si="53">SUM(O14:DD14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="17"/>
@@ -9066,7 +9119,7 @@
       <c r="DC14" s="17"/>
       <c r="DD14" s="17"/>
     </row>
-    <row r="15" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="51"/>
@@ -9179,7 +9232,7 @@
       <c r="DC15" s="17"/>
       <c r="DD15" s="17"/>
     </row>
-    <row r="16" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="51"/>
@@ -9290,7 +9343,7 @@
       <c r="DC16" s="17"/>
       <c r="DD16" s="17"/>
     </row>
-    <row r="17" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="51"/>
@@ -9413,7 +9466,7 @@
       <c r="DC17" s="17"/>
       <c r="DD17" s="17"/>
     </row>
-    <row r="18" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="51"/>
@@ -9534,7 +9587,7 @@
       <c r="DC18" s="17"/>
       <c r="DD18" s="17"/>
     </row>
-    <row r="19" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="51"/>
@@ -9655,7 +9708,7 @@
       <c r="DC19" s="17"/>
       <c r="DD19" s="17"/>
     </row>
-    <row r="20" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="51"/>
@@ -9782,7 +9835,7 @@
       <c r="DC20" s="17"/>
       <c r="DD20" s="17"/>
     </row>
-    <row r="21" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="51"/>
@@ -9903,7 +9956,7 @@
       <c r="DC21" s="17"/>
       <c r="DD21" s="17"/>
     </row>
-    <row r="22" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="51"/>
@@ -10026,7 +10079,7 @@
       <c r="DC22" s="17"/>
       <c r="DD22" s="17"/>
     </row>
-    <row r="23" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="51"/>
@@ -10147,7 +10200,7 @@
       <c r="DC23" s="17"/>
       <c r="DD23" s="17"/>
     </row>
-    <row r="24" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="51"/>
@@ -10268,7 +10321,7 @@
       <c r="DC24" s="17"/>
       <c r="DD24" s="17"/>
     </row>
-    <row r="25" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="51"/>
@@ -10379,7 +10432,7 @@
       <c r="DC25" s="17"/>
       <c r="DD25" s="17"/>
     </row>
-    <row r="26" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="51"/>
@@ -10490,7 +10543,7 @@
       <c r="DC26" s="17"/>
       <c r="DD26" s="17"/>
     </row>
-    <row r="27" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B27" s="39"/>
       <c r="C27" s="39">
         <v>2</v>
@@ -10616,7 +10669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="51"/>
@@ -10739,7 +10792,7 @@
       <c r="DC28" s="17"/>
       <c r="DD28" s="17"/>
     </row>
-    <row r="29" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="51"/>
@@ -10860,7 +10913,7 @@
       <c r="DC29" s="17"/>
       <c r="DD29" s="17"/>
     </row>
-    <row r="30" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="51"/>
@@ -10987,7 +11040,7 @@
       <c r="DC30" s="17"/>
       <c r="DD30" s="17"/>
     </row>
-    <row r="31" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="51"/>
@@ -11108,7 +11161,7 @@
       <c r="DC31" s="17"/>
       <c r="DD31" s="17"/>
     </row>
-    <row r="32" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="51"/>
@@ -11132,7 +11185,7 @@
       <c r="L32" s="49"/>
       <c r="M32" s="57">
         <f t="shared" si="53"/>
-        <v>17</v>
+        <v>21.5</v>
       </c>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
@@ -11207,7 +11260,9 @@
       <c r="BU32" s="17">
         <v>2</v>
       </c>
-      <c r="BV32" s="17"/>
+      <c r="BV32" s="17">
+        <v>4.5</v>
+      </c>
       <c r="BW32" s="17"/>
       <c r="BX32" s="17"/>
       <c r="BY32" s="17"/>
@@ -11243,7 +11298,7 @@
       <c r="DC32" s="17"/>
       <c r="DD32" s="17"/>
     </row>
-    <row r="33" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="51"/>
@@ -11364,7 +11419,7 @@
       <c r="DC33" s="17"/>
       <c r="DD33" s="17"/>
     </row>
-    <row r="34" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="51"/>
@@ -11487,7 +11542,7 @@
       <c r="DC34" s="17"/>
       <c r="DD34" s="17"/>
     </row>
-    <row r="35" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="51"/>
@@ -11608,7 +11663,7 @@
       <c r="DC35" s="17"/>
       <c r="DD35" s="17"/>
     </row>
-    <row r="36" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="51"/>
@@ -11733,7 +11788,7 @@
       <c r="DC36" s="17"/>
       <c r="DD36" s="17"/>
     </row>
-    <row r="37" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="51"/>
@@ -11854,7 +11909,7 @@
       <c r="DC37" s="17"/>
       <c r="DD37" s="17"/>
     </row>
-    <row r="38" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="51"/>
@@ -11975,20 +12030,30 @@
       <c r="DC38" s="17"/>
       <c r="DD38" s="17"/>
     </row>
-    <row r="39" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="51"/>
       <c r="E39" s="49"/>
       <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="49"/>
+      <c r="G39" s="49">
+        <v>25</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J39" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="K39" s="61" t="s">
+        <v>180</v>
+      </c>
       <c r="L39" s="49"/>
       <c r="M39" s="57">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="M39" si="57">SUM(O39:DD39)</f>
         <v>0</v>
       </c>
       <c r="O39" s="17"/>
@@ -12086,32 +12151,18 @@
       <c r="DC39" s="17"/>
       <c r="DD39" s="17"/>
     </row>
-    <row r="40" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B40" s="39"/>
-      <c r="C40" s="39">
-        <v>3</v>
-      </c>
+      <c r="C40" s="39"/>
       <c r="D40" s="51"/>
-      <c r="E40" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>177</v>
-      </c>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="49"/>
-      <c r="H40" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="I40" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="J40" s="50" t="s">
-        <v>176</v>
-      </c>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
       <c r="K40" s="49"/>
-      <c r="L40" s="49" t="s">
-        <v>178</v>
-      </c>
+      <c r="L40" s="49"/>
       <c r="M40" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -12211,18 +12262,32 @@
       <c r="DC40" s="17"/>
       <c r="DD40" s="17"/>
     </row>
-    <row r="41" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="C41" s="39">
+        <v>3</v>
+      </c>
       <c r="D41" s="51"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
+      <c r="E41" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>177</v>
+      </c>
       <c r="G41" s="49"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
+      <c r="H41" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>176</v>
+      </c>
       <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
+      <c r="L41" s="49" t="s">
+        <v>178</v>
+      </c>
       <c r="M41" s="57">
         <f t="shared" si="53"/>
         <v>0</v>
@@ -12322,26 +12387,16 @@
       <c r="DC41" s="17"/>
       <c r="DD41" s="17"/>
     </row>
-    <row r="42" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="51"/>
-      <c r="E42" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>171</v>
-      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
       <c r="G42" s="49"/>
-      <c r="H42" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="I42" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="J42" s="50" t="s">
-        <v>176</v>
-      </c>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
       <c r="K42" s="49"/>
       <c r="L42" s="49"/>
       <c r="M42" s="57">
@@ -12443,16 +12498,26 @@
       <c r="DC42" s="17"/>
       <c r="DD42" s="17"/>
     </row>
-    <row r="43" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="51"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
+      <c r="E43" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>171</v>
+      </c>
       <c r="G43" s="49"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
+      <c r="H43" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="50" t="s">
+        <v>176</v>
+      </c>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
       <c r="M43" s="57">
@@ -12554,25 +12619,17 @@
       <c r="DC43" s="17"/>
       <c r="DD43" s="17"/>
     </row>
-    <row r="44" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="51"/>
-      <c r="E44" s="49" t="s">
-        <v>174</v>
-      </c>
+      <c r="E44" s="49"/>
       <c r="F44" s="49"/>
       <c r="G44" s="49"/>
-      <c r="H44" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="I44" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="J44" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="K44" s="61"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="49"/>
       <c r="L44" s="49"/>
       <c r="M44" s="57">
         <f t="shared" si="53"/>
@@ -12673,25 +12730,29 @@
       <c r="DC44" s="17"/>
       <c r="DD44" s="17"/>
     </row>
-    <row r="45" spans="2:108" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="51"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M45" s="56">
+      <c r="E45" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="I45" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="J45" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="K45" s="61"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="57">
         <f t="shared" si="53"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
@@ -12718,9 +12779,7 @@
       <c r="AK45" s="17"/>
       <c r="AL45" s="17"/>
       <c r="AM45" s="17"/>
-      <c r="AN45" s="17">
-        <v>16.5</v>
-      </c>
+      <c r="AN45" s="17"/>
       <c r="AO45" s="17"/>
       <c r="AP45" s="17"/>
       <c r="AQ45" s="17"/>
@@ -12790,21 +12849,25 @@
       <c r="DC45" s="17"/>
       <c r="DD45" s="17"/>
     </row>
-    <row r="46" spans="2:108" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:108" x14ac:dyDescent="0.15">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="51"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="M46" s="56">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
@@ -12831,7 +12894,9 @@
       <c r="AK46" s="17"/>
       <c r="AL46" s="17"/>
       <c r="AM46" s="17"/>
-      <c r="AN46" s="17"/>
+      <c r="AN46" s="17">
+        <v>16.5</v>
+      </c>
       <c r="AO46" s="17"/>
       <c r="AP46" s="17"/>
       <c r="AQ46" s="17"/>
@@ -12901,39 +12966,21 @@
       <c r="DC46" s="17"/>
       <c r="DD46" s="17"/>
     </row>
-    <row r="47" spans="2:108" ht="39" x14ac:dyDescent="0.2">
-      <c r="B47" s="39">
-        <v>2</v>
-      </c>
-      <c r="C47" s="39">
-        <v>1</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>146</v>
-      </c>
+    <row r="47" spans="2:108" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>199</v>
-      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
       <c r="J47" s="39"/>
-      <c r="K47" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
       <c r="M47" s="56">
         <f t="shared" si="53"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
@@ -12970,9 +13017,7 @@
       <c r="AU47" s="17"/>
       <c r="AV47" s="17"/>
       <c r="AW47" s="17"/>
-      <c r="AX47" s="17">
-        <v>1</v>
-      </c>
+      <c r="AX47" s="17"/>
       <c r="AY47" s="17"/>
       <c r="AZ47" s="17"/>
       <c r="BA47" s="17"/>
@@ -12981,9 +13026,7 @@
       <c r="BD47" s="17"/>
       <c r="BE47" s="17"/>
       <c r="BF47" s="17"/>
-      <c r="BG47" s="17">
-        <v>2.5</v>
-      </c>
+      <c r="BG47" s="17"/>
       <c r="BH47" s="17"/>
       <c r="BI47" s="17"/>
       <c r="BJ47" s="17"/>
@@ -13034,21 +13077,39 @@
       <c r="DC47" s="17"/>
       <c r="DD47" s="17"/>
     </row>
-    <row r="48" spans="2:108" x14ac:dyDescent="0.2">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+    <row r="48" spans="2:108" ht="27" x14ac:dyDescent="0.15">
+      <c r="B48" s="39">
+        <v>2</v>
+      </c>
+      <c r="C48" s="39">
+        <v>1</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
+      <c r="H48" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>199</v>
+      </c>
       <c r="J48" s="39"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="K48" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="M48" s="56">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
@@ -13085,7 +13146,9 @@
       <c r="AU48" s="17"/>
       <c r="AV48" s="17"/>
       <c r="AW48" s="17"/>
-      <c r="AX48" s="17"/>
+      <c r="AX48" s="17">
+        <v>1</v>
+      </c>
       <c r="AY48" s="17"/>
       <c r="AZ48" s="17"/>
       <c r="BA48" s="17"/>
@@ -13094,7 +13157,9 @@
       <c r="BD48" s="17"/>
       <c r="BE48" s="17"/>
       <c r="BF48" s="17"/>
-      <c r="BG48" s="17"/>
+      <c r="BG48" s="17">
+        <v>2.5</v>
+      </c>
       <c r="BH48" s="17"/>
       <c r="BI48" s="17"/>
       <c r="BJ48" s="17"/>
@@ -13145,25 +13210,17 @@
       <c r="DC48" s="17"/>
       <c r="DD48" s="17"/>
     </row>
-    <row r="49" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="52"/>
-      <c r="E49" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I49" s="39" t="s">
-        <v>194</v>
-      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
       <c r="J49" s="39"/>
-      <c r="K49" s="39" t="s">
-        <v>194</v>
-      </c>
+      <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="56">
         <f t="shared" si="53"/>
@@ -13263,21 +13320,26 @@
       <c r="DB49" s="17"/>
       <c r="DC49" s="17"/>
       <c r="DD49" s="17"/>
-      <c r="DE49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="2:109" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="52"/>
-      <c r="E50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
+      <c r="H50" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>194</v>
+      </c>
       <c r="J50" s="39"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="39" t="s">
+        <v>194</v>
+      </c>
       <c r="L50" s="7"/>
       <c r="M50" s="56">
         <f t="shared" si="53"/>
@@ -13381,31 +13443,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="52"/>
-      <c r="E51" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="J51" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K51" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="L51" s="49"/>
-      <c r="M51" s="57">
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="56">
         <f t="shared" si="53"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
@@ -13445,9 +13497,7 @@
       <c r="AX51" s="17"/>
       <c r="AY51" s="17"/>
       <c r="AZ51" s="17"/>
-      <c r="BA51" s="17">
-        <v>1.5</v>
-      </c>
+      <c r="BA51" s="17"/>
       <c r="BB51" s="17"/>
       <c r="BC51" s="17"/>
       <c r="BD51" s="17"/>
@@ -13507,21 +13557,31 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="52"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="56">
+      <c r="E52" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J52" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K52" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="L52" s="49"/>
+      <c r="M52" s="57">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O52" s="17"/>
       <c r="P52" s="17"/>
@@ -13561,7 +13621,9 @@
       <c r="AX52" s="17"/>
       <c r="AY52" s="17"/>
       <c r="AZ52" s="17"/>
-      <c r="BA52" s="17"/>
+      <c r="BA52" s="17">
+        <v>1.5</v>
+      </c>
       <c r="BB52" s="17"/>
       <c r="BC52" s="17"/>
       <c r="BD52" s="17"/>
@@ -13621,25 +13683,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:109" ht="39" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="52"/>
-      <c r="E53" s="7" t="s">
-        <v>157</v>
-      </c>
+      <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>200</v>
-      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
       <c r="J53" s="39"/>
-      <c r="K53" s="46" t="s">
-        <v>207</v>
-      </c>
+      <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="56">
         <f t="shared" si="53"/>
@@ -13743,17 +13797,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:109" ht="27" x14ac:dyDescent="0.15">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="52"/>
-      <c r="E54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
+      <c r="H54" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>200</v>
+      </c>
       <c r="J54" s="39"/>
-      <c r="K54" s="7"/>
+      <c r="K54" s="46" t="s">
+        <v>207</v>
+      </c>
       <c r="L54" s="7"/>
       <c r="M54" s="56">
         <f t="shared" si="53"/>
@@ -13857,33 +13919,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:109" ht="26" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="52"/>
-      <c r="E55" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>201</v>
-      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
       <c r="J55" s="39"/>
-      <c r="K55" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
       <c r="M55" s="56">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
@@ -13929,16 +13979,10 @@
       <c r="BD55" s="17"/>
       <c r="BE55" s="17"/>
       <c r="BF55" s="17"/>
-      <c r="BG55" s="17">
-        <v>1.5</v>
-      </c>
+      <c r="BG55" s="17"/>
       <c r="BH55" s="17"/>
-      <c r="BI55" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="BJ55" s="17">
-        <v>1</v>
-      </c>
+      <c r="BI55" s="17"/>
+      <c r="BJ55" s="17"/>
       <c r="BK55" s="17"/>
       <c r="BL55" s="17"/>
       <c r="BM55" s="17"/>
@@ -13989,21 +14033,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:109" ht="27" x14ac:dyDescent="0.15">
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="52"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
+      <c r="H56" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>201</v>
+      </c>
       <c r="J56" s="39"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="K56" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="M56" s="56">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
@@ -14049,10 +14105,16 @@
       <c r="BD56" s="17"/>
       <c r="BE56" s="17"/>
       <c r="BF56" s="17"/>
-      <c r="BG56" s="17"/>
+      <c r="BG56" s="17">
+        <v>1.5</v>
+      </c>
       <c r="BH56" s="17"/>
-      <c r="BI56" s="17"/>
-      <c r="BJ56" s="17"/>
+      <c r="BI56" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="BJ56" s="17">
+        <v>1</v>
+      </c>
       <c r="BK56" s="17"/>
       <c r="BL56" s="17"/>
       <c r="BM56" s="17"/>
@@ -14103,20 +14165,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="52"/>
-      <c r="E57" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="39" t="s">
-        <v>197</v>
-      </c>
+      <c r="H57" s="39"/>
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
       <c r="K57" s="7"/>
@@ -14223,14 +14279,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
       <c r="D58" s="52"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="G58" s="7"/>
-      <c r="H58" s="39"/>
+      <c r="H58" s="39" t="s">
+        <v>197</v>
+      </c>
       <c r="I58" s="39"/>
       <c r="J58" s="39"/>
       <c r="K58" s="7"/>
@@ -14337,10 +14399,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
-      <c r="D59" s="7"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
@@ -14451,7 +14513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
       <c r="D60" s="7"/>
@@ -14565,7 +14627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
       <c r="D61" s="7"/>
@@ -14679,7 +14741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="7"/>
@@ -14793,7 +14855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:109" x14ac:dyDescent="0.15">
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
       <c r="D63" s="7"/>
@@ -14907,725 +14969,743 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:109" x14ac:dyDescent="0.2">
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="58">
+    <row r="64" spans="2:109" x14ac:dyDescent="0.15">
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="56">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="18"/>
-      <c r="AB64" s="18"/>
-      <c r="AC64" s="18"/>
-      <c r="AD64" s="18"/>
-      <c r="AE64" s="18"/>
-      <c r="AF64" s="18"/>
-      <c r="AG64" s="18"/>
-      <c r="AH64" s="18"/>
-      <c r="AI64" s="18"/>
-      <c r="AJ64" s="18"/>
-      <c r="AK64" s="18"/>
-      <c r="AL64" s="18"/>
-      <c r="AM64" s="18"/>
-      <c r="AN64" s="18"/>
-      <c r="AO64" s="18"/>
-      <c r="AP64" s="18"/>
-      <c r="AQ64" s="18"/>
-      <c r="AR64" s="18"/>
-      <c r="AS64" s="18"/>
-      <c r="AT64" s="18"/>
-      <c r="AU64" s="18"/>
-      <c r="AV64" s="18"/>
-      <c r="AW64" s="18"/>
-      <c r="AX64" s="18"/>
-      <c r="AY64" s="18"/>
-      <c r="AZ64" s="18"/>
-      <c r="BA64" s="18"/>
-      <c r="BB64" s="18"/>
-      <c r="BC64" s="18"/>
-      <c r="BD64" s="18"/>
-      <c r="BE64" s="18"/>
-      <c r="BF64" s="18"/>
-      <c r="BG64" s="18"/>
-      <c r="BH64" s="18"/>
-      <c r="BI64" s="18"/>
-      <c r="BJ64" s="18"/>
-      <c r="BK64" s="18"/>
-      <c r="BL64" s="18"/>
-      <c r="BM64" s="18"/>
-      <c r="BN64" s="18"/>
-      <c r="BO64" s="18"/>
-      <c r="BP64" s="18"/>
-      <c r="BQ64" s="18"/>
-      <c r="BR64" s="18"/>
-      <c r="BS64" s="18"/>
-      <c r="BT64" s="18"/>
-      <c r="BU64" s="18"/>
-      <c r="BV64" s="18"/>
-      <c r="BW64" s="18"/>
-      <c r="BX64" s="18"/>
-      <c r="BY64" s="18"/>
-      <c r="BZ64" s="18"/>
-      <c r="CA64" s="18"/>
-      <c r="CB64" s="18"/>
-      <c r="CC64" s="18"/>
-      <c r="CD64" s="18"/>
-      <c r="CE64" s="18"/>
-      <c r="CF64" s="18"/>
-      <c r="CG64" s="18"/>
-      <c r="CH64" s="18"/>
-      <c r="CI64" s="18"/>
-      <c r="CJ64" s="18"/>
-      <c r="CK64" s="18"/>
-      <c r="CL64" s="18"/>
-      <c r="CM64" s="18"/>
-      <c r="CN64" s="18"/>
-      <c r="CO64" s="18"/>
-      <c r="CP64" s="18"/>
-      <c r="CQ64" s="18"/>
-      <c r="CR64" s="18"/>
-      <c r="CS64" s="18"/>
-      <c r="CT64" s="18"/>
-      <c r="CU64" s="18"/>
-      <c r="CV64" s="18"/>
-      <c r="CW64" s="18"/>
-      <c r="CX64" s="18"/>
-      <c r="CY64" s="18"/>
-      <c r="CZ64" s="18"/>
-      <c r="DA64" s="18"/>
-      <c r="DB64" s="18"/>
-      <c r="DC64" s="18"/>
-      <c r="DD64" s="18"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="17"/>
+      <c r="AE64" s="17"/>
+      <c r="AF64" s="17"/>
+      <c r="AG64" s="17"/>
+      <c r="AH64" s="17"/>
+      <c r="AI64" s="17"/>
+      <c r="AJ64" s="17"/>
+      <c r="AK64" s="17"/>
+      <c r="AL64" s="17"/>
+      <c r="AM64" s="17"/>
+      <c r="AN64" s="17"/>
+      <c r="AO64" s="17"/>
+      <c r="AP64" s="17"/>
+      <c r="AQ64" s="17"/>
+      <c r="AR64" s="17"/>
+      <c r="AS64" s="17"/>
+      <c r="AT64" s="17"/>
+      <c r="AU64" s="17"/>
+      <c r="AV64" s="17"/>
+      <c r="AW64" s="17"/>
+      <c r="AX64" s="17"/>
+      <c r="AY64" s="17"/>
+      <c r="AZ64" s="17"/>
+      <c r="BA64" s="17"/>
+      <c r="BB64" s="17"/>
+      <c r="BC64" s="17"/>
+      <c r="BD64" s="17"/>
+      <c r="BE64" s="17"/>
+      <c r="BF64" s="17"/>
+      <c r="BG64" s="17"/>
+      <c r="BH64" s="17"/>
+      <c r="BI64" s="17"/>
+      <c r="BJ64" s="17"/>
+      <c r="BK64" s="17"/>
+      <c r="BL64" s="17"/>
+      <c r="BM64" s="17"/>
+      <c r="BN64" s="17"/>
+      <c r="BO64" s="17"/>
+      <c r="BP64" s="17"/>
+      <c r="BQ64" s="17"/>
+      <c r="BR64" s="17"/>
+      <c r="BS64" s="17"/>
+      <c r="BT64" s="17"/>
+      <c r="BU64" s="17"/>
+      <c r="BV64" s="17"/>
+      <c r="BW64" s="17"/>
+      <c r="BX64" s="17"/>
+      <c r="BY64" s="17"/>
+      <c r="BZ64" s="17"/>
+      <c r="CA64" s="17"/>
+      <c r="CB64" s="17"/>
+      <c r="CC64" s="17"/>
+      <c r="CD64" s="17"/>
+      <c r="CE64" s="17"/>
+      <c r="CF64" s="17"/>
+      <c r="CG64" s="17"/>
+      <c r="CH64" s="17"/>
+      <c r="CI64" s="17"/>
+      <c r="CJ64" s="17"/>
+      <c r="CK64" s="17"/>
+      <c r="CL64" s="17"/>
+      <c r="CM64" s="17"/>
+      <c r="CN64" s="17"/>
+      <c r="CO64" s="17"/>
+      <c r="CP64" s="17"/>
+      <c r="CQ64" s="17"/>
+      <c r="CR64" s="17"/>
+      <c r="CS64" s="17"/>
+      <c r="CT64" s="17"/>
+      <c r="CU64" s="17"/>
+      <c r="CV64" s="17"/>
+      <c r="CW64" s="17"/>
+      <c r="CX64" s="17"/>
+      <c r="CY64" s="17"/>
+      <c r="CZ64" s="17"/>
+      <c r="DA64" s="17"/>
+      <c r="DB64" s="17"/>
+      <c r="DC64" s="17"/>
+      <c r="DD64" s="17"/>
       <c r="DE64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="5:109" x14ac:dyDescent="0.2">
-      <c r="M65" s="54">
-        <f>SUM(O65:DD65)</f>
-        <v>78</v>
-      </c>
-      <c r="O65" s="20">
-        <f t="shared" ref="O65:AT65" si="57">SUM(O13:O64)</f>
-        <v>0</v>
-      </c>
-      <c r="P65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="X65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="Z65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AB65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AC65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AD65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AE65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AF65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AG65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AH65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AI65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AK65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AL65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AN65" s="20">
-        <f t="shared" si="57"/>
+    <row r="65" spans="2:109" x14ac:dyDescent="0.15">
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="58">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="18"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="18"/>
+      <c r="AA65" s="18"/>
+      <c r="AB65" s="18"/>
+      <c r="AC65" s="18"/>
+      <c r="AD65" s="18"/>
+      <c r="AE65" s="18"/>
+      <c r="AF65" s="18"/>
+      <c r="AG65" s="18"/>
+      <c r="AH65" s="18"/>
+      <c r="AI65" s="18"/>
+      <c r="AJ65" s="18"/>
+      <c r="AK65" s="18"/>
+      <c r="AL65" s="18"/>
+      <c r="AM65" s="18"/>
+      <c r="AN65" s="18"/>
+      <c r="AO65" s="18"/>
+      <c r="AP65" s="18"/>
+      <c r="AQ65" s="18"/>
+      <c r="AR65" s="18"/>
+      <c r="AS65" s="18"/>
+      <c r="AT65" s="18"/>
+      <c r="AU65" s="18"/>
+      <c r="AV65" s="18"/>
+      <c r="AW65" s="18"/>
+      <c r="AX65" s="18"/>
+      <c r="AY65" s="18"/>
+      <c r="AZ65" s="18"/>
+      <c r="BA65" s="18"/>
+      <c r="BB65" s="18"/>
+      <c r="BC65" s="18"/>
+      <c r="BD65" s="18"/>
+      <c r="BE65" s="18"/>
+      <c r="BF65" s="18"/>
+      <c r="BG65" s="18"/>
+      <c r="BH65" s="18"/>
+      <c r="BI65" s="18"/>
+      <c r="BJ65" s="18"/>
+      <c r="BK65" s="18"/>
+      <c r="BL65" s="18"/>
+      <c r="BM65" s="18"/>
+      <c r="BN65" s="18"/>
+      <c r="BO65" s="18"/>
+      <c r="BP65" s="18"/>
+      <c r="BQ65" s="18"/>
+      <c r="BR65" s="18"/>
+      <c r="BS65" s="18"/>
+      <c r="BT65" s="18"/>
+      <c r="BU65" s="18"/>
+      <c r="BV65" s="18"/>
+      <c r="BW65" s="18"/>
+      <c r="BX65" s="18"/>
+      <c r="BY65" s="18"/>
+      <c r="BZ65" s="18"/>
+      <c r="CA65" s="18"/>
+      <c r="CB65" s="18"/>
+      <c r="CC65" s="18"/>
+      <c r="CD65" s="18"/>
+      <c r="CE65" s="18"/>
+      <c r="CF65" s="18"/>
+      <c r="CG65" s="18"/>
+      <c r="CH65" s="18"/>
+      <c r="CI65" s="18"/>
+      <c r="CJ65" s="18"/>
+      <c r="CK65" s="18"/>
+      <c r="CL65" s="18"/>
+      <c r="CM65" s="18"/>
+      <c r="CN65" s="18"/>
+      <c r="CO65" s="18"/>
+      <c r="CP65" s="18"/>
+      <c r="CQ65" s="18"/>
+      <c r="CR65" s="18"/>
+      <c r="CS65" s="18"/>
+      <c r="CT65" s="18"/>
+      <c r="CU65" s="18"/>
+      <c r="CV65" s="18"/>
+      <c r="CW65" s="18"/>
+      <c r="CX65" s="18"/>
+      <c r="CY65" s="18"/>
+      <c r="CZ65" s="18"/>
+      <c r="DA65" s="18"/>
+      <c r="DB65" s="18"/>
+      <c r="DC65" s="18"/>
+      <c r="DD65" s="18"/>
+      <c r="DE65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="2:109" x14ac:dyDescent="0.15">
+      <c r="M66" s="54">
+        <f>SUM(O66:DD66)</f>
+        <v>82.5</v>
+      </c>
+      <c r="O66" s="20">
+        <f t="shared" ref="O66:AT66" si="58">SUM(O13:O65)</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AE66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AH66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AI66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AK66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AL66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AM66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AN66" s="20">
+        <f t="shared" si="58"/>
         <v>16.5</v>
       </c>
-      <c r="AO65" s="20">
-        <f t="shared" si="57"/>
+      <c r="AO66" s="20">
+        <f t="shared" si="58"/>
         <v>1.5</v>
       </c>
-      <c r="AP65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AQ65" s="20">
-        <f t="shared" si="57"/>
+      <c r="AP66" s="20">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="20">
+        <f t="shared" si="58"/>
         <v>1.5</v>
       </c>
-      <c r="AR65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AS65" s="20">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="AT65" s="20">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AU65" s="20">
-        <f t="shared" ref="AU65:BZ65" si="58">SUM(AU13:AU64)</f>
-        <v>0</v>
-      </c>
-      <c r="AV65" s="20">
+      <c r="AR66" s="20">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="AW65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AX65" s="20">
+      <c r="AS66" s="20">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
-      <c r="AY65" s="20">
+      <c r="AT66" s="20">
         <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AU66" s="20">
+        <f t="shared" ref="AU66:BZ66" si="59">SUM(AU13:AU65)</f>
+        <v>0</v>
+      </c>
+      <c r="AV66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AW66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AX66" s="20">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="AY66" s="20">
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AZ65" s="20">
-        <f t="shared" si="58"/>
+      <c r="AZ66" s="20">
+        <f t="shared" si="59"/>
         <v>13</v>
       </c>
-      <c r="BA65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BA66" s="20">
+        <f t="shared" si="59"/>
         <v>3.5</v>
       </c>
-      <c r="BB65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BC65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BD65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BE65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BF65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BB66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BC66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BD66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BE66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BF66" s="20">
+        <f t="shared" si="59"/>
         <v>10.5</v>
       </c>
-      <c r="BG65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BG66" s="20">
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
-      <c r="BH65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BH66" s="20">
+        <f t="shared" si="59"/>
         <v>7</v>
       </c>
-      <c r="BI65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BI66" s="20">
+        <f t="shared" si="59"/>
         <v>0.5</v>
       </c>
-      <c r="BJ65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BJ66" s="20">
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
-      <c r="BK65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BL65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BM65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BK66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BL66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BM66" s="20">
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
-      <c r="BN65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BO65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BP65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BN66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BO66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BP66" s="20">
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="BQ65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BQ66" s="20">
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
-      <c r="BR65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BR66" s="20">
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
-      <c r="BS65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BS66" s="20">
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
-      <c r="BT65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BU65" s="20">
-        <f t="shared" si="58"/>
+      <c r="BT66" s="20">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BU66" s="20">
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="BV65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BW65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BX65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BY65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="BZ65" s="20">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="CA65" s="20">
-        <f t="shared" ref="CA65:DD65" si="59">SUM(CA13:CA64)</f>
-        <v>0</v>
-      </c>
-      <c r="CB65" s="20">
+      <c r="BV66" s="20">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CC65" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="BW66" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="CD65" s="20">
+      <c r="BX66" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="CE65" s="20">
+      <c r="BY66" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="CF65" s="20">
+      <c r="BZ66" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="CG65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CH65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CI65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CJ65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CK65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CL65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CM65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CN65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CO65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CP65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CQ65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CR65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CS65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CT65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CU65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CV65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CW65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CX65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CY65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CZ65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="DA65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="DB65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="DC65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="DD65" s="20">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="DE65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="5:109" x14ac:dyDescent="0.2">
+      <c r="CA66" s="20">
+        <f t="shared" ref="CA66:DD66" si="60">SUM(CA13:CA65)</f>
+        <v>0</v>
+      </c>
+      <c r="CB66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CC66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CD66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CE66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CF66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CG66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CH66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CI66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CJ66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CK66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CL66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CM66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CN66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CO66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CP66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CQ66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CR66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CS66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CT66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CU66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CV66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CW66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CX66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CY66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="CZ66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DA66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DB66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DC66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="DD66" s="20">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
       <c r="DE66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="5:109" x14ac:dyDescent="0.2">
-      <c r="E67" s="21"/>
-      <c r="I67" s="13">
-        <v>1.5</v>
-      </c>
+    <row r="67" spans="2:109" x14ac:dyDescent="0.15">
       <c r="DE67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="5:109" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:109" x14ac:dyDescent="0.15">
+      <c r="E68" s="21"/>
       <c r="I68" s="13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="DE68" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="5:109" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:109" x14ac:dyDescent="0.15">
       <c r="I69" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="5:109" x14ac:dyDescent="0.2">
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-      <c r="Z80"/>
-      <c r="AA80"/>
-      <c r="AB80"/>
-      <c r="AC80"/>
-      <c r="AD80"/>
-      <c r="AE80"/>
-      <c r="AF80"/>
-      <c r="AG80"/>
-      <c r="AH80"/>
-      <c r="AI80"/>
-      <c r="AJ80"/>
-      <c r="AK80"/>
-      <c r="AL80"/>
-      <c r="AM80"/>
-      <c r="AN80"/>
-      <c r="AO80"/>
-      <c r="AP80"/>
-      <c r="AQ80"/>
-      <c r="AR80"/>
-      <c r="AS80"/>
-      <c r="AT80"/>
-      <c r="AU80"/>
-      <c r="AV80"/>
-      <c r="AW80"/>
-      <c r="AX80"/>
-      <c r="AY80"/>
-      <c r="AZ80"/>
-      <c r="BA80"/>
-      <c r="BB80"/>
-      <c r="BC80"/>
-      <c r="BD80"/>
-      <c r="BE80"/>
-      <c r="BF80"/>
-      <c r="BG80"/>
-      <c r="BH80"/>
-      <c r="BI80"/>
-      <c r="BJ80"/>
-      <c r="BK80"/>
-      <c r="BL80"/>
-      <c r="BM80"/>
-      <c r="BN80"/>
-      <c r="BO80"/>
-      <c r="BP80"/>
-      <c r="BQ80"/>
-      <c r="BR80"/>
-      <c r="BS80"/>
-      <c r="BT80"/>
-      <c r="BU80"/>
-      <c r="BV80"/>
-      <c r="BW80"/>
-      <c r="BX80"/>
-      <c r="BY80"/>
-      <c r="BZ80"/>
-      <c r="CA80"/>
-      <c r="CB80"/>
-      <c r="CC80"/>
-      <c r="CD80"/>
-      <c r="CE80"/>
-      <c r="CF80"/>
-      <c r="CG80"/>
-      <c r="CH80"/>
-      <c r="CI80"/>
-      <c r="CJ80"/>
-      <c r="CK80"/>
-      <c r="CL80"/>
-      <c r="CM80"/>
-      <c r="CN80"/>
-      <c r="CO80"/>
-      <c r="CP80"/>
-      <c r="CQ80"/>
-      <c r="CR80"/>
-      <c r="CS80"/>
-      <c r="CT80"/>
-      <c r="CU80"/>
-      <c r="CV80"/>
-      <c r="CW80"/>
-      <c r="CX80"/>
-      <c r="CY80"/>
-      <c r="CZ80"/>
-      <c r="DA80"/>
-      <c r="DB80"/>
-      <c r="DC80"/>
-      <c r="DD80"/>
-    </row>
-    <row r="83" spans="15:108" x14ac:dyDescent="0.2">
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83"/>
-      <c r="AB83"/>
-      <c r="AC83"/>
-      <c r="AD83"/>
-      <c r="AE83"/>
-      <c r="AF83"/>
-      <c r="AG83"/>
-      <c r="AH83"/>
-      <c r="AI83"/>
-      <c r="AJ83"/>
-      <c r="AK83"/>
-      <c r="AL83"/>
-      <c r="AM83"/>
-      <c r="AN83"/>
-      <c r="AO83"/>
-      <c r="AP83"/>
-      <c r="AQ83"/>
-      <c r="AR83"/>
-      <c r="AS83"/>
-      <c r="AT83"/>
-      <c r="AU83"/>
-      <c r="AV83"/>
-      <c r="AW83"/>
-      <c r="AX83"/>
-      <c r="AY83"/>
-      <c r="AZ83"/>
-      <c r="BA83"/>
-      <c r="BB83"/>
-      <c r="BC83"/>
-      <c r="BD83"/>
-      <c r="BE83"/>
-      <c r="BF83"/>
-      <c r="BG83"/>
-      <c r="BH83"/>
-      <c r="BI83"/>
-      <c r="BJ83"/>
-      <c r="BK83"/>
-      <c r="BL83"/>
-      <c r="BM83"/>
-      <c r="BN83"/>
-      <c r="BO83"/>
-      <c r="BP83"/>
-      <c r="BQ83"/>
-      <c r="BR83"/>
-      <c r="BS83"/>
-      <c r="BT83"/>
-      <c r="BU83"/>
-      <c r="BV83"/>
-      <c r="BW83"/>
-      <c r="BX83"/>
-      <c r="BY83"/>
-      <c r="BZ83"/>
-      <c r="CA83"/>
-      <c r="CB83"/>
-      <c r="CC83"/>
-      <c r="CD83"/>
-      <c r="CE83"/>
-      <c r="CF83"/>
-      <c r="CG83"/>
-      <c r="CH83"/>
-      <c r="CI83"/>
-      <c r="CJ83"/>
-      <c r="CK83"/>
-      <c r="CL83"/>
-      <c r="CM83"/>
-      <c r="CN83"/>
-      <c r="CO83"/>
-      <c r="CP83"/>
-      <c r="CQ83"/>
-      <c r="CR83"/>
-      <c r="CS83"/>
-      <c r="CT83"/>
-      <c r="CU83"/>
-      <c r="CV83"/>
-      <c r="CW83"/>
-      <c r="CX83"/>
-      <c r="CY83"/>
-      <c r="CZ83"/>
-      <c r="DA83"/>
-      <c r="DB83"/>
-      <c r="DC83"/>
-      <c r="DD83"/>
-    </row>
-    <row r="84" spans="15:108" x14ac:dyDescent="0.2">
+      <c r="DE69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="2:109" x14ac:dyDescent="0.15">
+      <c r="I70" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="15:108" x14ac:dyDescent="0.15">
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81"/>
+      <c r="AI81"/>
+      <c r="AJ81"/>
+      <c r="AK81"/>
+      <c r="AL81"/>
+      <c r="AM81"/>
+      <c r="AN81"/>
+      <c r="AO81"/>
+      <c r="AP81"/>
+      <c r="AQ81"/>
+      <c r="AR81"/>
+      <c r="AS81"/>
+      <c r="AT81"/>
+      <c r="AU81"/>
+      <c r="AV81"/>
+      <c r="AW81"/>
+      <c r="AX81"/>
+      <c r="AY81"/>
+      <c r="AZ81"/>
+      <c r="BA81"/>
+      <c r="BB81"/>
+      <c r="BC81"/>
+      <c r="BD81"/>
+      <c r="BE81"/>
+      <c r="BF81"/>
+      <c r="BG81"/>
+      <c r="BH81"/>
+      <c r="BI81"/>
+      <c r="BJ81"/>
+      <c r="BK81"/>
+      <c r="BL81"/>
+      <c r="BM81"/>
+      <c r="BN81"/>
+      <c r="BO81"/>
+      <c r="BP81"/>
+      <c r="BQ81"/>
+      <c r="BR81"/>
+      <c r="BS81"/>
+      <c r="BT81"/>
+      <c r="BU81"/>
+      <c r="BV81"/>
+      <c r="BW81"/>
+      <c r="BX81"/>
+      <c r="BY81"/>
+      <c r="BZ81"/>
+      <c r="CA81"/>
+      <c r="CB81"/>
+      <c r="CC81"/>
+      <c r="CD81"/>
+      <c r="CE81"/>
+      <c r="CF81"/>
+      <c r="CG81"/>
+      <c r="CH81"/>
+      <c r="CI81"/>
+      <c r="CJ81"/>
+      <c r="CK81"/>
+      <c r="CL81"/>
+      <c r="CM81"/>
+      <c r="CN81"/>
+      <c r="CO81"/>
+      <c r="CP81"/>
+      <c r="CQ81"/>
+      <c r="CR81"/>
+      <c r="CS81"/>
+      <c r="CT81"/>
+      <c r="CU81"/>
+      <c r="CV81"/>
+      <c r="CW81"/>
+      <c r="CX81"/>
+      <c r="CY81"/>
+      <c r="CZ81"/>
+      <c r="DA81"/>
+      <c r="DB81"/>
+      <c r="DC81"/>
+      <c r="DD81"/>
+    </row>
+    <row r="84" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -15721,7 +15801,7 @@
       <c r="DC84"/>
       <c r="DD84"/>
     </row>
-    <row r="85" spans="15:108" x14ac:dyDescent="0.2">
+    <row r="85" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -15817,7 +15897,7 @@
       <c r="DC85"/>
       <c r="DD85"/>
     </row>
-    <row r="86" spans="15:108" x14ac:dyDescent="0.2">
+    <row r="86" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -15913,7 +15993,7 @@
       <c r="DC86"/>
       <c r="DD86"/>
     </row>
-    <row r="87" spans="15:108" x14ac:dyDescent="0.2">
+    <row r="87" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -16009,7 +16089,7 @@
       <c r="DC87"/>
       <c r="DD87"/>
     </row>
-    <row r="88" spans="15:108" x14ac:dyDescent="0.2">
+    <row r="88" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -16105,7 +16185,7 @@
       <c r="DC88"/>
       <c r="DD88"/>
     </row>
-    <row r="89" spans="15:108" x14ac:dyDescent="0.2">
+    <row r="89" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -16201,7 +16281,7 @@
       <c r="DC89"/>
       <c r="DD89"/>
     </row>
-    <row r="90" spans="15:108" x14ac:dyDescent="0.2">
+    <row r="90" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -16297,103 +16377,103 @@
       <c r="DC90"/>
       <c r="DD90"/>
     </row>
-    <row r="92" spans="15:108" x14ac:dyDescent="0.2">
-      <c r="O92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
-      <c r="R92"/>
-      <c r="S92"/>
-      <c r="T92"/>
-      <c r="U92"/>
-      <c r="V92"/>
-      <c r="W92"/>
-      <c r="X92"/>
-      <c r="Y92"/>
-      <c r="Z92"/>
-      <c r="AA92"/>
-      <c r="AB92"/>
-      <c r="AC92"/>
-      <c r="AD92"/>
-      <c r="AE92"/>
-      <c r="AF92"/>
-      <c r="AG92"/>
-      <c r="AH92"/>
-      <c r="AI92"/>
-      <c r="AJ92"/>
-      <c r="AK92"/>
-      <c r="AL92"/>
-      <c r="AM92"/>
-      <c r="AN92"/>
-      <c r="AO92"/>
-      <c r="AP92"/>
-      <c r="AQ92"/>
-      <c r="AR92"/>
-      <c r="AS92"/>
-      <c r="AT92"/>
-      <c r="AU92"/>
-      <c r="AV92"/>
-      <c r="AW92"/>
-      <c r="AX92"/>
-      <c r="AY92"/>
-      <c r="AZ92"/>
-      <c r="BA92"/>
-      <c r="BB92"/>
-      <c r="BC92"/>
-      <c r="BD92"/>
-      <c r="BE92"/>
-      <c r="BF92"/>
-      <c r="BG92"/>
-      <c r="BH92"/>
-      <c r="BI92"/>
-      <c r="BJ92"/>
-      <c r="BK92"/>
-      <c r="BL92"/>
-      <c r="BM92"/>
-      <c r="BN92"/>
-      <c r="BO92"/>
-      <c r="BP92"/>
-      <c r="BQ92"/>
-      <c r="BR92"/>
-      <c r="BS92"/>
-      <c r="BT92"/>
-      <c r="BU92"/>
-      <c r="BV92"/>
-      <c r="BW92"/>
-      <c r="BX92"/>
-      <c r="BY92"/>
-      <c r="BZ92"/>
-      <c r="CA92"/>
-      <c r="CB92"/>
-      <c r="CC92"/>
-      <c r="CD92"/>
-      <c r="CE92"/>
-      <c r="CF92"/>
-      <c r="CG92"/>
-      <c r="CH92"/>
-      <c r="CI92"/>
-      <c r="CJ92"/>
-      <c r="CK92"/>
-      <c r="CL92"/>
-      <c r="CM92"/>
-      <c r="CN92"/>
-      <c r="CO92"/>
-      <c r="CP92"/>
-      <c r="CQ92"/>
-      <c r="CR92"/>
-      <c r="CS92"/>
-      <c r="CT92"/>
-      <c r="CU92"/>
-      <c r="CV92"/>
-      <c r="CW92"/>
-      <c r="CX92"/>
-      <c r="CY92"/>
-      <c r="CZ92"/>
-      <c r="DA92"/>
-      <c r="DB92"/>
-      <c r="DC92"/>
-      <c r="DD92"/>
-    </row>
-    <row r="93" spans="15:108" x14ac:dyDescent="0.2">
+    <row r="91" spans="15:108" x14ac:dyDescent="0.15">
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+      <c r="AF91"/>
+      <c r="AG91"/>
+      <c r="AH91"/>
+      <c r="AI91"/>
+      <c r="AJ91"/>
+      <c r="AK91"/>
+      <c r="AL91"/>
+      <c r="AM91"/>
+      <c r="AN91"/>
+      <c r="AO91"/>
+      <c r="AP91"/>
+      <c r="AQ91"/>
+      <c r="AR91"/>
+      <c r="AS91"/>
+      <c r="AT91"/>
+      <c r="AU91"/>
+      <c r="AV91"/>
+      <c r="AW91"/>
+      <c r="AX91"/>
+      <c r="AY91"/>
+      <c r="AZ91"/>
+      <c r="BA91"/>
+      <c r="BB91"/>
+      <c r="BC91"/>
+      <c r="BD91"/>
+      <c r="BE91"/>
+      <c r="BF91"/>
+      <c r="BG91"/>
+      <c r="BH91"/>
+      <c r="BI91"/>
+      <c r="BJ91"/>
+      <c r="BK91"/>
+      <c r="BL91"/>
+      <c r="BM91"/>
+      <c r="BN91"/>
+      <c r="BO91"/>
+      <c r="BP91"/>
+      <c r="BQ91"/>
+      <c r="BR91"/>
+      <c r="BS91"/>
+      <c r="BT91"/>
+      <c r="BU91"/>
+      <c r="BV91"/>
+      <c r="BW91"/>
+      <c r="BX91"/>
+      <c r="BY91"/>
+      <c r="BZ91"/>
+      <c r="CA91"/>
+      <c r="CB91"/>
+      <c r="CC91"/>
+      <c r="CD91"/>
+      <c r="CE91"/>
+      <c r="CF91"/>
+      <c r="CG91"/>
+      <c r="CH91"/>
+      <c r="CI91"/>
+      <c r="CJ91"/>
+      <c r="CK91"/>
+      <c r="CL91"/>
+      <c r="CM91"/>
+      <c r="CN91"/>
+      <c r="CO91"/>
+      <c r="CP91"/>
+      <c r="CQ91"/>
+      <c r="CR91"/>
+      <c r="CS91"/>
+      <c r="CT91"/>
+      <c r="CU91"/>
+      <c r="CV91"/>
+      <c r="CW91"/>
+      <c r="CX91"/>
+      <c r="CY91"/>
+      <c r="CZ91"/>
+      <c r="DA91"/>
+      <c r="DB91"/>
+      <c r="DC91"/>
+      <c r="DD91"/>
+    </row>
+    <row r="93" spans="15:108" x14ac:dyDescent="0.15">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -16489,237 +16569,359 @@
       <c r="DC93"/>
       <c r="DD93"/>
     </row>
+    <row r="94" spans="15:108" x14ac:dyDescent="0.15">
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+      <c r="AF94"/>
+      <c r="AG94"/>
+      <c r="AH94"/>
+      <c r="AI94"/>
+      <c r="AJ94"/>
+      <c r="AK94"/>
+      <c r="AL94"/>
+      <c r="AM94"/>
+      <c r="AN94"/>
+      <c r="AO94"/>
+      <c r="AP94"/>
+      <c r="AQ94"/>
+      <c r="AR94"/>
+      <c r="AS94"/>
+      <c r="AT94"/>
+      <c r="AU94"/>
+      <c r="AV94"/>
+      <c r="AW94"/>
+      <c r="AX94"/>
+      <c r="AY94"/>
+      <c r="AZ94"/>
+      <c r="BA94"/>
+      <c r="BB94"/>
+      <c r="BC94"/>
+      <c r="BD94"/>
+      <c r="BE94"/>
+      <c r="BF94"/>
+      <c r="BG94"/>
+      <c r="BH94"/>
+      <c r="BI94"/>
+      <c r="BJ94"/>
+      <c r="BK94"/>
+      <c r="BL94"/>
+      <c r="BM94"/>
+      <c r="BN94"/>
+      <c r="BO94"/>
+      <c r="BP94"/>
+      <c r="BQ94"/>
+      <c r="BR94"/>
+      <c r="BS94"/>
+      <c r="BT94"/>
+      <c r="BU94"/>
+      <c r="BV94"/>
+      <c r="BW94"/>
+      <c r="BX94"/>
+      <c r="BY94"/>
+      <c r="BZ94"/>
+      <c r="CA94"/>
+      <c r="CB94"/>
+      <c r="CC94"/>
+      <c r="CD94"/>
+      <c r="CE94"/>
+      <c r="CF94"/>
+      <c r="CG94"/>
+      <c r="CH94"/>
+      <c r="CI94"/>
+      <c r="CJ94"/>
+      <c r="CK94"/>
+      <c r="CL94"/>
+      <c r="CM94"/>
+      <c r="CN94"/>
+      <c r="CO94"/>
+      <c r="CP94"/>
+      <c r="CQ94"/>
+      <c r="CR94"/>
+      <c r="CS94"/>
+      <c r="CT94"/>
+      <c r="CU94"/>
+      <c r="CV94"/>
+      <c r="CW94"/>
+      <c r="CX94"/>
+      <c r="CY94"/>
+      <c r="CZ94"/>
+      <c r="DA94"/>
+      <c r="DB94"/>
+      <c r="DC94"/>
+      <c r="DD94"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B12:DH14" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="B12:DH14">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="O63:BN64 DD63:DD64 O11:BF12 O46:DD48 O26:DD27 O13:DD19 O40:DD43 O21:DD22">
-    <cfRule type="expression" dxfId="69" priority="74">
+  <conditionalFormatting sqref="O64:BN65 DD64:DD65 O11:BF12 O47:DD49 O26:DD27 O13:DD19 O41:DD44 O21:DD22">
+    <cfRule type="expression" dxfId="81" priority="80">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="75">
+    <cfRule type="expression" dxfId="80" priority="81">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="76">
+    <cfRule type="expression" dxfId="79" priority="82">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11">
-    <cfRule type="expression" dxfId="66" priority="73">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O49:BN62 DD49:DD62">
-    <cfRule type="expression" dxfId="65" priority="70">
+  <conditionalFormatting sqref="O50:BN63 DD50:DD63">
+    <cfRule type="expression" dxfId="77" priority="76">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="71">
+    <cfRule type="expression" dxfId="76" priority="77">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="72">
+    <cfRule type="expression" dxfId="75" priority="78">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO63:DC64">
-    <cfRule type="expression" dxfId="62" priority="67">
+  <conditionalFormatting sqref="BO64:DC65">
+    <cfRule type="expression" dxfId="74" priority="73">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="68">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="69">
+    <cfRule type="expression" dxfId="72" priority="75">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO49:DC62">
-    <cfRule type="expression" dxfId="59" priority="63">
+  <conditionalFormatting sqref="BO50:DC63">
+    <cfRule type="expression" dxfId="71" priority="69">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="64">
+    <cfRule type="expression" dxfId="70" priority="70">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="65">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD12">
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="68" priority="66">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="61">
+    <cfRule type="expression" dxfId="67" priority="67">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="62">
+    <cfRule type="expression" dxfId="66" priority="68">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD11">
-    <cfRule type="expression" dxfId="53" priority="59">
+    <cfRule type="expression" dxfId="65" priority="65">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:I64 I45:I54 J28:J38 I40:L44 I26:L27 J46:L64 L28:L38 M40:M64 I39:M39 M25:M38 I21:M22 I13:M19">
-    <cfRule type="expression" dxfId="52" priority="58">
+  <conditionalFormatting sqref="I57:I65 I46:I55 J28:J38 I41:L45 I26:L27 J47:L65 L28:L38 M41:M65 I40:M40 M25:M38 I21:M22 I13:M19">
+    <cfRule type="expression" dxfId="64" priority="64">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44:DD44">
-    <cfRule type="expression" dxfId="51" priority="55">
+  <conditionalFormatting sqref="O45:DD45">
+    <cfRule type="expression" dxfId="63" priority="61">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="56">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="57">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45:L45">
-    <cfRule type="expression" dxfId="48" priority="51">
-      <formula>$J45="完了"</formula>
+  <conditionalFormatting sqref="J46:L46">
+    <cfRule type="expression" dxfId="60" priority="57">
+      <formula>$J46="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O45:AM45 AP45:DD45">
-    <cfRule type="expression" dxfId="47" priority="48">
+  <conditionalFormatting sqref="O46:AM46 AP46:DD46">
+    <cfRule type="expression" dxfId="59" priority="54">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="49">
+    <cfRule type="expression" dxfId="58" priority="55">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="50">
+    <cfRule type="expression" dxfId="57" priority="56">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="56" priority="51">
       <formula>$J25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:L25">
-    <cfRule type="expression" dxfId="43" priority="40">
+    <cfRule type="expression" dxfId="55" priority="46">
       <formula>$J25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:DD25">
-    <cfRule type="expression" dxfId="42" priority="37">
+    <cfRule type="expression" dxfId="54" priority="43">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="53" priority="44">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="52" priority="45">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O39:DD39">
-    <cfRule type="expression" dxfId="39" priority="33">
+  <conditionalFormatting sqref="O40:DD40">
+    <cfRule type="expression" dxfId="51" priority="39">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="50" priority="40">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="49" priority="41">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:DD38">
-    <cfRule type="expression" dxfId="36" priority="29">
+    <cfRule type="expression" dxfId="48" priority="35">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="30">
+    <cfRule type="expression" dxfId="47" priority="36">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="46" priority="37">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K38">
-    <cfRule type="expression" dxfId="33" priority="22">
+    <cfRule type="expression" dxfId="45" priority="28">
       <formula>$J28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I38">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="44" priority="27">
       <formula>$J28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="31" priority="19">
-      <formula>$J55="完了"</formula>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="expression" dxfId="43" priority="25">
+      <formula>$J56="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO45">
-    <cfRule type="expression" dxfId="30" priority="16">
+  <conditionalFormatting sqref="AO46">
+    <cfRule type="expression" dxfId="42" priority="22">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DD23">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="39" priority="19">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:M23">
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>$J23="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN45">
-    <cfRule type="expression" dxfId="23" priority="9">
+  <conditionalFormatting sqref="AN46">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DD20">
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:M20">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>$J20="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DD24">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:M24">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>$J24="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39 L39:M39">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>$J39="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O39:DD39">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$J39="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$J39="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16728,11 +16930,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>J13:J64</xm:sqref>
+          <xm:sqref>J13:J65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16741,44 +16943,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="63" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="63" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="63"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="64"/>
     </row>
   </sheetData>
@@ -16788,22 +16990,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
-    <col min="3" max="3" width="52.36328125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="77.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="52.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.453125" customWidth="1"/>
+    <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>46</v>
       </c>
@@ -16811,62 +17013,62 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
@@ -16874,7 +17076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -16888,7 +17090,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -16906,7 +17108,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="24" t="s">
         <v>68</v>
       </c>
@@ -16921,7 +17123,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
@@ -16933,7 +17135,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="24" t="s">
         <v>73</v>
       </c>
@@ -16945,7 +17147,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="24" t="s">
         <v>74</v>
       </c>
@@ -16959,7 +17161,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
@@ -16974,7 +17176,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="24" t="s">
         <v>80</v>
       </c>
@@ -16986,7 +17188,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B26" s="24" t="s">
         <v>83</v>
       </c>
@@ -17001,7 +17203,7 @@
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" s="24" t="s">
         <v>85</v>
       </c>
@@ -17013,7 +17215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" s="24" t="s">
         <v>86</v>
       </c>
@@ -17022,7 +17224,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>88</v>
       </c>
@@ -17034,7 +17236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>89</v>
       </c>
@@ -17049,7 +17251,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>91</v>
       </c>
@@ -17061,21 +17263,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="28"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -17083,7 +17285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>94</v>
       </c>
@@ -17091,7 +17293,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
         <v>96</v>
       </c>
@@ -17099,7 +17301,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
@@ -17107,7 +17309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40"/>
     </row>
@@ -17120,17 +17322,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>100</v>
       </c>
@@ -17138,7 +17340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -17146,7 +17348,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I5" t="s">
         <v>121</v>
       </c>
@@ -17154,7 +17356,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>103</v>
       </c>
@@ -17165,7 +17367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I7" s="33" t="s">
         <v>135</v>
       </c>
@@ -17173,68 +17375,68 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>106</v>
       </c>
@@ -17242,27 +17444,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
         <v>111</v>
       </c>
@@ -17270,37 +17472,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
         <v>118</v>
       </c>
@@ -17311,7 +17513,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -17319,21 +17521,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17347,7 +17549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17358,7 +17560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17369,7 +17571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17377,7 +17579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17391,7 +17593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17399,7 +17601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -17435,7 +17637,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17446,62 +17648,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -17512,7 +17714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -17528,12 +17730,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17541,14 +17743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -17556,7 +17758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -17565,7 +17767,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -17574,7 +17776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -17583,7 +17785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -17592,7 +17794,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="24">
         <v>7</v>
       </c>
@@ -17601,7 +17803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -17610,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>142</v>
       </c>
@@ -17627,7 +17829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17637,57 +17839,57 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="3.26953125" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="38" width="5.6328125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="3.25" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.15">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -17722,7 +17924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.15">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43252</v>
@@ -17731,7 +17933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.15">
       <c r="I11" s="14">
         <f>I10</f>
         <v>43252</v>
@@ -17856,7 +18058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -17995,7 +18197,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>138</v>
       </c>
@@ -18074,7 +18276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -18115,7 +18317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -18160,7 +18362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -18198,7 +18400,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>143</v>
       </c>
@@ -18244,7 +18446,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -18282,7 +18484,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>144</v>
       </c>
@@ -18326,7 +18528,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -18367,7 +18569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
         <v>145</v>
       </c>
@@ -18414,7 +18616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -18455,7 +18657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -18496,7 +18698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -18537,7 +18739,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -18578,7 +18780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -18619,7 +18821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -18660,7 +18862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -18701,7 +18903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -18742,7 +18944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -18783,7 +18985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -18824,7 +19026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -18865,7 +19067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -18906,7 +19108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -18947,7 +19149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -18988,7 +19190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.15">
       <c r="I36" s="20">
         <f t="shared" ref="I36:AB36" si="2">SUM(I13:I35)</f>
         <v>0</v>
@@ -19113,12 +19315,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -19130,12 +19332,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.15">
       <c r="AM39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
@@ -19167,7 +19369,7 @@
       <c r="AK51"/>
       <c r="AL51"/>
     </row>
-    <row r="54" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -19199,7 +19401,7 @@
       <c r="AK54"/>
       <c r="AL54"/>
     </row>
-    <row r="55" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -19231,7 +19433,7 @@
       <c r="AK55"/>
       <c r="AL55"/>
     </row>
-    <row r="56" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -19263,7 +19465,7 @@
       <c r="AK56"/>
       <c r="AL56"/>
     </row>
-    <row r="57" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -19295,7 +19497,7 @@
       <c r="AK57"/>
       <c r="AL57"/>
     </row>
-    <row r="58" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -19327,7 +19529,7 @@
       <c r="AK58"/>
       <c r="AL58"/>
     </row>
-    <row r="59" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -19359,7 +19561,7 @@
       <c r="AK59"/>
       <c r="AL59"/>
     </row>
-    <row r="60" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -19391,7 +19593,7 @@
       <c r="AK60"/>
       <c r="AL60"/>
     </row>
-    <row r="61" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -19423,7 +19625,7 @@
       <c r="AK61"/>
       <c r="AL61"/>
     </row>
-    <row r="63" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
@@ -19455,7 +19657,7 @@
       <c r="AK63"/>
       <c r="AL63"/>
     </row>
-    <row r="64" spans="9:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:38" x14ac:dyDescent="0.15">
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
@@ -19490,18 +19692,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL35">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:AL11">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>I$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -2271,7 +2271,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2738,91 +2738,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill>
@@ -2914,6 +2830,48 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3361,7 +3319,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3440,7 +3398,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3845,13 +3803,13 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -3859,7 +3817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -3867,7 +3825,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -3875,7 +3833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -3883,7 +3841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -3892,16 +3850,16 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" s="24">
         <v>7</v>
       </c>
       <c r="C7" s="66">
         <f>SUM(WBS!AS66:BW66)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -3910,13 +3868,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" s="24" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
-        <v>173</v>
+        <v>180.5</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3894,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -3946,12 +3904,12 @@
     <col min="10" max="39" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40">
       <c r="AN1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -3959,7 +3917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -3967,7 +3925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3975,7 +3933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -3986,7 +3944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -3994,7 +3952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -4005,7 +3963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -4013,7 +3971,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -4054,7 +4012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43221</v>
@@ -4063,7 +4021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4195,7 +4153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -4338,7 +4296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -4444,7 +4402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4486,7 +4444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4528,7 +4486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4567,7 +4525,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:40">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4606,7 +4564,7 @@
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:40">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4645,7 +4603,7 @@
       <c r="AL18" s="17"/>
       <c r="AM18" s="17"/>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:40">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4684,7 +4642,7 @@
       <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:40">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4726,7 +4684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:40">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4768,7 +4726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:40">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AM22" si="4">SUM(I13:I21)</f>
         <v>4</v>
@@ -4897,12 +4855,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:40">
       <c r="AN23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:40">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -4914,12 +4872,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:40">
       <c r="AN25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:39">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -4952,7 +4910,7 @@
       <c r="AL37"/>
       <c r="AM37"/>
     </row>
-    <row r="40" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:39">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -4985,7 +4943,7 @@
       <c r="AL40"/>
       <c r="AM40"/>
     </row>
-    <row r="41" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:39">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -5018,7 +4976,7 @@
       <c r="AL41"/>
       <c r="AM41"/>
     </row>
-    <row r="42" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:39">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -5051,7 +5009,7 @@
       <c r="AL42"/>
       <c r="AM42"/>
     </row>
-    <row r="43" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:39">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -5084,7 +5042,7 @@
       <c r="AL43"/>
       <c r="AM43"/>
     </row>
-    <row r="44" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:39">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -5117,7 +5075,7 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:39">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -5150,7 +5108,7 @@
       <c r="AL45"/>
       <c r="AM45"/>
     </row>
-    <row r="46" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:39">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -5183,7 +5141,7 @@
       <c r="AL46"/>
       <c r="AM46"/>
     </row>
-    <row r="47" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:39">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -5216,7 +5174,7 @@
       <c r="AL47"/>
       <c r="AM47"/>
     </row>
-    <row r="49" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:39">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -5249,7 +5207,7 @@
       <c r="AL49"/>
       <c r="AM49"/>
     </row>
-    <row r="50" spans="9:39" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:39">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -5285,13 +5243,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AM21">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5311,7 +5269,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -5321,12 +5279,12 @@
     <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -5334,7 +5292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39">
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
@@ -5342,7 +5300,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5350,7 +5308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39">
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
@@ -5361,7 +5319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -5369,7 +5327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -5380,7 +5338,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39">
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -5388,7 +5346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39">
       <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
@@ -5428,7 +5386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43191</v>
@@ -5437,7 +5395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5565,7 +5523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -5704,7 +5662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -5807,7 +5765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5848,7 +5806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -5891,7 +5849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5929,7 +5887,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:39">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5967,7 +5925,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:39">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6005,7 +5963,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:39">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6043,7 +6001,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:39">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6084,7 +6042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:39">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6125,7 +6083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:39">
       <c r="I22" s="20">
         <f t="shared" ref="I22:AL22" si="2">SUM(I13:I21)</f>
         <v>9</v>
@@ -6250,12 +6208,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:39">
       <c r="AM23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:39">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6267,12 +6225,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:39">
       <c r="AM25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:38">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -6304,7 +6262,7 @@
       <c r="AK37"/>
       <c r="AL37"/>
     </row>
-    <row r="40" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:38">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -6336,7 +6294,7 @@
       <c r="AK40"/>
       <c r="AL40"/>
     </row>
-    <row r="41" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:38">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -6368,7 +6326,7 @@
       <c r="AK41"/>
       <c r="AL41"/>
     </row>
-    <row r="42" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:38">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -6400,7 +6358,7 @@
       <c r="AK42"/>
       <c r="AL42"/>
     </row>
-    <row r="43" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:38">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -6432,7 +6390,7 @@
       <c r="AK43"/>
       <c r="AL43"/>
     </row>
-    <row r="44" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:38">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -6464,7 +6422,7 @@
       <c r="AK44"/>
       <c r="AL44"/>
     </row>
-    <row r="45" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:38">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -6496,7 +6454,7 @@
       <c r="AK45"/>
       <c r="AL45"/>
     </row>
-    <row r="46" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:38">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -6528,7 +6486,7 @@
       <c r="AK46"/>
       <c r="AL46"/>
     </row>
-    <row r="47" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:38">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -6560,7 +6518,7 @@
       <c r="AK47"/>
       <c r="AL47"/>
     </row>
-    <row r="49" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:38">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -6592,7 +6550,7 @@
       <c r="AK49"/>
       <c r="AL49"/>
     </row>
-    <row r="50" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:38">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -6627,13 +6585,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL21">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6653,7 +6611,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -6662,47 +6620,47 @@
     <col min="9" max="13" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14">
       <c r="N1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14">
       <c r="N2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14">
       <c r="N3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14">
       <c r="N4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="N5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14">
       <c r="N6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14">
       <c r="N7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14">
       <c r="N8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -6712,7 +6670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="G10" s="12"/>
       <c r="I10" s="13">
         <v>3</v>
@@ -6721,7 +6679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="I11" s="14">
         <v>43185</v>
       </c>
@@ -6745,7 +6703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -6784,7 +6742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -6812,7 +6770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6828,7 +6786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -6846,7 +6804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6859,7 +6817,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6872,7 +6830,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6885,7 +6843,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6898,7 +6856,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6914,7 +6872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6930,7 +6888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14">
       <c r="I22" s="20">
         <f>SUM(I13:I21)</f>
         <v>0</v>
@@ -6955,12 +6913,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14">
       <c r="N23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -6972,82 +6930,82 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14">
       <c r="N25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:13">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:13">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:13">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:13">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:13">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:13">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:13">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:13">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:13">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:13">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:13">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -7057,13 +7015,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:M21">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7081,10 +7039,10 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BV32" sqref="BV32"/>
+      <selection pane="bottomRight" activeCell="BV33" sqref="BV33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="3" width="2.375" style="13" customWidth="1"/>
@@ -7103,7 +7061,7 @@
     <col min="109" max="109" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:109" s="48" customFormat="1">
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="H1" s="13"/>
@@ -7208,7 +7166,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:109" s="48" customFormat="1">
       <c r="B2" s="47" t="s">
         <v>165</v>
       </c>
@@ -7315,7 +7273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:109" s="48" customFormat="1">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
@@ -7423,7 +7381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:109" s="48" customFormat="1">
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="48" t="s">
@@ -7531,7 +7489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:109" s="48" customFormat="1">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="H5" s="13"/>
@@ -7636,7 +7594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:109" s="48" customFormat="1">
       <c r="B6" s="47" t="s">
         <v>168</v>
       </c>
@@ -7743,7 +7701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:109" s="48" customFormat="1">
       <c r="B7" s="47"/>
       <c r="D7" s="47" t="s">
         <v>179</v>
@@ -7852,7 +7810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:109" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:109" s="48" customFormat="1">
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="H8" s="13"/>
@@ -7957,7 +7915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:109">
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -8056,7 +8014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:109">
       <c r="L10" s="12"/>
       <c r="O10" s="38">
         <v>43252</v>
@@ -8074,7 +8032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:109">
       <c r="O11" s="14">
         <f>O10</f>
         <v>43252</v>
@@ -8455,7 +8413,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:109" ht="28.5" customHeight="1">
       <c r="B12" s="68" t="s">
         <v>0</v>
       </c>
@@ -8864,7 +8822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:109">
       <c r="B13" s="39">
         <v>1</v>
       </c>
@@ -8996,7 +8954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:109">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="51" t="s">
@@ -9119,7 +9077,7 @@
       <c r="DC14" s="17"/>
       <c r="DD14" s="17"/>
     </row>
-    <row r="15" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:109">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="51"/>
@@ -9232,7 +9190,7 @@
       <c r="DC15" s="17"/>
       <c r="DD15" s="17"/>
     </row>
-    <row r="16" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:109">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="51"/>
@@ -9343,7 +9301,7 @@
       <c r="DC16" s="17"/>
       <c r="DD16" s="17"/>
     </row>
-    <row r="17" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:109">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="51"/>
@@ -9466,7 +9424,7 @@
       <c r="DC17" s="17"/>
       <c r="DD17" s="17"/>
     </row>
-    <row r="18" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:109">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="51"/>
@@ -9587,7 +9545,7 @@
       <c r="DC18" s="17"/>
       <c r="DD18" s="17"/>
     </row>
-    <row r="19" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:109">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="51"/>
@@ -9708,7 +9666,7 @@
       <c r="DC19" s="17"/>
       <c r="DD19" s="17"/>
     </row>
-    <row r="20" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:109">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="51"/>
@@ -9835,7 +9793,7 @@
       <c r="DC20" s="17"/>
       <c r="DD20" s="17"/>
     </row>
-    <row r="21" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:109">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="51"/>
@@ -9956,7 +9914,7 @@
       <c r="DC21" s="17"/>
       <c r="DD21" s="17"/>
     </row>
-    <row r="22" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:109">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="51"/>
@@ -10079,7 +10037,7 @@
       <c r="DC22" s="17"/>
       <c r="DD22" s="17"/>
     </row>
-    <row r="23" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:109">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="51"/>
@@ -10200,7 +10158,7 @@
       <c r="DC23" s="17"/>
       <c r="DD23" s="17"/>
     </row>
-    <row r="24" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:109">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="51"/>
@@ -10321,7 +10279,7 @@
       <c r="DC24" s="17"/>
       <c r="DD24" s="17"/>
     </row>
-    <row r="25" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:109">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="51"/>
@@ -10432,7 +10390,7 @@
       <c r="DC25" s="17"/>
       <c r="DD25" s="17"/>
     </row>
-    <row r="26" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:109">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="51"/>
@@ -10543,7 +10501,7 @@
       <c r="DC26" s="17"/>
       <c r="DD26" s="17"/>
     </row>
-    <row r="27" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:109">
       <c r="B27" s="39"/>
       <c r="C27" s="39">
         <v>2</v>
@@ -10669,7 +10627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:109">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="51"/>
@@ -10792,7 +10750,7 @@
       <c r="DC28" s="17"/>
       <c r="DD28" s="17"/>
     </row>
-    <row r="29" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:109">
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="51"/>
@@ -10913,7 +10871,7 @@
       <c r="DC29" s="17"/>
       <c r="DD29" s="17"/>
     </row>
-    <row r="30" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:109">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="51"/>
@@ -11040,7 +10998,7 @@
       <c r="DC30" s="17"/>
       <c r="DD30" s="17"/>
     </row>
-    <row r="31" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:109">
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="51"/>
@@ -11161,7 +11119,7 @@
       <c r="DC31" s="17"/>
       <c r="DD31" s="17"/>
     </row>
-    <row r="32" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:109">
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="51"/>
@@ -11185,7 +11143,7 @@
       <c r="L32" s="49"/>
       <c r="M32" s="57">
         <f t="shared" si="53"/>
-        <v>21.5</v>
+        <v>29</v>
       </c>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
@@ -11261,7 +11219,8 @@
         <v>2</v>
       </c>
       <c r="BV32" s="17">
-        <v>4.5</v>
+        <f>4.5+7.5</f>
+        <v>12</v>
       </c>
       <c r="BW32" s="17"/>
       <c r="BX32" s="17"/>
@@ -11298,7 +11257,7 @@
       <c r="DC32" s="17"/>
       <c r="DD32" s="17"/>
     </row>
-    <row r="33" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:108">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="51"/>
@@ -11419,7 +11378,7 @@
       <c r="DC33" s="17"/>
       <c r="DD33" s="17"/>
     </row>
-    <row r="34" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:108">
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="51"/>
@@ -11542,7 +11501,7 @@
       <c r="DC34" s="17"/>
       <c r="DD34" s="17"/>
     </row>
-    <row r="35" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:108">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="51"/>
@@ -11663,7 +11622,7 @@
       <c r="DC35" s="17"/>
       <c r="DD35" s="17"/>
     </row>
-    <row r="36" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:108">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="51"/>
@@ -11788,7 +11747,7 @@
       <c r="DC36" s="17"/>
       <c r="DD36" s="17"/>
     </row>
-    <row r="37" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:108">
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="51"/>
@@ -11909,7 +11868,7 @@
       <c r="DC37" s="17"/>
       <c r="DD37" s="17"/>
     </row>
-    <row r="38" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:108">
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="51"/>
@@ -12030,7 +11989,7 @@
       <c r="DC38" s="17"/>
       <c r="DD38" s="17"/>
     </row>
-    <row r="39" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:108">
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="51"/>
@@ -12151,7 +12110,7 @@
       <c r="DC39" s="17"/>
       <c r="DD39" s="17"/>
     </row>
-    <row r="40" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:108">
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="51"/>
@@ -12262,7 +12221,7 @@
       <c r="DC40" s="17"/>
       <c r="DD40" s="17"/>
     </row>
-    <row r="41" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:108">
       <c r="B41" s="39"/>
       <c r="C41" s="39">
         <v>3</v>
@@ -12387,7 +12346,7 @@
       <c r="DC41" s="17"/>
       <c r="DD41" s="17"/>
     </row>
-    <row r="42" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:108">
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="51"/>
@@ -12498,7 +12457,7 @@
       <c r="DC42" s="17"/>
       <c r="DD42" s="17"/>
     </row>
-    <row r="43" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:108">
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="51"/>
@@ -12619,7 +12578,7 @@
       <c r="DC43" s="17"/>
       <c r="DD43" s="17"/>
     </row>
-    <row r="44" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:108">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="51"/>
@@ -12730,7 +12689,7 @@
       <c r="DC44" s="17"/>
       <c r="DD44" s="17"/>
     </row>
-    <row r="45" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:108">
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="51"/>
@@ -12849,7 +12808,7 @@
       <c r="DC45" s="17"/>
       <c r="DD45" s="17"/>
     </row>
-    <row r="46" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:108">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="51"/>
@@ -12966,7 +12925,7 @@
       <c r="DC46" s="17"/>
       <c r="DD46" s="17"/>
     </row>
-    <row r="47" spans="2:108" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:108" ht="48" customHeight="1">
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
       <c r="D47" s="51"/>
@@ -13077,7 +13036,7 @@
       <c r="DC47" s="17"/>
       <c r="DD47" s="17"/>
     </row>
-    <row r="48" spans="2:108" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:108" ht="27">
       <c r="B48" s="39">
         <v>2</v>
       </c>
@@ -13210,7 +13169,7 @@
       <c r="DC48" s="17"/>
       <c r="DD48" s="17"/>
     </row>
-    <row r="49" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:109">
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="52"/>
@@ -13321,7 +13280,7 @@
       <c r="DC49" s="17"/>
       <c r="DD49" s="17"/>
     </row>
-    <row r="50" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:109">
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="52"/>
@@ -13443,7 +13402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:109">
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="52"/>
@@ -13557,7 +13516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:109">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="52"/>
@@ -13683,7 +13642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:109">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="52"/>
@@ -13797,7 +13756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:109" ht="27">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="52"/>
@@ -13919,7 +13878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:109">
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="52"/>
@@ -14033,7 +13992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:109" ht="27">
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="52"/>
@@ -14165,7 +14124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:109">
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="52"/>
@@ -14279,7 +14238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:109">
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
       <c r="D58" s="52"/>
@@ -14399,7 +14358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:109">
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="52"/>
@@ -14513,7 +14472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:109">
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
       <c r="D60" s="7"/>
@@ -14627,7 +14586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:109">
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
       <c r="D61" s="7"/>
@@ -14741,7 +14700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:109">
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="7"/>
@@ -14855,7 +14814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:109">
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
       <c r="D63" s="7"/>
@@ -14969,7 +14928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:109">
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
       <c r="D64" s="7"/>
@@ -15083,7 +15042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:109">
       <c r="B65" s="40"/>
       <c r="C65" s="40"/>
       <c r="D65" s="8"/>
@@ -15197,10 +15156,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:109">
       <c r="M66" s="54">
         <f>SUM(O66:DD66)</f>
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="O66" s="20">
         <f t="shared" ref="O66:AT66" si="58">SUM(O13:O65)</f>
@@ -15440,7 +15399,7 @@
       </c>
       <c r="BV66" s="20">
         <f t="shared" si="59"/>
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="BW66" s="20">
         <f t="shared" si="59"/>
@@ -15582,12 +15541,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:109">
       <c r="DE67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:109">
       <c r="E68" s="21"/>
       <c r="I68" s="13">
         <v>1.5</v>
@@ -15596,7 +15555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:109">
       <c r="I69" s="13">
         <v>1</v>
       </c>
@@ -15604,12 +15563,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:109">
       <c r="I70" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="81" spans="15:108">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -15705,7 +15664,7 @@
       <c r="DC81"/>
       <c r="DD81"/>
     </row>
-    <row r="84" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="84" spans="15:108">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -15801,7 +15760,7 @@
       <c r="DC84"/>
       <c r="DD84"/>
     </row>
-    <row r="85" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="85" spans="15:108">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -15897,7 +15856,7 @@
       <c r="DC85"/>
       <c r="DD85"/>
     </row>
-    <row r="86" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="86" spans="15:108">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -15993,7 +15952,7 @@
       <c r="DC86"/>
       <c r="DD86"/>
     </row>
-    <row r="87" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="87" spans="15:108">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -16089,7 +16048,7 @@
       <c r="DC87"/>
       <c r="DD87"/>
     </row>
-    <row r="88" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="88" spans="15:108">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -16185,7 +16144,7 @@
       <c r="DC88"/>
       <c r="DD88"/>
     </row>
-    <row r="89" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="89" spans="15:108">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -16281,7 +16240,7 @@
       <c r="DC89"/>
       <c r="DD89"/>
     </row>
-    <row r="90" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="90" spans="15:108">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -16377,7 +16336,7 @@
       <c r="DC90"/>
       <c r="DD90"/>
     </row>
-    <row r="91" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="91" spans="15:108">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -16473,7 +16432,7 @@
       <c r="DC91"/>
       <c r="DD91"/>
     </row>
-    <row r="93" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="93" spans="15:108">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -16569,7 +16528,7 @@
       <c r="DC93"/>
       <c r="DD93"/>
     </row>
-    <row r="94" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="94" spans="15:108">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -16674,253 +16633,253 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O64:BN65 DD64:DD65 O11:BF12 O47:DD49 O26:DD27 O13:DD19 O41:DD44 O21:DD22">
-    <cfRule type="expression" dxfId="81" priority="80">
+    <cfRule type="expression" dxfId="75" priority="80">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="81">
+    <cfRule type="expression" dxfId="74" priority="81">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="82">
+    <cfRule type="expression" dxfId="73" priority="82">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11">
-    <cfRule type="expression" dxfId="78" priority="79">
+    <cfRule type="expression" dxfId="72" priority="79">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:BN63 DD50:DD63">
-    <cfRule type="expression" dxfId="77" priority="76">
+    <cfRule type="expression" dxfId="71" priority="76">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="70" priority="77">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="78">
+    <cfRule type="expression" dxfId="69" priority="78">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO64:DC65">
-    <cfRule type="expression" dxfId="74" priority="73">
+    <cfRule type="expression" dxfId="68" priority="73">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="67" priority="74">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="75">
+    <cfRule type="expression" dxfId="66" priority="75">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO50:DC63">
-    <cfRule type="expression" dxfId="71" priority="69">
+    <cfRule type="expression" dxfId="65" priority="69">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="70">
+    <cfRule type="expression" dxfId="64" priority="70">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="71">
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD12">
-    <cfRule type="expression" dxfId="68" priority="66">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="61" priority="67">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
+    <cfRule type="expression" dxfId="60" priority="68">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DD11">
-    <cfRule type="expression" dxfId="65" priority="65">
+    <cfRule type="expression" dxfId="59" priority="65">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:I65 I46:I55 J28:J38 I41:L45 I26:L27 J47:L65 L28:L38 M41:M65 I40:M40 M25:M38 I21:M22 I13:M19">
-    <cfRule type="expression" dxfId="64" priority="64">
+    <cfRule type="expression" dxfId="58" priority="64">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:DD45">
-    <cfRule type="expression" dxfId="63" priority="61">
+    <cfRule type="expression" dxfId="57" priority="61">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="62">
+    <cfRule type="expression" dxfId="56" priority="62">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="63">
+    <cfRule type="expression" dxfId="55" priority="63">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:L46">
-    <cfRule type="expression" dxfId="60" priority="57">
+    <cfRule type="expression" dxfId="54" priority="57">
       <formula>$J46="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46:AM46 AP46:DD46">
-    <cfRule type="expression" dxfId="59" priority="54">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="55">
+    <cfRule type="expression" dxfId="52" priority="55">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="56">
+    <cfRule type="expression" dxfId="51" priority="56">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="56" priority="51">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>$J25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:L25">
-    <cfRule type="expression" dxfId="55" priority="46">
+    <cfRule type="expression" dxfId="49" priority="46">
       <formula>$J25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:DD25">
-    <cfRule type="expression" dxfId="54" priority="43">
+    <cfRule type="expression" dxfId="48" priority="43">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="44">
+    <cfRule type="expression" dxfId="47" priority="44">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="45">
+    <cfRule type="expression" dxfId="46" priority="45">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:DD40">
-    <cfRule type="expression" dxfId="51" priority="39">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="40">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="41">
+    <cfRule type="expression" dxfId="43" priority="41">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:DD38">
-    <cfRule type="expression" dxfId="48" priority="35">
+    <cfRule type="expression" dxfId="42" priority="35">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="36">
+    <cfRule type="expression" dxfId="41" priority="36">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="37">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K38">
-    <cfRule type="expression" dxfId="45" priority="28">
+    <cfRule type="expression" dxfId="39" priority="28">
       <formula>$J28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I38">
-    <cfRule type="expression" dxfId="44" priority="27">
+    <cfRule type="expression" dxfId="38" priority="27">
       <formula>$J28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="expression" dxfId="43" priority="25">
+    <cfRule type="expression" dxfId="37" priority="25">
       <formula>$J56="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO46">
-    <cfRule type="expression" dxfId="42" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DD23">
-    <cfRule type="expression" dxfId="39" priority="19">
+    <cfRule type="expression" dxfId="33" priority="19">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="20">
+    <cfRule type="expression" dxfId="32" priority="20">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="31" priority="21">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:M23">
-    <cfRule type="expression" dxfId="36" priority="18">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>$J23="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN46">
-    <cfRule type="expression" dxfId="35" priority="15">
+    <cfRule type="expression" dxfId="29" priority="15">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="16">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DD20">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:M20">
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>$J20="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DD24">
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:M24">
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>$J24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39 L39:M39">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>$J39="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:DD39">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$J39="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$J39="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16950,37 +16909,37 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="63" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" s="63" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="63"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="64"/>
     </row>
   </sheetData>
@@ -16995,7 +16954,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
@@ -17005,7 +16964,7 @@
     <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>46</v>
       </c>
@@ -17013,62 +16972,62 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
@@ -17076,7 +17035,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -17090,7 +17049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="165" customHeight="1">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -17108,7 +17067,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>68</v>
       </c>
@@ -17123,7 +17082,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
@@ -17135,7 +17094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="B22" s="24" t="s">
         <v>73</v>
       </c>
@@ -17147,7 +17106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="B23" s="24" t="s">
         <v>74</v>
       </c>
@@ -17161,7 +17120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="54">
       <c r="B24" s="24" t="s">
         <v>77</v>
       </c>
@@ -17176,7 +17135,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="B25" s="24" t="s">
         <v>80</v>
       </c>
@@ -17188,7 +17147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="40.5">
       <c r="B26" s="24" t="s">
         <v>83</v>
       </c>
@@ -17203,7 +17162,7 @@
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="B27" s="24" t="s">
         <v>85</v>
       </c>
@@ -17215,7 +17174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="B28" s="24" t="s">
         <v>86</v>
       </c>
@@ -17224,7 +17183,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="B29" s="27" t="s">
         <v>88</v>
       </c>
@@ -17236,7 +17195,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="B30" s="27" t="s">
         <v>89</v>
       </c>
@@ -17251,7 +17210,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="B31" s="27" t="s">
         <v>91</v>
       </c>
@@ -17263,21 +17222,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="B32" s="28"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -17285,7 +17244,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" s="22" customFormat="1">
       <c r="A37" s="11" t="s">
         <v>94</v>
       </c>
@@ -17293,7 +17252,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" s="22" customFormat="1">
       <c r="A38" s="11" t="s">
         <v>96</v>
       </c>
@@ -17301,7 +17260,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" s="22" customFormat="1">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
@@ -17309,7 +17268,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" s="22" customFormat="1">
       <c r="A40" s="11"/>
       <c r="B40"/>
     </row>
@@ -17327,12 +17286,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>100</v>
       </c>
@@ -17340,7 +17299,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -17348,7 +17307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="I5" t="s">
         <v>121</v>
       </c>
@@ -17356,7 +17315,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>103</v>
       </c>
@@ -17367,7 +17326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="I7" s="33" t="s">
         <v>135</v>
       </c>
@@ -17375,68 +17334,68 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="Q8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="Q9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="R10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="Q11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="32" customFormat="1">
       <c r="B16" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" s="32" customFormat="1">
       <c r="C17" s="32" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" s="32" customFormat="1">
       <c r="B18" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" s="32" customFormat="1">
       <c r="C19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" s="32" customFormat="1"/>
+    <row r="22" spans="2:16" s="30" customFormat="1">
       <c r="B22" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="D24" t="s">
         <v>106</v>
       </c>
@@ -17444,27 +17403,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="E25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="D27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="E28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="E29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="E30" t="s">
         <v>111</v>
       </c>
@@ -17472,37 +17431,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16">
       <c r="D34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16">
       <c r="E35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16">
       <c r="E36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16">
       <c r="D37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16">
       <c r="E38" t="s">
         <v>118</v>
       </c>
@@ -17528,14 +17487,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17549,7 +17508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17560,7 +17519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17571,7 +17530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17579,7 +17538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17593,7 +17552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17601,7 +17560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -17637,7 +17596,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17648,62 +17607,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>2</v>
       </c>
@@ -17714,7 +17673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>3</v>
       </c>
@@ -17735,7 +17694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17748,9 +17707,9 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="35" t="s">
         <v>140</v>
       </c>
@@ -17758,7 +17717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" s="24">
         <v>3</v>
       </c>
@@ -17767,7 +17726,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" s="24">
         <v>4</v>
       </c>
@@ -17776,7 +17735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" s="24">
         <v>5</v>
       </c>
@@ -17785,7 +17744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" s="24">
         <v>6</v>
       </c>
@@ -17794,7 +17753,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" s="24">
         <v>7</v>
       </c>
@@ -17803,7 +17762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3">
       <c r="B8" s="24">
         <v>8</v>
       </c>
@@ -17812,7 +17771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>142</v>
       </c>
@@ -17839,7 +17798,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -17849,47 +17808,47 @@
     <col min="10" max="38" width="5.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:39">
       <c r="AM1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:39">
       <c r="AM2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:39">
       <c r="AM3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:39">
       <c r="AM4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:39">
       <c r="AM5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:39">
       <c r="AM6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:39">
       <c r="AM7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:39">
       <c r="AM8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:39">
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -17924,7 +17883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:39">
       <c r="G10" s="12"/>
       <c r="I10" s="34">
         <v>43252</v>
@@ -17933,7 +17892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:39">
       <c r="I11" s="14">
         <f>I10</f>
         <v>43252</v>
@@ -18058,7 +18017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:39" ht="28.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
@@ -18197,7 +18156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:39">
       <c r="B13" s="6" t="s">
         <v>138</v>
       </c>
@@ -18276,7 +18235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:39">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -18317,7 +18276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:39">
       <c r="B15" s="7" t="s">
         <v>139</v>
       </c>
@@ -18362,7 +18321,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:39">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -18400,7 +18359,7 @@
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:39">
       <c r="B17" s="7" t="s">
         <v>143</v>
       </c>
@@ -18446,7 +18405,7 @@
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:39">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -18484,7 +18443,7 @@
       <c r="AK18" s="17"/>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:39">
       <c r="B19" s="7" t="s">
         <v>144</v>
       </c>
@@ -18528,7 +18487,7 @@
       <c r="AK19" s="17"/>
       <c r="AL19" s="17"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:39">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -18569,7 +18528,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:39">
       <c r="B21" s="7" t="s">
         <v>145</v>
       </c>
@@ -18616,7 +18575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:39">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -18657,7 +18616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:39">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -18698,7 +18657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:39">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -18739,7 +18698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:39">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -18780,7 +18739,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:39">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -18821,7 +18780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:39">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -18862,7 +18821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:39">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -18903,7 +18862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:39">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -18944,7 +18903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:39">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -18985,7 +18944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:39">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -19026,7 +18985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:39">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -19067,7 +19026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:39">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -19108,7 +19067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:39">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -19149,7 +19108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:39">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -19190,7 +19149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:39">
       <c r="I36" s="20">
         <f t="shared" ref="I36:AB36" si="2">SUM(I13:I35)</f>
         <v>0</v>
@@ -19315,12 +19274,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:39">
       <c r="AM37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:39">
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -19332,12 +19291,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:39">
       <c r="AM39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="51" spans="9:38">
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
@@ -19369,7 +19328,7 @@
       <c r="AK51"/>
       <c r="AL51"/>
     </row>
-    <row r="54" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="54" spans="9:38">
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -19401,7 +19360,7 @@
       <c r="AK54"/>
       <c r="AL54"/>
     </row>
-    <row r="55" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="55" spans="9:38">
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -19433,7 +19392,7 @@
       <c r="AK55"/>
       <c r="AL55"/>
     </row>
-    <row r="56" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="56" spans="9:38">
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -19465,7 +19424,7 @@
       <c r="AK56"/>
       <c r="AL56"/>
     </row>
-    <row r="57" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="57" spans="9:38">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -19497,7 +19456,7 @@
       <c r="AK57"/>
       <c r="AL57"/>
     </row>
-    <row r="58" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="58" spans="9:38">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -19529,7 +19488,7 @@
       <c r="AK58"/>
       <c r="AL58"/>
     </row>
-    <row r="59" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="59" spans="9:38">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -19561,7 +19520,7 @@
       <c r="AK59"/>
       <c r="AL59"/>
     </row>
-    <row r="60" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="60" spans="9:38">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -19593,7 +19552,7 @@
       <c r="AK60"/>
       <c r="AL60"/>
     </row>
-    <row r="61" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="61" spans="9:38">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -19625,7 +19584,7 @@
       <c r="AK61"/>
       <c r="AL61"/>
     </row>
-    <row r="63" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="63" spans="9:38">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
@@ -19657,7 +19616,7 @@
       <c r="AK63"/>
       <c r="AL63"/>
     </row>
-    <row r="64" spans="9:38" x14ac:dyDescent="0.15">
+    <row r="64" spans="9:38">
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
@@ -19692,18 +19651,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I11:AL35">
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>I$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>I$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>I$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:AL11">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>I$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -3319,7 +3319,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,7 +3398,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="C8" s="66">
         <f>SUM(WBS!BX66:DD66)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
-        <v>180.5</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -7039,7 +7039,7 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BV33" sqref="BV33"/>
+      <selection pane="bottomRight" activeCell="BY33" sqref="BY33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11143,7 +11143,7 @@
       <c r="L32" s="49"/>
       <c r="M32" s="57">
         <f t="shared" si="53"/>
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
@@ -11224,7 +11224,9 @@
       </c>
       <c r="BW32" s="17"/>
       <c r="BX32" s="17"/>
-      <c r="BY32" s="17"/>
+      <c r="BY32" s="17">
+        <v>1.5</v>
+      </c>
       <c r="BZ32" s="17"/>
       <c r="CA32" s="17"/>
       <c r="CB32" s="17"/>
@@ -15159,7 +15161,7 @@
     <row r="66" spans="2:109">
       <c r="M66" s="54">
         <f>SUM(O66:DD66)</f>
-        <v>90</v>
+        <v>91.5</v>
       </c>
       <c r="O66" s="20">
         <f t="shared" ref="O66:AT66" si="58">SUM(O13:O65)</f>
@@ -15411,7 +15413,7 @@
       </c>
       <c r="BY66" s="20">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BZ66" s="20">
         <f t="shared" si="59"/>

--- a/99.work/TODOList.xlsx
+++ b/99.work/TODOList.xlsx
@@ -3319,7 +3319,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,7 +3398,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="C8" s="66">
         <f>SUM(WBS!BX66:DD66)</f>
-        <v>1.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="C9" s="67">
         <f>SUM(C3:C8)</f>
-        <v>182</v>
+        <v>190.5</v>
       </c>
     </row>
   </sheetData>
@@ -7039,7 +7039,7 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BY33" sqref="BY33"/>
+      <selection pane="bottomRight" activeCell="CA31" sqref="CA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11022,7 +11022,7 @@
       <c r="L31" s="49"/>
       <c r="M31" s="57">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
@@ -11088,7 +11088,9 @@
       <c r="BX31" s="17"/>
       <c r="BY31" s="17"/>
       <c r="BZ31" s="17"/>
-      <c r="CA31" s="17"/>
+      <c r="CA31" s="17">
+        <v>8.5</v>
+      </c>
       <c r="CB31" s="17"/>
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
@@ -15161,7 +15163,7 @@
     <row r="66" spans="2:109">
       <c r="M66" s="54">
         <f>SUM(O66:DD66)</f>
-        <v>91.5</v>
+        <v>100</v>
       </c>
       <c r="O66" s="20">
         <f t="shared" ref="O66:AT66" si="58">SUM(O13:O65)</f>
@@ -15421,7 +15423,7 @@
       </c>
       <c r="CA66" s="20">
         <f t="shared" ref="CA66:DD66" si="60">SUM(CA13:CA65)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="CB66" s="20">
         <f t="shared" si="60"/>
